--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683DB540-BE02-4362-BC7A-5E1945E364E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6C177F-A2F8-403B-BCA7-84F745D00E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1867,7 +1867,7 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2434,20 +2434,44 @@
       <c r="A38" t="s">
         <v>102</v>
       </c>
+      <c r="B38" s="5">
+        <v>14.9251</v>
+      </c>
+      <c r="C38" s="5">
+        <v>0.81540000000000001</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>103</v>
       </c>
+      <c r="B39" s="5">
+        <v>14.056699999999999</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0.69310000000000005</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>104</v>
       </c>
+      <c r="B40" s="5">
+        <v>14.311999999999999</v>
+      </c>
+      <c r="C40" s="5">
+        <v>0.79039999999999999</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>105</v>
+      </c>
+      <c r="B41" s="5">
+        <v>5.6669999999999998</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0.57389999999999997</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">

--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6C177F-A2F8-403B-BCA7-84F745D00E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4B78E3-3C62-4078-A340-4D5732F783E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="119">
   <si>
     <t>PSNR</t>
   </si>
@@ -450,6 +450,21 @@
   </si>
   <si>
     <t>V7.22.8</t>
+  </si>
+  <si>
+    <t>Shadow Remap</t>
+  </si>
+  <si>
+    <t>V1.02.8</t>
+  </si>
+  <si>
+    <t>V1.02.5</t>
+  </si>
+  <si>
+    <t>V1.02.6</t>
+  </si>
+  <si>
+    <t>V1.02.7</t>
   </si>
 </sst>
 </file>
@@ -557,7 +572,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1797,64 +1832,64 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="L3:L15">
-    <cfRule type="top10" dxfId="25" priority="24" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="27" priority="24" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O13">
-    <cfRule type="top10" dxfId="24" priority="23" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="26" priority="23" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I19 I21:I1048576">
-    <cfRule type="top10" dxfId="23" priority="22" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="25" priority="22" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H19 H21:H1048576">
-    <cfRule type="top10" dxfId="22" priority="21" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="24" priority="21" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G19 G21:G1048576">
-    <cfRule type="top10" dxfId="21" priority="20" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="23" priority="20" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="top10" dxfId="20" priority="19" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="22" priority="19" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="top10" dxfId="19" priority="18" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="21" priority="18" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="top10" dxfId="18" priority="17" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="20" priority="17" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:G31">
-    <cfRule type="top10" dxfId="17" priority="12" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="19" priority="12" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:H32">
-    <cfRule type="top10" dxfId="16" priority="11" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="18" priority="11" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:I32">
-    <cfRule type="top10" dxfId="15" priority="10" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="17" priority="10" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1">
-    <cfRule type="top10" dxfId="14" priority="9" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="16" priority="9" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1">
-    <cfRule type="top10" dxfId="13" priority="8" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="15" priority="8" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1">
-    <cfRule type="top10" dxfId="12" priority="7" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="14" priority="7" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2">
-    <cfRule type="top10" dxfId="11" priority="6" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="13" priority="6" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2">
-    <cfRule type="top10" dxfId="10" priority="5" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="12" priority="5" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2">
-    <cfRule type="top10" dxfId="9" priority="4" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="11" priority="4" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="top10" dxfId="8" priority="3" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="10" priority="3" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1048576">
-    <cfRule type="top10" dxfId="7" priority="2" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="9" priority="2" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1048576">
-    <cfRule type="top10" dxfId="6" priority="1" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="8" priority="1" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1864,10 +1899,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C3ACB0-2CD7-4C40-8065-6A5C0AF1D9C4}">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1880,9 +1915,12 @@
     <col min="9" max="9" width="15.5703125" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" style="5" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="5"/>
+    <col min="13" max="13" width="19.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -1912,8 +1950,17 @@
       <c r="K1" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -1932,8 +1979,11 @@
       <c r="G2" s="9">
         <v>0.71689999999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -1946,8 +1996,11 @@
       <c r="G3" s="9">
         <v>0.71689999999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -1961,8 +2014,11 @@
         <v>0.7359</v>
       </c>
       <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -1975,8 +2031,11 @@
       <c r="G5" s="9">
         <v>0.74690000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -2005,7 +2064,7 @@
         <v>0.6835</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -2018,7 +2077,7 @@
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -2037,7 +2096,7 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>72</v>
       </c>
@@ -2056,7 +2115,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -2085,7 +2144,7 @@
         <v>0.76429999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>74</v>
       </c>
@@ -2104,7 +2163,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -2123,7 +2182,7 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -2142,7 +2201,7 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -2171,7 +2230,7 @@
         <v>0.63670000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -2200,7 +2259,7 @@
         <v>0.64510000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>79</v>
       </c>
@@ -2541,22 +2600,28 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F1:F100">
+    <cfRule type="top10" dxfId="7" priority="11" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G100">
+    <cfRule type="top10" dxfId="6" priority="10" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J1048576">
     <cfRule type="top10" dxfId="5" priority="9" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G100">
+  <conditionalFormatting sqref="K1:K1048576">
     <cfRule type="top10" dxfId="4" priority="8" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="top10" dxfId="3" priority="7" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="top10" dxfId="2" priority="6" percent="1" rank="10"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B47:B1048576 B1:B45">
-    <cfRule type="top10" dxfId="1" priority="2" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="3" priority="4" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C1048576 C1:C45">
-    <cfRule type="top10" dxfId="0" priority="1" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="2" priority="3" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1">
+    <cfRule type="top10" dxfId="1" priority="2" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1">
+    <cfRule type="top10" dxfId="0" priority="1" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4B78E3-3C62-4078-A340-4D5732F783E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB231AD6-880B-448E-91E6-F5A64C32F9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="8" r:id="rId2"/>
+    <sheet name="Maps 2 RGB" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -107,8 +108,43 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Neil Patrick  A. Del Gallego</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{58E97D53-181A-45A8-9A4E-7F9FA955595A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Neil Patrick  A. Del Gallego:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Check image-specific reconstruction, not RGB.
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="130">
   <si>
     <t>PSNR</t>
   </si>
@@ -465,6 +501,39 @@
   </si>
   <si>
     <t>V1.02.7</t>
+  </si>
+  <si>
+    <t>V1.01.6</t>
+  </si>
+  <si>
+    <t>V1.01.7</t>
+  </si>
+  <si>
+    <t>V1.01.8</t>
+  </si>
+  <si>
+    <t>Shading</t>
+  </si>
+  <si>
+    <t>Albedo</t>
+  </si>
+  <si>
+    <t>Shadow</t>
+  </si>
+  <si>
+    <t>RGB</t>
+  </si>
+  <si>
+    <t>V2.00.5</t>
+  </si>
+  <si>
+    <t>V2.00.6</t>
+  </si>
+  <si>
+    <t>V2.00.7</t>
+  </si>
+  <si>
+    <t>V2.00.8</t>
   </si>
 </sst>
 </file>
@@ -572,7 +641,107 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="38">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1832,64 +2001,64 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="L3:L15">
-    <cfRule type="top10" dxfId="27" priority="24" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="37" priority="24" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O13">
-    <cfRule type="top10" dxfId="26" priority="23" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="36" priority="23" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I19 I21:I1048576">
-    <cfRule type="top10" dxfId="25" priority="22" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="35" priority="22" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H19 H21:H1048576">
-    <cfRule type="top10" dxfId="24" priority="21" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="34" priority="21" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G19 G21:G1048576">
-    <cfRule type="top10" dxfId="23" priority="20" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="33" priority="20" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="top10" dxfId="22" priority="19" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="32" priority="19" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="top10" dxfId="21" priority="18" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="31" priority="18" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="top10" dxfId="20" priority="17" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="30" priority="17" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:G31">
-    <cfRule type="top10" dxfId="19" priority="12" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="29" priority="12" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:H32">
-    <cfRule type="top10" dxfId="18" priority="11" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="28" priority="11" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:I32">
-    <cfRule type="top10" dxfId="17" priority="10" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="27" priority="10" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1">
-    <cfRule type="top10" dxfId="16" priority="9" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="26" priority="9" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1">
-    <cfRule type="top10" dxfId="15" priority="8" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="25" priority="8" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1">
-    <cfRule type="top10" dxfId="14" priority="7" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="24" priority="7" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2">
-    <cfRule type="top10" dxfId="13" priority="6" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="23" priority="6" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2">
-    <cfRule type="top10" dxfId="12" priority="5" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="22" priority="5" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2">
-    <cfRule type="top10" dxfId="11" priority="4" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="21" priority="4" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="top10" dxfId="10" priority="3" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="20" priority="3" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1048576">
-    <cfRule type="top10" dxfId="9" priority="2" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="19" priority="2" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1048576">
-    <cfRule type="top10" dxfId="8" priority="1" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="18" priority="1" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1901,8 +2070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C3ACB0-2CD7-4C40-8065-6A5C0AF1D9C4}">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1916,8 +2085,8 @@
     <col min="10" max="10" width="12.42578125" style="5" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="5"/>
     <col min="13" max="13" width="19.42578125" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -1980,7 +2149,13 @@
         <v>0.71689999999999998</v>
       </c>
       <c r="M2" t="s">
-        <v>116</v>
+        <v>19</v>
+      </c>
+      <c r="N2" s="5">
+        <v>8.3172999999999995</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0.76339999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1997,7 +2172,13 @@
         <v>0.71689999999999998</v>
       </c>
       <c r="M3" t="s">
-        <v>117</v>
+        <v>119</v>
+      </c>
+      <c r="N3" s="5">
+        <v>10.18</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0.76329999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -2015,7 +2196,13 @@
       </c>
       <c r="H4" s="7"/>
       <c r="M4" t="s">
-        <v>118</v>
+        <v>120</v>
+      </c>
+      <c r="N4" s="5">
+        <v>8.8404000000000007</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0.70250000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -2032,7 +2219,13 @@
         <v>0.74690000000000001</v>
       </c>
       <c r="M5" t="s">
-        <v>115</v>
+        <v>121</v>
+      </c>
+      <c r="N5" s="5">
+        <v>7.7416999999999998</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0.76100000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -2063,6 +2256,15 @@
       <c r="K6" s="9">
         <v>0.6835</v>
       </c>
+      <c r="M6" t="s">
+        <v>116</v>
+      </c>
+      <c r="N6" s="5">
+        <v>7.4988999999999999</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0.74399999999999999</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2076,6 +2278,15 @@
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
+      <c r="M7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N7" s="5">
+        <v>10.4199</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0.81779999999999997</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2095,6 +2306,15 @@
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
+      <c r="M8" t="s">
+        <v>118</v>
+      </c>
+      <c r="N8" s="5">
+        <v>8.4185999999999996</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0.79269999999999996</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2114,6 +2334,15 @@
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
+      <c r="M9" t="s">
+        <v>115</v>
+      </c>
+      <c r="N9" s="5">
+        <v>7.5163000000000002</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0.76790000000000003</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2600,27 +2829,193 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F1:F100">
-    <cfRule type="top10" dxfId="7" priority="11" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="17" priority="13" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G100">
-    <cfRule type="top10" dxfId="6" priority="10" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="16" priority="12" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="top10" dxfId="5" priority="9" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="15" priority="11" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="top10" dxfId="4" priority="8" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="14" priority="10" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:B1048576 B1:B45">
+    <cfRule type="top10" dxfId="13" priority="6" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47:C1048576 C1:C45">
+    <cfRule type="top10" dxfId="12" priority="5" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1">
+    <cfRule type="top10" dxfId="11" priority="4" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1">
+    <cfRule type="top10" dxfId="10" priority="3" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1048576">
+    <cfRule type="top10" dxfId="9" priority="2" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1048576">
+    <cfRule type="top10" dxfId="8" priority="1" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB7FCCD-6DEF-4489-B535-F792B4F2F5DA}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="9" width="11" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3">
+        <v>17.872399999999999</v>
+      </c>
+      <c r="C3">
+        <v>0.83620000000000005</v>
+      </c>
+      <c r="D3">
+        <v>19.041</v>
+      </c>
+      <c r="E3">
+        <v>0.88360000000000005</v>
+      </c>
+      <c r="F3">
+        <v>16.894400000000001</v>
+      </c>
+      <c r="G3">
+        <v>0.84240000000000004</v>
+      </c>
+      <c r="H3">
+        <v>24.302600000000002</v>
+      </c>
+      <c r="I3">
+        <v>0.9042</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4">
+        <v>17.502800000000001</v>
+      </c>
+      <c r="C4">
+        <v>0.84709999999999996</v>
+      </c>
+      <c r="D4">
+        <v>19.226800000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.88639999999999997</v>
+      </c>
+      <c r="F4">
+        <v>14.5817</v>
+      </c>
+      <c r="G4">
+        <v>0.83250000000000002</v>
+      </c>
+      <c r="H4">
+        <v>24.2653</v>
+      </c>
+      <c r="I4">
+        <v>0.9103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="top10" dxfId="7" priority="8" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="top10" dxfId="6" priority="7" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2">
+    <cfRule type="top10" dxfId="5" priority="6" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2">
+    <cfRule type="top10" dxfId="4" priority="5" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2">
     <cfRule type="top10" dxfId="3" priority="4" percent="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C47:C1048576 C1:C45">
+  <conditionalFormatting sqref="C2">
     <cfRule type="top10" dxfId="2" priority="3" percent="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1">
+  <conditionalFormatting sqref="H2">
     <cfRule type="top10" dxfId="1" priority="2" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1">
+  <conditionalFormatting sqref="I2">
     <cfRule type="top10" dxfId="0" priority="1" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB231AD6-880B-448E-91E6-F5A64C32F9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B9D998-1171-4697-9328-52CC1BFE3AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="141">
   <si>
     <t>PSNR</t>
   </si>
@@ -534,6 +534,39 @@
   </si>
   <si>
     <t>V2.00.8</t>
+  </si>
+  <si>
+    <t>V8.07.5</t>
+  </si>
+  <si>
+    <t>V8.07.6</t>
+  </si>
+  <si>
+    <t>V8.07.7</t>
+  </si>
+  <si>
+    <t>V8.07.8</t>
+  </si>
+  <si>
+    <t>V1.05.6</t>
+  </si>
+  <si>
+    <t>V1.05.5</t>
+  </si>
+  <si>
+    <t>V1.05.7</t>
+  </si>
+  <si>
+    <t>V1.05.8</t>
+  </si>
+  <si>
+    <t>V1.06.6</t>
+  </si>
+  <si>
+    <t>V1.06.7</t>
+  </si>
+  <si>
+    <t>V1.06.8</t>
   </si>
 </sst>
 </file>
@@ -593,7 +626,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -603,6 +636,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,7 +658,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -637,11 +676,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="40">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2001,64 +2061,64 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="L3:L15">
-    <cfRule type="top10" dxfId="37" priority="24" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="39" priority="24" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O13">
-    <cfRule type="top10" dxfId="36" priority="23" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="38" priority="23" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I19 I21:I1048576">
-    <cfRule type="top10" dxfId="35" priority="22" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="37" priority="22" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H19 H21:H1048576">
-    <cfRule type="top10" dxfId="34" priority="21" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="36" priority="21" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G19 G21:G1048576">
-    <cfRule type="top10" dxfId="33" priority="20" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="35" priority="20" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="top10" dxfId="32" priority="19" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="34" priority="19" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="top10" dxfId="31" priority="18" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="33" priority="18" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="top10" dxfId="30" priority="17" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="32" priority="17" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:G31">
-    <cfRule type="top10" dxfId="29" priority="12" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="31" priority="12" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:H32">
-    <cfRule type="top10" dxfId="28" priority="11" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="30" priority="11" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:I32">
-    <cfRule type="top10" dxfId="27" priority="10" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="29" priority="10" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1">
-    <cfRule type="top10" dxfId="26" priority="9" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="28" priority="9" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1">
-    <cfRule type="top10" dxfId="25" priority="8" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="27" priority="8" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1">
-    <cfRule type="top10" dxfId="24" priority="7" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="26" priority="7" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2">
-    <cfRule type="top10" dxfId="23" priority="6" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="25" priority="6" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2">
-    <cfRule type="top10" dxfId="22" priority="5" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="24" priority="5" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2">
-    <cfRule type="top10" dxfId="21" priority="4" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="23" priority="4" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="top10" dxfId="20" priority="3" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="22" priority="3" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1048576">
-    <cfRule type="top10" dxfId="19" priority="2" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="21" priority="2" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1048576">
-    <cfRule type="top10" dxfId="18" priority="1" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="20" priority="1" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2070,8 +2130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C3ACB0-2CD7-4C40-8065-6A5C0AF1D9C4}">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2273,6 +2333,8 @@
       <c r="E7" t="s">
         <v>50</v>
       </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="I7" t="s">
         <v>50</v>
       </c>
@@ -2301,6 +2363,8 @@
       <c r="E8" t="s">
         <v>51</v>
       </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="I8" t="s">
         <v>51</v>
       </c>
@@ -2329,6 +2393,8 @@
       <c r="E9" t="s">
         <v>52</v>
       </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
       <c r="I9" t="s">
         <v>52</v>
       </c>
@@ -2372,6 +2438,9 @@
       <c r="K10" s="9">
         <v>0.76429999999999998</v>
       </c>
+      <c r="M10" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2391,6 +2460,9 @@
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
+      <c r="M11" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2410,6 +2482,9 @@
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
+      <c r="M12" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2429,6 +2504,9 @@
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
+      <c r="M13" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2458,6 +2536,15 @@
       <c r="K14" s="9">
         <v>0.63670000000000004</v>
       </c>
+      <c r="M14" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" s="5">
+        <v>7.3543000000000003</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0.71240000000000003</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2487,6 +2574,15 @@
       <c r="K15" s="5">
         <v>0.64510000000000001</v>
       </c>
+      <c r="M15" t="s">
+        <v>138</v>
+      </c>
+      <c r="N15" s="5">
+        <v>8.1047999999999991</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0.71909999999999996</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2504,8 +2600,11 @@
       <c r="I16" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>80</v>
       </c>
@@ -2521,8 +2620,11 @@
       <c r="I17" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>82</v>
       </c>
@@ -2539,7 +2641,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -2556,7 +2658,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>84</v>
       </c>
@@ -2573,7 +2675,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -2590,7 +2692,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -2600,8 +2702,17 @@
       <c r="C22" s="5">
         <v>0.74909999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" s="11">
+        <v>15.976000000000001</v>
+      </c>
+      <c r="G22" s="11">
+        <v>0.83240000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -2611,8 +2722,11 @@
       <c r="C23" s="5">
         <v>0.72409999999999997</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>88</v>
       </c>
@@ -2622,8 +2736,17 @@
       <c r="C24" s="5">
         <v>0.73939999999999995</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" s="11">
+        <v>17.211200000000002</v>
+      </c>
+      <c r="G24" s="11">
+        <v>0.80300000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>89</v>
       </c>
@@ -2633,8 +2756,17 @@
       <c r="C25" s="5">
         <v>0.69399999999999995</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>133</v>
+      </c>
+      <c r="F25" s="11">
+        <v>14.835699999999999</v>
+      </c>
+      <c r="G25" s="11">
+        <v>0.80479999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>90</v>
       </c>
@@ -2645,7 +2777,7 @@
         <v>0.62780000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>91</v>
       </c>
@@ -2656,7 +2788,7 @@
         <v>0.59799999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>92</v>
       </c>
@@ -2667,7 +2799,7 @@
         <v>0.68899999999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>93</v>
       </c>
@@ -2678,45 +2810,61 @@
         <v>0.6179</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>96</v>
       </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>97</v>
       </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>98</v>
       </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>99</v>
       </c>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>100</v>
       </c>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>101</v>
       </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -2828,35 +2976,41 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="F1:F100">
+  <conditionalFormatting sqref="F1:F6 F10:F100">
+    <cfRule type="top10" dxfId="19" priority="15" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G6 G10:G100">
+    <cfRule type="top10" dxfId="18" priority="14" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J1048576">
     <cfRule type="top10" dxfId="17" priority="13" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G100">
+  <conditionalFormatting sqref="K1:K1048576">
     <cfRule type="top10" dxfId="16" priority="12" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="top10" dxfId="15" priority="11" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="top10" dxfId="14" priority="10" percent="1" rank="10"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B47:B1048576 B1:B45">
-    <cfRule type="top10" dxfId="13" priority="6" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="15" priority="8" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C1048576 C1:C45">
-    <cfRule type="top10" dxfId="12" priority="5" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="14" priority="7" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1">
+    <cfRule type="top10" dxfId="13" priority="6" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1">
+    <cfRule type="top10" dxfId="12" priority="5" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N17:N1048576 N1:N15">
     <cfRule type="top10" dxfId="11" priority="4" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1">
+  <conditionalFormatting sqref="O17:O1048576 O1:O15">
     <cfRule type="top10" dxfId="10" priority="3" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="top10" dxfId="9" priority="2" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="top10" dxfId="8" priority="1" percent="1" rank="10"/>
+  <conditionalFormatting sqref="F7:F9">
+    <cfRule type="top10" dxfId="9" priority="2" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:G9">
+    <cfRule type="top10" dxfId="8" priority="1" percent="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2868,7 +3022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB7FCCD-6DEF-4489-B535-F792B4F2F5DA}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>

--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B9D998-1171-4697-9328-52CC1BFE3AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AEA069-E711-4E99-A104-26AF2812ECBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="146">
   <si>
     <t>PSNR</t>
   </si>
@@ -567,6 +567,21 @@
   </si>
   <si>
     <t>V1.06.8</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>V1.07.5</t>
+  </si>
+  <si>
+    <t>V1.07.6</t>
+  </si>
+  <si>
+    <t>V1.07.7</t>
+  </si>
+  <si>
+    <t>V1.07.8</t>
   </si>
 </sst>
 </file>
@@ -673,10 +688,10 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1400,38 +1415,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="F1" s="12" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="F1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="K1" s="12" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="K1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="12"/>
+      <c r="L1" s="13"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="12"/>
+      <c r="O1" s="13"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="R1" s="2"/>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2131,7 +2146,7 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2333,8 +2348,8 @@
       <c r="E7" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
       <c r="I7" t="s">
         <v>50</v>
       </c>
@@ -2363,8 +2378,8 @@
       <c r="E8" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
       <c r="I8" t="s">
         <v>51</v>
       </c>
@@ -2393,8 +2408,8 @@
       <c r="E9" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
       <c r="I9" t="s">
         <v>52</v>
       </c>
@@ -2441,6 +2456,12 @@
       <c r="M10" t="s">
         <v>135</v>
       </c>
+      <c r="N10" s="5">
+        <v>11.668799999999999</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0.78320000000000001</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2463,6 +2484,12 @@
       <c r="M11" t="s">
         <v>134</v>
       </c>
+      <c r="N11" s="5">
+        <v>11.763299999999999</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0.8357</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2485,6 +2512,12 @@
       <c r="M12" t="s">
         <v>136</v>
       </c>
+      <c r="N12" s="5">
+        <v>9.4975000000000005</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0.7722</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2507,6 +2540,12 @@
       <c r="M13" t="s">
         <v>137</v>
       </c>
+      <c r="N13" s="5">
+        <v>10.1137</v>
+      </c>
+      <c r="O13" s="5">
+        <v>0.79610000000000003</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2603,8 +2642,14 @@
       <c r="M16" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>80</v>
       </c>
@@ -2623,8 +2668,14 @@
       <c r="M17" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>82</v>
       </c>
@@ -2640,8 +2691,17 @@
       <c r="I18" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>142</v>
+      </c>
+      <c r="N18" s="5">
+        <v>9.3048000000000002</v>
+      </c>
+      <c r="O18" s="5">
+        <v>0.77929999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -2657,8 +2717,17 @@
       <c r="I19" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>143</v>
+      </c>
+      <c r="N19" s="5">
+        <v>8.7856000000000005</v>
+      </c>
+      <c r="O19" s="5">
+        <v>0.78190000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>84</v>
       </c>
@@ -2674,8 +2743,11 @@
       <c r="I20" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -2691,8 +2763,11 @@
       <c r="I21" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -2712,7 +2787,7 @@
         <v>0.83240000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -2726,7 +2801,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>88</v>
       </c>
@@ -2746,7 +2821,7 @@
         <v>0.80300000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>89</v>
       </c>
@@ -2766,7 +2841,7 @@
         <v>0.80479999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>90</v>
       </c>
@@ -2777,7 +2852,7 @@
         <v>0.62780000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>91</v>
       </c>
@@ -2788,7 +2863,7 @@
         <v>0.59799999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>92</v>
       </c>
@@ -2799,7 +2874,7 @@
         <v>0.68899999999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>93</v>
       </c>
@@ -2810,61 +2885,61 @@
         <v>0.6179</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>95</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>97</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>98</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>99</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>100</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>101</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -3023,7 +3098,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AEA069-E711-4E99-A104-26AF2812ECBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC09F997-D82A-4291-9023-D8AD8AA051AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="150">
   <si>
     <t>PSNR</t>
   </si>
@@ -582,6 +582,18 @@
   </si>
   <si>
     <t>V1.07.8</t>
+  </si>
+  <si>
+    <t>V3.00.5</t>
+  </si>
+  <si>
+    <t>V3.00.6</t>
+  </si>
+  <si>
+    <t>V3.00.7</t>
+  </si>
+  <si>
+    <t>V3.00.8</t>
   </si>
 </sst>
 </file>
@@ -2145,8 +2157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C3ACB0-2CD7-4C40-8065-6A5C0AF1D9C4}">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2746,6 +2758,12 @@
       <c r="M20" t="s">
         <v>144</v>
       </c>
+      <c r="N20" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -2765,6 +2783,12 @@
       </c>
       <c r="M21" t="s">
         <v>145</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -3095,10 +3119,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB7FCCD-6DEF-4489-B535-F792B4F2F5DA}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3215,10 +3239,78 @@
       <c r="A5" t="s">
         <v>128</v>
       </c>
+      <c r="B5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" t="s">
+        <v>141</v>
+      </c>
+      <c r="H5" t="s">
+        <v>141</v>
+      </c>
+      <c r="I5" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>129</v>
+      </c>
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H6" t="s">
+        <v>141</v>
+      </c>
+      <c r="I6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC09F997-D82A-4291-9023-D8AD8AA051AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D870AF2-EEAC-49CF-A102-2A2B19DC3851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="427" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="8" r:id="rId2"/>
     <sheet name="Maps 2 RGB" sheetId="9" r:id="rId3"/>
+    <sheet name="GTA V Images" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -143,8 +144,193 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Neil Patrick  A. Del Gallego</author>
+  </authors>
+  <commentList>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{B4B3E281-9110-47D4-BA31-339CFB884838}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Neil Patrick  A. Del Gallego:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Check image-specific reconstruction, not RGB.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{3A688B25-E717-4102-BC1E-8553E4EEDB4D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Neil Patrick  A. Del Gallego:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Check image-specific reconstruction, not RGB.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{E04C5B39-0BFF-49A0-8324-66F643751F79}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Neil Patrick  A. Del Gallego:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Check image-specific reconstruction, not RGB.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{3186612B-4AE9-42BD-9267-7497DCEC16A2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Neil Patrick  A. Del Gallego:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Check image-specific reconstruction, not RGB.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{F57B4E8A-99B3-45C3-8336-732806698F32}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Neil Patrick  A. Del Gallego:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Check image-specific reconstruction, not RGB.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC2" authorId="0" shapeId="0" xr:uid="{092728A2-86C5-4AEE-A9AF-BC08FF17E5DA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Neil Patrick  A. Del Gallego:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Check image-specific reconstruction, not RGB.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH2" authorId="0" shapeId="0" xr:uid="{4072FB4A-5374-4D7F-8012-AC4E1ADC91AE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Neil Patrick  A. Del Gallego:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Check image-specific reconstruction, not RGB.
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="162">
   <si>
     <t>PSNR</t>
   </si>
@@ -594,6 +780,42 @@
   </si>
   <si>
     <t>V3.00.8</t>
+  </si>
+  <si>
+    <t>li_eccv18</t>
+  </si>
+  <si>
+    <t>yu_cvpr19</t>
+  </si>
+  <si>
+    <t>yu_eccv20</t>
+  </si>
+  <si>
+    <t>zhu_iccp21</t>
+  </si>
+  <si>
+    <t>Image 1</t>
+  </si>
+  <si>
+    <t>Ours</t>
+  </si>
+  <si>
+    <t>Image 2</t>
+  </si>
+  <si>
+    <t>Image 3</t>
+  </si>
+  <si>
+    <t>Image 4</t>
+  </si>
+  <si>
+    <t>Image 0</t>
+  </si>
+  <si>
+    <t>Image 5</t>
+  </si>
+  <si>
+    <t>Mean</t>
   </si>
 </sst>
 </file>
@@ -708,7 +930,407 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="80">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2088,64 +2710,64 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="L3:L15">
-    <cfRule type="top10" dxfId="39" priority="24" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="79" priority="24" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O13">
-    <cfRule type="top10" dxfId="38" priority="23" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="78" priority="23" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I19 I21:I1048576">
-    <cfRule type="top10" dxfId="37" priority="22" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="77" priority="22" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H19 H21:H1048576">
-    <cfRule type="top10" dxfId="36" priority="21" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="76" priority="21" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G19 G21:G1048576">
-    <cfRule type="top10" dxfId="35" priority="20" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="75" priority="20" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="top10" dxfId="34" priority="19" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="74" priority="19" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="top10" dxfId="33" priority="18" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="73" priority="18" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="top10" dxfId="32" priority="17" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="72" priority="17" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:G31">
-    <cfRule type="top10" dxfId="31" priority="12" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="71" priority="12" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:H32">
-    <cfRule type="top10" dxfId="30" priority="11" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="70" priority="11" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:I32">
-    <cfRule type="top10" dxfId="29" priority="10" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="69" priority="10" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1">
-    <cfRule type="top10" dxfId="28" priority="9" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="68" priority="9" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1">
-    <cfRule type="top10" dxfId="27" priority="8" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="67" priority="8" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1">
-    <cfRule type="top10" dxfId="26" priority="7" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="66" priority="7" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2">
-    <cfRule type="top10" dxfId="25" priority="6" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="65" priority="6" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2">
-    <cfRule type="top10" dxfId="24" priority="5" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="64" priority="5" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2">
-    <cfRule type="top10" dxfId="23" priority="4" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="63" priority="4" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="top10" dxfId="22" priority="3" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="62" priority="3" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1048576">
-    <cfRule type="top10" dxfId="21" priority="2" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="61" priority="2" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1048576">
-    <cfRule type="top10" dxfId="20" priority="1" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="60" priority="1" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3076,40 +3698,40 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F1:F6 F10:F100">
-    <cfRule type="top10" dxfId="19" priority="15" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="59" priority="15" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G6 G10:G100">
-    <cfRule type="top10" dxfId="18" priority="14" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="58" priority="14" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="top10" dxfId="17" priority="13" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="57" priority="13" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="top10" dxfId="16" priority="12" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="56" priority="12" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:B1048576 B1:B45">
-    <cfRule type="top10" dxfId="15" priority="8" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="55" priority="8" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C1048576 C1:C45">
-    <cfRule type="top10" dxfId="14" priority="7" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="54" priority="7" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1">
-    <cfRule type="top10" dxfId="13" priority="6" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="53" priority="6" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1">
-    <cfRule type="top10" dxfId="12" priority="5" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="52" priority="5" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17:N1048576 N1:N15">
-    <cfRule type="top10" dxfId="11" priority="4" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="51" priority="4" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O17:O1048576 O1:O15">
-    <cfRule type="top10" dxfId="10" priority="3" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="50" priority="3" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F9">
-    <cfRule type="top10" dxfId="9" priority="2" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="49" priority="2" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G9">
-    <cfRule type="top10" dxfId="8" priority="1" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="48" priority="1" percent="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3121,8 +3743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB7FCCD-6DEF-4489-B535-F792B4F2F5DA}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3316,28 +3938,658 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D2">
+    <cfRule type="top10" dxfId="47" priority="8" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="top10" dxfId="46" priority="7" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2">
+    <cfRule type="top10" dxfId="45" priority="6" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2">
+    <cfRule type="top10" dxfId="44" priority="5" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="top10" dxfId="43" priority="4" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="top10" dxfId="42" priority="3" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2">
+    <cfRule type="top10" dxfId="41" priority="2" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="top10" dxfId="40" priority="1" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A67CF49-60A7-4BB0-98FE-FEFDC2499A21}">
+  <dimension ref="A1:AI8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="10" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="Q2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="T2" s="1"/>
+      <c r="V2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y2" s="1"/>
+      <c r="AA2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD2" s="1"/>
+      <c r="AF2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI2" s="1"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="X3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="5">
+        <v>7.4066000000000001</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.63539999999999996</v>
+      </c>
+      <c r="D4" s="5">
+        <v>10.474399999999999</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.65310000000000001</v>
+      </c>
+      <c r="G4" s="5">
+        <v>10.6031</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.66990000000000005</v>
+      </c>
+      <c r="I4" s="5">
+        <v>10.6135</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.62450000000000006</v>
+      </c>
+      <c r="L4" s="5">
+        <v>7.4286000000000003</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0.67910000000000004</v>
+      </c>
+      <c r="N4" s="5">
+        <v>8.6626999999999992</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0.63470000000000004</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>9.0976999999999997</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0.66410000000000002</v>
+      </c>
+      <c r="S4" s="5">
+        <v>8.5055999999999994</v>
+      </c>
+      <c r="T4" s="5">
+        <v>0.65149999999999997</v>
+      </c>
+      <c r="V4" s="5">
+        <v>10.119899999999999</v>
+      </c>
+      <c r="W4" s="5">
+        <v>0.69669999999999999</v>
+      </c>
+      <c r="X4" s="5">
+        <v>13.149800000000001</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>0.61729999999999996</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>9.9131999999999998</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>0.68410000000000004</v>
+      </c>
+      <c r="AC4" s="5">
+        <v>9.2276000000000007</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>0.65649999999999997</v>
+      </c>
+      <c r="AF4" s="5">
+        <v>8.9060000000000006</v>
+      </c>
+      <c r="AG4" s="5">
+        <v>0.67149999999999999</v>
+      </c>
+      <c r="AH4" s="5">
+        <v>9.8470999999999993</v>
+      </c>
+      <c r="AI4" s="5">
+        <v>0.63959999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="5">
+        <v>10.702500000000001</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.65590000000000004</v>
+      </c>
+      <c r="D5" s="5">
+        <v>8.8918999999999997</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.72040000000000004</v>
+      </c>
+      <c r="G5" s="5">
+        <v>14.615399999999999</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.6603</v>
+      </c>
+      <c r="I5" s="5">
+        <v>11.255599999999999</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.74550000000000005</v>
+      </c>
+      <c r="L5" s="5">
+        <v>17.767099999999999</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0.68689999999999996</v>
+      </c>
+      <c r="N5" s="5">
+        <v>14.950100000000001</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0.83709999999999996</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>14.001799999999999</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0.66930000000000001</v>
+      </c>
+      <c r="S5" s="5">
+        <v>14.4094</v>
+      </c>
+      <c r="T5" s="5">
+        <v>0.76580000000000004</v>
+      </c>
+      <c r="V5" s="5">
+        <v>15.747199999999999</v>
+      </c>
+      <c r="W5" s="5">
+        <v>0.66830000000000001</v>
+      </c>
+      <c r="X5" s="5">
+        <v>15.0436</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>0.81230000000000002</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>14.087</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>0.70569999999999999</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>12.7296</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>0.72929999999999995</v>
+      </c>
+      <c r="AF5" s="5">
+        <v>13.9473</v>
+      </c>
+      <c r="AG5" s="5">
+        <v>0.6744</v>
+      </c>
+      <c r="AH5" s="5">
+        <v>12.305300000000001</v>
+      </c>
+      <c r="AI5" s="5">
+        <v>0.76839999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="5">
+        <v>12.343999999999999</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="D6" s="5">
+        <v>11.3879</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.73309999999999997</v>
+      </c>
+      <c r="G6" s="5">
+        <v>14.785299999999999</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.67159999999999997</v>
+      </c>
+      <c r="I6" s="5">
+        <v>12.533300000000001</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.75609999999999999</v>
+      </c>
+      <c r="L6" s="5">
+        <v>15.989699999999999</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0.69730000000000003</v>
+      </c>
+      <c r="N6" s="5">
+        <v>16.459900000000001</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0.72019999999999995</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>15.406700000000001</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0.67490000000000006</v>
+      </c>
+      <c r="S6" s="5">
+        <v>15.6153</v>
+      </c>
+      <c r="T6" s="5">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="V6" s="5">
+        <v>15.4777</v>
+      </c>
+      <c r="W6" s="5">
+        <v>0.69140000000000001</v>
+      </c>
+      <c r="X6" s="5">
+        <v>18.6999</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>0.77480000000000004</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>14.6221</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>0.71030000000000004</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>12.7278</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>0.74719999999999998</v>
+      </c>
+      <c r="AF6" s="5">
+        <v>14.5943</v>
+      </c>
+      <c r="AG6" s="5">
+        <v>0.68740000000000001</v>
+      </c>
+      <c r="AH6" s="5">
+        <v>13.883800000000001</v>
+      </c>
+      <c r="AI6" s="5">
+        <v>0.75439999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="5">
+        <v>19.4085</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.87019999999999997</v>
+      </c>
+      <c r="D7" s="5">
+        <v>13.601800000000001</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.82769999999999999</v>
+      </c>
+      <c r="G7" s="5">
+        <v>18.085000000000001</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.84350000000000003</v>
+      </c>
+      <c r="I7" s="5">
+        <v>14.511100000000001</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.79469999999999996</v>
+      </c>
+      <c r="L7" s="5">
+        <v>21.516200000000001</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0.8821</v>
+      </c>
+      <c r="N7" s="5">
+        <v>16.944500000000001</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0.8921</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>18.621300000000002</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0.85970000000000002</v>
+      </c>
+      <c r="S7" s="5">
+        <v>17.202200000000001</v>
+      </c>
+      <c r="T7" s="5">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="V7" s="5">
+        <v>25.419799999999999</v>
+      </c>
+      <c r="W7" s="5">
+        <v>0.89480000000000004</v>
+      </c>
+      <c r="X7" s="5">
+        <v>22.729099999999999</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>0.87219999999999998</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>18.791</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>14.2422</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>0.81110000000000004</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>19.7285</v>
+      </c>
+      <c r="AG7" s="5">
+        <v>0.86919999999999997</v>
+      </c>
+      <c r="AH7" s="5">
+        <v>15.706099999999999</v>
+      </c>
+      <c r="AI7" s="5">
+        <v>0.83409999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="top10" dxfId="39" priority="28" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="top10" dxfId="38" priority="27" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="top10" dxfId="37" priority="26" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="top10" dxfId="36" priority="25" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="top10" dxfId="23" priority="24" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="top10" dxfId="22" priority="23" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="top10" dxfId="21" priority="22" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="top10" dxfId="20" priority="21" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3">
+    <cfRule type="top10" dxfId="19" priority="20" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3">
+    <cfRule type="top10" dxfId="18" priority="19" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3">
+    <cfRule type="top10" dxfId="17" priority="18" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3">
+    <cfRule type="top10" dxfId="16" priority="17" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3">
+    <cfRule type="top10" dxfId="15" priority="16" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T3">
+    <cfRule type="top10" dxfId="14" priority="15" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3">
+    <cfRule type="top10" dxfId="13" priority="14" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R3">
+    <cfRule type="top10" dxfId="12" priority="13" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X3">
+    <cfRule type="top10" dxfId="11" priority="12" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y3">
+    <cfRule type="top10" dxfId="10" priority="11" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V3">
+    <cfRule type="top10" dxfId="9" priority="10" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W3">
+    <cfRule type="top10" dxfId="8" priority="9" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC3">
     <cfRule type="top10" dxfId="7" priority="8" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+  <conditionalFormatting sqref="AD3">
     <cfRule type="top10" dxfId="6" priority="7" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2">
-    <cfRule type="top10" dxfId="5" priority="6" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2">
-    <cfRule type="top10" dxfId="4" priority="5" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="top10" dxfId="3" priority="4" percent="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="top10" dxfId="2" priority="3" percent="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2">
-    <cfRule type="top10" dxfId="1" priority="2" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="top10" dxfId="0" priority="1" percent="1" rank="10"/>
+  <conditionalFormatting sqref="AA3">
+    <cfRule type="top10" dxfId="5" priority="6" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB3">
+    <cfRule type="top10" dxfId="4" priority="5" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH3">
+    <cfRule type="top10" dxfId="3" priority="4" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI3">
+    <cfRule type="top10" dxfId="2" priority="3" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF3">
+    <cfRule type="top10" dxfId="1" priority="2" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG3">
+    <cfRule type="top10" dxfId="0" priority="1" percent="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D870AF2-EEAC-49CF-A102-2A2B19DC3851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFE35AB-0393-4BDB-82F8-870A6E66BB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="427" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -330,7 +330,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="162">
   <si>
     <t>PSNR</t>
   </si>
@@ -930,7 +930,147 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="80">
+  <dxfs count="94">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2710,64 +2850,64 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="L3:L15">
-    <cfRule type="top10" dxfId="79" priority="24" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="93" priority="24" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O13">
-    <cfRule type="top10" dxfId="78" priority="23" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="92" priority="23" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I19 I21:I1048576">
-    <cfRule type="top10" dxfId="77" priority="22" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="91" priority="22" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H19 H21:H1048576">
-    <cfRule type="top10" dxfId="76" priority="21" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="90" priority="21" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G19 G21:G1048576">
-    <cfRule type="top10" dxfId="75" priority="20" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="89" priority="20" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="top10" dxfId="74" priority="19" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="88" priority="19" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="top10" dxfId="73" priority="18" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="87" priority="18" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="top10" dxfId="72" priority="17" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="86" priority="17" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:G31">
-    <cfRule type="top10" dxfId="71" priority="12" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="85" priority="12" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:H32">
-    <cfRule type="top10" dxfId="70" priority="11" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="84" priority="11" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:I32">
-    <cfRule type="top10" dxfId="69" priority="10" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="83" priority="10" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1">
-    <cfRule type="top10" dxfId="68" priority="9" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="82" priority="9" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1">
-    <cfRule type="top10" dxfId="67" priority="8" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="81" priority="8" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1">
-    <cfRule type="top10" dxfId="66" priority="7" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="80" priority="7" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2">
-    <cfRule type="top10" dxfId="65" priority="6" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="79" priority="6" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2">
-    <cfRule type="top10" dxfId="64" priority="5" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="78" priority="5" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2">
-    <cfRule type="top10" dxfId="63" priority="4" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="77" priority="4" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="top10" dxfId="62" priority="3" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="76" priority="3" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1048576">
-    <cfRule type="top10" dxfId="61" priority="2" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="75" priority="2" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1048576">
-    <cfRule type="top10" dxfId="60" priority="1" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="74" priority="1" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3698,40 +3838,40 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F1:F6 F10:F100">
-    <cfRule type="top10" dxfId="59" priority="15" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="73" priority="15" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G6 G10:G100">
-    <cfRule type="top10" dxfId="58" priority="14" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="72" priority="14" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="top10" dxfId="57" priority="13" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="71" priority="13" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="top10" dxfId="56" priority="12" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="70" priority="12" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:B1048576 B1:B45">
-    <cfRule type="top10" dxfId="55" priority="8" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="69" priority="8" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C1048576 C1:C45">
-    <cfRule type="top10" dxfId="54" priority="7" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="68" priority="7" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1">
-    <cfRule type="top10" dxfId="53" priority="6" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="67" priority="6" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1">
-    <cfRule type="top10" dxfId="52" priority="5" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="66" priority="5" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17:N1048576 N1:N15">
-    <cfRule type="top10" dxfId="51" priority="4" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="65" priority="4" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O17:O1048576 O1:O15">
-    <cfRule type="top10" dxfId="50" priority="3" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="64" priority="3" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F9">
-    <cfRule type="top10" dxfId="49" priority="2" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="63" priority="2" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G9">
-    <cfRule type="top10" dxfId="48" priority="1" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="62" priority="1" percent="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3938,28 +4078,28 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D2">
-    <cfRule type="top10" dxfId="47" priority="8" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="61" priority="8" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="top10" dxfId="46" priority="7" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="60" priority="7" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="top10" dxfId="45" priority="6" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="59" priority="6" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2">
-    <cfRule type="top10" dxfId="44" priority="5" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="58" priority="5" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="top10" dxfId="43" priority="4" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="57" priority="4" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="top10" dxfId="42" priority="3" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="56" priority="3" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="top10" dxfId="41" priority="2" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="55" priority="2" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="top10" dxfId="40" priority="1" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="54" priority="1" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3969,10 +4109,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A67CF49-60A7-4BB0-98FE-FEFDC2499A21}">
-  <dimension ref="A1:AI8"/>
+  <dimension ref="A1:AI14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AD36" sqref="AD36:AE36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4506,89 +4646,221 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="V10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="W10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="D3">
-    <cfRule type="top10" dxfId="39" priority="28" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="53" priority="42" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="top10" dxfId="38" priority="27" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="52" priority="41" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="top10" dxfId="37" priority="26" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="51" priority="40" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="top10" dxfId="36" priority="25" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="50" priority="39" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="top10" dxfId="23" priority="24" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="37" priority="38" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="top10" dxfId="22" priority="23" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="36" priority="37" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="top10" dxfId="21" priority="22" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="35" priority="36" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="top10" dxfId="20" priority="21" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="34" priority="35" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3">
-    <cfRule type="top10" dxfId="19" priority="20" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="33" priority="34" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3">
-    <cfRule type="top10" dxfId="18" priority="19" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="32" priority="33" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3">
-    <cfRule type="top10" dxfId="17" priority="18" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="31" priority="32" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3">
-    <cfRule type="top10" dxfId="16" priority="17" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="30" priority="31" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3">
-    <cfRule type="top10" dxfId="15" priority="16" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="29" priority="30" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3">
-    <cfRule type="top10" dxfId="14" priority="15" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="28" priority="29" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3">
+    <cfRule type="top10" dxfId="27" priority="28" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R3">
+    <cfRule type="top10" dxfId="26" priority="27" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X3">
+    <cfRule type="top10" dxfId="25" priority="26" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y3">
+    <cfRule type="top10" dxfId="24" priority="25" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V3">
+    <cfRule type="top10" dxfId="23" priority="24" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W3">
+    <cfRule type="top10" dxfId="22" priority="23" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC3">
+    <cfRule type="top10" dxfId="21" priority="22" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD3">
+    <cfRule type="top10" dxfId="20" priority="21" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA3">
+    <cfRule type="top10" dxfId="19" priority="20" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB3">
+    <cfRule type="top10" dxfId="18" priority="19" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH3">
+    <cfRule type="top10" dxfId="17" priority="18" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI3">
+    <cfRule type="top10" dxfId="16" priority="17" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF3">
+    <cfRule type="top10" dxfId="15" priority="16" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG3">
+    <cfRule type="top10" dxfId="14" priority="15" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10">
     <cfRule type="top10" dxfId="13" priority="14" percent="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3">
+  <conditionalFormatting sqref="C10">
     <cfRule type="top10" dxfId="12" priority="13" percent="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X3">
-    <cfRule type="top10" dxfId="11" priority="12" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y3">
-    <cfRule type="top10" dxfId="10" priority="11" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V3">
+  <conditionalFormatting sqref="G10">
+    <cfRule type="top10" dxfId="11" priority="12" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="top10" dxfId="10" priority="11" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10">
     <cfRule type="top10" dxfId="9" priority="10" percent="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W3">
+  <conditionalFormatting sqref="M10">
     <cfRule type="top10" dxfId="8" priority="9" percent="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC3">
-    <cfRule type="top10" dxfId="7" priority="8" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD3">
-    <cfRule type="top10" dxfId="6" priority="7" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA3">
+  <conditionalFormatting sqref="Q10">
+    <cfRule type="top10" dxfId="7" priority="8" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R10">
+    <cfRule type="top10" dxfId="6" priority="7" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V10">
     <cfRule type="top10" dxfId="5" priority="6" percent="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB3">
+  <conditionalFormatting sqref="W10">
     <cfRule type="top10" dxfId="4" priority="5" percent="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH3">
-    <cfRule type="top10" dxfId="3" priority="4" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI3">
-    <cfRule type="top10" dxfId="2" priority="3" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF3">
+  <conditionalFormatting sqref="AA10">
+    <cfRule type="top10" dxfId="3" priority="4" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB10">
+    <cfRule type="top10" dxfId="2" priority="3" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF10">
     <cfRule type="top10" dxfId="1" priority="2" percent="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG3">
+  <conditionalFormatting sqref="AG10">
     <cfRule type="top10" dxfId="0" priority="1" percent="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFE35AB-0393-4BDB-82F8-870A6E66BB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E5DFD2-CC43-45DB-8F5A-47936D6816ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="427" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3180" yWindow="1110" windowWidth="34320" windowHeight="18645" tabRatio="427" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -330,7 +330,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="166">
   <si>
     <t>PSNR</t>
   </si>
@@ -816,6 +816,18 @@
   </si>
   <si>
     <t>Mean</t>
+  </si>
+  <si>
+    <t>V3.01.5</t>
+  </si>
+  <si>
+    <t>V3.01.6</t>
+  </si>
+  <si>
+    <t>V3.01.7</t>
+  </si>
+  <si>
+    <t>V3.01.8</t>
   </si>
 </sst>
 </file>
@@ -930,47 +942,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="94">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="90">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2850,64 +2822,64 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="L3:L15">
-    <cfRule type="top10" dxfId="93" priority="24" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="89" priority="24" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O13">
-    <cfRule type="top10" dxfId="92" priority="23" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="88" priority="23" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I19 I21:I1048576">
-    <cfRule type="top10" dxfId="91" priority="22" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="87" priority="22" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H19 H21:H1048576">
-    <cfRule type="top10" dxfId="90" priority="21" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="86" priority="21" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G19 G21:G1048576">
-    <cfRule type="top10" dxfId="89" priority="20" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="85" priority="20" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="top10" dxfId="88" priority="19" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="84" priority="19" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="top10" dxfId="87" priority="18" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="83" priority="18" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="top10" dxfId="86" priority="17" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="82" priority="17" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:G31">
-    <cfRule type="top10" dxfId="85" priority="12" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="81" priority="12" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:H32">
-    <cfRule type="top10" dxfId="84" priority="11" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="80" priority="11" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:I32">
-    <cfRule type="top10" dxfId="83" priority="10" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="79" priority="10" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1">
-    <cfRule type="top10" dxfId="82" priority="9" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="78" priority="9" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1">
-    <cfRule type="top10" dxfId="81" priority="8" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="77" priority="8" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1">
-    <cfRule type="top10" dxfId="80" priority="7" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="76" priority="7" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2">
-    <cfRule type="top10" dxfId="79" priority="6" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="75" priority="6" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2">
-    <cfRule type="top10" dxfId="78" priority="5" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="74" priority="5" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2">
-    <cfRule type="top10" dxfId="77" priority="4" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="73" priority="4" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="top10" dxfId="76" priority="3" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="72" priority="3" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1048576">
-    <cfRule type="top10" dxfId="75" priority="2" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="71" priority="2" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1048576">
-    <cfRule type="top10" dxfId="74" priority="1" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="70" priority="1" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3838,40 +3810,40 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F1:F6 F10:F100">
-    <cfRule type="top10" dxfId="73" priority="15" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="69" priority="15" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G6 G10:G100">
-    <cfRule type="top10" dxfId="72" priority="14" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="68" priority="14" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="top10" dxfId="71" priority="13" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="67" priority="13" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="top10" dxfId="70" priority="12" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="66" priority="12" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:B1048576 B1:B45">
-    <cfRule type="top10" dxfId="69" priority="8" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="65" priority="8" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C1048576 C1:C45">
-    <cfRule type="top10" dxfId="68" priority="7" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="64" priority="7" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1">
-    <cfRule type="top10" dxfId="67" priority="6" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="63" priority="6" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1">
-    <cfRule type="top10" dxfId="66" priority="5" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="62" priority="5" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17:N1048576 N1:N15">
-    <cfRule type="top10" dxfId="65" priority="4" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="61" priority="4" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O17:O1048576 O1:O15">
-    <cfRule type="top10" dxfId="64" priority="3" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="60" priority="3" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F9">
-    <cfRule type="top10" dxfId="63" priority="2" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="59" priority="2" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G9">
-    <cfRule type="top10" dxfId="62" priority="1" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="58" priority="1" percent="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3881,10 +3853,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB7FCCD-6DEF-4489-B535-F792B4F2F5DA}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E2"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4059,47 +4031,283 @@
       <c r="A7" t="s">
         <v>146</v>
       </c>
+      <c r="B7" s="5">
+        <v>14.69</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.75209999999999999</v>
+      </c>
+      <c r="D7" s="5">
+        <v>16.793600000000001</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="F7" s="5">
+        <v>16.810199999999998</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.83389999999999997</v>
+      </c>
+      <c r="H7" s="5">
+        <v>22.0181</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.84430000000000005</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>147</v>
       </c>
+      <c r="B8" s="5">
+        <v>11.166499999999999</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.69379999999999997</v>
+      </c>
+      <c r="D8" s="5">
+        <v>15.355600000000001</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.80510000000000004</v>
+      </c>
+      <c r="F8" s="5">
+        <v>15.696899999999999</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.79110000000000003</v>
+      </c>
+      <c r="H8" s="5">
+        <v>15.081099999999999</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0.77100000000000002</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>148</v>
       </c>
+      <c r="B9" s="5">
+        <v>14.463699999999999</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.75170000000000003</v>
+      </c>
+      <c r="D9" s="5">
+        <v>16.669699999999999</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.83250000000000002</v>
+      </c>
+      <c r="F9" s="5">
+        <v>16.628599999999999</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.8004</v>
+      </c>
+      <c r="H9" s="5">
+        <v>18.977599999999999</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0.83520000000000005</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>149</v>
       </c>
+      <c r="B10" s="5">
+        <v>12.6652</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.73570000000000002</v>
+      </c>
+      <c r="D10" s="5">
+        <v>15.749000000000001</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.83179999999999998</v>
+      </c>
+      <c r="F10" s="5">
+        <v>13.571300000000001</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.78620000000000001</v>
+      </c>
+      <c r="H10" s="5">
+        <v>16.597100000000001</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.80189999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="5">
+        <v>14.2508</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.7399</v>
+      </c>
+      <c r="D11" s="5">
+        <v>12.297000000000001</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.73119999999999996</v>
+      </c>
+      <c r="F11" s="5">
+        <v>12.095800000000001</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.74939999999999996</v>
+      </c>
+      <c r="H11" s="5">
+        <v>19.1495</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" s="5">
+        <v>14.7559</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.77680000000000005</v>
+      </c>
+      <c r="D12" s="5">
+        <v>13.9665</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="F12" s="5">
+        <v>17.352699999999999</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.82830000000000004</v>
+      </c>
+      <c r="H12" s="5">
+        <v>24.509899999999998</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0.88629999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="5">
+        <v>13.792299999999999</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.77380000000000004</v>
+      </c>
+      <c r="D13" s="5">
+        <v>13.6998</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.83379999999999999</v>
+      </c>
+      <c r="F13" s="5">
+        <v>16.271899999999999</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.83140000000000003</v>
+      </c>
+      <c r="H13" s="5">
+        <v>13.792299999999999</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0.89549999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" s="5">
+        <v>14.797700000000001</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.79020000000000001</v>
+      </c>
+      <c r="D14" s="5">
+        <v>16.731000000000002</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.85550000000000004</v>
+      </c>
+      <c r="F14" s="5">
+        <v>11.760999999999999</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.79979999999999996</v>
+      </c>
+      <c r="H14" s="5">
+        <v>19.196899999999999</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0.8659</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D2">
-    <cfRule type="top10" dxfId="61" priority="8" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="57" priority="16" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="top10" dxfId="60" priority="7" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="56" priority="15" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="top10" dxfId="59" priority="6" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="55" priority="14" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2">
-    <cfRule type="top10" dxfId="58" priority="5" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="54" priority="13" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="top10" dxfId="57" priority="4" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="53" priority="12" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="top10" dxfId="56" priority="3" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="52" priority="11" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="top10" dxfId="55" priority="2" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="51" priority="10" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="top10" dxfId="54" priority="1" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="50" priority="9" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="top10" dxfId="49" priority="8" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="top10" dxfId="48" priority="7" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="top10" dxfId="47" priority="6" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="top10" dxfId="46" priority="5" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="top10" dxfId="45" priority="4" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="top10" dxfId="44" priority="3" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="top10" dxfId="43" priority="2" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="top10" dxfId="42" priority="1" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4111,8 +4319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A67CF49-60A7-4BB0-98FE-FEFDC2499A21}">
   <dimension ref="A1:AI14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AD36" sqref="AD36:AE36"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4641,10 +4849,26 @@
       <c r="A8" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="B8" s="5">
+        <v>8.2411999999999992</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.64659999999999995</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
+      <c r="G8" s="5">
+        <v>8.343</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="I8" s="5">
+        <v>8.1175999999999995</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.70920000000000005</v>
+      </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
@@ -4738,16 +4962,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3">
-    <cfRule type="top10" dxfId="53" priority="42" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="41" priority="42" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="top10" dxfId="52" priority="41" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="40" priority="41" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="top10" dxfId="51" priority="40" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="39" priority="40" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="top10" dxfId="50" priority="39" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="38" priority="39" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
     <cfRule type="top10" dxfId="37" priority="38" percent="1" rank="10"/>

--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E5DFD2-CC43-45DB-8F5A-47936D6816ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779AC01F-7DBB-4626-BE7E-1FB66BE8EF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="1110" windowWidth="34320" windowHeight="18645" tabRatio="427" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -330,7 +330,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="170">
   <si>
     <t>PSNR</t>
   </si>
@@ -828,6 +828,18 @@
   </si>
   <si>
     <t>V3.01.8</t>
+  </si>
+  <si>
+    <t>V4.02.5</t>
+  </si>
+  <si>
+    <t>V4.02.6</t>
+  </si>
+  <si>
+    <t>V4.02.7</t>
+  </si>
+  <si>
+    <t>V4.02.8</t>
   </si>
 </sst>
 </file>
@@ -3853,10 +3865,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB7FCCD-6DEF-4489-B535-F792B4F2F5DA}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4259,6 +4271,122 @@
         <v>0.8659</v>
       </c>
     </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" s="5">
+        <v>15.6784</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.752</v>
+      </c>
+      <c r="D15" s="5">
+        <v>15.081</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.80130000000000001</v>
+      </c>
+      <c r="F15" s="5">
+        <v>16.611899999999999</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.82279999999999998</v>
+      </c>
+      <c r="H15" s="5">
+        <v>17.171700000000001</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0.79449999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" s="5">
+        <v>15.8268</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.74719999999999998</v>
+      </c>
+      <c r="D16" s="5">
+        <v>13.621</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="F16" s="5">
+        <v>19.9056</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.83809999999999996</v>
+      </c>
+      <c r="H16" s="5">
+        <v>18.399699999999999</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0.80120000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" s="5">
+        <v>14.9924</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.73270000000000002</v>
+      </c>
+      <c r="D17" s="5">
+        <v>13.769</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.81079999999999997</v>
+      </c>
+      <c r="F17" s="5">
+        <v>19.4741</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.85340000000000005</v>
+      </c>
+      <c r="H17" s="5">
+        <v>17.133700000000001</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0.7833</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" s="5">
+        <v>13.327500000000001</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.7218</v>
+      </c>
+      <c r="D18" s="5">
+        <v>14.9343</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.80989999999999995</v>
+      </c>
+      <c r="F18" s="5">
+        <v>13.848100000000001</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="H18" s="5">
+        <v>14.2524</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0.76449999999999996</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D2">
@@ -4319,7 +4447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A67CF49-60A7-4BB0-98FE-FEFDC2499A21}">
   <dimension ref="A1:AI14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>

--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779AC01F-7DBB-4626-BE7E-1FB66BE8EF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2875B00C-30C6-4E21-B7A3-383773971206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="427" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="8" r:id="rId2"/>
     <sheet name="Maps 2 RGB" sheetId="9" r:id="rId3"/>
-    <sheet name="GTA V Images" sheetId="10" r:id="rId4"/>
+    <sheet name="GTA V Images - RRL" sheetId="10" r:id="rId4"/>
+    <sheet name="GTA V Images - Ours" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -329,8 +330,193 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Neil Patrick  A. Del Gallego</author>
+  </authors>
+  <commentList>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{2621C454-C4CC-45F9-9A57-987ED1BAC695}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Neil Patrick  A. Del Gallego:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Check image-specific reconstruction, not RGB.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{1A7332AB-EBEF-4A0A-BFA0-D4CD3DC6EA69}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Neil Patrick  A. Del Gallego:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Check image-specific reconstruction, not RGB.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{D085DB8D-4CB3-4224-AECA-7AF5D03B9B18}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Neil Patrick  A. Del Gallego:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Check image-specific reconstruction, not RGB.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{E05967C4-0535-42EF-AD04-8D55D37ABD82}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Neil Patrick  A. Del Gallego:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Check image-specific reconstruction, not RGB.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{E6BD1AC0-FC1E-4428-B010-DD9DB222D37B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Neil Patrick  A. Del Gallego:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Check image-specific reconstruction, not RGB.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC2" authorId="0" shapeId="0" xr:uid="{19E54573-458B-451C-B9A8-5B75B75A7774}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Neil Patrick  A. Del Gallego:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Check image-specific reconstruction, not RGB.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH2" authorId="0" shapeId="0" xr:uid="{D6DE8AF3-AC4D-43E1-AC82-B36D0E32BCD9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Neil Patrick  A. Del Gallego:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Check image-specific reconstruction, not RGB.
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="171">
   <si>
     <t>PSNR</t>
   </si>
@@ -840,6 +1026,9 @@
   </si>
   <si>
     <t>V4.02.8</t>
+  </si>
+  <si>
+    <t>OURS</t>
   </si>
 </sst>
 </file>
@@ -954,7 +1143,427 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="90">
+  <dxfs count="132">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2834,64 +3443,64 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="L3:L15">
-    <cfRule type="top10" dxfId="89" priority="24" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="131" priority="24" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O13">
-    <cfRule type="top10" dxfId="88" priority="23" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="130" priority="23" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I19 I21:I1048576">
-    <cfRule type="top10" dxfId="87" priority="22" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="129" priority="22" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H19 H21:H1048576">
-    <cfRule type="top10" dxfId="86" priority="21" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="128" priority="21" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G19 G21:G1048576">
-    <cfRule type="top10" dxfId="85" priority="20" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="127" priority="20" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="top10" dxfId="84" priority="19" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="126" priority="19" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="top10" dxfId="83" priority="18" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="125" priority="18" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="top10" dxfId="82" priority="17" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="124" priority="17" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:G31">
-    <cfRule type="top10" dxfId="81" priority="12" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="123" priority="12" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:H32">
-    <cfRule type="top10" dxfId="80" priority="11" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="122" priority="11" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:I32">
-    <cfRule type="top10" dxfId="79" priority="10" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="121" priority="10" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1">
-    <cfRule type="top10" dxfId="78" priority="9" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="120" priority="9" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1">
-    <cfRule type="top10" dxfId="77" priority="8" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="119" priority="8" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1">
-    <cfRule type="top10" dxfId="76" priority="7" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="118" priority="7" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2">
-    <cfRule type="top10" dxfId="75" priority="6" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="117" priority="6" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2">
-    <cfRule type="top10" dxfId="74" priority="5" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="116" priority="5" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2">
-    <cfRule type="top10" dxfId="73" priority="4" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="115" priority="4" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="top10" dxfId="72" priority="3" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="114" priority="3" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1048576">
-    <cfRule type="top10" dxfId="71" priority="2" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="113" priority="2" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1048576">
-    <cfRule type="top10" dxfId="70" priority="1" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="112" priority="1" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3822,40 +4431,40 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F1:F6 F10:F100">
-    <cfRule type="top10" dxfId="69" priority="15" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="111" priority="15" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G6 G10:G100">
-    <cfRule type="top10" dxfId="68" priority="14" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="110" priority="14" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="top10" dxfId="67" priority="13" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="109" priority="13" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="top10" dxfId="66" priority="12" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="108" priority="12" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:B1048576 B1:B45">
-    <cfRule type="top10" dxfId="65" priority="8" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="107" priority="8" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C1048576 C1:C45">
-    <cfRule type="top10" dxfId="64" priority="7" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="106" priority="7" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1">
-    <cfRule type="top10" dxfId="63" priority="6" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="105" priority="6" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1">
-    <cfRule type="top10" dxfId="62" priority="5" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="104" priority="5" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17:N1048576 N1:N15">
-    <cfRule type="top10" dxfId="61" priority="4" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="103" priority="4" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O17:O1048576 O1:O15">
-    <cfRule type="top10" dxfId="60" priority="3" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="102" priority="3" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F9">
-    <cfRule type="top10" dxfId="59" priority="2" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="101" priority="2" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G9">
-    <cfRule type="top10" dxfId="58" priority="1" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="100" priority="1" percent="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3867,8 +4476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB7FCCD-6DEF-4489-B535-F792B4F2F5DA}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4390,52 +4999,52 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D2">
-    <cfRule type="top10" dxfId="57" priority="16" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="99" priority="16" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="top10" dxfId="56" priority="15" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="98" priority="15" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="top10" dxfId="55" priority="14" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="97" priority="14" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2">
-    <cfRule type="top10" dxfId="54" priority="13" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="96" priority="13" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="top10" dxfId="53" priority="12" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="95" priority="12" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="top10" dxfId="52" priority="11" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="94" priority="11" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="top10" dxfId="51" priority="10" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="93" priority="10" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="top10" dxfId="50" priority="9" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="92" priority="9" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="top10" dxfId="49" priority="8" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="91" priority="8" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="top10" dxfId="48" priority="7" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="90" priority="7" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="top10" dxfId="47" priority="6" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="89" priority="6" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="top10" dxfId="46" priority="5" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="88" priority="5" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="top10" dxfId="45" priority="4" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="87" priority="4" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="top10" dxfId="44" priority="3" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="86" priority="3" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="top10" dxfId="43" priority="2" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="85" priority="2" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="top10" dxfId="42" priority="1" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="84" priority="1" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4447,8 +5056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A67CF49-60A7-4BB0-98FE-FEFDC2499A21}">
   <dimension ref="A1:AI14"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4977,26 +5586,14 @@
       <c r="A8" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B8" s="5">
-        <v>8.2411999999999992</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0.64659999999999995</v>
-      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="G8" s="5">
-        <v>8.343</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0.70499999999999996</v>
-      </c>
-      <c r="I8" s="5">
-        <v>8.1175999999999995</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0.70920000000000005</v>
-      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
@@ -5090,133 +5687,642 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3">
-    <cfRule type="top10" dxfId="41" priority="42" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="83" priority="42" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="top10" dxfId="40" priority="41" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="82" priority="41" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="top10" dxfId="39" priority="40" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="81" priority="40" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="top10" dxfId="38" priority="39" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="80" priority="39" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="top10" dxfId="37" priority="38" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="79" priority="38" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="top10" dxfId="36" priority="37" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="78" priority="37" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="top10" dxfId="35" priority="36" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="77" priority="36" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="top10" dxfId="34" priority="35" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="76" priority="35" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3">
-    <cfRule type="top10" dxfId="33" priority="34" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="75" priority="34" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3">
-    <cfRule type="top10" dxfId="32" priority="33" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="74" priority="33" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3">
-    <cfRule type="top10" dxfId="31" priority="32" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="73" priority="32" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3">
-    <cfRule type="top10" dxfId="30" priority="31" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="72" priority="31" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3">
-    <cfRule type="top10" dxfId="29" priority="30" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="71" priority="30" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3">
-    <cfRule type="top10" dxfId="28" priority="29" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="70" priority="29" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3">
-    <cfRule type="top10" dxfId="27" priority="28" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="69" priority="28" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3">
-    <cfRule type="top10" dxfId="26" priority="27" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="68" priority="27" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3">
-    <cfRule type="top10" dxfId="25" priority="26" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="67" priority="26" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y3">
-    <cfRule type="top10" dxfId="24" priority="25" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="66" priority="25" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3">
-    <cfRule type="top10" dxfId="23" priority="24" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="65" priority="24" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3">
-    <cfRule type="top10" dxfId="22" priority="23" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="64" priority="23" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC3">
-    <cfRule type="top10" dxfId="21" priority="22" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="63" priority="22" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD3">
-    <cfRule type="top10" dxfId="20" priority="21" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="62" priority="21" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3">
-    <cfRule type="top10" dxfId="19" priority="20" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="61" priority="20" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB3">
-    <cfRule type="top10" dxfId="18" priority="19" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="60" priority="19" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH3">
-    <cfRule type="top10" dxfId="17" priority="18" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="59" priority="18" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI3">
-    <cfRule type="top10" dxfId="16" priority="17" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="58" priority="17" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF3">
-    <cfRule type="top10" dxfId="15" priority="16" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="57" priority="16" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG3">
-    <cfRule type="top10" dxfId="14" priority="15" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="56" priority="15" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="top10" dxfId="13" priority="14" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="55" priority="14" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="top10" dxfId="12" priority="13" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="54" priority="13" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="top10" dxfId="11" priority="12" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="53" priority="12" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="top10" dxfId="10" priority="11" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="52" priority="11" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="top10" dxfId="9" priority="10" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="51" priority="10" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="top10" dxfId="8" priority="9" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="50" priority="9" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q10">
-    <cfRule type="top10" dxfId="7" priority="8" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="49" priority="8" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10">
-    <cfRule type="top10" dxfId="6" priority="7" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="48" priority="7" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V10">
-    <cfRule type="top10" dxfId="5" priority="6" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="47" priority="6" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W10">
-    <cfRule type="top10" dxfId="4" priority="5" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="46" priority="5" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA10">
-    <cfRule type="top10" dxfId="3" priority="4" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="45" priority="4" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB10">
-    <cfRule type="top10" dxfId="2" priority="3" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="44" priority="3" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF10">
-    <cfRule type="top10" dxfId="1" priority="2" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="43" priority="2" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG10">
-    <cfRule type="top10" dxfId="0" priority="1" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="42" priority="1" percent="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF40BC5-E637-4A9D-AFCD-CD414A7F8E77}">
+  <dimension ref="A1:AI14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AG5" sqref="AG5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="10" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="Q2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="T2" s="1"/>
+      <c r="V2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y2" s="1"/>
+      <c r="AA2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD2" s="1"/>
+      <c r="AF2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI2" s="1"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="X3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="5">
+        <v>4.8019999999999996</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.5867</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="G4" s="5">
+        <v>7.0015000000000001</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.62019999999999997</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="L4" s="5">
+        <v>6.6082000000000001</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0.62580000000000002</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="Q4" s="5">
+        <v>5.7142999999999997</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0.58720000000000006</v>
+      </c>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="V4">
+        <v>5.3742999999999999</v>
+      </c>
+      <c r="W4">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="AA4" s="5">
+        <v>5.9706000000000001</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>0.60229999999999995</v>
+      </c>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AF4" s="5">
+        <v>6.4029999999999996</v>
+      </c>
+      <c r="AG4" s="5">
+        <v>0.61050000000000004</v>
+      </c>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AF9" s="1"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="top10" dxfId="41" priority="42" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="top10" dxfId="40" priority="41" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="top10" dxfId="39" priority="40" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="top10" dxfId="38" priority="39" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="top10" dxfId="37" priority="38" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="top10" dxfId="36" priority="37" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="top10" dxfId="35" priority="36" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="top10" dxfId="34" priority="35" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3">
+    <cfRule type="top10" dxfId="33" priority="34" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3">
+    <cfRule type="top10" dxfId="32" priority="33" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3">
+    <cfRule type="top10" dxfId="31" priority="32" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3">
+    <cfRule type="top10" dxfId="30" priority="31" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3">
+    <cfRule type="top10" dxfId="29" priority="30" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T3">
+    <cfRule type="top10" dxfId="28" priority="29" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3">
+    <cfRule type="top10" dxfId="27" priority="28" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R3">
+    <cfRule type="top10" dxfId="26" priority="27" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X3">
+    <cfRule type="top10" dxfId="25" priority="26" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y3">
+    <cfRule type="top10" dxfId="24" priority="25" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V3">
+    <cfRule type="top10" dxfId="23" priority="24" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W3">
+    <cfRule type="top10" dxfId="22" priority="23" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC3">
+    <cfRule type="top10" dxfId="21" priority="22" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD3">
+    <cfRule type="top10" dxfId="20" priority="21" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA3">
+    <cfRule type="top10" dxfId="19" priority="20" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB3">
+    <cfRule type="top10" dxfId="18" priority="19" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH3">
+    <cfRule type="top10" dxfId="17" priority="18" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI3">
+    <cfRule type="top10" dxfId="16" priority="17" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF3">
+    <cfRule type="top10" dxfId="15" priority="16" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG3">
+    <cfRule type="top10" dxfId="14" priority="15" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="top10" dxfId="13" priority="14" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="top10" dxfId="12" priority="13" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="top10" dxfId="11" priority="12" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="top10" dxfId="10" priority="11" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10">
+    <cfRule type="top10" dxfId="9" priority="10" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M10">
+    <cfRule type="top10" dxfId="8" priority="9" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q10">
+    <cfRule type="top10" dxfId="7" priority="8" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R10">
+    <cfRule type="top10" dxfId="6" priority="7" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V10">
+    <cfRule type="top10" dxfId="5" priority="6" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W10">
+    <cfRule type="top10" dxfId="4" priority="5" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA10">
+    <cfRule type="top10" dxfId="3" priority="4" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB10">
+    <cfRule type="top10" dxfId="2" priority="3" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF10">
+    <cfRule type="top10" dxfId="1" priority="2" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG10">
+    <cfRule type="top10" dxfId="0" priority="1" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2875B00C-30C6-4E21-B7A3-383773971206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3268B2DF-53F5-4F54-B94C-AD0268804D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="427" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -336,7 +336,7 @@
     <author>Neil Patrick  A. Del Gallego</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{2621C454-C4CC-45F9-9A57-987ED1BAC695}">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{D6DE8AF3-AC4D-43E1-AC82-B36D0E32BCD9}">
       <text>
         <r>
           <rPr>
@@ -361,7 +361,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{1A7332AB-EBEF-4A0A-BFA0-D4CD3DC6EA69}">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{2621C454-C4CC-45F9-9A57-987ED1BAC695}">
       <text>
         <r>
           <rPr>
@@ -386,7 +386,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{D085DB8D-4CB3-4224-AECA-7AF5D03B9B18}">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{1A7332AB-EBEF-4A0A-BFA0-D4CD3DC6EA69}">
       <text>
         <r>
           <rPr>
@@ -411,7 +411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{E05967C4-0535-42EF-AD04-8D55D37ABD82}">
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{D085DB8D-4CB3-4224-AECA-7AF5D03B9B18}">
       <text>
         <r>
           <rPr>
@@ -436,7 +436,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{E6BD1AC0-FC1E-4428-B010-DD9DB222D37B}">
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{E05967C4-0535-42EF-AD04-8D55D37ABD82}">
       <text>
         <r>
           <rPr>
@@ -461,7 +461,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC2" authorId="0" shapeId="0" xr:uid="{19E54573-458B-451C-B9A8-5B75B75A7774}">
+    <comment ref="AC2" authorId="0" shapeId="0" xr:uid="{E6BD1AC0-FC1E-4428-B010-DD9DB222D37B}">
       <text>
         <r>
           <rPr>
@@ -486,7 +486,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH2" authorId="0" shapeId="0" xr:uid="{D6DE8AF3-AC4D-43E1-AC82-B36D0E32BCD9}">
+    <comment ref="AH2" authorId="0" shapeId="0" xr:uid="{19E54573-458B-451C-B9A8-5B75B75A7774}">
       <text>
         <r>
           <rPr>
@@ -516,7 +516,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="177">
   <si>
     <t>PSNR</t>
   </si>
@@ -1029,6 +1029,24 @@
   </si>
   <si>
     <t>OURS</t>
+  </si>
+  <si>
+    <t>V4.05.5</t>
+  </si>
+  <si>
+    <t>V4.05.6</t>
+  </si>
+  <si>
+    <t>V4.04.5</t>
+  </si>
+  <si>
+    <t>V4.04.6</t>
+  </si>
+  <si>
+    <t>V4.04.7</t>
+  </si>
+  <si>
+    <t>V4.04.8</t>
   </si>
 </sst>
 </file>
@@ -1120,7 +1138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1139,11 +1157,982 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="132">
+  <dxfs count="229">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -3443,64 +4432,64 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="L3:L15">
-    <cfRule type="top10" dxfId="131" priority="24" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="228" priority="24" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O13">
-    <cfRule type="top10" dxfId="130" priority="23" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="227" priority="23" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I19 I21:I1048576">
-    <cfRule type="top10" dxfId="129" priority="22" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="226" priority="22" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H19 H21:H1048576">
-    <cfRule type="top10" dxfId="128" priority="21" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="225" priority="21" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G19 G21:G1048576">
-    <cfRule type="top10" dxfId="127" priority="20" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="224" priority="20" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="top10" dxfId="126" priority="19" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="223" priority="19" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="top10" dxfId="125" priority="18" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="222" priority="18" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="top10" dxfId="124" priority="17" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="221" priority="17" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:G31">
-    <cfRule type="top10" dxfId="123" priority="12" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="220" priority="12" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:H32">
-    <cfRule type="top10" dxfId="122" priority="11" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="219" priority="11" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:I32">
-    <cfRule type="top10" dxfId="121" priority="10" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="218" priority="10" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1">
-    <cfRule type="top10" dxfId="120" priority="9" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="217" priority="9" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1">
-    <cfRule type="top10" dxfId="119" priority="8" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="216" priority="8" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1">
-    <cfRule type="top10" dxfId="118" priority="7" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="215" priority="7" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2">
-    <cfRule type="top10" dxfId="117" priority="6" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="214" priority="6" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2">
-    <cfRule type="top10" dxfId="116" priority="5" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="213" priority="5" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2">
-    <cfRule type="top10" dxfId="115" priority="4" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="212" priority="4" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="top10" dxfId="114" priority="3" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="211" priority="3" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1048576">
-    <cfRule type="top10" dxfId="113" priority="2" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="210" priority="2" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1048576">
-    <cfRule type="top10" dxfId="112" priority="1" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="209" priority="1" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4431,40 +5420,40 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F1:F6 F10:F100">
-    <cfRule type="top10" dxfId="111" priority="15" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="208" priority="15" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G6 G10:G100">
-    <cfRule type="top10" dxfId="110" priority="14" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="207" priority="14" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="top10" dxfId="109" priority="13" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="206" priority="13" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="top10" dxfId="108" priority="12" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="205" priority="12" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:B1048576 B1:B45">
-    <cfRule type="top10" dxfId="107" priority="8" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="204" priority="8" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C1048576 C1:C45">
-    <cfRule type="top10" dxfId="106" priority="7" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="203" priority="7" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1">
-    <cfRule type="top10" dxfId="105" priority="6" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="202" priority="6" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1">
-    <cfRule type="top10" dxfId="104" priority="5" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="201" priority="5" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17:N1048576 N1:N15">
-    <cfRule type="top10" dxfId="103" priority="4" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="200" priority="4" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O17:O1048576 O1:O15">
-    <cfRule type="top10" dxfId="102" priority="3" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="199" priority="3" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F9">
-    <cfRule type="top10" dxfId="101" priority="2" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="198" priority="2" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G9">
-    <cfRule type="top10" dxfId="100" priority="1" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="197" priority="1" percent="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4474,10 +5463,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB7FCCD-6DEF-4489-B535-F792B4F2F5DA}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A18"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4996,55 +5985,205 @@
         <v>0.76449999999999996</v>
       </c>
     </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" s="5">
+        <v>11.966200000000001</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.77180000000000004</v>
+      </c>
+      <c r="D19" s="5">
+        <v>14.827999999999999</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.79549999999999998</v>
+      </c>
+      <c r="F19" s="5">
+        <v>16.446000000000002</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.80940000000000001</v>
+      </c>
+      <c r="H19" s="5">
+        <v>22.953600000000002</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0.92230000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="5">
+        <v>11.9511</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.73609999999999998</v>
+      </c>
+      <c r="D20" s="5">
+        <v>12.814399999999999</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.80730000000000002</v>
+      </c>
+      <c r="F20" s="5">
+        <v>19.706099999999999</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.8286</v>
+      </c>
+      <c r="H20" s="5">
+        <v>28.9803</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0.95820000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21" s="5">
+        <v>11.4352</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.78569999999999995</v>
+      </c>
+      <c r="D21" s="5">
+        <v>13.806800000000001</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.81469999999999998</v>
+      </c>
+      <c r="F21" s="5">
+        <v>18.768699999999999</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.84019999999999995</v>
+      </c>
+      <c r="H21" s="5">
+        <v>25.644300000000001</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0.93149999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22" s="5">
+        <v>11.0627</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.74560000000000004</v>
+      </c>
+      <c r="D22" s="5">
+        <v>14.251300000000001</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0.78920000000000001</v>
+      </c>
+      <c r="F22" s="5">
+        <v>10.612</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0.77839999999999998</v>
+      </c>
+      <c r="H22" s="5">
+        <v>21.146899999999999</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0.89690000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>171</v>
+      </c>
+      <c r="B23" s="5">
+        <v>12.297800000000001</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.76170000000000004</v>
+      </c>
+      <c r="D23" s="5">
+        <v>17.347899999999999</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.82169999999999999</v>
+      </c>
+      <c r="F23" s="5">
+        <v>18.777899999999999</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.81020000000000003</v>
+      </c>
+      <c r="H23" s="5">
+        <v>29.309899999999999</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0.96589999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" s="5">
+        <v>11.434200000000001</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.73540000000000005</v>
+      </c>
+      <c r="D24" s="5">
+        <v>15.6431</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0.81030000000000002</v>
+      </c>
+      <c r="F24" s="5">
+        <v>18.504799999999999</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0.81230000000000002</v>
+      </c>
+      <c r="H24" s="5">
+        <v>30.055499999999999</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0.96020000000000005</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="top10" dxfId="99" priority="16" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
-    <cfRule type="top10" dxfId="98" priority="15" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2">
-    <cfRule type="top10" dxfId="97" priority="14" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2">
-    <cfRule type="top10" dxfId="96" priority="13" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="top10" dxfId="95" priority="12" percent="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="top10" dxfId="94" priority="11" percent="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2">
-    <cfRule type="top10" dxfId="93" priority="10" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="top10" dxfId="92" priority="9" percent="1" rank="10"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="top10" dxfId="91" priority="8" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="14" priority="8" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="top10" dxfId="90" priority="7" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="13" priority="7" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="top10" dxfId="89" priority="6" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="12" priority="6" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="top10" dxfId="88" priority="5" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="11" priority="5" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="top10" dxfId="87" priority="4" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="10" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="top10" dxfId="86" priority="3" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="9" priority="3" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="top10" dxfId="85" priority="2" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="8" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="top10" dxfId="84" priority="1" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5687,130 +6826,130 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3">
-    <cfRule type="top10" dxfId="83" priority="42" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="196" priority="42" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="top10" dxfId="82" priority="41" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="195" priority="41" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="top10" dxfId="81" priority="40" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="194" priority="40" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="top10" dxfId="80" priority="39" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="193" priority="39" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="top10" dxfId="79" priority="38" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="192" priority="38" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="top10" dxfId="78" priority="37" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="191" priority="37" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="top10" dxfId="77" priority="36" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="190" priority="36" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="top10" dxfId="76" priority="35" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="189" priority="35" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3">
-    <cfRule type="top10" dxfId="75" priority="34" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="188" priority="34" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3">
-    <cfRule type="top10" dxfId="74" priority="33" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="187" priority="33" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3">
-    <cfRule type="top10" dxfId="73" priority="32" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="186" priority="32" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3">
-    <cfRule type="top10" dxfId="72" priority="31" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="185" priority="31" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3">
-    <cfRule type="top10" dxfId="71" priority="30" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="184" priority="30" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3">
-    <cfRule type="top10" dxfId="70" priority="29" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="183" priority="29" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3">
-    <cfRule type="top10" dxfId="69" priority="28" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="182" priority="28" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3">
-    <cfRule type="top10" dxfId="68" priority="27" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="181" priority="27" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3">
-    <cfRule type="top10" dxfId="67" priority="26" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="180" priority="26" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y3">
-    <cfRule type="top10" dxfId="66" priority="25" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="179" priority="25" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3">
-    <cfRule type="top10" dxfId="65" priority="24" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="178" priority="24" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3">
-    <cfRule type="top10" dxfId="64" priority="23" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="177" priority="23" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC3">
-    <cfRule type="top10" dxfId="63" priority="22" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="176" priority="22" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD3">
-    <cfRule type="top10" dxfId="62" priority="21" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="175" priority="21" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3">
-    <cfRule type="top10" dxfId="61" priority="20" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="174" priority="20" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB3">
-    <cfRule type="top10" dxfId="60" priority="19" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="173" priority="19" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH3">
-    <cfRule type="top10" dxfId="59" priority="18" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="172" priority="18" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI3">
-    <cfRule type="top10" dxfId="58" priority="17" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="171" priority="17" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF3">
-    <cfRule type="top10" dxfId="57" priority="16" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="170" priority="16" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG3">
-    <cfRule type="top10" dxfId="56" priority="15" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="169" priority="15" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="top10" dxfId="55" priority="14" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="168" priority="14" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="top10" dxfId="54" priority="13" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="167" priority="13" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="top10" dxfId="53" priority="12" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="166" priority="12" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="top10" dxfId="52" priority="11" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="165" priority="11" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="top10" dxfId="51" priority="10" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="164" priority="10" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="top10" dxfId="50" priority="9" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="163" priority="9" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q10">
-    <cfRule type="top10" dxfId="49" priority="8" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="162" priority="8" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10">
-    <cfRule type="top10" dxfId="48" priority="7" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="161" priority="7" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V10">
-    <cfRule type="top10" dxfId="47" priority="6" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="160" priority="6" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W10">
-    <cfRule type="top10" dxfId="46" priority="5" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="159" priority="5" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA10">
-    <cfRule type="top10" dxfId="45" priority="4" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="158" priority="4" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB10">
-    <cfRule type="top10" dxfId="44" priority="3" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="157" priority="3" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF10">
-    <cfRule type="top10" dxfId="43" priority="2" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="156" priority="2" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG10">
-    <cfRule type="top10" dxfId="42" priority="1" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="155" priority="1" percent="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5820,45 +6959,45 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF40BC5-E637-4A9D-AFCD-CD414A7F8E77}">
-  <dimension ref="A1:AI14"/>
+  <dimension ref="A1:AJ14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AG5" sqref="AG5"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="10" width="11.42578125" customWidth="1"/>
+    <col min="2" max="11" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AF1" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>123</v>
       </c>
@@ -5866,6 +7005,7 @@
         <v>122</v>
       </c>
       <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
         <v>123</v>
       </c>
@@ -5909,7 +7049,7 @@
       </c>
       <c r="AI2" s="1"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
@@ -5922,6 +7062,7 @@
       <c r="E3" s="10" t="s">
         <v>1</v>
       </c>
+      <c r="F3" s="10"/>
       <c r="G3" s="8" t="s">
         <v>0</v>
       </c>
@@ -5995,331 +7136,250 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>166</v>
       </c>
       <c r="B4" s="5">
-        <v>4.8019999999999996</v>
+        <v>6.4029999999999996</v>
       </c>
       <c r="C4" s="5">
-        <v>0.5867</v>
+        <v>0.61050000000000004</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
       <c r="G4" s="5">
-        <v>7.0015000000000001</v>
+        <v>4.8019999999999996</v>
       </c>
       <c r="H4" s="5">
-        <v>0.62019999999999997</v>
+        <v>0.5867</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="L4" s="5">
-        <v>6.6082000000000001</v>
+        <v>7.0015000000000001</v>
       </c>
       <c r="M4" s="5">
-        <v>0.62580000000000002</v>
+        <v>0.62019999999999997</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="Q4" s="5">
-        <v>5.7142999999999997</v>
+        <v>6.6082000000000001</v>
       </c>
       <c r="R4" s="5">
-        <v>0.58720000000000006</v>
+        <v>0.62580000000000002</v>
       </c>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
-      <c r="V4">
-        <v>5.3742999999999999</v>
-      </c>
-      <c r="W4">
-        <v>0.59399999999999997</v>
+      <c r="V4" s="5">
+        <v>5.7142999999999997</v>
+      </c>
+      <c r="W4" s="5">
+        <v>0.58720000000000006</v>
       </c>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
-      <c r="AA4" s="5">
-        <v>5.9706000000000001</v>
-      </c>
-      <c r="AB4" s="5">
-        <v>0.60229999999999995</v>
+      <c r="AA4">
+        <v>5.3742999999999999</v>
+      </c>
+      <c r="AB4">
+        <v>0.59399999999999997</v>
       </c>
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
       <c r="AF4" s="5">
-        <v>6.4029999999999996</v>
+        <v>5.9706000000000001</v>
       </c>
       <c r="AG4" s="5">
-        <v>0.61050000000000004</v>
+        <v>0.60229999999999995</v>
       </c>
       <c r="AH4" s="5"/>
       <c r="AI4" s="5"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+        <v>173</v>
+      </c>
+      <c r="B5" s="5">
+        <v>6.6196000000000002</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.66990000000000005</v>
+      </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="F5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
-      <c r="L5" s="5"/>
+      <c r="K5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
-      <c r="Q5" s="5"/>
+      <c r="P5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
-      <c r="V5" s="5"/>
+      <c r="U5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
-      <c r="AA5" s="5"/>
+      <c r="Z5" s="5"/>
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
-      <c r="AF5" s="5"/>
+      <c r="AE5" s="5"/>
       <c r="AG5" s="5"/>
       <c r="AH5" s="5"/>
       <c r="AI5" s="5"/>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ5" s="5"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+        <v>174</v>
+      </c>
+      <c r="B6" s="5">
+        <v>6.4764999999999997</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.66669999999999996</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="F6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
-      <c r="L6" s="5"/>
+      <c r="K6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
-      <c r="Q6" s="5"/>
+      <c r="P6" s="5"/>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
-      <c r="V6" s="5"/>
+      <c r="U6" s="5"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
-      <c r="AA6" s="5"/>
+      <c r="Z6" s="5"/>
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
-      <c r="AF6" s="5"/>
+      <c r="AE6" s="5"/>
       <c r="AG6" s="5"/>
       <c r="AH6" s="5"/>
       <c r="AI6" s="5"/>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ6" s="5"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>169</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+        <v>175</v>
+      </c>
+      <c r="B7" s="5">
+        <v>7.0194999999999999</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.66820000000000002</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="F7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="K7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
-      <c r="Q7" s="5"/>
+      <c r="P7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
-      <c r="V7" s="5"/>
+      <c r="U7" s="5"/>
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
-      <c r="AA7" s="5"/>
+      <c r="Z7" s="5"/>
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
-      <c r="AF7" s="5"/>
+      <c r="AE7" s="5"/>
       <c r="AG7" s="5"/>
       <c r="AH7" s="5"/>
       <c r="AI7" s="5"/>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="AJ7" s="5"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" s="5">
+        <v>6.4603999999999999</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.66339999999999999</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="F8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AF9" s="1"/>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" s="7">
+        <v>6.5223000000000004</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.64939999999999998</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AG9" s="1"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="14">
+        <v>6.4854000000000003</v>
+      </c>
+      <c r="C10" s="14">
+        <v>0.65529999999999999</v>
+      </c>
       <c r="H10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="I10" s="8"/>
       <c r="M10" s="8"/>
-      <c r="Q10" s="8"/>
+      <c r="N10" s="8"/>
       <c r="R10" s="8"/>
-      <c r="V10" s="8"/>
+      <c r="S10" s="8"/>
       <c r="W10" s="8"/>
-      <c r="AA10" s="8"/>
+      <c r="X10" s="8"/>
       <c r="AB10" s="8"/>
-      <c r="AF10" s="8"/>
+      <c r="AC10" s="8"/>
       <c r="AG10" s="8"/>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AH10" s="8"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="top10" dxfId="41" priority="42" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="top10" dxfId="40" priority="41" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="top10" dxfId="39" priority="40" percent="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="top10" dxfId="38" priority="39" percent="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="top10" dxfId="37" priority="38" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3">
-    <cfRule type="top10" dxfId="36" priority="37" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="top10" dxfId="35" priority="36" percent="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="top10" dxfId="34" priority="35" percent="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N3">
-    <cfRule type="top10" dxfId="33" priority="34" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O3">
-    <cfRule type="top10" dxfId="32" priority="33" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3">
-    <cfRule type="top10" dxfId="31" priority="32" percent="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3">
-    <cfRule type="top10" dxfId="30" priority="31" percent="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S3">
-    <cfRule type="top10" dxfId="29" priority="30" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T3">
-    <cfRule type="top10" dxfId="28" priority="29" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q3">
-    <cfRule type="top10" dxfId="27" priority="28" percent="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R3">
-    <cfRule type="top10" dxfId="26" priority="27" percent="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X3">
-    <cfRule type="top10" dxfId="25" priority="26" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y3">
-    <cfRule type="top10" dxfId="24" priority="25" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V3">
-    <cfRule type="top10" dxfId="23" priority="24" percent="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W3">
-    <cfRule type="top10" dxfId="22" priority="23" percent="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC3">
-    <cfRule type="top10" dxfId="21" priority="22" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD3">
-    <cfRule type="top10" dxfId="20" priority="21" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA3">
-    <cfRule type="top10" dxfId="19" priority="20" percent="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB3">
-    <cfRule type="top10" dxfId="18" priority="19" percent="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH3">
-    <cfRule type="top10" dxfId="17" priority="18" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI3">
-    <cfRule type="top10" dxfId="16" priority="17" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF3">
-    <cfRule type="top10" dxfId="15" priority="16" percent="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG3">
-    <cfRule type="top10" dxfId="14" priority="15" percent="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10">
-    <cfRule type="top10" dxfId="13" priority="14" percent="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="top10" dxfId="12" priority="13" percent="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="top10" dxfId="11" priority="12" percent="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="top10" dxfId="10" priority="11" percent="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L10">
-    <cfRule type="top10" dxfId="9" priority="10" percent="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M10">
-    <cfRule type="top10" dxfId="8" priority="9" percent="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q10">
-    <cfRule type="top10" dxfId="7" priority="8" percent="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R10">
-    <cfRule type="top10" dxfId="6" priority="7" percent="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V10">
-    <cfRule type="top10" dxfId="5" priority="6" percent="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W10">
-    <cfRule type="top10" dxfId="4" priority="5" percent="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA10">
-    <cfRule type="top10" dxfId="3" priority="4" percent="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB10">
-    <cfRule type="top10" dxfId="2" priority="3" percent="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF10">
-    <cfRule type="top10" dxfId="1" priority="2" percent="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG10">
-    <cfRule type="top10" dxfId="0" priority="1" percent="1" rank="1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="top10" dxfId="70" priority="2" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="top10" dxfId="68" priority="1" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3268B2DF-53F5-4F54-B94C-AD0268804D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF45D76-3500-4D47-9E3F-B9F08680A009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3735" yWindow="1470" windowWidth="28800" windowHeight="15345" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -516,7 +516,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="181">
   <si>
     <t>PSNR</t>
   </si>
@@ -1047,6 +1047,18 @@
   </si>
   <si>
     <t>V4.04.8</t>
+  </si>
+  <si>
+    <t>V4.06.5</t>
+  </si>
+  <si>
+    <t>V4.06.6</t>
+  </si>
+  <si>
+    <t>V4.06.7</t>
+  </si>
+  <si>
+    <t>V4.06.8</t>
   </si>
 </sst>
 </file>
@@ -1154,1465 +1166,15 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="229">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="84">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -3771,38 +2333,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="F1" s="13" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="K1" s="13" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="K1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="13"/>
+      <c r="L1" s="14"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="13"/>
+      <c r="O1" s="14"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="R1" s="2"/>
-      <c r="S1" s="13" t="s">
+      <c r="S1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -4432,64 +2994,64 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="L3:L15">
-    <cfRule type="top10" dxfId="228" priority="24" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="83" priority="24" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O13">
-    <cfRule type="top10" dxfId="227" priority="23" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="82" priority="23" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I19 I21:I1048576">
-    <cfRule type="top10" dxfId="226" priority="22" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="81" priority="22" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H19 H21:H1048576">
-    <cfRule type="top10" dxfId="225" priority="21" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="80" priority="21" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G19 G21:G1048576">
-    <cfRule type="top10" dxfId="224" priority="20" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="79" priority="20" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="top10" dxfId="223" priority="19" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="78" priority="19" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="top10" dxfId="222" priority="18" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="77" priority="18" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="top10" dxfId="221" priority="17" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="76" priority="17" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:G31">
-    <cfRule type="top10" dxfId="220" priority="12" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="75" priority="12" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:H32">
-    <cfRule type="top10" dxfId="219" priority="11" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="74" priority="11" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:I32">
-    <cfRule type="top10" dxfId="218" priority="10" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="73" priority="10" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1">
-    <cfRule type="top10" dxfId="217" priority="9" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="72" priority="9" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1">
-    <cfRule type="top10" dxfId="216" priority="8" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="71" priority="8" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1">
-    <cfRule type="top10" dxfId="215" priority="7" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="70" priority="7" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2">
-    <cfRule type="top10" dxfId="214" priority="6" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="69" priority="6" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2">
-    <cfRule type="top10" dxfId="213" priority="5" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="68" priority="5" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2">
-    <cfRule type="top10" dxfId="212" priority="4" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="67" priority="4" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="top10" dxfId="211" priority="3" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="66" priority="3" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1048576">
-    <cfRule type="top10" dxfId="210" priority="2" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="65" priority="2" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1048576">
-    <cfRule type="top10" dxfId="209" priority="1" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="64" priority="1" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5420,40 +3982,40 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F1:F6 F10:F100">
-    <cfRule type="top10" dxfId="208" priority="15" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="63" priority="15" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G6 G10:G100">
-    <cfRule type="top10" dxfId="207" priority="14" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="62" priority="14" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="top10" dxfId="206" priority="13" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="61" priority="13" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="top10" dxfId="205" priority="12" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="60" priority="12" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:B1048576 B1:B45">
-    <cfRule type="top10" dxfId="204" priority="8" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="59" priority="8" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C1048576 C1:C45">
-    <cfRule type="top10" dxfId="203" priority="7" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="58" priority="7" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1">
-    <cfRule type="top10" dxfId="202" priority="6" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="57" priority="6" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1">
-    <cfRule type="top10" dxfId="201" priority="5" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="56" priority="5" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17:N1048576 N1:N15">
-    <cfRule type="top10" dxfId="200" priority="4" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="55" priority="4" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O17:O1048576 O1:O15">
-    <cfRule type="top10" dxfId="199" priority="3" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="54" priority="3" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F9">
-    <cfRule type="top10" dxfId="198" priority="2" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="53" priority="2" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G9">
-    <cfRule type="top10" dxfId="197" priority="1" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="52" priority="1" percent="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5463,10 +4025,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB7FCCD-6DEF-4489-B535-F792B4F2F5DA}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6159,31 +4721,99 @@
         <v>0.96020000000000005</v>
       </c>
     </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>177</v>
+      </c>
+      <c r="B25" s="5">
+        <v>17.706900000000001</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.76649999999999996</v>
+      </c>
+      <c r="D25" s="5">
+        <v>19.653099999999998</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0.86029999999999995</v>
+      </c>
+      <c r="F25" s="5">
+        <v>22.648900000000001</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.90410000000000001</v>
+      </c>
+      <c r="H25" s="5">
+        <v>21.154800000000002</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0.85070000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26" s="5">
+        <v>17.365400000000001</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.76890000000000003</v>
+      </c>
+      <c r="D26" s="5">
+        <v>19.2791</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0.85189999999999999</v>
+      </c>
+      <c r="F26" s="5">
+        <v>23.146000000000001</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0.90639999999999998</v>
+      </c>
+      <c r="H26" s="5">
+        <v>22.748899999999999</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0.86929999999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="top10" dxfId="14" priority="8" rank="1"/>
+    <cfRule type="top10" dxfId="51" priority="8" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="top10" dxfId="13" priority="7" rank="1"/>
+    <cfRule type="top10" dxfId="50" priority="7" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="top10" dxfId="12" priority="6" rank="1"/>
+    <cfRule type="top10" dxfId="49" priority="6" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="top10" dxfId="11" priority="5" rank="1"/>
+    <cfRule type="top10" dxfId="48" priority="5" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="top10" dxfId="10" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="47" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="top10" dxfId="9" priority="3" rank="1"/>
+    <cfRule type="top10" dxfId="46" priority="3" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="top10" dxfId="8" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="45" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="44" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6826,130 +5456,130 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3">
-    <cfRule type="top10" dxfId="196" priority="42" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="43" priority="42" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="top10" dxfId="195" priority="41" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="42" priority="41" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="top10" dxfId="194" priority="40" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="41" priority="40" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="top10" dxfId="193" priority="39" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="40" priority="39" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="top10" dxfId="192" priority="38" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="39" priority="38" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="top10" dxfId="191" priority="37" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="38" priority="37" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="top10" dxfId="190" priority="36" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="37" priority="36" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="top10" dxfId="189" priority="35" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="36" priority="35" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3">
-    <cfRule type="top10" dxfId="188" priority="34" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="35" priority="34" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3">
-    <cfRule type="top10" dxfId="187" priority="33" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="34" priority="33" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3">
-    <cfRule type="top10" dxfId="186" priority="32" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="33" priority="32" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3">
-    <cfRule type="top10" dxfId="185" priority="31" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="32" priority="31" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3">
-    <cfRule type="top10" dxfId="184" priority="30" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="31" priority="30" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3">
-    <cfRule type="top10" dxfId="183" priority="29" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="30" priority="29" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3">
-    <cfRule type="top10" dxfId="182" priority="28" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="29" priority="28" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3">
-    <cfRule type="top10" dxfId="181" priority="27" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="28" priority="27" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3">
-    <cfRule type="top10" dxfId="180" priority="26" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="27" priority="26" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y3">
-    <cfRule type="top10" dxfId="179" priority="25" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="26" priority="25" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3">
-    <cfRule type="top10" dxfId="178" priority="24" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="25" priority="24" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3">
-    <cfRule type="top10" dxfId="177" priority="23" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="24" priority="23" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC3">
-    <cfRule type="top10" dxfId="176" priority="22" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="23" priority="22" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD3">
-    <cfRule type="top10" dxfId="175" priority="21" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="22" priority="21" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3">
-    <cfRule type="top10" dxfId="174" priority="20" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="21" priority="20" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB3">
-    <cfRule type="top10" dxfId="173" priority="19" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="20" priority="19" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH3">
-    <cfRule type="top10" dxfId="172" priority="18" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="19" priority="18" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI3">
-    <cfRule type="top10" dxfId="171" priority="17" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="18" priority="17" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF3">
-    <cfRule type="top10" dxfId="170" priority="16" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="17" priority="16" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG3">
-    <cfRule type="top10" dxfId="169" priority="15" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="16" priority="15" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="top10" dxfId="168" priority="14" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="15" priority="14" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="top10" dxfId="167" priority="13" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="14" priority="13" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="top10" dxfId="166" priority="12" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="13" priority="12" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="top10" dxfId="165" priority="11" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="12" priority="11" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="top10" dxfId="164" priority="10" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="11" priority="10" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="top10" dxfId="163" priority="9" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="10" priority="9" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q10">
-    <cfRule type="top10" dxfId="162" priority="8" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="9" priority="8" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10">
-    <cfRule type="top10" dxfId="161" priority="7" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="8" priority="7" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V10">
-    <cfRule type="top10" dxfId="160" priority="6" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="7" priority="6" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W10">
-    <cfRule type="top10" dxfId="159" priority="5" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="6" priority="5" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA10">
-    <cfRule type="top10" dxfId="158" priority="4" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="5" priority="4" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB10">
-    <cfRule type="top10" dxfId="157" priority="3" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="4" priority="3" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF10">
-    <cfRule type="top10" dxfId="156" priority="2" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="3" priority="2" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG10">
-    <cfRule type="top10" dxfId="155" priority="1" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="2" priority="1" percent="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7351,10 +5981,10 @@
       <c r="A10" t="s">
         <v>172</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>6.4854000000000003</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>0.65529999999999999</v>
       </c>
       <c r="H10" s="8"/>
@@ -7376,10 +6006,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="top10" dxfId="70" priority="2" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="1" priority="2" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="top10" dxfId="68" priority="1" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="0" priority="1" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF45D76-3500-4D47-9E3F-B9F08680A009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B3DBAA-8579-4AE4-A467-BC988F0B23B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3735" yWindow="1470" windowWidth="28800" windowHeight="15345" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -516,7 +516,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="185">
   <si>
     <t>PSNR</t>
   </si>
@@ -1059,6 +1059,18 @@
   </si>
   <si>
     <t>V4.06.8</t>
+  </si>
+  <si>
+    <t>V4.07.5</t>
+  </si>
+  <si>
+    <t>V4.07.6</t>
+  </si>
+  <si>
+    <t>V4.07.7</t>
+  </si>
+  <si>
+    <t>V4.07.8</t>
   </si>
 </sst>
 </file>
@@ -1069,7 +1081,7 @@
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1117,6 +1129,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1150,7 +1169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1170,6 +1189,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4025,10 +4045,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB7FCCD-6DEF-4489-B535-F792B4F2F5DA}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4725,28 +4745,28 @@
       <c r="A25" t="s">
         <v>177</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="15">
         <v>17.706900000000001</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="15">
         <v>0.76649999999999996</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="15">
         <v>19.653099999999998</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="15">
         <v>0.86029999999999995</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="15">
         <v>22.648900000000001</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="15">
         <v>0.90410000000000001</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="15">
         <v>21.154800000000002</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="15">
         <v>0.85070000000000001</v>
       </c>
     </row>
@@ -4754,28 +4774,28 @@
       <c r="A26" t="s">
         <v>178</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="15">
         <v>17.365400000000001</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="15">
         <v>0.76890000000000003</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="15">
         <v>19.2791</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="15">
         <v>0.85189999999999999</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="15">
         <v>23.146000000000001</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="15">
         <v>0.90639999999999998</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="15">
         <v>22.748899999999999</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="15">
         <v>0.86929999999999996</v>
       </c>
     </row>
@@ -4783,10 +4803,102 @@
       <c r="A27" t="s">
         <v>179</v>
       </c>
+      <c r="B27" s="15">
+        <v>12.3668</v>
+      </c>
+      <c r="C27" s="15">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="D27" s="15">
+        <v>18.418500000000002</v>
+      </c>
+      <c r="E27" s="15">
+        <v>0.84709999999999996</v>
+      </c>
+      <c r="F27" s="15">
+        <v>22.5608</v>
+      </c>
+      <c r="G27" s="15">
+        <v>0.86829999999999996</v>
+      </c>
+      <c r="H27" s="15">
+        <v>16.315799999999999</v>
+      </c>
+      <c r="I27" s="15">
+        <v>0.82110000000000005</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>180</v>
+      </c>
+      <c r="B28" s="15">
+        <v>15.368399999999999</v>
+      </c>
+      <c r="C28" s="15">
+        <v>0.74960000000000004</v>
+      </c>
+      <c r="D28" s="15">
+        <v>19.710999999999999</v>
+      </c>
+      <c r="E28" s="15">
+        <v>0.877</v>
+      </c>
+      <c r="F28" s="15">
+        <v>23.2363</v>
+      </c>
+      <c r="G28" s="15">
+        <v>0.88929999999999998</v>
+      </c>
+      <c r="H28" s="15">
+        <v>20.630400000000002</v>
+      </c>
+      <c r="I28" s="15">
+        <v>0.87549999999999994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>181</v>
+      </c>
+      <c r="B29" s="15">
+        <v>18.610700000000001</v>
+      </c>
+      <c r="C29" s="15">
+        <v>0.79330000000000001</v>
+      </c>
+      <c r="D29" s="15">
+        <v>20.399799999999999</v>
+      </c>
+      <c r="E29" s="15">
+        <v>0.88759999999999994</v>
+      </c>
+      <c r="F29" s="15">
+        <v>20.9389</v>
+      </c>
+      <c r="G29" s="15">
+        <v>0.86960000000000004</v>
+      </c>
+      <c r="H29" s="15">
+        <v>25.526199999999999</v>
+      </c>
+      <c r="I29" s="15">
+        <v>0.91520000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B3DBAA-8579-4AE4-A467-BC988F0B23B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68381C23-0AE6-49DF-A743-D6DBA68FA150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3735" yWindow="1470" windowWidth="28800" windowHeight="15345" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1186,10 +1186,10 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2353,38 +2353,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="F1" s="14" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="F1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="K1" s="14" t="s">
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="K1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="14"/>
+      <c r="L1" s="15"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="14"/>
+      <c r="O1" s="15"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="R1" s="2"/>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -4047,8 +4047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB7FCCD-6DEF-4489-B535-F792B4F2F5DA}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4745,146 +4745,130 @@
       <c r="A25" t="s">
         <v>177</v>
       </c>
-      <c r="B25" s="15">
-        <v>17.706900000000001</v>
-      </c>
-      <c r="C25" s="15">
-        <v>0.76649999999999996</v>
-      </c>
-      <c r="D25" s="15">
-        <v>19.653099999999998</v>
-      </c>
-      <c r="E25" s="15">
-        <v>0.86029999999999995</v>
-      </c>
-      <c r="F25" s="15">
-        <v>22.648900000000001</v>
-      </c>
-      <c r="G25" s="15">
-        <v>0.90410000000000001</v>
-      </c>
-      <c r="H25" s="15">
-        <v>21.154800000000002</v>
-      </c>
-      <c r="I25" s="15">
-        <v>0.85070000000000001</v>
+      <c r="B25" s="11">
+        <v>14.998900000000001</v>
+      </c>
+      <c r="C25" s="11">
+        <v>0.73729999999999996</v>
+      </c>
+      <c r="D25" s="11">
+        <v>13.646100000000001</v>
+      </c>
+      <c r="E25" s="11">
+        <v>0.79569999999999996</v>
+      </c>
+      <c r="F25" s="11">
+        <v>17.9329</v>
+      </c>
+      <c r="G25" s="11">
+        <v>0.84189999999999998</v>
+      </c>
+      <c r="H25" s="11">
+        <v>20.722300000000001</v>
+      </c>
+      <c r="I25" s="11">
+        <v>0.81699999999999995</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>178</v>
       </c>
-      <c r="B26" s="15">
-        <v>17.365400000000001</v>
-      </c>
-      <c r="C26" s="15">
-        <v>0.76890000000000003</v>
-      </c>
-      <c r="D26" s="15">
-        <v>19.2791</v>
-      </c>
-      <c r="E26" s="15">
-        <v>0.85189999999999999</v>
-      </c>
-      <c r="F26" s="15">
-        <v>23.146000000000001</v>
-      </c>
-      <c r="G26" s="15">
-        <v>0.90639999999999998</v>
-      </c>
-      <c r="H26" s="15">
-        <v>22.748899999999999</v>
-      </c>
-      <c r="I26" s="15">
-        <v>0.86929999999999996</v>
+      <c r="B26" s="11">
+        <v>9.1883999999999997</v>
+      </c>
+      <c r="C26" s="11">
+        <v>0.65439999999999998</v>
+      </c>
+      <c r="D26" s="11">
+        <v>13.919</v>
+      </c>
+      <c r="E26" s="11">
+        <v>0.79610000000000003</v>
+      </c>
+      <c r="F26" s="11">
+        <v>17.896899999999999</v>
+      </c>
+      <c r="G26" s="11">
+        <v>0.84860000000000002</v>
+      </c>
+      <c r="H26" s="11">
+        <v>18.140499999999999</v>
+      </c>
+      <c r="I26" s="11">
+        <v>0.82150000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>179</v>
       </c>
-      <c r="B27" s="15">
-        <v>12.3668</v>
-      </c>
-      <c r="C27" s="15">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="D27" s="15">
-        <v>18.418500000000002</v>
-      </c>
-      <c r="E27" s="15">
-        <v>0.84709999999999996</v>
-      </c>
-      <c r="F27" s="15">
-        <v>22.5608</v>
-      </c>
-      <c r="G27" s="15">
-        <v>0.86829999999999996</v>
-      </c>
-      <c r="H27" s="15">
-        <v>16.315799999999999</v>
-      </c>
-      <c r="I27" s="15">
-        <v>0.82110000000000005</v>
+      <c r="B27" s="11">
+        <v>7.6097999999999999</v>
+      </c>
+      <c r="C27" s="11">
+        <v>0.62519999999999998</v>
+      </c>
+      <c r="D27" s="11">
+        <v>14.295199999999999</v>
+      </c>
+      <c r="E27" s="11">
+        <v>0.81679999999999997</v>
+      </c>
+      <c r="F27" s="11">
+        <v>18.012899999999998</v>
+      </c>
+      <c r="G27" s="11">
+        <v>0.83309999999999995</v>
+      </c>
+      <c r="H27" s="11">
+        <v>19.110399999999998</v>
+      </c>
+      <c r="I27" s="11">
+        <v>0.81699999999999995</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>180</v>
       </c>
-      <c r="B28" s="15">
-        <v>15.368399999999999</v>
-      </c>
-      <c r="C28" s="15">
-        <v>0.74960000000000004</v>
-      </c>
-      <c r="D28" s="15">
-        <v>19.710999999999999</v>
-      </c>
-      <c r="E28" s="15">
-        <v>0.877</v>
-      </c>
-      <c r="F28" s="15">
-        <v>23.2363</v>
-      </c>
-      <c r="G28" s="15">
-        <v>0.88929999999999998</v>
-      </c>
-      <c r="H28" s="15">
-        <v>20.630400000000002</v>
-      </c>
-      <c r="I28" s="15">
-        <v>0.87549999999999994</v>
+      <c r="B28" s="11">
+        <v>7.6630000000000003</v>
+      </c>
+      <c r="C28" s="11">
+        <v>0.62439999999999996</v>
+      </c>
+      <c r="D28" s="11">
+        <v>14.385300000000001</v>
+      </c>
+      <c r="E28" s="11">
+        <v>0.82469999999999999</v>
+      </c>
+      <c r="F28" s="11">
+        <v>19.760200000000001</v>
+      </c>
+      <c r="G28" s="11">
+        <v>0.85970000000000002</v>
+      </c>
+      <c r="H28" s="11">
+        <v>19.948699999999999</v>
+      </c>
+      <c r="I28" s="11">
+        <v>0.8327</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>181</v>
       </c>
-      <c r="B29" s="15">
-        <v>18.610700000000001</v>
-      </c>
-      <c r="C29" s="15">
-        <v>0.79330000000000001</v>
-      </c>
-      <c r="D29" s="15">
-        <v>20.399799999999999</v>
-      </c>
-      <c r="E29" s="15">
-        <v>0.88759999999999994</v>
-      </c>
-      <c r="F29" s="15">
-        <v>20.9389</v>
-      </c>
-      <c r="G29" s="15">
-        <v>0.86960000000000004</v>
-      </c>
-      <c r="H29" s="15">
-        <v>25.526199999999999</v>
-      </c>
-      <c r="I29" s="15">
-        <v>0.91520000000000001</v>
-      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">

--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68381C23-0AE6-49DF-A743-D6DBA68FA150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A9D940-3A92-42C2-B702-43AAFEA7E190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="1470" windowWidth="28800" windowHeight="15345" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43800" yWindow="3390" windowWidth="28800" windowHeight="15345" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1081,7 +1081,7 @@
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1129,13 +1129,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1169,7 +1162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1186,7 +1179,6 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2353,38 +2345,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="F1" s="15" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="K1" s="15" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="K1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="15"/>
+      <c r="L1" s="14"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="15"/>
+      <c r="O1" s="14"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="R1" s="2"/>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -4047,8 +4039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB7FCCD-6DEF-4489-B535-F792B4F2F5DA}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4861,28 +4853,116 @@
       <c r="A29" t="s">
         <v>181</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
+      <c r="B29" s="11">
+        <v>7.6207000000000003</v>
+      </c>
+      <c r="C29" s="11">
+        <v>0.60470000000000002</v>
+      </c>
+      <c r="D29" s="11">
+        <v>16.1814</v>
+      </c>
+      <c r="E29" s="11">
+        <v>0.76419999999999999</v>
+      </c>
+      <c r="F29" s="11">
+        <v>16.8018</v>
+      </c>
+      <c r="G29" s="11">
+        <v>0.80689999999999995</v>
+      </c>
+      <c r="H29" s="11">
+        <v>22.254899999999999</v>
+      </c>
+      <c r="I29" s="11">
+        <v>0.82230000000000003</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>182</v>
       </c>
+      <c r="B30" s="11">
+        <v>7.6005000000000003</v>
+      </c>
+      <c r="C30" s="11">
+        <v>0.57679999999999998</v>
+      </c>
+      <c r="D30" s="11">
+        <v>12.791700000000001</v>
+      </c>
+      <c r="E30" s="11">
+        <v>0.64539999999999997</v>
+      </c>
+      <c r="F30" s="11">
+        <v>15.729699999999999</v>
+      </c>
+      <c r="G30" s="11">
+        <v>0.79649999999999999</v>
+      </c>
+      <c r="H30" s="11">
+        <v>16.655200000000001</v>
+      </c>
+      <c r="I30" s="11">
+        <v>0.68940000000000001</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>183</v>
       </c>
+      <c r="B31" s="11">
+        <v>7.8164999999999996</v>
+      </c>
+      <c r="C31" s="11">
+        <v>0.6069</v>
+      </c>
+      <c r="D31" s="11">
+        <v>15.0252</v>
+      </c>
+      <c r="E31" s="11">
+        <v>0.7984</v>
+      </c>
+      <c r="F31" s="11">
+        <v>17.275500000000001</v>
+      </c>
+      <c r="G31" s="11">
+        <v>0.81079999999999997</v>
+      </c>
+      <c r="H31" s="11">
+        <v>15.864100000000001</v>
+      </c>
+      <c r="I31" s="11">
+        <v>0.81399999999999995</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>184</v>
+      </c>
+      <c r="B32" s="11">
+        <v>8.2654999999999994</v>
+      </c>
+      <c r="C32" s="11">
+        <v>0.59360000000000002</v>
+      </c>
+      <c r="D32" s="11">
+        <v>15.676600000000001</v>
+      </c>
+      <c r="E32" s="11">
+        <v>0.80910000000000004</v>
+      </c>
+      <c r="F32" s="11">
+        <v>16.512899999999998</v>
+      </c>
+      <c r="G32" s="11">
+        <v>0.7903</v>
+      </c>
+      <c r="H32" s="11">
+        <v>18.7441</v>
+      </c>
+      <c r="I32" s="11">
+        <v>0.79749999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A9D940-3A92-42C2-B702-43AAFEA7E190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640BFDDE-24E2-4E7D-BFEB-74DBC3D65570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43800" yWindow="3390" windowWidth="28800" windowHeight="15345" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3780" yWindow="1875" windowWidth="28800" windowHeight="15345" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -516,7 +516,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="193">
   <si>
     <t>PSNR</t>
   </si>
@@ -1071,6 +1071,30 @@
   </si>
   <si>
     <t>V4.07.8</t>
+  </si>
+  <si>
+    <t>V4.12.9</t>
+  </si>
+  <si>
+    <t>V4.12.10</t>
+  </si>
+  <si>
+    <t>V4.12.11</t>
+  </si>
+  <si>
+    <t>V4.12.12</t>
+  </si>
+  <si>
+    <t>V4.13.9</t>
+  </si>
+  <si>
+    <t>V4.13.10</t>
+  </si>
+  <si>
+    <t>V4.13.11</t>
+  </si>
+  <si>
+    <t>V4.13.12</t>
   </si>
 </sst>
 </file>
@@ -4037,10 +4061,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB7FCCD-6DEF-4489-B535-F792B4F2F5DA}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4963,6 +4987,238 @@
       </c>
       <c r="I32" s="11">
         <v>0.79749999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>185</v>
+      </c>
+      <c r="B33" s="11">
+        <v>7.6628999999999996</v>
+      </c>
+      <c r="C33" s="11">
+        <v>0.68859999999999999</v>
+      </c>
+      <c r="D33" s="11">
+        <v>21.343499999999999</v>
+      </c>
+      <c r="E33" s="11">
+        <v>0.92010000000000003</v>
+      </c>
+      <c r="F33" s="11">
+        <v>20.311699999999998</v>
+      </c>
+      <c r="G33" s="11">
+        <v>0.87960000000000005</v>
+      </c>
+      <c r="H33" s="11">
+        <v>25.898700000000002</v>
+      </c>
+      <c r="I33" s="11">
+        <v>0.93620000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>186</v>
+      </c>
+      <c r="B34" s="11">
+        <v>7.0274999999999999</v>
+      </c>
+      <c r="C34" s="11">
+        <v>0.66220000000000001</v>
+      </c>
+      <c r="D34" s="11">
+        <v>20.7424</v>
+      </c>
+      <c r="E34" s="11">
+        <v>0.91459999999999997</v>
+      </c>
+      <c r="F34" s="11">
+        <v>18.465599999999998</v>
+      </c>
+      <c r="G34" s="11">
+        <v>0.86519999999999997</v>
+      </c>
+      <c r="H34" s="11">
+        <v>25.020299999999999</v>
+      </c>
+      <c r="I34" s="11">
+        <v>0.92549999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>187</v>
+      </c>
+      <c r="B35" s="11">
+        <v>6.3823999999999996</v>
+      </c>
+      <c r="C35" s="11">
+        <v>0.65149999999999997</v>
+      </c>
+      <c r="D35" s="11">
+        <v>20.296099999999999</v>
+      </c>
+      <c r="E35" s="11">
+        <v>0.91369999999999996</v>
+      </c>
+      <c r="F35" s="11">
+        <v>19.272500000000001</v>
+      </c>
+      <c r="G35" s="11">
+        <v>0.87309999999999999</v>
+      </c>
+      <c r="H35" s="11">
+        <v>25.5596</v>
+      </c>
+      <c r="I35" s="11">
+        <v>0.93459999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>188</v>
+      </c>
+      <c r="B36" s="11">
+        <v>5.0491000000000001</v>
+      </c>
+      <c r="C36" s="11">
+        <v>0.62190000000000001</v>
+      </c>
+      <c r="D36" s="11">
+        <v>19</v>
+      </c>
+      <c r="E36" s="11">
+        <v>0.9042</v>
+      </c>
+      <c r="F36" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="G36" s="11">
+        <v>0.81159999999999999</v>
+      </c>
+      <c r="H36" s="11">
+        <v>23.5486</v>
+      </c>
+      <c r="I36" s="11">
+        <v>0.90839999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>189</v>
+      </c>
+      <c r="B37" s="11">
+        <v>8.6103000000000005</v>
+      </c>
+      <c r="C37" s="11">
+        <v>0.65280000000000005</v>
+      </c>
+      <c r="D37" s="11">
+        <v>21.138999999999999</v>
+      </c>
+      <c r="E37" s="11">
+        <v>0.88619999999999999</v>
+      </c>
+      <c r="F37" s="11">
+        <v>24.367699999999999</v>
+      </c>
+      <c r="G37" s="11">
+        <v>0.92949999999999999</v>
+      </c>
+      <c r="H37" s="11">
+        <v>22.5031</v>
+      </c>
+      <c r="I37" s="11">
+        <v>0.86040000000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>190</v>
+      </c>
+      <c r="B38" s="11">
+        <v>8.1295999999999999</v>
+      </c>
+      <c r="C38" s="11">
+        <v>0.65690000000000004</v>
+      </c>
+      <c r="D38" s="11">
+        <v>21.4176</v>
+      </c>
+      <c r="E38" s="11">
+        <v>0.89049999999999996</v>
+      </c>
+      <c r="F38" s="11">
+        <v>24.453800000000001</v>
+      </c>
+      <c r="G38" s="11">
+        <v>0.93220000000000003</v>
+      </c>
+      <c r="H38" s="11">
+        <v>24.329599999999999</v>
+      </c>
+      <c r="I38" s="11">
+        <v>0.90149999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>191</v>
+      </c>
+      <c r="B39" s="11">
+        <v>8.1849000000000007</v>
+      </c>
+      <c r="C39" s="11">
+        <v>0.66759999999999997</v>
+      </c>
+      <c r="D39" s="11">
+        <v>21.020099999999999</v>
+      </c>
+      <c r="E39" s="11">
+        <v>0.87749999999999995</v>
+      </c>
+      <c r="F39" s="11">
+        <v>24.7698</v>
+      </c>
+      <c r="G39" s="11">
+        <v>0.93279999999999996</v>
+      </c>
+      <c r="H39" s="11">
+        <v>24.911200000000001</v>
+      </c>
+      <c r="I39" s="11">
+        <v>0.89980000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>192</v>
+      </c>
+      <c r="B40" s="11">
+        <v>8.1608000000000001</v>
+      </c>
+      <c r="C40" s="11">
+        <v>0.64149999999999996</v>
+      </c>
+      <c r="D40" s="11">
+        <v>21.1768</v>
+      </c>
+      <c r="E40" s="11">
+        <v>0.87639999999999996</v>
+      </c>
+      <c r="F40" s="11">
+        <v>26.054600000000001</v>
+      </c>
+      <c r="G40" s="11">
+        <v>0.94179999999999997</v>
+      </c>
+      <c r="H40" s="11">
+        <v>21.221900000000002</v>
+      </c>
+      <c r="I40" s="11">
+        <v>0.83909999999999996</v>
       </c>
     </row>
   </sheetData>

--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640BFDDE-24E2-4E7D-BFEB-74DBC3D65570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E85576-BAB0-48D1-98F0-D50CCEB0F2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3780" yWindow="1875" windowWidth="28800" windowHeight="15345" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -516,7 +516,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="209">
   <si>
     <t>PSNR</t>
   </si>
@@ -1095,6 +1095,54 @@
   </si>
   <si>
     <t>V4.13.12</t>
+  </si>
+  <si>
+    <t>V4.08.5</t>
+  </si>
+  <si>
+    <t>V4.08.6</t>
+  </si>
+  <si>
+    <t>V4.08.7</t>
+  </si>
+  <si>
+    <t>V4.08.8</t>
+  </si>
+  <si>
+    <t>V4.08.9</t>
+  </si>
+  <si>
+    <t>V4.08.10</t>
+  </si>
+  <si>
+    <t>V4.08.11</t>
+  </si>
+  <si>
+    <t>V4.08.12</t>
+  </si>
+  <si>
+    <t>V4.09.5</t>
+  </si>
+  <si>
+    <t>V4.09.6</t>
+  </si>
+  <si>
+    <t>V4.09.7</t>
+  </si>
+  <si>
+    <t>V4.09.8</t>
+  </si>
+  <si>
+    <t>V4.09.9</t>
+  </si>
+  <si>
+    <t>V4.09.10</t>
+  </si>
+  <si>
+    <t>V4.09.11</t>
+  </si>
+  <si>
+    <t>V4.09.12</t>
   </si>
 </sst>
 </file>
@@ -4061,10 +4109,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB7FCCD-6DEF-4489-B535-F792B4F2F5DA}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4074,7 +4123,7 @@
     <col min="13" max="13" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4991,233 +5040,505 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>185</v>
-      </c>
-      <c r="B33" s="11">
-        <v>7.6628999999999996</v>
-      </c>
-      <c r="C33" s="11">
-        <v>0.68859999999999999</v>
-      </c>
-      <c r="D33" s="11">
-        <v>21.343499999999999</v>
-      </c>
-      <c r="E33" s="11">
-        <v>0.92010000000000003</v>
-      </c>
-      <c r="F33" s="11">
-        <v>20.311699999999998</v>
-      </c>
-      <c r="G33" s="11">
-        <v>0.87960000000000005</v>
-      </c>
-      <c r="H33" s="11">
-        <v>25.898700000000002</v>
-      </c>
-      <c r="I33" s="11">
-        <v>0.93620000000000003</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>186</v>
-      </c>
-      <c r="B34" s="11">
-        <v>7.0274999999999999</v>
-      </c>
-      <c r="C34" s="11">
-        <v>0.66220000000000001</v>
-      </c>
-      <c r="D34" s="11">
-        <v>20.7424</v>
-      </c>
-      <c r="E34" s="11">
-        <v>0.91459999999999997</v>
-      </c>
-      <c r="F34" s="11">
-        <v>18.465599999999998</v>
-      </c>
-      <c r="G34" s="11">
-        <v>0.86519999999999997</v>
-      </c>
-      <c r="H34" s="11">
-        <v>25.020299999999999</v>
-      </c>
-      <c r="I34" s="11">
-        <v>0.92549999999999999</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>187</v>
-      </c>
-      <c r="B35" s="11">
-        <v>6.3823999999999996</v>
-      </c>
-      <c r="C35" s="11">
-        <v>0.65149999999999997</v>
-      </c>
-      <c r="D35" s="11">
-        <v>20.296099999999999</v>
-      </c>
-      <c r="E35" s="11">
-        <v>0.91369999999999996</v>
-      </c>
-      <c r="F35" s="11">
-        <v>19.272500000000001</v>
-      </c>
-      <c r="G35" s="11">
-        <v>0.87309999999999999</v>
-      </c>
-      <c r="H35" s="11">
-        <v>25.5596</v>
-      </c>
-      <c r="I35" s="11">
-        <v>0.93459999999999999</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>188</v>
-      </c>
-      <c r="B36" s="11">
-        <v>5.0491000000000001</v>
-      </c>
-      <c r="C36" s="11">
-        <v>0.62190000000000001</v>
-      </c>
-      <c r="D36" s="11">
-        <v>19</v>
-      </c>
-      <c r="E36" s="11">
-        <v>0.9042</v>
-      </c>
-      <c r="F36" s="11">
-        <v>14.5</v>
-      </c>
-      <c r="G36" s="11">
-        <v>0.81159999999999999</v>
-      </c>
-      <c r="H36" s="11">
-        <v>23.5486</v>
-      </c>
-      <c r="I36" s="11">
-        <v>0.90839999999999999</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>189</v>
-      </c>
-      <c r="B37" s="11">
-        <v>8.6103000000000005</v>
-      </c>
-      <c r="C37" s="11">
-        <v>0.65280000000000005</v>
-      </c>
-      <c r="D37" s="11">
-        <v>21.138999999999999</v>
-      </c>
-      <c r="E37" s="11">
-        <v>0.88619999999999999</v>
-      </c>
-      <c r="F37" s="11">
-        <v>24.367699999999999</v>
-      </c>
-      <c r="G37" s="11">
-        <v>0.92949999999999999</v>
-      </c>
-      <c r="H37" s="11">
-        <v>22.5031</v>
-      </c>
-      <c r="I37" s="11">
-        <v>0.86040000000000005</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>190</v>
-      </c>
-      <c r="B38" s="11">
-        <v>8.1295999999999999</v>
-      </c>
-      <c r="C38" s="11">
-        <v>0.65690000000000004</v>
-      </c>
-      <c r="D38" s="11">
-        <v>21.4176</v>
-      </c>
-      <c r="E38" s="11">
-        <v>0.89049999999999996</v>
-      </c>
-      <c r="F38" s="11">
-        <v>24.453800000000001</v>
-      </c>
-      <c r="G38" s="11">
-        <v>0.93220000000000003</v>
-      </c>
-      <c r="H38" s="11">
-        <v>24.329599999999999</v>
-      </c>
-      <c r="I38" s="11">
-        <v>0.90149999999999997</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>191</v>
-      </c>
-      <c r="B39" s="11">
-        <v>8.1849000000000007</v>
-      </c>
-      <c r="C39" s="11">
-        <v>0.66759999999999997</v>
-      </c>
-      <c r="D39" s="11">
-        <v>21.020099999999999</v>
-      </c>
-      <c r="E39" s="11">
-        <v>0.87749999999999995</v>
-      </c>
-      <c r="F39" s="11">
-        <v>24.7698</v>
-      </c>
-      <c r="G39" s="11">
-        <v>0.93279999999999996</v>
-      </c>
-      <c r="H39" s="11">
-        <v>24.911200000000001</v>
-      </c>
-      <c r="I39" s="11">
-        <v>0.89980000000000004</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>200</v>
+      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>201</v>
+      </c>
+      <c r="B41" s="11">
+        <v>7.0720999999999998</v>
+      </c>
+      <c r="C41" s="11">
+        <v>0.62690000000000001</v>
+      </c>
+      <c r="D41" s="11">
+        <v>14.2727</v>
+      </c>
+      <c r="E41" s="11">
+        <v>0.76419999999999999</v>
+      </c>
+      <c r="F41" s="11">
+        <v>16.8795</v>
+      </c>
+      <c r="G41" s="11">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="H41" s="11">
+        <v>21.4055</v>
+      </c>
+      <c r="I41" s="11">
+        <v>0.82389999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>202</v>
+      </c>
+      <c r="B42" s="11">
+        <v>7.3131000000000004</v>
+      </c>
+      <c r="C42" s="11">
+        <v>0.58889999999999998</v>
+      </c>
+      <c r="D42" s="11">
+        <v>13.1126</v>
+      </c>
+      <c r="E42" s="11">
+        <v>0.71289999999999998</v>
+      </c>
+      <c r="F42" s="11">
+        <v>16.585799999999999</v>
+      </c>
+      <c r="G42" s="11">
+        <v>0.80010000000000003</v>
+      </c>
+      <c r="H42" s="11">
+        <v>17.6601</v>
+      </c>
+      <c r="I42" s="11">
+        <v>0.74490000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>203</v>
+      </c>
+      <c r="B43" s="11">
+        <v>6.7933000000000003</v>
+      </c>
+      <c r="C43" s="11">
+        <v>0.60780000000000001</v>
+      </c>
+      <c r="D43" s="11">
+        <v>14.385400000000001</v>
+      </c>
+      <c r="E43" s="11">
+        <v>0.83379999999999999</v>
+      </c>
+      <c r="F43" s="11">
+        <v>17.566299999999998</v>
+      </c>
+      <c r="G43" s="11">
+        <v>0.82130000000000003</v>
+      </c>
+      <c r="H43" s="11">
+        <v>18.174600000000002</v>
+      </c>
+      <c r="I43" s="11">
+        <v>0.85350000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>204</v>
+      </c>
+      <c r="B44" s="11">
+        <v>6.5248999999999997</v>
+      </c>
+      <c r="C44" s="11">
+        <v>0.57040000000000002</v>
+      </c>
+      <c r="D44" s="11">
+        <v>13.501099999999999</v>
+      </c>
+      <c r="E44" s="11">
+        <v>0.78549999999999998</v>
+      </c>
+      <c r="F44" s="11">
+        <v>17.060099999999998</v>
+      </c>
+      <c r="G44" s="11">
+        <v>0.82089999999999996</v>
+      </c>
+      <c r="H44" s="11">
+        <v>18.083100000000002</v>
+      </c>
+      <c r="I44" s="11">
+        <v>0.76529999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>205</v>
+      </c>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>206</v>
+      </c>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>207</v>
+      </c>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>208</v>
+      </c>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>185</v>
+      </c>
+      <c r="B49" s="11">
+        <v>7.6628999999999996</v>
+      </c>
+      <c r="C49" s="11">
+        <v>0.68859999999999999</v>
+      </c>
+      <c r="D49" s="11">
+        <v>21.343499999999999</v>
+      </c>
+      <c r="E49" s="11">
+        <v>0.92010000000000003</v>
+      </c>
+      <c r="F49" s="11">
+        <v>20.311699999999998</v>
+      </c>
+      <c r="G49" s="11">
+        <v>0.87960000000000005</v>
+      </c>
+      <c r="H49" s="11">
+        <v>25.898700000000002</v>
+      </c>
+      <c r="I49" s="11">
+        <v>0.93620000000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>186</v>
+      </c>
+      <c r="B50" s="11">
+        <v>7.0274999999999999</v>
+      </c>
+      <c r="C50" s="11">
+        <v>0.66220000000000001</v>
+      </c>
+      <c r="D50" s="11">
+        <v>20.7424</v>
+      </c>
+      <c r="E50" s="11">
+        <v>0.91459999999999997</v>
+      </c>
+      <c r="F50" s="11">
+        <v>18.465599999999998</v>
+      </c>
+      <c r="G50" s="11">
+        <v>0.86519999999999997</v>
+      </c>
+      <c r="H50" s="11">
+        <v>25.020299999999999</v>
+      </c>
+      <c r="I50" s="11">
+        <v>0.92549999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>187</v>
+      </c>
+      <c r="B51" s="11">
+        <v>6.3823999999999996</v>
+      </c>
+      <c r="C51" s="11">
+        <v>0.65149999999999997</v>
+      </c>
+      <c r="D51" s="11">
+        <v>20.296099999999999</v>
+      </c>
+      <c r="E51" s="11">
+        <v>0.91369999999999996</v>
+      </c>
+      <c r="F51" s="11">
+        <v>19.272500000000001</v>
+      </c>
+      <c r="G51" s="11">
+        <v>0.87309999999999999</v>
+      </c>
+      <c r="H51" s="11">
+        <v>25.5596</v>
+      </c>
+      <c r="I51" s="11">
+        <v>0.93459999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>188</v>
+      </c>
+      <c r="B52" s="11">
+        <v>5.0491000000000001</v>
+      </c>
+      <c r="C52" s="11">
+        <v>0.62190000000000001</v>
+      </c>
+      <c r="D52" s="11">
+        <v>19</v>
+      </c>
+      <c r="E52" s="11">
+        <v>0.9042</v>
+      </c>
+      <c r="F52" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="G52" s="11">
+        <v>0.81159999999999999</v>
+      </c>
+      <c r="H52" s="11">
+        <v>23.5486</v>
+      </c>
+      <c r="I52" s="11">
+        <v>0.90839999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>189</v>
+      </c>
+      <c r="B53" s="11">
+        <v>8.6103000000000005</v>
+      </c>
+      <c r="C53" s="11">
+        <v>0.65280000000000005</v>
+      </c>
+      <c r="D53" s="11">
+        <v>21.138999999999999</v>
+      </c>
+      <c r="E53" s="11">
+        <v>0.88619999999999999</v>
+      </c>
+      <c r="F53" s="11">
+        <v>24.367699999999999</v>
+      </c>
+      <c r="G53" s="11">
+        <v>0.92949999999999999</v>
+      </c>
+      <c r="H53" s="11">
+        <v>22.5031</v>
+      </c>
+      <c r="I53" s="11">
+        <v>0.86040000000000005</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>190</v>
+      </c>
+      <c r="B54" s="11">
+        <v>8.1295999999999999</v>
+      </c>
+      <c r="C54" s="11">
+        <v>0.65690000000000004</v>
+      </c>
+      <c r="D54" s="11">
+        <v>21.4176</v>
+      </c>
+      <c r="E54" s="11">
+        <v>0.89049999999999996</v>
+      </c>
+      <c r="F54" s="11">
+        <v>24.453800000000001</v>
+      </c>
+      <c r="G54" s="11">
+        <v>0.93220000000000003</v>
+      </c>
+      <c r="H54" s="11">
+        <v>24.329599999999999</v>
+      </c>
+      <c r="I54" s="11">
+        <v>0.90149999999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>191</v>
+      </c>
+      <c r="B55" s="11">
+        <v>8.1849000000000007</v>
+      </c>
+      <c r="C55" s="11">
+        <v>0.66759999999999997</v>
+      </c>
+      <c r="D55" s="11">
+        <v>21.020099999999999</v>
+      </c>
+      <c r="E55" s="11">
+        <v>0.87749999999999995</v>
+      </c>
+      <c r="F55" s="11">
+        <v>24.7698</v>
+      </c>
+      <c r="G55" s="11">
+        <v>0.93279999999999996</v>
+      </c>
+      <c r="H55" s="11">
+        <v>24.911200000000001</v>
+      </c>
+      <c r="I55" s="11">
+        <v>0.89980000000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>192</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B56" s="11">
         <v>8.1608000000000001</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C56" s="11">
         <v>0.64149999999999996</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D56" s="11">
         <v>21.1768</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E56" s="11">
         <v>0.87639999999999996</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F56" s="11">
         <v>26.054600000000001</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G56" s="11">
         <v>0.94179999999999997</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H56" s="11">
         <v>21.221900000000002</v>
       </c>
-      <c r="I40" s="11">
+      <c r="I56" s="11">
         <v>0.83909999999999996</v>
       </c>
     </row>

--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E85576-BAB0-48D1-98F0-D50CCEB0F2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66790A8-B3BD-4906-BB87-50E7579A0A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="1875" windowWidth="28800" windowHeight="15345" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4995" yWindow="1965" windowWidth="28800" windowHeight="15345" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4112,8 +4112,8 @@
   <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5042,53 +5042,117 @@
       <c r="A33" t="s">
         <v>193</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
+      <c r="B33" s="11">
+        <v>5.86</v>
+      </c>
+      <c r="C33" s="11">
+        <v>0.60440000000000005</v>
+      </c>
+      <c r="D33" s="11">
+        <v>12.8194</v>
+      </c>
+      <c r="E33" s="11">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="F33" s="11">
+        <v>14.534000000000001</v>
+      </c>
+      <c r="G33" s="11">
+        <v>0.78539999999999999</v>
+      </c>
+      <c r="H33" s="11">
+        <v>17.504999999999999</v>
+      </c>
+      <c r="I33" s="11">
+        <v>0.81569999999999998</v>
+      </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>194</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
+      <c r="B34" s="11">
+        <v>7.0288000000000004</v>
+      </c>
+      <c r="C34" s="11">
+        <v>0.6361</v>
+      </c>
+      <c r="D34" s="11">
+        <v>12.803000000000001</v>
+      </c>
+      <c r="E34" s="11">
+        <v>0.79959999999999998</v>
+      </c>
+      <c r="F34" s="11">
+        <v>14.8584</v>
+      </c>
+      <c r="G34" s="11">
+        <v>0.80179999999999996</v>
+      </c>
+      <c r="H34" s="11">
+        <v>17.394500000000001</v>
+      </c>
+      <c r="I34" s="11">
+        <v>0.83679999999999999</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>195</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
+      <c r="B35" s="11">
+        <v>6.2824999999999998</v>
+      </c>
+      <c r="C35" s="11">
+        <v>0.61470000000000002</v>
+      </c>
+      <c r="D35" s="11">
+        <v>13.659800000000001</v>
+      </c>
+      <c r="E35" s="11">
+        <v>0.82269999999999999</v>
+      </c>
+      <c r="F35" s="11">
+        <v>13.672800000000001</v>
+      </c>
+      <c r="G35" s="11">
+        <v>0.77710000000000001</v>
+      </c>
+      <c r="H35" s="11">
+        <v>17.3598</v>
+      </c>
+      <c r="I35" s="11">
+        <v>0.81569999999999998</v>
+      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>196</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
+      <c r="B36" s="11">
+        <v>6.4057000000000004</v>
+      </c>
+      <c r="C36" s="11">
+        <v>0.63</v>
+      </c>
+      <c r="D36" s="11">
+        <v>13.8142</v>
+      </c>
+      <c r="E36" s="11">
+        <v>0.8196</v>
+      </c>
+      <c r="F36" s="11">
+        <v>14.1731</v>
+      </c>
+      <c r="G36" s="11">
+        <v>0.77769999999999995</v>
+      </c>
+      <c r="H36" s="11">
+        <v>17.474599999999999</v>
+      </c>
+      <c r="I36" s="11">
+        <v>0.81830000000000003</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">

--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66790A8-B3BD-4906-BB87-50E7579A0A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1895368-F2B5-4D30-AAAB-AA5B7DE29C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4995" yWindow="1965" windowWidth="28800" windowHeight="15345" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6000" yWindow="990" windowWidth="28800" windowHeight="15345" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="GTA V Images - RRL" sheetId="10" r:id="rId4"/>
     <sheet name="GTA V Images - Ours" sheetId="11" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Maps 2 RGB'!$B$1:$I$74</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -516,7 +519,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="243">
   <si>
     <t>PSNR</t>
   </si>
@@ -896,18 +899,6 @@
     <t>RGB</t>
   </si>
   <si>
-    <t>V2.00.5</t>
-  </si>
-  <si>
-    <t>V2.00.6</t>
-  </si>
-  <si>
-    <t>V2.00.7</t>
-  </si>
-  <si>
-    <t>V2.00.8</t>
-  </si>
-  <si>
     <t>V8.07.5</t>
   </si>
   <si>
@@ -962,12 +953,6 @@
     <t>V3.00.6</t>
   </si>
   <si>
-    <t>V3.00.7</t>
-  </si>
-  <si>
-    <t>V3.00.8</t>
-  </si>
-  <si>
     <t>li_eccv18</t>
   </si>
   <si>
@@ -1004,18 +989,6 @@
     <t>Mean</t>
   </si>
   <si>
-    <t>V3.01.5</t>
-  </si>
-  <si>
-    <t>V3.01.6</t>
-  </si>
-  <si>
-    <t>V3.01.7</t>
-  </si>
-  <si>
-    <t>V3.01.8</t>
-  </si>
-  <si>
     <t>V4.02.5</t>
   </si>
   <si>
@@ -1143,6 +1116,138 @@
   </si>
   <si>
     <t>V4.09.12</t>
+  </si>
+  <si>
+    <t>V5.01.9</t>
+  </si>
+  <si>
+    <t>V5.01.10</t>
+  </si>
+  <si>
+    <t>V5.01.11</t>
+  </si>
+  <si>
+    <t>V5.01.12</t>
+  </si>
+  <si>
+    <t>V5.03.09</t>
+  </si>
+  <si>
+    <t>V5.03.10</t>
+  </si>
+  <si>
+    <t>V5.03.11</t>
+  </si>
+  <si>
+    <t>V5.03.12</t>
+  </si>
+  <si>
+    <t>V5.03.5</t>
+  </si>
+  <si>
+    <t>V5.03.6</t>
+  </si>
+  <si>
+    <t>V5.03.7</t>
+  </si>
+  <si>
+    <t>V5.03.8</t>
+  </si>
+  <si>
+    <t>V5.00.9</t>
+  </si>
+  <si>
+    <t>V5.00.10</t>
+  </si>
+  <si>
+    <t>V5.00.11</t>
+  </si>
+  <si>
+    <t>V5.00.12</t>
+  </si>
+  <si>
+    <t>V5.04.5</t>
+  </si>
+  <si>
+    <t>V5.04.6</t>
+  </si>
+  <si>
+    <t>V5.04.7</t>
+  </si>
+  <si>
+    <t>V5.04.8</t>
+  </si>
+  <si>
+    <t>V5.04.9</t>
+  </si>
+  <si>
+    <t>V5.04.10</t>
+  </si>
+  <si>
+    <t>V5.04.11</t>
+  </si>
+  <si>
+    <t>V5.04.12</t>
+  </si>
+  <si>
+    <t>V5.05.5</t>
+  </si>
+  <si>
+    <t>V5.05.6</t>
+  </si>
+  <si>
+    <t>V5.05.7</t>
+  </si>
+  <si>
+    <t>V5.05.8</t>
+  </si>
+  <si>
+    <t>V5.05.9</t>
+  </si>
+  <si>
+    <t>V5.05.10</t>
+  </si>
+  <si>
+    <t>V5.05.11</t>
+  </si>
+  <si>
+    <t>V5.05.12</t>
+  </si>
+  <si>
+    <t>V5.02.5</t>
+  </si>
+  <si>
+    <t>V5.02.6</t>
+  </si>
+  <si>
+    <t>V5.02.7</t>
+  </si>
+  <si>
+    <t>V5.02.8</t>
+  </si>
+  <si>
+    <t>V5.02.9</t>
+  </si>
+  <si>
+    <t>V5.02.10</t>
+  </si>
+  <si>
+    <t>V5.02.11</t>
+  </si>
+  <si>
+    <t>V5.02.12</t>
+  </si>
+  <si>
+    <t>V5.01.5</t>
+  </si>
+  <si>
+    <t>V5.01.6</t>
+  </si>
+  <si>
+    <t>V5.01.7</t>
+  </si>
+  <si>
+    <t>V5.01.8</t>
   </si>
 </sst>
 </file>
@@ -1202,7 +1307,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1221,6 +1326,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1234,7 +1345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1251,6 +1362,8 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2417,38 +2530,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="F1" s="14" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="K1" s="14" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="K1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="14"/>
+      <c r="L1" s="16"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="14"/>
+      <c r="O1" s="16"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="R1" s="2"/>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -3456,7 +3569,7 @@
         <v>0.76429999999999998</v>
       </c>
       <c r="M10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N10" s="5">
         <v>11.668799999999999</v>
@@ -3484,7 +3597,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="M11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="N11" s="5">
         <v>11.763299999999999</v>
@@ -3512,7 +3625,7 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="M12" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="N12" s="5">
         <v>9.4975000000000005</v>
@@ -3540,7 +3653,7 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="M13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="N13" s="5">
         <v>10.1137</v>
@@ -3616,7 +3729,7 @@
         <v>0.64510000000000001</v>
       </c>
       <c r="M15" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N15" s="5">
         <v>8.1047999999999991</v>
@@ -3642,13 +3755,13 @@
         <v>59</v>
       </c>
       <c r="M16" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -3668,13 +3781,13 @@
         <v>60</v>
       </c>
       <c r="M17" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -3694,7 +3807,7 @@
         <v>61</v>
       </c>
       <c r="M18" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N18" s="5">
         <v>9.3048000000000002</v>
@@ -3720,7 +3833,7 @@
         <v>62</v>
       </c>
       <c r="M19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="N19" s="5">
         <v>8.7856000000000005</v>
@@ -3746,13 +3859,13 @@
         <v>63</v>
       </c>
       <c r="M20" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -3772,13 +3885,13 @@
         <v>64</v>
       </c>
       <c r="M21" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -3792,7 +3905,7 @@
         <v>0.74909999999999999</v>
       </c>
       <c r="E22" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F22" s="11">
         <v>15.976000000000001</v>
@@ -3812,7 +3925,7 @@
         <v>0.72409999999999997</v>
       </c>
       <c r="E23" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -3826,7 +3939,7 @@
         <v>0.73939999999999995</v>
       </c>
       <c r="E24" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F24" s="11">
         <v>17.211200000000002</v>
@@ -3846,7 +3959,7 @@
         <v>0.69399999999999995</v>
       </c>
       <c r="E25" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F25" s="11">
         <v>14.835699999999999</v>
@@ -4109,17 +4222,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB7FCCD-6DEF-4489-B535-F792B4F2F5DA}">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="9" width="11" customWidth="1"/>
+    <col min="2" max="9" width="11" style="5" customWidth="1"/>
     <col min="13" max="13" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4127,20 +4240,20 @@
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
@@ -4170,872 +4283,808 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3">
-        <v>17.872399999999999</v>
-      </c>
-      <c r="C3">
-        <v>0.83620000000000005</v>
-      </c>
-      <c r="D3">
-        <v>19.041</v>
-      </c>
-      <c r="E3">
-        <v>0.88360000000000005</v>
-      </c>
-      <c r="F3">
-        <v>16.894400000000001</v>
-      </c>
-      <c r="G3">
-        <v>0.84240000000000004</v>
-      </c>
-      <c r="H3">
-        <v>24.302600000000002</v>
-      </c>
-      <c r="I3">
-        <v>0.9042</v>
+        <v>142</v>
+      </c>
+      <c r="B3" s="5">
+        <v>14.69</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.75209999999999999</v>
+      </c>
+      <c r="D3" s="5">
+        <v>16.793600000000001</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="F3" s="5">
+        <v>16.810199999999998</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.83389999999999997</v>
+      </c>
+      <c r="H3" s="5">
+        <v>22.0181</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.84430000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4">
-        <v>17.502800000000001</v>
-      </c>
-      <c r="C4">
-        <v>0.84709999999999996</v>
-      </c>
-      <c r="D4">
-        <v>19.226800000000001</v>
-      </c>
-      <c r="E4">
-        <v>0.88639999999999997</v>
-      </c>
-      <c r="F4">
-        <v>14.5817</v>
-      </c>
-      <c r="G4">
-        <v>0.83250000000000002</v>
-      </c>
-      <c r="H4">
-        <v>24.2653</v>
-      </c>
-      <c r="I4">
-        <v>0.9103</v>
+        <v>143</v>
+      </c>
+      <c r="B4" s="5">
+        <v>11.166499999999999</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.69379999999999997</v>
+      </c>
+      <c r="D4" s="5">
+        <v>15.355600000000001</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.80510000000000004</v>
+      </c>
+      <c r="F4" s="5">
+        <v>15.696899999999999</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.79110000000000003</v>
+      </c>
+      <c r="H4" s="5">
+        <v>15.081099999999999</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.77100000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E5" t="s">
-        <v>141</v>
-      </c>
-      <c r="F5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G5" t="s">
-        <v>141</v>
-      </c>
-      <c r="H5" t="s">
-        <v>141</v>
-      </c>
-      <c r="I5" t="s">
-        <v>141</v>
+        <v>156</v>
+      </c>
+      <c r="B5" s="5">
+        <v>15.6784</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.752</v>
+      </c>
+      <c r="D5" s="5">
+        <v>15.081</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.80130000000000001</v>
+      </c>
+      <c r="F5" s="5">
+        <v>16.611899999999999</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.82279999999999998</v>
+      </c>
+      <c r="H5" s="5">
+        <v>17.171700000000001</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.79449999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" t="s">
-        <v>141</v>
-      </c>
-      <c r="F6" t="s">
-        <v>141</v>
-      </c>
-      <c r="G6" t="s">
-        <v>141</v>
-      </c>
-      <c r="H6" t="s">
-        <v>141</v>
-      </c>
-      <c r="I6" t="s">
-        <v>141</v>
+        <v>157</v>
+      </c>
+      <c r="B6" s="5">
+        <v>15.8268</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.74719999999999998</v>
+      </c>
+      <c r="D6" s="5">
+        <v>13.621</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="F6" s="5">
+        <v>19.9056</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.83809999999999996</v>
+      </c>
+      <c r="H6" s="5">
+        <v>18.399699999999999</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.80120000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="B7" s="5">
-        <v>14.69</v>
+        <v>14.9924</v>
       </c>
       <c r="C7" s="5">
-        <v>0.75209999999999999</v>
+        <v>0.73270000000000002</v>
       </c>
       <c r="D7" s="5">
-        <v>16.793600000000001</v>
+        <v>13.769</v>
       </c>
       <c r="E7" s="5">
-        <v>0.81799999999999995</v>
+        <v>0.81079999999999997</v>
       </c>
       <c r="F7" s="5">
-        <v>16.810199999999998</v>
+        <v>19.4741</v>
       </c>
       <c r="G7" s="5">
-        <v>0.83389999999999997</v>
+        <v>0.85340000000000005</v>
       </c>
       <c r="H7" s="5">
-        <v>22.0181</v>
+        <v>17.133700000000001</v>
       </c>
       <c r="I7" s="5">
-        <v>0.84430000000000005</v>
+        <v>0.7833</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="B8" s="5">
-        <v>11.166499999999999</v>
+        <v>13.327500000000001</v>
       </c>
       <c r="C8" s="5">
-        <v>0.69379999999999997</v>
+        <v>0.7218</v>
       </c>
       <c r="D8" s="5">
-        <v>15.355600000000001</v>
+        <v>14.9343</v>
       </c>
       <c r="E8" s="5">
-        <v>0.80510000000000004</v>
+        <v>0.80989999999999995</v>
       </c>
       <c r="F8" s="5">
-        <v>15.696899999999999</v>
+        <v>13.848100000000001</v>
       </c>
       <c r="G8" s="5">
-        <v>0.79110000000000003</v>
+        <v>0.81899999999999995</v>
       </c>
       <c r="H8" s="5">
-        <v>15.081099999999999</v>
+        <v>14.2524</v>
       </c>
       <c r="I8" s="5">
-        <v>0.77100000000000002</v>
+        <v>0.76449999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="B9" s="5">
-        <v>14.463699999999999</v>
+        <v>11.966200000000001</v>
       </c>
       <c r="C9" s="5">
-        <v>0.75170000000000003</v>
+        <v>0.77180000000000004</v>
       </c>
       <c r="D9" s="5">
-        <v>16.669699999999999</v>
+        <v>14.827999999999999</v>
       </c>
       <c r="E9" s="5">
-        <v>0.83250000000000002</v>
+        <v>0.79549999999999998</v>
       </c>
       <c r="F9" s="5">
-        <v>16.628599999999999</v>
+        <v>16.446000000000002</v>
       </c>
       <c r="G9" s="5">
-        <v>0.8004</v>
+        <v>0.80940000000000001</v>
       </c>
       <c r="H9" s="5">
-        <v>18.977599999999999</v>
+        <v>22.953600000000002</v>
       </c>
       <c r="I9" s="5">
-        <v>0.83520000000000005</v>
+        <v>0.92230000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="B10" s="5">
-        <v>12.6652</v>
+        <v>11.9511</v>
       </c>
       <c r="C10" s="5">
-        <v>0.73570000000000002</v>
+        <v>0.73609999999999998</v>
       </c>
       <c r="D10" s="5">
-        <v>15.749000000000001</v>
+        <v>12.814399999999999</v>
       </c>
       <c r="E10" s="5">
-        <v>0.83179999999999998</v>
+        <v>0.80730000000000002</v>
       </c>
       <c r="F10" s="5">
-        <v>13.571300000000001</v>
+        <v>19.706099999999999</v>
       </c>
       <c r="G10" s="5">
-        <v>0.78620000000000001</v>
+        <v>0.8286</v>
       </c>
       <c r="H10" s="5">
-        <v>16.597100000000001</v>
+        <v>28.9803</v>
       </c>
       <c r="I10" s="5">
-        <v>0.80189999999999995</v>
+        <v>0.95820000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B11" s="5">
-        <v>14.2508</v>
+        <v>11.4352</v>
       </c>
       <c r="C11" s="5">
-        <v>0.7399</v>
+        <v>0.78569999999999995</v>
       </c>
       <c r="D11" s="5">
-        <v>12.297000000000001</v>
+        <v>13.806800000000001</v>
       </c>
       <c r="E11" s="5">
-        <v>0.73119999999999996</v>
+        <v>0.81469999999999998</v>
       </c>
       <c r="F11" s="5">
-        <v>12.095800000000001</v>
+        <v>18.768699999999999</v>
       </c>
       <c r="G11" s="5">
-        <v>0.74939999999999996</v>
+        <v>0.84019999999999995</v>
       </c>
       <c r="H11" s="5">
-        <v>19.1495</v>
+        <v>25.644300000000001</v>
       </c>
       <c r="I11" s="5">
-        <v>0.8</v>
+        <v>0.93149999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B12" s="5">
-        <v>14.7559</v>
+        <v>11.0627</v>
       </c>
       <c r="C12" s="5">
-        <v>0.77680000000000005</v>
+        <v>0.74560000000000004</v>
       </c>
       <c r="D12" s="5">
-        <v>13.9665</v>
+        <v>14.251300000000001</v>
       </c>
       <c r="E12" s="5">
-        <v>0.81599999999999995</v>
+        <v>0.78920000000000001</v>
       </c>
       <c r="F12" s="5">
-        <v>17.352699999999999</v>
+        <v>10.612</v>
       </c>
       <c r="G12" s="5">
-        <v>0.82830000000000004</v>
+        <v>0.77839999999999998</v>
       </c>
       <c r="H12" s="5">
-        <v>24.509899999999998</v>
+        <v>21.146899999999999</v>
       </c>
       <c r="I12" s="5">
-        <v>0.88629999999999998</v>
+        <v>0.89690000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B13" s="5">
-        <v>13.792299999999999</v>
+        <v>12.297800000000001</v>
       </c>
       <c r="C13" s="5">
-        <v>0.77380000000000004</v>
+        <v>0.76170000000000004</v>
       </c>
       <c r="D13" s="5">
-        <v>13.6998</v>
+        <v>17.347899999999999</v>
       </c>
       <c r="E13" s="5">
-        <v>0.83379999999999999</v>
+        <v>0.82169999999999999</v>
       </c>
       <c r="F13" s="5">
-        <v>16.271899999999999</v>
+        <v>18.777899999999999</v>
       </c>
       <c r="G13" s="5">
-        <v>0.83140000000000003</v>
+        <v>0.81020000000000003</v>
       </c>
       <c r="H13" s="5">
-        <v>13.792299999999999</v>
+        <v>29.309899999999999</v>
       </c>
       <c r="I13" s="5">
-        <v>0.89549999999999996</v>
+        <v>0.96589999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B14" s="5">
-        <v>14.797700000000001</v>
+        <v>11.434200000000001</v>
       </c>
       <c r="C14" s="5">
-        <v>0.79020000000000001</v>
+        <v>0.73540000000000005</v>
       </c>
       <c r="D14" s="5">
-        <v>16.731000000000002</v>
+        <v>15.6431</v>
       </c>
       <c r="E14" s="5">
-        <v>0.85550000000000004</v>
+        <v>0.81030000000000002</v>
       </c>
       <c r="F14" s="5">
-        <v>11.760999999999999</v>
+        <v>18.504799999999999</v>
       </c>
       <c r="G14" s="5">
-        <v>0.79979999999999996</v>
+        <v>0.81230000000000002</v>
       </c>
       <c r="H14" s="5">
-        <v>19.196899999999999</v>
+        <v>30.055499999999999</v>
       </c>
       <c r="I14" s="5">
-        <v>0.8659</v>
+        <v>0.96020000000000005</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>166</v>
-      </c>
-      <c r="B15" s="5">
-        <v>15.6784</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0.752</v>
-      </c>
-      <c r="D15" s="5">
-        <v>15.081</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0.80130000000000001</v>
-      </c>
-      <c r="F15" s="5">
-        <v>16.611899999999999</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0.82279999999999998</v>
-      </c>
-      <c r="H15" s="5">
-        <v>17.171700000000001</v>
-      </c>
-      <c r="I15" s="5">
-        <v>0.79449999999999998</v>
+        <v>167</v>
+      </c>
+      <c r="B15" s="11">
+        <v>14.998900000000001</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0.73729999999999996</v>
+      </c>
+      <c r="D15" s="11">
+        <v>13.646100000000001</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0.79569999999999996</v>
+      </c>
+      <c r="F15" s="11">
+        <v>17.9329</v>
+      </c>
+      <c r="G15" s="11">
+        <v>0.84189999999999998</v>
+      </c>
+      <c r="H15" s="11">
+        <v>20.722300000000001</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0.81699999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>167</v>
-      </c>
-      <c r="B16" s="5">
-        <v>15.8268</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0.74719999999999998</v>
-      </c>
-      <c r="D16" s="5">
-        <v>13.621</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0.79900000000000004</v>
-      </c>
-      <c r="F16" s="5">
-        <v>19.9056</v>
-      </c>
-      <c r="G16" s="5">
-        <v>0.83809999999999996</v>
-      </c>
-      <c r="H16" s="5">
-        <v>18.399699999999999</v>
-      </c>
-      <c r="I16" s="5">
-        <v>0.80120000000000002</v>
+        <v>168</v>
+      </c>
+      <c r="B16" s="11">
+        <v>9.1883999999999997</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0.65439999999999998</v>
+      </c>
+      <c r="D16" s="11">
+        <v>13.919</v>
+      </c>
+      <c r="E16" s="11">
+        <v>0.79610000000000003</v>
+      </c>
+      <c r="F16" s="11">
+        <v>17.896899999999999</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0.84860000000000002</v>
+      </c>
+      <c r="H16" s="11">
+        <v>18.140499999999999</v>
+      </c>
+      <c r="I16" s="11">
+        <v>0.82150000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>168</v>
-      </c>
-      <c r="B17" s="5">
-        <v>14.9924</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0.73270000000000002</v>
-      </c>
-      <c r="D17" s="5">
-        <v>13.769</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0.81079999999999997</v>
-      </c>
-      <c r="F17" s="5">
-        <v>19.4741</v>
-      </c>
-      <c r="G17" s="5">
-        <v>0.85340000000000005</v>
-      </c>
-      <c r="H17" s="5">
-        <v>17.133700000000001</v>
-      </c>
-      <c r="I17" s="5">
-        <v>0.7833</v>
+        <v>169</v>
+      </c>
+      <c r="B17" s="11">
+        <v>7.6097999999999999</v>
+      </c>
+      <c r="C17" s="11">
+        <v>0.62519999999999998</v>
+      </c>
+      <c r="D17" s="11">
+        <v>14.295199999999999</v>
+      </c>
+      <c r="E17" s="11">
+        <v>0.81679999999999997</v>
+      </c>
+      <c r="F17" s="11">
+        <v>18.012899999999998</v>
+      </c>
+      <c r="G17" s="11">
+        <v>0.83309999999999995</v>
+      </c>
+      <c r="H17" s="11">
+        <v>19.110399999999998</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0.81699999999999995</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>169</v>
-      </c>
-      <c r="B18" s="5">
-        <v>13.327500000000001</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0.7218</v>
-      </c>
-      <c r="D18" s="5">
-        <v>14.9343</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0.80989999999999995</v>
-      </c>
-      <c r="F18" s="5">
-        <v>13.848100000000001</v>
-      </c>
-      <c r="G18" s="5">
-        <v>0.81899999999999995</v>
-      </c>
-      <c r="H18" s="5">
-        <v>14.2524</v>
-      </c>
-      <c r="I18" s="5">
-        <v>0.76449999999999996</v>
+        <v>170</v>
+      </c>
+      <c r="B18" s="11">
+        <v>7.6630000000000003</v>
+      </c>
+      <c r="C18" s="11">
+        <v>0.62439999999999996</v>
+      </c>
+      <c r="D18" s="11">
+        <v>14.385300000000001</v>
+      </c>
+      <c r="E18" s="11">
+        <v>0.82469999999999999</v>
+      </c>
+      <c r="F18" s="11">
+        <v>19.760200000000001</v>
+      </c>
+      <c r="G18" s="11">
+        <v>0.85970000000000002</v>
+      </c>
+      <c r="H18" s="11">
+        <v>19.948699999999999</v>
+      </c>
+      <c r="I18" s="11">
+        <v>0.8327</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>173</v>
-      </c>
-      <c r="B19" s="5">
-        <v>11.966200000000001</v>
-      </c>
-      <c r="C19" s="5">
-        <v>0.77180000000000004</v>
-      </c>
-      <c r="D19" s="5">
-        <v>14.827999999999999</v>
-      </c>
-      <c r="E19" s="5">
-        <v>0.79549999999999998</v>
-      </c>
-      <c r="F19" s="5">
-        <v>16.446000000000002</v>
-      </c>
-      <c r="G19" s="5">
-        <v>0.80940000000000001</v>
-      </c>
-      <c r="H19" s="5">
-        <v>22.953600000000002</v>
-      </c>
-      <c r="I19" s="5">
-        <v>0.92230000000000001</v>
+        <v>171</v>
+      </c>
+      <c r="B19" s="11">
+        <v>7.6207000000000003</v>
+      </c>
+      <c r="C19" s="11">
+        <v>0.60470000000000002</v>
+      </c>
+      <c r="D19" s="11">
+        <v>16.1814</v>
+      </c>
+      <c r="E19" s="11">
+        <v>0.76419999999999999</v>
+      </c>
+      <c r="F19" s="11">
+        <v>16.8018</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0.80689999999999995</v>
+      </c>
+      <c r="H19" s="11">
+        <v>22.254899999999999</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0.82230000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>174</v>
-      </c>
-      <c r="B20" s="5">
-        <v>11.9511</v>
-      </c>
-      <c r="C20" s="5">
-        <v>0.73609999999999998</v>
-      </c>
-      <c r="D20" s="5">
-        <v>12.814399999999999</v>
-      </c>
-      <c r="E20" s="5">
-        <v>0.80730000000000002</v>
-      </c>
-      <c r="F20" s="5">
-        <v>19.706099999999999</v>
-      </c>
-      <c r="G20" s="5">
-        <v>0.8286</v>
-      </c>
-      <c r="H20" s="5">
-        <v>28.9803</v>
-      </c>
-      <c r="I20" s="5">
-        <v>0.95820000000000005</v>
+        <v>172</v>
+      </c>
+      <c r="B20" s="11">
+        <v>7.6005000000000003</v>
+      </c>
+      <c r="C20" s="11">
+        <v>0.57679999999999998</v>
+      </c>
+      <c r="D20" s="11">
+        <v>12.791700000000001</v>
+      </c>
+      <c r="E20" s="11">
+        <v>0.64539999999999997</v>
+      </c>
+      <c r="F20" s="11">
+        <v>15.729699999999999</v>
+      </c>
+      <c r="G20" s="11">
+        <v>0.79649999999999999</v>
+      </c>
+      <c r="H20" s="11">
+        <v>16.655200000000001</v>
+      </c>
+      <c r="I20" s="11">
+        <v>0.68940000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>175</v>
-      </c>
-      <c r="B21" s="5">
-        <v>11.4352</v>
-      </c>
-      <c r="C21" s="5">
-        <v>0.78569999999999995</v>
-      </c>
-      <c r="D21" s="5">
-        <v>13.806800000000001</v>
-      </c>
-      <c r="E21" s="5">
-        <v>0.81469999999999998</v>
-      </c>
-      <c r="F21" s="5">
-        <v>18.768699999999999</v>
-      </c>
-      <c r="G21" s="5">
-        <v>0.84019999999999995</v>
-      </c>
-      <c r="H21" s="5">
-        <v>25.644300000000001</v>
-      </c>
-      <c r="I21" s="5">
-        <v>0.93149999999999999</v>
+        <v>173</v>
+      </c>
+      <c r="B21" s="11">
+        <v>7.8164999999999996</v>
+      </c>
+      <c r="C21" s="11">
+        <v>0.6069</v>
+      </c>
+      <c r="D21" s="11">
+        <v>15.0252</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0.7984</v>
+      </c>
+      <c r="F21" s="11">
+        <v>17.275500000000001</v>
+      </c>
+      <c r="G21" s="11">
+        <v>0.81079999999999997</v>
+      </c>
+      <c r="H21" s="11">
+        <v>15.864100000000001</v>
+      </c>
+      <c r="I21" s="11">
+        <v>0.81399999999999995</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>176</v>
-      </c>
-      <c r="B22" s="5">
-        <v>11.0627</v>
-      </c>
-      <c r="C22" s="5">
-        <v>0.74560000000000004</v>
-      </c>
-      <c r="D22" s="5">
-        <v>14.251300000000001</v>
-      </c>
-      <c r="E22" s="5">
-        <v>0.78920000000000001</v>
-      </c>
-      <c r="F22" s="5">
-        <v>10.612</v>
-      </c>
-      <c r="G22" s="5">
-        <v>0.77839999999999998</v>
-      </c>
-      <c r="H22" s="5">
-        <v>21.146899999999999</v>
-      </c>
-      <c r="I22" s="5">
-        <v>0.89690000000000003</v>
+        <v>174</v>
+      </c>
+      <c r="B22" s="11">
+        <v>8.2654999999999994</v>
+      </c>
+      <c r="C22" s="11">
+        <v>0.59360000000000002</v>
+      </c>
+      <c r="D22" s="11">
+        <v>15.676600000000001</v>
+      </c>
+      <c r="E22" s="11">
+        <v>0.80910000000000004</v>
+      </c>
+      <c r="F22" s="11">
+        <v>16.512899999999998</v>
+      </c>
+      <c r="G22" s="11">
+        <v>0.7903</v>
+      </c>
+      <c r="H22" s="11">
+        <v>18.7441</v>
+      </c>
+      <c r="I22" s="11">
+        <v>0.79749999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>171</v>
-      </c>
-      <c r="B23" s="5">
-        <v>12.297800000000001</v>
-      </c>
-      <c r="C23" s="5">
-        <v>0.76170000000000004</v>
-      </c>
-      <c r="D23" s="5">
-        <v>17.347899999999999</v>
-      </c>
-      <c r="E23" s="5">
-        <v>0.82169999999999999</v>
-      </c>
-      <c r="F23" s="5">
-        <v>18.777899999999999</v>
-      </c>
-      <c r="G23" s="5">
-        <v>0.81020000000000003</v>
-      </c>
-      <c r="H23" s="5">
-        <v>29.309899999999999</v>
-      </c>
-      <c r="I23" s="5">
-        <v>0.96589999999999998</v>
+        <v>183</v>
+      </c>
+      <c r="B23" s="11">
+        <v>5.86</v>
+      </c>
+      <c r="C23" s="11">
+        <v>0.60440000000000005</v>
+      </c>
+      <c r="D23" s="11">
+        <v>12.8194</v>
+      </c>
+      <c r="E23" s="11">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="F23" s="11">
+        <v>14.534000000000001</v>
+      </c>
+      <c r="G23" s="11">
+        <v>0.78539999999999999</v>
+      </c>
+      <c r="H23" s="11">
+        <v>17.504999999999999</v>
+      </c>
+      <c r="I23" s="11">
+        <v>0.81569999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>172</v>
-      </c>
-      <c r="B24" s="5">
-        <v>11.434200000000001</v>
-      </c>
-      <c r="C24" s="5">
-        <v>0.73540000000000005</v>
-      </c>
-      <c r="D24" s="5">
-        <v>15.6431</v>
-      </c>
-      <c r="E24" s="5">
-        <v>0.81030000000000002</v>
-      </c>
-      <c r="F24" s="5">
-        <v>18.504799999999999</v>
-      </c>
-      <c r="G24" s="5">
-        <v>0.81230000000000002</v>
-      </c>
-      <c r="H24" s="5">
-        <v>30.055499999999999</v>
-      </c>
-      <c r="I24" s="5">
-        <v>0.96020000000000005</v>
+        <v>184</v>
+      </c>
+      <c r="B24" s="11">
+        <v>7.0288000000000004</v>
+      </c>
+      <c r="C24" s="11">
+        <v>0.6361</v>
+      </c>
+      <c r="D24" s="11">
+        <v>12.803000000000001</v>
+      </c>
+      <c r="E24" s="11">
+        <v>0.79959999999999998</v>
+      </c>
+      <c r="F24" s="11">
+        <v>14.8584</v>
+      </c>
+      <c r="G24" s="11">
+        <v>0.80179999999999996</v>
+      </c>
+      <c r="H24" s="11">
+        <v>17.394500000000001</v>
+      </c>
+      <c r="I24" s="11">
+        <v>0.83679999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B25" s="11">
-        <v>14.998900000000001</v>
+        <v>6.2824999999999998</v>
       </c>
       <c r="C25" s="11">
-        <v>0.73729999999999996</v>
+        <v>0.61470000000000002</v>
       </c>
       <c r="D25" s="11">
-        <v>13.646100000000001</v>
+        <v>13.659800000000001</v>
       </c>
       <c r="E25" s="11">
-        <v>0.79569999999999996</v>
+        <v>0.82269999999999999</v>
       </c>
       <c r="F25" s="11">
-        <v>17.9329</v>
+        <v>13.672800000000001</v>
       </c>
       <c r="G25" s="11">
-        <v>0.84189999999999998</v>
+        <v>0.77710000000000001</v>
       </c>
       <c r="H25" s="11">
-        <v>20.722300000000001</v>
+        <v>17.3598</v>
       </c>
       <c r="I25" s="11">
-        <v>0.81699999999999995</v>
+        <v>0.81569999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B26" s="11">
-        <v>9.1883999999999997</v>
+        <v>6.4057000000000004</v>
       </c>
       <c r="C26" s="11">
-        <v>0.65439999999999998</v>
+        <v>0.63</v>
       </c>
       <c r="D26" s="11">
-        <v>13.919</v>
+        <v>13.8142</v>
       </c>
       <c r="E26" s="11">
-        <v>0.79610000000000003</v>
+        <v>0.8196</v>
       </c>
       <c r="F26" s="11">
-        <v>17.896899999999999</v>
+        <v>14.1731</v>
       </c>
       <c r="G26" s="11">
-        <v>0.84860000000000002</v>
+        <v>0.77769999999999995</v>
       </c>
       <c r="H26" s="11">
-        <v>18.140499999999999</v>
+        <v>17.474599999999999</v>
       </c>
       <c r="I26" s="11">
-        <v>0.82150000000000001</v>
+        <v>0.81830000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>179</v>
-      </c>
-      <c r="B27" s="11">
-        <v>7.6097999999999999</v>
-      </c>
-      <c r="C27" s="11">
-        <v>0.62519999999999998</v>
-      </c>
-      <c r="D27" s="11">
-        <v>14.295199999999999</v>
-      </c>
-      <c r="E27" s="11">
-        <v>0.81679999999999997</v>
-      </c>
-      <c r="F27" s="11">
-        <v>18.012899999999998</v>
-      </c>
-      <c r="G27" s="11">
-        <v>0.83309999999999995</v>
-      </c>
-      <c r="H27" s="11">
-        <v>19.110399999999998</v>
-      </c>
-      <c r="I27" s="11">
-        <v>0.81699999999999995</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>180</v>
-      </c>
-      <c r="B28" s="11">
-        <v>7.6630000000000003</v>
-      </c>
-      <c r="C28" s="11">
-        <v>0.62439999999999996</v>
-      </c>
-      <c r="D28" s="11">
-        <v>14.385300000000001</v>
-      </c>
-      <c r="E28" s="11">
-        <v>0.82469999999999999</v>
-      </c>
-      <c r="F28" s="11">
-        <v>19.760200000000001</v>
-      </c>
-      <c r="G28" s="11">
-        <v>0.85970000000000002</v>
-      </c>
-      <c r="H28" s="11">
-        <v>19.948699999999999</v>
-      </c>
-      <c r="I28" s="11">
-        <v>0.8327</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>181</v>
-      </c>
-      <c r="B29" s="11">
-        <v>7.6207000000000003</v>
-      </c>
-      <c r="C29" s="11">
-        <v>0.60470000000000002</v>
-      </c>
-      <c r="D29" s="11">
-        <v>16.1814</v>
-      </c>
-      <c r="E29" s="11">
-        <v>0.76419999999999999</v>
-      </c>
-      <c r="F29" s="11">
-        <v>16.8018</v>
-      </c>
-      <c r="G29" s="11">
-        <v>0.80689999999999995</v>
-      </c>
-      <c r="H29" s="11">
-        <v>22.254899999999999</v>
-      </c>
-      <c r="I29" s="11">
-        <v>0.82230000000000003</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>182</v>
-      </c>
-      <c r="B30" s="11">
-        <v>7.6005000000000003</v>
-      </c>
-      <c r="C30" s="11">
-        <v>0.57679999999999998</v>
-      </c>
-      <c r="D30" s="11">
-        <v>12.791700000000001</v>
-      </c>
-      <c r="E30" s="11">
-        <v>0.64539999999999997</v>
-      </c>
-      <c r="F30" s="11">
-        <v>15.729699999999999</v>
-      </c>
-      <c r="G30" s="11">
-        <v>0.79649999999999999</v>
-      </c>
-      <c r="H30" s="11">
-        <v>16.655200000000001</v>
-      </c>
-      <c r="I30" s="11">
-        <v>0.68940000000000001</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B31" s="11">
-        <v>7.8164999999999996</v>
+        <v>7.0720999999999998</v>
       </c>
       <c r="C31" s="11">
-        <v>0.6069</v>
+        <v>0.62690000000000001</v>
       </c>
       <c r="D31" s="11">
-        <v>15.0252</v>
+        <v>14.2727</v>
       </c>
       <c r="E31" s="11">
-        <v>0.7984</v>
+        <v>0.76419999999999999</v>
       </c>
       <c r="F31" s="11">
-        <v>17.275500000000001</v>
+        <v>16.8795</v>
       </c>
       <c r="G31" s="11">
-        <v>0.81079999999999997</v>
+        <v>0.82899999999999996</v>
       </c>
       <c r="H31" s="11">
-        <v>15.864100000000001</v>
+        <v>21.4055</v>
       </c>
       <c r="I31" s="11">
-        <v>0.81399999999999995</v>
+        <v>0.82389999999999997</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B32" s="11">
-        <v>8.2654999999999994</v>
+        <v>7.3131000000000004</v>
       </c>
       <c r="C32" s="11">
-        <v>0.59360000000000002</v>
+        <v>0.58889999999999998</v>
       </c>
       <c r="D32" s="11">
-        <v>15.676600000000001</v>
+        <v>13.1126</v>
       </c>
       <c r="E32" s="11">
-        <v>0.80910000000000004</v>
+        <v>0.71289999999999998</v>
       </c>
       <c r="F32" s="11">
-        <v>16.512899999999998</v>
+        <v>16.585799999999999</v>
       </c>
       <c r="G32" s="11">
-        <v>0.7903</v>
+        <v>0.80010000000000003</v>
       </c>
       <c r="H32" s="11">
-        <v>18.7441</v>
+        <v>17.6601</v>
       </c>
       <c r="I32" s="11">
-        <v>0.79749999999999999</v>
+        <v>0.74490000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -5043,28 +5092,28 @@
         <v>193</v>
       </c>
       <c r="B33" s="11">
-        <v>5.86</v>
+        <v>6.7933000000000003</v>
       </c>
       <c r="C33" s="11">
-        <v>0.60440000000000005</v>
+        <v>0.60780000000000001</v>
       </c>
       <c r="D33" s="11">
-        <v>12.8194</v>
+        <v>14.385400000000001</v>
       </c>
       <c r="E33" s="11">
-        <v>0.79800000000000004</v>
+        <v>0.83379999999999999</v>
       </c>
       <c r="F33" s="11">
-        <v>14.534000000000001</v>
+        <v>17.566299999999998</v>
       </c>
       <c r="G33" s="11">
-        <v>0.78539999999999999</v>
+        <v>0.82130000000000003</v>
       </c>
       <c r="H33" s="11">
-        <v>17.504999999999999</v>
+        <v>18.174600000000002</v>
       </c>
       <c r="I33" s="11">
-        <v>0.81569999999999998</v>
+        <v>0.85350000000000004</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -5072,87 +5121,55 @@
         <v>194</v>
       </c>
       <c r="B34" s="11">
-        <v>7.0288000000000004</v>
+        <v>6.5248999999999997</v>
       </c>
       <c r="C34" s="11">
-        <v>0.6361</v>
+        <v>0.57040000000000002</v>
       </c>
       <c r="D34" s="11">
-        <v>12.803000000000001</v>
+        <v>13.501099999999999</v>
       </c>
       <c r="E34" s="11">
-        <v>0.79959999999999998</v>
+        <v>0.78549999999999998</v>
       </c>
       <c r="F34" s="11">
-        <v>14.8584</v>
+        <v>17.060099999999998</v>
       </c>
       <c r="G34" s="11">
-        <v>0.80179999999999996</v>
+        <v>0.82089999999999996</v>
       </c>
       <c r="H34" s="11">
-        <v>17.394500000000001</v>
+        <v>18.083100000000002</v>
       </c>
       <c r="I34" s="11">
-        <v>0.83679999999999999</v>
+        <v>0.76529999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>195</v>
       </c>
-      <c r="B35" s="11">
-        <v>6.2824999999999998</v>
-      </c>
-      <c r="C35" s="11">
-        <v>0.61470000000000002</v>
-      </c>
-      <c r="D35" s="11">
-        <v>13.659800000000001</v>
-      </c>
-      <c r="E35" s="11">
-        <v>0.82269999999999999</v>
-      </c>
-      <c r="F35" s="11">
-        <v>13.672800000000001</v>
-      </c>
-      <c r="G35" s="11">
-        <v>0.77710000000000001</v>
-      </c>
-      <c r="H35" s="11">
-        <v>17.3598</v>
-      </c>
-      <c r="I35" s="11">
-        <v>0.81569999999999998</v>
-      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>196</v>
       </c>
-      <c r="B36" s="11">
-        <v>6.4057000000000004</v>
-      </c>
-      <c r="C36" s="11">
-        <v>0.63</v>
-      </c>
-      <c r="D36" s="11">
-        <v>13.8142</v>
-      </c>
-      <c r="E36" s="11">
-        <v>0.8196</v>
-      </c>
-      <c r="F36" s="11">
-        <v>14.1731</v>
-      </c>
-      <c r="G36" s="11">
-        <v>0.77769999999999995</v>
-      </c>
-      <c r="H36" s="11">
-        <v>17.474599999999999</v>
-      </c>
-      <c r="I36" s="11">
-        <v>0.81830000000000003</v>
-      </c>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -5182,454 +5199,1080 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>199</v>
-      </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
+        <v>175</v>
+      </c>
+      <c r="B39" s="11">
+        <v>7.6628999999999996</v>
+      </c>
+      <c r="C39" s="11">
+        <v>0.68859999999999999</v>
+      </c>
+      <c r="D39" s="11">
+        <v>21.343499999999999</v>
+      </c>
+      <c r="E39" s="11">
+        <v>0.92010000000000003</v>
+      </c>
+      <c r="F39" s="11">
+        <v>20.311699999999998</v>
+      </c>
+      <c r="G39" s="11">
+        <v>0.87960000000000005</v>
+      </c>
+      <c r="H39" s="11">
+        <v>25.898700000000002</v>
+      </c>
+      <c r="I39" s="11">
+        <v>0.93620000000000003</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>200</v>
-      </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
+        <v>176</v>
+      </c>
+      <c r="B40" s="11">
+        <v>7.0274999999999999</v>
+      </c>
+      <c r="C40" s="11">
+        <v>0.66220000000000001</v>
+      </c>
+      <c r="D40" s="11">
+        <v>20.7424</v>
+      </c>
+      <c r="E40" s="11">
+        <v>0.91459999999999997</v>
+      </c>
+      <c r="F40" s="11">
+        <v>18.465599999999998</v>
+      </c>
+      <c r="G40" s="11">
+        <v>0.86519999999999997</v>
+      </c>
+      <c r="H40" s="11">
+        <v>25.020299999999999</v>
+      </c>
+      <c r="I40" s="11">
+        <v>0.92549999999999999</v>
+      </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="B41" s="11">
-        <v>7.0720999999999998</v>
+        <v>6.3823999999999996</v>
       </c>
       <c r="C41" s="11">
-        <v>0.62690000000000001</v>
+        <v>0.65149999999999997</v>
       </c>
       <c r="D41" s="11">
-        <v>14.2727</v>
+        <v>20.296099999999999</v>
       </c>
       <c r="E41" s="11">
-        <v>0.76419999999999999</v>
+        <v>0.91369999999999996</v>
       </c>
       <c r="F41" s="11">
-        <v>16.8795</v>
+        <v>19.272500000000001</v>
       </c>
       <c r="G41" s="11">
-        <v>0.82899999999999996</v>
+        <v>0.87309999999999999</v>
       </c>
       <c r="H41" s="11">
-        <v>21.4055</v>
+        <v>25.5596</v>
       </c>
       <c r="I41" s="11">
-        <v>0.82389999999999997</v>
+        <v>0.93459999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="B42" s="11">
-        <v>7.3131000000000004</v>
+        <v>5.0491000000000001</v>
       </c>
       <c r="C42" s="11">
-        <v>0.58889999999999998</v>
+        <v>0.62190000000000001</v>
       </c>
       <c r="D42" s="11">
-        <v>13.1126</v>
+        <v>19</v>
       </c>
       <c r="E42" s="11">
-        <v>0.71289999999999998</v>
+        <v>0.9042</v>
       </c>
       <c r="F42" s="11">
-        <v>16.585799999999999</v>
+        <v>14.5</v>
       </c>
       <c r="G42" s="11">
-        <v>0.80010000000000003</v>
+        <v>0.81159999999999999</v>
       </c>
       <c r="H42" s="11">
-        <v>17.6601</v>
+        <v>23.5486</v>
       </c>
       <c r="I42" s="11">
-        <v>0.74490000000000001</v>
+        <v>0.90839999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="B43" s="11">
-        <v>6.7933000000000003</v>
+        <v>8.6103000000000005</v>
       </c>
       <c r="C43" s="11">
-        <v>0.60780000000000001</v>
+        <v>0.65280000000000005</v>
       </c>
       <c r="D43" s="11">
-        <v>14.385400000000001</v>
+        <v>21.138999999999999</v>
       </c>
       <c r="E43" s="11">
-        <v>0.83379999999999999</v>
+        <v>0.88619999999999999</v>
       </c>
       <c r="F43" s="11">
-        <v>17.566299999999998</v>
+        <v>24.367699999999999</v>
       </c>
       <c r="G43" s="11">
-        <v>0.82130000000000003</v>
+        <v>0.92949999999999999</v>
       </c>
       <c r="H43" s="11">
-        <v>18.174600000000002</v>
+        <v>22.5031</v>
       </c>
       <c r="I43" s="11">
-        <v>0.85350000000000004</v>
+        <v>0.86040000000000005</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="B44" s="11">
-        <v>6.5248999999999997</v>
+        <v>8.1295999999999999</v>
       </c>
       <c r="C44" s="11">
-        <v>0.57040000000000002</v>
+        <v>0.65690000000000004</v>
       </c>
       <c r="D44" s="11">
-        <v>13.501099999999999</v>
+        <v>21.4176</v>
       </c>
       <c r="E44" s="11">
-        <v>0.78549999999999998</v>
+        <v>0.89049999999999996</v>
       </c>
       <c r="F44" s="11">
-        <v>17.060099999999998</v>
+        <v>24.453800000000001</v>
       </c>
       <c r="G44" s="11">
-        <v>0.82089999999999996</v>
+        <v>0.93220000000000003</v>
       </c>
       <c r="H44" s="11">
-        <v>18.083100000000002</v>
+        <v>24.329599999999999</v>
       </c>
       <c r="I44" s="11">
-        <v>0.76529999999999998</v>
+        <v>0.90149999999999997</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>205</v>
-      </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
+        <v>181</v>
+      </c>
+      <c r="B45" s="11">
+        <v>8.1849000000000007</v>
+      </c>
+      <c r="C45" s="11">
+        <v>0.66759999999999997</v>
+      </c>
+      <c r="D45" s="11">
+        <v>21.020099999999999</v>
+      </c>
+      <c r="E45" s="11">
+        <v>0.87749999999999995</v>
+      </c>
+      <c r="F45" s="11">
+        <v>24.7698</v>
+      </c>
+      <c r="G45" s="11">
+        <v>0.93279999999999996</v>
+      </c>
+      <c r="H45" s="11">
+        <v>24.911200000000001</v>
+      </c>
+      <c r="I45" s="11">
+        <v>0.89980000000000004</v>
+      </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>206</v>
-      </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
+        <v>182</v>
+      </c>
+      <c r="B46" s="11">
+        <v>8.1608000000000001</v>
+      </c>
+      <c r="C46" s="11">
+        <v>0.64149999999999996</v>
+      </c>
+      <c r="D46" s="11">
+        <v>21.1768</v>
+      </c>
+      <c r="E46" s="11">
+        <v>0.87639999999999996</v>
+      </c>
+      <c r="F46" s="11">
+        <v>26.054600000000001</v>
+      </c>
+      <c r="G46" s="11">
+        <v>0.94179999999999997</v>
+      </c>
+      <c r="H46" s="11">
+        <v>21.221900000000002</v>
+      </c>
+      <c r="I46" s="11">
+        <v>0.83909999999999996</v>
+      </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>207</v>
-      </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
+        <v>211</v>
+      </c>
+      <c r="B47" s="11">
+        <v>14.938800000000001</v>
+      </c>
+      <c r="C47" s="11">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="D47" s="11">
+        <v>17.412600000000001</v>
+      </c>
+      <c r="E47" s="11">
+        <v>0.85309999999999997</v>
+      </c>
+      <c r="F47" s="11">
+        <v>18.835100000000001</v>
+      </c>
+      <c r="G47" s="11">
+        <v>0.83709999999999996</v>
+      </c>
+      <c r="H47" s="11">
+        <v>15.762700000000001</v>
+      </c>
+      <c r="I47" s="11">
+        <v>0.89419999999999999</v>
+      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>208</v>
-      </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
+        <v>212</v>
+      </c>
+      <c r="B48" s="11">
+        <v>14.001200000000001</v>
+      </c>
+      <c r="C48" s="11">
+        <v>0.81430000000000002</v>
+      </c>
+      <c r="D48" s="11">
+        <v>15.7879</v>
+      </c>
+      <c r="E48" s="11">
+        <v>0.83689999999999998</v>
+      </c>
+      <c r="F48" s="11">
+        <v>16.575099999999999</v>
+      </c>
+      <c r="G48" s="11">
+        <v>0.8246</v>
+      </c>
+      <c r="H48" s="11">
+        <v>15.5411</v>
+      </c>
+      <c r="I48" s="11">
+        <v>0.88829999999999998</v>
+      </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="B49" s="11">
-        <v>7.6628999999999996</v>
+        <v>14.606199999999999</v>
       </c>
       <c r="C49" s="11">
-        <v>0.68859999999999999</v>
+        <v>0.82010000000000005</v>
       </c>
       <c r="D49" s="11">
-        <v>21.343499999999999</v>
+        <v>16.2485</v>
       </c>
       <c r="E49" s="11">
-        <v>0.92010000000000003</v>
+        <v>0.84460000000000002</v>
       </c>
       <c r="F49" s="11">
-        <v>20.311699999999998</v>
+        <v>18.751200000000001</v>
       </c>
       <c r="G49" s="11">
-        <v>0.87960000000000005</v>
+        <v>0.8337</v>
       </c>
       <c r="H49" s="11">
-        <v>25.898700000000002</v>
+        <v>15.7812</v>
       </c>
       <c r="I49" s="11">
-        <v>0.93620000000000003</v>
+        <v>0.89459999999999995</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="B50" s="11">
-        <v>7.0274999999999999</v>
+        <v>14.57</v>
       </c>
       <c r="C50" s="11">
-        <v>0.66220000000000001</v>
+        <v>0.82140000000000002</v>
       </c>
       <c r="D50" s="11">
-        <v>20.7424</v>
+        <v>17.427800000000001</v>
       </c>
       <c r="E50" s="11">
-        <v>0.91459999999999997</v>
+        <v>0.8528</v>
       </c>
       <c r="F50" s="11">
-        <v>18.465599999999998</v>
+        <v>17.252400000000002</v>
       </c>
       <c r="G50" s="11">
-        <v>0.86519999999999997</v>
+        <v>0.83120000000000005</v>
       </c>
       <c r="H50" s="11">
-        <v>25.020299999999999</v>
+        <v>15.6273</v>
       </c>
       <c r="I50" s="11">
-        <v>0.92549999999999999</v>
+        <v>0.89339999999999997</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>187</v>
+        <v>239</v>
       </c>
       <c r="B51" s="11">
-        <v>6.3823999999999996</v>
+        <v>5.4236000000000004</v>
       </c>
       <c r="C51" s="11">
-        <v>0.65149999999999997</v>
+        <v>0.68320000000000003</v>
       </c>
       <c r="D51" s="11">
-        <v>20.296099999999999</v>
+        <v>12.9497</v>
       </c>
       <c r="E51" s="11">
-        <v>0.91369999999999996</v>
+        <v>0.74270000000000003</v>
       </c>
       <c r="F51" s="11">
-        <v>19.272500000000001</v>
+        <v>12.2319</v>
       </c>
       <c r="G51" s="11">
-        <v>0.87309999999999999</v>
+        <v>0.76329999999999998</v>
       </c>
       <c r="H51" s="11">
-        <v>25.5596</v>
+        <v>15.8073</v>
       </c>
       <c r="I51" s="11">
-        <v>0.93459999999999999</v>
+        <v>0.82599999999999996</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>188</v>
+        <v>240</v>
       </c>
       <c r="B52" s="11">
-        <v>5.0491000000000001</v>
+        <v>5.9904000000000002</v>
       </c>
       <c r="C52" s="11">
-        <v>0.62190000000000001</v>
+        <v>0.67830000000000001</v>
       </c>
       <c r="D52" s="11">
-        <v>19</v>
+        <v>12.7662</v>
       </c>
       <c r="E52" s="11">
-        <v>0.9042</v>
+        <v>0.74370000000000003</v>
       </c>
       <c r="F52" s="11">
-        <v>14.5</v>
+        <v>10.7887</v>
       </c>
       <c r="G52" s="11">
-        <v>0.81159999999999999</v>
+        <v>0.74070000000000003</v>
       </c>
       <c r="H52" s="11">
-        <v>23.5486</v>
+        <v>15.848699999999999</v>
       </c>
       <c r="I52" s="11">
-        <v>0.90839999999999999</v>
+        <v>0.83079999999999998</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>189</v>
+        <v>241</v>
       </c>
       <c r="B53" s="11">
-        <v>8.6103000000000005</v>
+        <v>5.3741000000000003</v>
       </c>
       <c r="C53" s="11">
-        <v>0.65280000000000005</v>
+        <v>0.69520000000000004</v>
       </c>
       <c r="D53" s="11">
-        <v>21.138999999999999</v>
+        <v>12.5562</v>
       </c>
       <c r="E53" s="11">
-        <v>0.88619999999999999</v>
+        <v>0.75370000000000004</v>
       </c>
       <c r="F53" s="11">
-        <v>24.367699999999999</v>
+        <v>12.1488</v>
       </c>
       <c r="G53" s="11">
-        <v>0.92949999999999999</v>
+        <v>0.75090000000000001</v>
       </c>
       <c r="H53" s="11">
-        <v>22.5031</v>
+        <v>15.173400000000001</v>
       </c>
       <c r="I53" s="11">
-        <v>0.86040000000000005</v>
+        <v>0.82269999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>190</v>
+        <v>242</v>
       </c>
       <c r="B54" s="11">
-        <v>8.1295999999999999</v>
+        <v>5.4899399999999998</v>
       </c>
       <c r="C54" s="11">
-        <v>0.65690000000000004</v>
+        <v>0.69310000000000005</v>
       </c>
       <c r="D54" s="11">
-        <v>21.4176</v>
+        <v>12.748799999999999</v>
       </c>
       <c r="E54" s="11">
-        <v>0.89049999999999996</v>
+        <v>0.75609999999999999</v>
       </c>
       <c r="F54" s="11">
-        <v>24.453800000000001</v>
+        <v>12.227</v>
       </c>
       <c r="G54" s="11">
-        <v>0.93220000000000003</v>
+        <v>0.75249999999999995</v>
       </c>
       <c r="H54" s="11">
-        <v>24.329599999999999</v>
+        <v>15.336</v>
       </c>
       <c r="I54" s="11">
-        <v>0.90149999999999997</v>
+        <v>0.83150000000000002</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>191</v>
-      </c>
-      <c r="B55" s="11">
-        <v>8.1849000000000007</v>
-      </c>
-      <c r="C55" s="11">
-        <v>0.66759999999999997</v>
-      </c>
-      <c r="D55" s="11">
-        <v>21.020099999999999</v>
-      </c>
-      <c r="E55" s="11">
-        <v>0.87749999999999995</v>
-      </c>
-      <c r="F55" s="11">
-        <v>24.7698</v>
-      </c>
-      <c r="G55" s="11">
-        <v>0.93279999999999996</v>
-      </c>
-      <c r="H55" s="11">
-        <v>24.911200000000001</v>
-      </c>
-      <c r="I55" s="11">
-        <v>0.89980000000000004</v>
+        <v>199</v>
+      </c>
+      <c r="B55" s="5">
+        <v>5.4698000000000002</v>
+      </c>
+      <c r="C55" s="5">
+        <v>0.68430000000000002</v>
+      </c>
+      <c r="D55" s="5">
+        <v>12.6221</v>
+      </c>
+      <c r="E55" s="5">
+        <v>0.7389</v>
+      </c>
+      <c r="F55" s="5">
+        <v>12.225099999999999</v>
+      </c>
+      <c r="G55" s="5">
+        <v>0.77410000000000001</v>
+      </c>
+      <c r="H55" s="5">
+        <v>15.7126</v>
+      </c>
+      <c r="I55" s="5">
+        <v>0.82720000000000005</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>192</v>
-      </c>
-      <c r="B56" s="11">
-        <v>8.1608000000000001</v>
-      </c>
-      <c r="C56" s="11">
-        <v>0.64149999999999996</v>
-      </c>
-      <c r="D56" s="11">
-        <v>21.1768</v>
-      </c>
-      <c r="E56" s="11">
-        <v>0.87639999999999996</v>
-      </c>
-      <c r="F56" s="11">
-        <v>26.054600000000001</v>
-      </c>
-      <c r="G56" s="11">
-        <v>0.94179999999999997</v>
-      </c>
-      <c r="H56" s="11">
-        <v>21.221900000000002</v>
-      </c>
-      <c r="I56" s="11">
-        <v>0.83909999999999996</v>
+        <v>200</v>
+      </c>
+      <c r="B56" s="5">
+        <v>5.8109999999999999</v>
+      </c>
+      <c r="C56" s="5">
+        <v>0.68530000000000002</v>
+      </c>
+      <c r="D56" s="5">
+        <v>13.082000000000001</v>
+      </c>
+      <c r="E56" s="5">
+        <v>0.7409</v>
+      </c>
+      <c r="F56" s="5">
+        <v>11.701700000000001</v>
+      </c>
+      <c r="G56" s="5">
+        <v>0.77070000000000005</v>
+      </c>
+      <c r="H56" s="5">
+        <v>15.771000000000001</v>
+      </c>
+      <c r="I56" s="5">
+        <v>0.8347</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>201</v>
+      </c>
+      <c r="B57" s="5">
+        <v>5.4603000000000002</v>
+      </c>
+      <c r="C57" s="5">
+        <v>0.6774</v>
+      </c>
+      <c r="D57" s="5">
+        <v>12.754200000000001</v>
+      </c>
+      <c r="E57" s="5">
+        <v>0.73270000000000002</v>
+      </c>
+      <c r="F57" s="5">
+        <v>11.9023</v>
+      </c>
+      <c r="G57" s="5">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="H57" s="5">
+        <v>15.6302</v>
+      </c>
+      <c r="I57" s="5">
+        <v>0.82550000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>202</v>
+      </c>
+      <c r="B58" s="5">
+        <v>5.8044000000000002</v>
+      </c>
+      <c r="C58" s="5">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="D58" s="5">
+        <v>12.821300000000001</v>
+      </c>
+      <c r="E58" s="5">
+        <v>0.72809999999999997</v>
+      </c>
+      <c r="F58" s="5">
+        <v>10.226800000000001</v>
+      </c>
+      <c r="G58" s="5">
+        <v>0.7248</v>
+      </c>
+      <c r="H58" s="5">
+        <v>15.888199999999999</v>
+      </c>
+      <c r="I58" s="5">
+        <v>0.81689999999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>231</v>
+      </c>
+      <c r="B59" s="11">
+        <v>13.162000000000001</v>
+      </c>
+      <c r="C59" s="11">
+        <v>0.82330000000000003</v>
+      </c>
+      <c r="D59" s="11">
+        <v>16.952300000000001</v>
+      </c>
+      <c r="E59" s="11">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="F59" s="11">
+        <v>19.564299999999999</v>
+      </c>
+      <c r="G59" s="11">
+        <v>0.84</v>
+      </c>
+      <c r="H59" s="11">
+        <v>16.9191</v>
+      </c>
+      <c r="I59" s="11">
+        <v>0.91159999999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>232</v>
+      </c>
+      <c r="B60" s="5">
+        <v>13.2319</v>
+      </c>
+      <c r="C60" s="5">
+        <v>0.82920000000000005</v>
+      </c>
+      <c r="D60" s="5">
+        <v>17.53</v>
+      </c>
+      <c r="E60" s="5">
+        <v>0.86040000000000005</v>
+      </c>
+      <c r="F60" s="5">
+        <v>19.5717</v>
+      </c>
+      <c r="G60" s="5">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="H60" s="5">
+        <v>16.535599999999999</v>
+      </c>
+      <c r="I60" s="5">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>233</v>
+      </c>
+      <c r="B61" s="5">
+        <v>12.5364</v>
+      </c>
+      <c r="C61" s="5">
+        <v>0.80930000000000002</v>
+      </c>
+      <c r="D61" s="5">
+        <v>16.422000000000001</v>
+      </c>
+      <c r="E61" s="5">
+        <v>0.86219999999999997</v>
+      </c>
+      <c r="F61" s="5">
+        <v>18.135300000000001</v>
+      </c>
+      <c r="G61" s="5">
+        <v>0.83420000000000005</v>
+      </c>
+      <c r="H61" s="5">
+        <v>16.744</v>
+      </c>
+      <c r="I61" s="5">
+        <v>0.91610000000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>234</v>
+      </c>
+      <c r="B62" s="5">
+        <v>12.6313</v>
+      </c>
+      <c r="C62" s="5">
+        <v>0.81659999999999999</v>
+      </c>
+      <c r="D62" s="5">
+        <v>16.4908</v>
+      </c>
+      <c r="E62" s="5">
+        <v>0.86470000000000002</v>
+      </c>
+      <c r="F62" s="5">
+        <v>18.843299999999999</v>
+      </c>
+      <c r="G62" s="5">
+        <v>0.83809999999999996</v>
+      </c>
+      <c r="H62" s="5">
+        <v>16.524100000000001</v>
+      </c>
+      <c r="I62" s="5">
+        <v>0.91639999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>235</v>
+      </c>
+      <c r="B63" s="5">
+        <v>12.949400000000001</v>
+      </c>
+      <c r="C63" s="5">
+        <v>0.82169999999999999</v>
+      </c>
+      <c r="D63" s="5">
+        <v>17.052299999999999</v>
+      </c>
+      <c r="E63" s="5">
+        <v>0.85470000000000002</v>
+      </c>
+      <c r="F63" s="5">
+        <v>18.8216</v>
+      </c>
+      <c r="G63" s="5">
+        <v>0.83340000000000003</v>
+      </c>
+      <c r="H63" s="5">
+        <v>16.686699999999998</v>
+      </c>
+      <c r="I63" s="5">
+        <v>0.90449999999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>236</v>
+      </c>
+      <c r="B64" s="5">
+        <v>13.1866</v>
+      </c>
+      <c r="C64" s="5">
+        <v>0.83140000000000003</v>
+      </c>
+      <c r="D64" s="5">
+        <v>17.5136</v>
+      </c>
+      <c r="E64" s="5">
+        <v>0.86680000000000001</v>
+      </c>
+      <c r="F64" s="5">
+        <v>19.1189</v>
+      </c>
+      <c r="G64" s="5">
+        <v>0.85040000000000004</v>
+      </c>
+      <c r="H64" s="5">
+        <v>16.825700000000001</v>
+      </c>
+      <c r="I64" s="5">
+        <v>0.91590000000000005</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>237</v>
+      </c>
+      <c r="B65" s="5">
+        <v>12.97</v>
+      </c>
+      <c r="C65" s="5">
+        <v>0.82130000000000003</v>
+      </c>
+      <c r="D65" s="5">
+        <v>17.0245</v>
+      </c>
+      <c r="E65" s="5">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="F65" s="5">
+        <v>18.276599999999998</v>
+      </c>
+      <c r="G65" s="5">
+        <v>0.82979999999999998</v>
+      </c>
+      <c r="H65" s="5">
+        <v>16.7986</v>
+      </c>
+      <c r="I65" s="5">
+        <v>0.90490000000000004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>238</v>
+      </c>
+      <c r="B66" s="5">
+        <v>13.047700000000001</v>
+      </c>
+      <c r="C66" s="5">
+        <v>0.82430000000000003</v>
+      </c>
+      <c r="D66" s="5">
+        <v>17.1828</v>
+      </c>
+      <c r="E66" s="5">
+        <v>0.85540000000000005</v>
+      </c>
+      <c r="F66" s="5">
+        <v>18.3645</v>
+      </c>
+      <c r="G66" s="5">
+        <v>0.83340000000000003</v>
+      </c>
+      <c r="H66" s="5">
+        <v>16.487500000000001</v>
+      </c>
+      <c r="I66" s="5">
+        <v>0.90600000000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B71" s="15">
+        <v>13.331300000000001</v>
+      </c>
+      <c r="C71" s="15">
+        <v>0.85170000000000001</v>
+      </c>
+      <c r="D71" s="15">
+        <v>19.683599999999998</v>
+      </c>
+      <c r="E71" s="15">
+        <v>0.91739999999999999</v>
+      </c>
+      <c r="F71" s="15">
+        <v>19.684899999999999</v>
+      </c>
+      <c r="G71" s="15">
+        <v>0.87339999999999995</v>
+      </c>
+      <c r="H71" s="15">
+        <v>16.4513</v>
+      </c>
+      <c r="I71" s="15">
+        <v>0.93300000000000005</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="B72" s="15">
+        <v>13.693899999999999</v>
+      </c>
+      <c r="C72" s="15">
+        <v>0.85550000000000004</v>
+      </c>
+      <c r="D72" s="15">
+        <v>20.059699999999999</v>
+      </c>
+      <c r="E72" s="15">
+        <v>0.91949999999999998</v>
+      </c>
+      <c r="F72" s="15">
+        <v>20.980699999999999</v>
+      </c>
+      <c r="G72" s="15">
+        <v>0.87819999999999998</v>
+      </c>
+      <c r="H72" s="15">
+        <v>16.6617</v>
+      </c>
+      <c r="I72" s="15">
+        <v>0.93520000000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="B73" s="15">
+        <v>13.7294</v>
+      </c>
+      <c r="C73" s="15">
+        <v>0.85029999999999994</v>
+      </c>
+      <c r="D73" s="15">
+        <v>20.5672</v>
+      </c>
+      <c r="E73" s="15">
+        <v>0.92720000000000002</v>
+      </c>
+      <c r="F73" s="15">
+        <v>21.315799999999999</v>
+      </c>
+      <c r="G73" s="15">
+        <v>0.87329999999999997</v>
+      </c>
+      <c r="H73" s="15">
+        <v>16.593</v>
+      </c>
+      <c r="I73" s="15">
+        <v>0.93330000000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="B74" s="15">
+        <v>13.769</v>
+      </c>
+      <c r="C74" s="15">
+        <v>0.85870000000000002</v>
+      </c>
+      <c r="D74" s="15">
+        <v>20.156199999999998</v>
+      </c>
+      <c r="E74" s="15">
+        <v>0.92190000000000005</v>
+      </c>
+      <c r="F74" s="15">
+        <v>20.845099999999999</v>
+      </c>
+      <c r="G74" s="15">
+        <v>0.87970000000000004</v>
+      </c>
+      <c r="H74" s="15">
+        <v>16.520199999999999</v>
+      </c>
+      <c r="I74" s="15">
+        <v>0.93510000000000004</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>215</v>
+      </c>
+      <c r="B75" s="11">
+        <v>4.3480999999999996</v>
+      </c>
+      <c r="C75" s="11">
+        <v>0.65790000000000004</v>
+      </c>
+      <c r="D75" s="11">
+        <v>13.3089</v>
+      </c>
+      <c r="E75" s="11">
+        <v>0.75060000000000004</v>
+      </c>
+      <c r="F75" s="11">
+        <v>10.5406</v>
+      </c>
+      <c r="G75" s="11">
+        <v>0.72589999999999999</v>
+      </c>
+      <c r="H75" s="11">
+        <v>17.546700000000001</v>
+      </c>
+      <c r="I75" s="11">
+        <v>0.79669999999999996</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B1048576">
+  <conditionalFormatting sqref="B56:B1048576 B1:B54">
     <cfRule type="top10" dxfId="51" priority="8" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
+  <conditionalFormatting sqref="C56:C1048576 C1:C54">
     <cfRule type="top10" dxfId="50" priority="7" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
+  <conditionalFormatting sqref="D56:D1048576 D1:D54">
     <cfRule type="top10" dxfId="49" priority="6" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="E56:E1048576 E1:E54">
     <cfRule type="top10" dxfId="48" priority="5" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
+  <conditionalFormatting sqref="F56:F1048576 F1:F54">
     <cfRule type="top10" dxfId="47" priority="4" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1048576">
+  <conditionalFormatting sqref="G56:G1048576 G1:G54">
     <cfRule type="top10" dxfId="46" priority="3" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
+  <conditionalFormatting sqref="H56:H1048576 H1:H54">
     <cfRule type="top10" dxfId="45" priority="2" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1048576">
+  <conditionalFormatting sqref="I56:I1048576 I1:I54">
     <cfRule type="top10" dxfId="44" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5642,7 +6285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A67CF49-60A7-4BB0-98FE-FEFDC2499A21}">
   <dimension ref="A1:AI14"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="N1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
@@ -5654,25 +6297,25 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="AF1" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
@@ -5814,7 +6457,7 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B4" s="5">
         <v>7.4066000000000001</v>
@@ -5903,7 +6546,7 @@
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B5" s="5">
         <v>10.702500000000001</v>
@@ -5992,7 +6635,7 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B6" s="5">
         <v>12.343999999999999</v>
@@ -6081,7 +6724,7 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B7" s="5">
         <v>19.4085</v>
@@ -6170,7 +6813,7 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -6206,7 +6849,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>0</v>
@@ -6253,22 +6896,22 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -6420,28 +7063,28 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
@@ -6585,7 +7228,7 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B4" s="5">
         <v>6.4029999999999996</v>
@@ -6647,7 +7290,7 @@
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B5" s="5">
         <v>6.6196000000000002</v>
@@ -6685,7 +7328,7 @@
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B6" s="5">
         <v>6.4764999999999997</v>
@@ -6723,7 +7366,7 @@
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B7" s="5">
         <v>7.0194999999999999</v>
@@ -6761,7 +7404,7 @@
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B8" s="5">
         <v>6.4603999999999999</v>
@@ -6779,7 +7422,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B9" s="7">
         <v>6.5223000000000004</v>
@@ -6796,7 +7439,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B10" s="13">
         <v>6.4854000000000003</v>

--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1895368-F2B5-4D30-AAAB-AA5B7DE29C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E590D6-FA73-4D84-A551-16A7035B2549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="990" windowWidth="28800" windowHeight="15345" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -519,7 +519,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="249">
   <si>
     <t>PSNR</t>
   </si>
@@ -1169,51 +1169,6 @@
     <t>V5.04.5</t>
   </si>
   <si>
-    <t>V5.04.6</t>
-  </si>
-  <si>
-    <t>V5.04.7</t>
-  </si>
-  <si>
-    <t>V5.04.8</t>
-  </si>
-  <si>
-    <t>V5.04.9</t>
-  </si>
-  <si>
-    <t>V5.04.10</t>
-  </si>
-  <si>
-    <t>V5.04.11</t>
-  </si>
-  <si>
-    <t>V5.04.12</t>
-  </si>
-  <si>
-    <t>V5.05.5</t>
-  </si>
-  <si>
-    <t>V5.05.6</t>
-  </si>
-  <si>
-    <t>V5.05.7</t>
-  </si>
-  <si>
-    <t>V5.05.8</t>
-  </si>
-  <si>
-    <t>V5.05.9</t>
-  </si>
-  <si>
-    <t>V5.05.10</t>
-  </si>
-  <si>
-    <t>V5.05.11</t>
-  </si>
-  <si>
-    <t>V5.05.12</t>
-  </si>
-  <si>
     <t>V5.02.5</t>
   </si>
   <si>
@@ -1248,6 +1203,69 @@
   </si>
   <si>
     <t>V5.01.8</t>
+  </si>
+  <si>
+    <t>V6.05.5</t>
+  </si>
+  <si>
+    <t>V6.05.6</t>
+  </si>
+  <si>
+    <t>V6.05.7</t>
+  </si>
+  <si>
+    <t>V6.05.8</t>
+  </si>
+  <si>
+    <t>V6.05.9</t>
+  </si>
+  <si>
+    <t>V6.05.13</t>
+  </si>
+  <si>
+    <t>V6.05.14</t>
+  </si>
+  <si>
+    <t>V6.05.15</t>
+  </si>
+  <si>
+    <t>V6.05.16</t>
+  </si>
+  <si>
+    <t>V6.05.17</t>
+  </si>
+  <si>
+    <t>V6.05.18</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>V6.06.5</t>
+  </si>
+  <si>
+    <t>V6.06.6</t>
+  </si>
+  <si>
+    <t>V6.06.7</t>
+  </si>
+  <si>
+    <t>V6.06.13</t>
+  </si>
+  <si>
+    <t>V6.06.14</t>
+  </si>
+  <si>
+    <t>V6.06.15</t>
+  </si>
+  <si>
+    <t>V6.06.16</t>
+  </si>
+  <si>
+    <t>V6.06.17</t>
+  </si>
+  <si>
+    <t>V6.06.18</t>
   </si>
 </sst>
 </file>
@@ -1328,7 +1346,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1362,11 +1380,11 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2530,38 +2548,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="F1" s="16" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="K1" s="16" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="K1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="16"/>
+      <c r="L1" s="14"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="16"/>
+      <c r="O1" s="14"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="R1" s="2"/>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -4222,11 +4240,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB7FCCD-6DEF-4489-B535-F792B4F2F5DA}">
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K65" sqref="K65"/>
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K80" sqref="K80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5547,7 +5565,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="B51" s="11">
         <v>5.4236000000000004</v>
@@ -5576,7 +5594,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="B52" s="11">
         <v>5.9904000000000002</v>
@@ -5605,7 +5623,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B53" s="11">
         <v>5.3741000000000003</v>
@@ -5634,7 +5652,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B54" s="11">
         <v>5.4899399999999998</v>
@@ -5779,7 +5797,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="B59" s="11">
         <v>13.162000000000001</v>
@@ -5808,7 +5826,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B60" s="5">
         <v>13.2319</v>
@@ -5837,7 +5855,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="B61" s="5">
         <v>12.5364</v>
@@ -5866,7 +5884,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="B62" s="5">
         <v>12.6313</v>
@@ -5895,7 +5913,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="B63" s="5">
         <v>12.949400000000001</v>
@@ -5924,7 +5942,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="B64" s="5">
         <v>13.1866</v>
@@ -5953,7 +5971,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="B65" s="5">
         <v>12.97</v>
@@ -5982,7 +6000,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="B66" s="5">
         <v>13.047700000000001</v>
@@ -6029,119 +6047,119 @@
         <v>210</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="14" t="s">
+    <row r="71" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="B71" s="15">
+      <c r="B71" s="16">
         <v>13.331300000000001</v>
       </c>
-      <c r="C71" s="15">
+      <c r="C71" s="16">
         <v>0.85170000000000001</v>
       </c>
-      <c r="D71" s="15">
+      <c r="D71" s="16">
         <v>19.683599999999998</v>
       </c>
-      <c r="E71" s="15">
+      <c r="E71" s="16">
         <v>0.91739999999999999</v>
       </c>
-      <c r="F71" s="15">
+      <c r="F71" s="16">
         <v>19.684899999999999</v>
       </c>
-      <c r="G71" s="15">
+      <c r="G71" s="16">
         <v>0.87339999999999995</v>
       </c>
-      <c r="H71" s="15">
+      <c r="H71" s="16">
         <v>16.4513</v>
       </c>
-      <c r="I71" s="15">
+      <c r="I71" s="16">
         <v>0.93300000000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="14" t="s">
+    <row r="72" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="B72" s="15">
+      <c r="B72" s="16">
         <v>13.693899999999999</v>
       </c>
-      <c r="C72" s="15">
+      <c r="C72" s="16">
         <v>0.85550000000000004</v>
       </c>
-      <c r="D72" s="15">
+      <c r="D72" s="16">
         <v>20.059699999999999</v>
       </c>
-      <c r="E72" s="15">
+      <c r="E72" s="16">
         <v>0.91949999999999998</v>
       </c>
-      <c r="F72" s="15">
+      <c r="F72" s="16">
         <v>20.980699999999999</v>
       </c>
-      <c r="G72" s="15">
+      <c r="G72" s="16">
         <v>0.87819999999999998</v>
       </c>
-      <c r="H72" s="15">
+      <c r="H72" s="16">
         <v>16.6617</v>
       </c>
-      <c r="I72" s="15">
+      <c r="I72" s="16">
         <v>0.93520000000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="14" t="s">
+    <row r="73" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="B73" s="15">
+      <c r="B73" s="16">
         <v>13.7294</v>
       </c>
-      <c r="C73" s="15">
+      <c r="C73" s="16">
         <v>0.85029999999999994</v>
       </c>
-      <c r="D73" s="15">
+      <c r="D73" s="16">
         <v>20.5672</v>
       </c>
-      <c r="E73" s="15">
+      <c r="E73" s="16">
         <v>0.92720000000000002</v>
       </c>
-      <c r="F73" s="15">
+      <c r="F73" s="16">
         <v>21.315799999999999</v>
       </c>
-      <c r="G73" s="15">
+      <c r="G73" s="16">
         <v>0.87329999999999997</v>
       </c>
-      <c r="H73" s="15">
+      <c r="H73" s="16">
         <v>16.593</v>
       </c>
-      <c r="I73" s="15">
+      <c r="I73" s="16">
         <v>0.93330000000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="14" t="s">
+    <row r="74" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="B74" s="15">
+      <c r="B74" s="16">
         <v>13.769</v>
       </c>
-      <c r="C74" s="15">
+      <c r="C74" s="16">
         <v>0.85870000000000002</v>
       </c>
-      <c r="D74" s="15">
+      <c r="D74" s="16">
         <v>20.156199999999998</v>
       </c>
-      <c r="E74" s="15">
+      <c r="E74" s="16">
         <v>0.92190000000000005</v>
       </c>
-      <c r="F74" s="15">
+      <c r="F74" s="16">
         <v>20.845099999999999</v>
       </c>
-      <c r="G74" s="15">
+      <c r="G74" s="16">
         <v>0.87970000000000004</v>
       </c>
-      <c r="H74" s="15">
+      <c r="H74" s="16">
         <v>16.520199999999999</v>
       </c>
-      <c r="I74" s="15">
+      <c r="I74" s="16">
         <v>0.93510000000000004</v>
       </c>
     </row>
@@ -6176,77 +6194,558 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>216</v>
+        <v>228</v>
+      </c>
+      <c r="B76" s="5">
+        <v>5.7104999999999997</v>
+      </c>
+      <c r="C76" s="5">
+        <v>0.59219999999999995</v>
+      </c>
+      <c r="D76" s="5">
+        <v>13.110300000000001</v>
+      </c>
+      <c r="E76" s="5">
+        <v>0.76629999999999998</v>
+      </c>
+      <c r="H76" s="5">
+        <v>1.3095000000000001</v>
+      </c>
+      <c r="I76" s="5">
+        <v>0.4007</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>217</v>
+        <v>229</v>
+      </c>
+      <c r="B77" s="5">
+        <v>5.6372</v>
+      </c>
+      <c r="C77" s="5">
+        <v>0.58030000000000004</v>
+      </c>
+      <c r="D77" s="5">
+        <v>14.770200000000001</v>
+      </c>
+      <c r="E77" s="5">
+        <v>0.76190000000000002</v>
+      </c>
+      <c r="H77" s="5">
+        <v>1.3313999999999999</v>
+      </c>
+      <c r="I77" s="5">
+        <v>0.4168</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>218</v>
+        <v>230</v>
+      </c>
+      <c r="B78" s="5">
+        <v>8.7902000000000005</v>
+      </c>
+      <c r="C78" s="5">
+        <v>0.70920000000000005</v>
+      </c>
+      <c r="D78" s="5">
+        <v>15.124599999999999</v>
+      </c>
+      <c r="E78" s="5">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H78" s="5">
+        <v>0.59409999999999996</v>
+      </c>
+      <c r="I78" s="5">
+        <v>0.3861</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>219</v>
+        <v>231</v>
+      </c>
+      <c r="B79" s="5">
+        <v>8.7850999999999999</v>
+      </c>
+      <c r="C79" s="5">
+        <v>0.70550000000000002</v>
+      </c>
+      <c r="D79" s="5">
+        <v>13.9308</v>
+      </c>
+      <c r="E79" s="5">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="H79" s="5">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="I79" s="5">
+        <v>0.39240000000000003</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="B80" s="5">
+        <v>9.3439999999999994</v>
+      </c>
+      <c r="C80" s="5">
+        <v>0.73319999999999996</v>
+      </c>
+      <c r="D80" s="5">
+        <v>15.748799999999999</v>
+      </c>
+      <c r="E80" s="5">
+        <v>0.83250000000000002</v>
+      </c>
+      <c r="H80" s="5">
+        <v>0.52510000000000001</v>
+      </c>
+      <c r="I80" s="5">
+        <v>0.3634</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="B81" s="5">
+        <v>9.4969999999999999</v>
+      </c>
+      <c r="C81" s="5">
+        <v>0.752</v>
+      </c>
+      <c r="D81" s="5">
+        <v>14.9404</v>
+      </c>
+      <c r="E81" s="5">
+        <v>0.80669999999999997</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H81" s="5">
+        <v>0.55689999999999995</v>
+      </c>
+      <c r="I81" s="5">
+        <v>0.3725</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="B82" s="5">
+        <v>8.8896999999999995</v>
+      </c>
+      <c r="C82" s="5">
+        <v>0.74260000000000004</v>
+      </c>
+      <c r="D82" s="5">
+        <v>15.688499999999999</v>
+      </c>
+      <c r="E82" s="5">
+        <v>0.81369999999999998</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H82" s="5">
+        <v>0.5222</v>
+      </c>
+      <c r="I82" s="5">
+        <v>0.37390000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+      <c r="B83" s="5">
+        <v>8.9699000000000009</v>
+      </c>
+      <c r="C83" s="5">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="D83" s="5">
+        <v>15.6431</v>
+      </c>
+      <c r="E83" s="5">
+        <v>0.81540000000000001</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H83" s="5">
+        <v>0.56810000000000005</v>
+      </c>
+      <c r="I83" s="5">
+        <v>0.37059999999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="B84" s="5">
+        <v>9.1125000000000007</v>
+      </c>
+      <c r="C84" s="5">
+        <v>0.72340000000000004</v>
+      </c>
+      <c r="D84" s="5">
+        <v>15.781499999999999</v>
+      </c>
+      <c r="E84" s="5">
+        <v>0.81679999999999997</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H84" s="5">
+        <v>0.53180000000000005</v>
+      </c>
+      <c r="I84" s="5">
+        <v>0.37319999999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="B85" s="5">
+        <v>9.4570000000000007</v>
+      </c>
+      <c r="C85" s="5">
+        <v>0.73509999999999998</v>
+      </c>
+      <c r="D85" s="5">
+        <v>16.666799999999999</v>
+      </c>
+      <c r="E85" s="5">
+        <v>0.84019999999999995</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H85" s="5">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="I85" s="5">
+        <v>0.36930000000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="B86" s="5">
+        <v>9.0225000000000009</v>
+      </c>
+      <c r="C86" s="5">
+        <v>0.74</v>
+      </c>
+      <c r="D86" s="5">
+        <v>15.7925</v>
+      </c>
+      <c r="E86" s="5">
+        <v>0.81559999999999999</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H86" s="5">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="I86" s="5">
+        <v>0.37319999999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="B87" s="5">
+        <v>6.5556999999999999</v>
+      </c>
+      <c r="C87" s="5">
+        <v>0.62549999999999994</v>
+      </c>
+      <c r="D87" s="5">
+        <v>13.922599999999999</v>
+      </c>
+      <c r="E87" s="5">
+        <v>0.75049999999999994</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H87" s="5">
+        <v>1.2573000000000001</v>
+      </c>
+      <c r="I87" s="5">
+        <v>0.41739999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="B88" s="5">
+        <v>6.6860999999999997</v>
+      </c>
+      <c r="C88" s="5">
+        <v>0.6381</v>
+      </c>
+      <c r="D88" s="5">
+        <v>13.9129</v>
+      </c>
+      <c r="E88" s="5">
+        <v>0.74529999999999996</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H88" s="5">
+        <v>1.0619000000000001</v>
+      </c>
+      <c r="I88" s="5">
+        <v>0.41949999999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+      <c r="B89" s="5">
+        <v>8.9771999999999998</v>
+      </c>
+      <c r="C89" s="5">
+        <v>0.76090000000000002</v>
+      </c>
+      <c r="D89" s="5">
+        <v>14.6983</v>
+      </c>
+      <c r="E89" s="5">
+        <v>0.79630000000000001</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H89" s="5">
+        <v>0.39489999999999997</v>
+      </c>
+      <c r="I89" s="5">
+        <v>0.3947</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>230</v>
+        <v>243</v>
+      </c>
+      <c r="B90" s="5">
+        <v>9.4128000000000007</v>
+      </c>
+      <c r="C90" s="5">
+        <v>0.7792</v>
+      </c>
+      <c r="D90" s="5">
+        <v>15.6638</v>
+      </c>
+      <c r="E90" s="5">
+        <v>0.80720000000000003</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H90" s="5">
+        <v>0.44879999999999998</v>
+      </c>
+      <c r="I90" s="5">
+        <v>0.38250000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>244</v>
+      </c>
+      <c r="B91" s="5">
+        <v>10.3941</v>
+      </c>
+      <c r="C91" s="5">
+        <v>0.75890000000000002</v>
+      </c>
+      <c r="D91" s="5">
+        <v>15.7362</v>
+      </c>
+      <c r="E91" s="5">
+        <v>0.8145</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H91" s="5">
+        <v>0.40760000000000002</v>
+      </c>
+      <c r="I91" s="5">
+        <v>0.39269999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>245</v>
+      </c>
+      <c r="B92" s="5">
+        <v>9.3248999999999995</v>
+      </c>
+      <c r="C92" s="5">
+        <v>0.7722</v>
+      </c>
+      <c r="D92" s="5">
+        <v>15.7554</v>
+      </c>
+      <c r="E92" s="5">
+        <v>0.79830000000000001</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H92" s="5">
+        <v>0.44369999999999998</v>
+      </c>
+      <c r="I92" s="5">
+        <v>0.39100000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>246</v>
+      </c>
+      <c r="B93" s="5">
+        <v>9.3497000000000003</v>
+      </c>
+      <c r="C93" s="5">
+        <v>0.77449999999999997</v>
+      </c>
+      <c r="D93" s="5">
+        <v>15.7643</v>
+      </c>
+      <c r="E93" s="5">
+        <v>0.81440000000000001</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H93" s="5">
+        <v>0.42209999999999998</v>
+      </c>
+      <c r="I93" s="5">
+        <v>0.3901</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>247</v>
+      </c>
+      <c r="B94" s="5">
+        <v>10.4316</v>
+      </c>
+      <c r="C94" s="5">
+        <v>0.76580000000000004</v>
+      </c>
+      <c r="D94" s="5">
+        <v>15.775399999999999</v>
+      </c>
+      <c r="E94" s="5">
+        <v>0.81210000000000004</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H94" s="5">
+        <v>0.48920000000000002</v>
+      </c>
+      <c r="I94" s="5">
+        <v>0.38540000000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>248</v>
+      </c>
+      <c r="B95" s="5">
+        <v>9.3169000000000004</v>
+      </c>
+      <c r="C95" s="5">
+        <v>0.76759999999999995</v>
+      </c>
+      <c r="D95" s="5">
+        <v>15.9297</v>
+      </c>
+      <c r="E95" s="5">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H95" s="5">
+        <v>0.3967</v>
+      </c>
+      <c r="I95" s="5">
+        <v>0.38369999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -6263,16 +6762,16 @@
   <conditionalFormatting sqref="E56:E1048576 E1:E54">
     <cfRule type="top10" dxfId="48" priority="5" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F56:F1048576 F1:F54">
+  <conditionalFormatting sqref="F87:F89 F91 F93:F1048576 H92 H90 F56:F75 F78 F80:F85 H79 H76:H77 H86 F1:F54">
     <cfRule type="top10" dxfId="47" priority="4" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G56:G1048576 G1:G54">
+  <conditionalFormatting sqref="G87:G89 G91 G93:G1048576 I92 I90 G56:G75 G78 G80:G85 I79 I76:I77 I86 G1:G54">
     <cfRule type="top10" dxfId="46" priority="3" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H56:H1048576 H1:H54">
+  <conditionalFormatting sqref="H87:H89 H91 H93:H1048576 H56:H75 H78 H80:H85 H1:H54">
     <cfRule type="top10" dxfId="45" priority="2" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56:I1048576 I1:I54">
+  <conditionalFormatting sqref="I87:I89 I91 I93:I1048576 I56:I75 I78 I80:I85 I1:I54">
     <cfRule type="top10" dxfId="44" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E590D6-FA73-4D84-A551-16A7035B2549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E050CD36-C3EF-4886-BBE4-7C90FF44F01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -519,7 +519,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="258">
   <si>
     <t>PSNR</t>
   </si>
@@ -1266,6 +1266,33 @@
   </si>
   <si>
     <t>V6.06.18</t>
+  </si>
+  <si>
+    <t>V6.07.5</t>
+  </si>
+  <si>
+    <t>V6.07.6</t>
+  </si>
+  <si>
+    <t>V6.07.7</t>
+  </si>
+  <si>
+    <t>V6.07.8</t>
+  </si>
+  <si>
+    <t>V6.07.9</t>
+  </si>
+  <si>
+    <t>V6.07.10</t>
+  </si>
+  <si>
+    <t>V6.07.11</t>
+  </si>
+  <si>
+    <t>V6.07.12</t>
+  </si>
+  <si>
+    <t>V6.07.13</t>
   </si>
 </sst>
 </file>
@@ -1380,11 +1407,11 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2548,38 +2575,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="F1" s="14" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="K1" s="14" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="K1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="14"/>
+      <c r="L1" s="16"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="14"/>
+      <c r="O1" s="16"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="R1" s="2"/>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -4240,11 +4267,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB7FCCD-6DEF-4489-B535-F792B4F2F5DA}">
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K80" sqref="K80"/>
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6047,119 +6074,119 @@
         <v>210</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="15" t="s">
+    <row r="71" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="B71" s="16">
+      <c r="B71" s="15">
         <v>13.331300000000001</v>
       </c>
-      <c r="C71" s="16">
+      <c r="C71" s="15">
         <v>0.85170000000000001</v>
       </c>
-      <c r="D71" s="16">
+      <c r="D71" s="15">
         <v>19.683599999999998</v>
       </c>
-      <c r="E71" s="16">
+      <c r="E71" s="15">
         <v>0.91739999999999999</v>
       </c>
-      <c r="F71" s="16">
+      <c r="F71" s="15">
         <v>19.684899999999999</v>
       </c>
-      <c r="G71" s="16">
+      <c r="G71" s="15">
         <v>0.87339999999999995</v>
       </c>
-      <c r="H71" s="16">
+      <c r="H71" s="15">
         <v>16.4513</v>
       </c>
-      <c r="I71" s="16">
+      <c r="I71" s="15">
         <v>0.93300000000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="15" t="s">
+    <row r="72" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="B72" s="16">
+      <c r="B72" s="15">
         <v>13.693899999999999</v>
       </c>
-      <c r="C72" s="16">
+      <c r="C72" s="15">
         <v>0.85550000000000004</v>
       </c>
-      <c r="D72" s="16">
+      <c r="D72" s="15">
         <v>20.059699999999999</v>
       </c>
-      <c r="E72" s="16">
+      <c r="E72" s="15">
         <v>0.91949999999999998</v>
       </c>
-      <c r="F72" s="16">
+      <c r="F72" s="15">
         <v>20.980699999999999</v>
       </c>
-      <c r="G72" s="16">
+      <c r="G72" s="15">
         <v>0.87819999999999998</v>
       </c>
-      <c r="H72" s="16">
+      <c r="H72" s="15">
         <v>16.6617</v>
       </c>
-      <c r="I72" s="16">
+      <c r="I72" s="15">
         <v>0.93520000000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="15" t="s">
+    <row r="73" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="B73" s="16">
+      <c r="B73" s="15">
         <v>13.7294</v>
       </c>
-      <c r="C73" s="16">
+      <c r="C73" s="15">
         <v>0.85029999999999994</v>
       </c>
-      <c r="D73" s="16">
+      <c r="D73" s="15">
         <v>20.5672</v>
       </c>
-      <c r="E73" s="16">
+      <c r="E73" s="15">
         <v>0.92720000000000002</v>
       </c>
-      <c r="F73" s="16">
+      <c r="F73" s="15">
         <v>21.315799999999999</v>
       </c>
-      <c r="G73" s="16">
+      <c r="G73" s="15">
         <v>0.87329999999999997</v>
       </c>
-      <c r="H73" s="16">
+      <c r="H73" s="15">
         <v>16.593</v>
       </c>
-      <c r="I73" s="16">
+      <c r="I73" s="15">
         <v>0.93330000000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="15" t="s">
+    <row r="74" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="B74" s="16">
+      <c r="B74" s="15">
         <v>13.769</v>
       </c>
-      <c r="C74" s="16">
+      <c r="C74" s="15">
         <v>0.85870000000000002</v>
       </c>
-      <c r="D74" s="16">
+      <c r="D74" s="15">
         <v>20.156199999999998</v>
       </c>
-      <c r="E74" s="16">
+      <c r="E74" s="15">
         <v>0.92190000000000005</v>
       </c>
-      <c r="F74" s="16">
+      <c r="F74" s="15">
         <v>20.845099999999999</v>
       </c>
-      <c r="G74" s="16">
+      <c r="G74" s="15">
         <v>0.87970000000000004</v>
       </c>
-      <c r="H74" s="16">
+      <c r="H74" s="15">
         <v>16.520199999999999</v>
       </c>
-      <c r="I74" s="16">
+      <c r="I74" s="15">
         <v>0.93510000000000004</v>
       </c>
     </row>
@@ -6746,6 +6773,243 @@
       </c>
       <c r="I95" s="5">
         <v>0.38369999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>249</v>
+      </c>
+      <c r="B96" s="5">
+        <v>5.9273999999999996</v>
+      </c>
+      <c r="C96" s="5">
+        <v>0.62260000000000004</v>
+      </c>
+      <c r="D96" s="5">
+        <v>16.218599999999999</v>
+      </c>
+      <c r="E96" s="5">
+        <v>0.83730000000000004</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H96" s="5">
+        <v>1.1882999999999999</v>
+      </c>
+      <c r="I96" s="5">
+        <v>0.38990000000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>250</v>
+      </c>
+      <c r="B97" s="5">
+        <v>5.9204999999999997</v>
+      </c>
+      <c r="C97" s="5">
+        <v>0.62070000000000003</v>
+      </c>
+      <c r="D97" s="5">
+        <v>16.4132</v>
+      </c>
+      <c r="E97" s="5">
+        <v>0.8357</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H97" s="5">
+        <v>1.1136999999999999</v>
+      </c>
+      <c r="I97" s="5">
+        <v>0.3846</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>251</v>
+      </c>
+      <c r="B98" s="5">
+        <v>8.3131000000000004</v>
+      </c>
+      <c r="C98" s="5">
+        <v>0.71779999999999999</v>
+      </c>
+      <c r="D98" s="5">
+        <v>16.824100000000001</v>
+      </c>
+      <c r="E98" s="5">
+        <v>0.84809999999999997</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H98" s="5">
+        <v>0.621</v>
+      </c>
+      <c r="I98" s="5">
+        <v>0.373</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>252</v>
+      </c>
+      <c r="B99" s="5">
+        <v>8.2948699999999995</v>
+      </c>
+      <c r="C99" s="5">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="D99" s="5">
+        <v>16.1447</v>
+      </c>
+      <c r="E99" s="5">
+        <v>0.83479999999999999</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H99" s="5">
+        <v>0.47510000000000002</v>
+      </c>
+      <c r="I99" s="5">
+        <v>0.3654</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>254</v>
+      </c>
+      <c r="B101" s="5">
+        <v>9.3842999999999996</v>
+      </c>
+      <c r="C101" s="5">
+        <v>0.74550000000000005</v>
+      </c>
+      <c r="D101" s="5">
+        <v>16.964400000000001</v>
+      </c>
+      <c r="E101" s="5">
+        <v>0.84230000000000005</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H101" s="5">
+        <v>0.40139999999999998</v>
+      </c>
+      <c r="I101" s="5">
+        <v>0.36030000000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>255</v>
+      </c>
+      <c r="B102" s="5">
+        <v>8.9859000000000009</v>
+      </c>
+      <c r="C102" s="5">
+        <v>0.74060000000000004</v>
+      </c>
+      <c r="D102" s="5">
+        <v>16.714099999999998</v>
+      </c>
+      <c r="E102" s="5">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H102" s="5">
+        <v>0.42730000000000001</v>
+      </c>
+      <c r="I102" s="5">
+        <v>0.36409999999999998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>256</v>
+      </c>
+      <c r="B103" s="5">
+        <v>8.9672999999999998</v>
+      </c>
+      <c r="C103" s="5">
+        <v>0.76060000000000005</v>
+      </c>
+      <c r="D103" s="5">
+        <v>16.284600000000001</v>
+      </c>
+      <c r="E103" s="5">
+        <v>0.82909999999999995</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H103" s="5">
+        <v>0.28539999999999999</v>
+      </c>
+      <c r="I103" s="5">
+        <v>0.3604</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>257</v>
+      </c>
+      <c r="B104" s="5">
+        <v>9.3919999999999995</v>
+      </c>
+      <c r="C104" s="5">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="D104" s="5">
+        <v>16.539300000000001</v>
+      </c>
+      <c r="E104" s="5">
+        <v>0.82920000000000005</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H104" s="5">
+        <v>0.37859999999999999</v>
+      </c>
+      <c r="I104" s="5">
+        <v>0.37090000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -6762,16 +7026,16 @@
   <conditionalFormatting sqref="E56:E1048576 E1:E54">
     <cfRule type="top10" dxfId="48" priority="5" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:F89 F91 F93:F1048576 H92 H90 F56:F75 F78 F80:F85 H79 H76:H77 H86 F1:F54">
+  <conditionalFormatting sqref="F87:F89 F91 F93:F96 F98:F103 F105:F1048576 H104 H97 H92 H90 F56:F75 F78 F80:F85 H79 H76:H77 H86 F1:F54">
     <cfRule type="top10" dxfId="47" priority="4" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G87:G89 G91 G93:G1048576 I92 I90 G56:G75 G78 G80:G85 I79 I76:I77 I86 G1:G54">
+  <conditionalFormatting sqref="G87:G89 G91 G93:G96 G98:G103 G105:G1048576 I104 I97 I92 I90 G56:G75 G78 G80:G85 I79 I76:I77 I86 G1:G54">
     <cfRule type="top10" dxfId="46" priority="3" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H87:H89 H91 H93:H1048576 H56:H75 H78 H80:H85 H1:H54">
+  <conditionalFormatting sqref="H87:H89 H91 H93:H96 H98:H103 H105:H1048576 H56:H75 H78 H80:H85 H1:H54">
     <cfRule type="top10" dxfId="45" priority="2" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I87:I89 I91 I93:I1048576 I56:I75 I78 I80:I85 I1:I54">
+  <conditionalFormatting sqref="I87:I89 I91 I93:I96 I98:I103 I105:I1048576 I56:I75 I78 I80:I85 I1:I54">
     <cfRule type="top10" dxfId="44" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E050CD36-C3EF-4886-BBE4-7C90FF44F01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E09070-BF56-4C44-983A-5B645F730FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6225" yWindow="15" windowWidth="28800" windowHeight="15345" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -519,7 +519,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="272">
   <si>
     <t>PSNR</t>
   </si>
@@ -1293,6 +1293,48 @@
   </si>
   <si>
     <t>V6.07.13</t>
+  </si>
+  <si>
+    <t>V7.04.5</t>
+  </si>
+  <si>
+    <t>V7.04.6</t>
+  </si>
+  <si>
+    <t>V7.04.7</t>
+  </si>
+  <si>
+    <t>V7.04.8</t>
+  </si>
+  <si>
+    <t>V7.04.9</t>
+  </si>
+  <si>
+    <t>V7.04.10</t>
+  </si>
+  <si>
+    <t>V7.04.11</t>
+  </si>
+  <si>
+    <t>V7.04.12</t>
+  </si>
+  <si>
+    <t>V7.04.13</t>
+  </si>
+  <si>
+    <t>V7.04.14</t>
+  </si>
+  <si>
+    <t>V7.04.15</t>
+  </si>
+  <si>
+    <t>V7.04.16</t>
+  </si>
+  <si>
+    <t>V7.04.17</t>
+  </si>
+  <si>
+    <t>V7.04.18</t>
   </si>
 </sst>
 </file>
@@ -4267,11 +4309,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB7FCCD-6DEF-4489-B535-F792B4F2F5DA}">
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E105" sqref="E105"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H119" sqref="H119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7010,6 +7052,196 @@
       </c>
       <c r="I104" s="5">
         <v>0.37090000000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>263</v>
+      </c>
+      <c r="B110" s="5">
+        <v>7.3808999999999996</v>
+      </c>
+      <c r="C110" s="5">
+        <v>0.65229999999999999</v>
+      </c>
+      <c r="D110" s="5">
+        <v>9.6631999999999998</v>
+      </c>
+      <c r="E110" s="5">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="F110" s="5">
+        <v>9.4557000000000002</v>
+      </c>
+      <c r="G110" s="5">
+        <v>0.71309999999999996</v>
+      </c>
+      <c r="H110" s="5">
+        <v>8.0066000000000006</v>
+      </c>
+      <c r="I110" s="5">
+        <v>0.72050000000000003</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>264</v>
+      </c>
+      <c r="B111" s="5">
+        <v>7.9814999999999996</v>
+      </c>
+      <c r="C111" s="5">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="D111" s="5">
+        <v>8.5655999999999999</v>
+      </c>
+      <c r="E111" s="5">
+        <v>0.75060000000000004</v>
+      </c>
+      <c r="F111" s="5">
+        <v>9.9532000000000007</v>
+      </c>
+      <c r="G111" s="5">
+        <v>0.73770000000000002</v>
+      </c>
+      <c r="H111" s="5">
+        <v>7.6144999999999996</v>
+      </c>
+      <c r="I111" s="5">
+        <v>0.71730000000000005</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>265</v>
+      </c>
+      <c r="B112" s="5">
+        <v>9.7713000000000001</v>
+      </c>
+      <c r="C112" s="5">
+        <v>0.63939999999999997</v>
+      </c>
+      <c r="D112" s="5">
+        <v>11.5276</v>
+      </c>
+      <c r="E112" s="5">
+        <v>0.77129999999999999</v>
+      </c>
+      <c r="F112" s="5">
+        <v>9.5265000000000004</v>
+      </c>
+      <c r="G112" s="5">
+        <v>0.71609999999999996</v>
+      </c>
+      <c r="H112" s="5">
+        <v>8.4581</v>
+      </c>
+      <c r="I112" s="5">
+        <v>0.73160000000000003</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>266</v>
+      </c>
+      <c r="B113" s="5">
+        <v>5.9819000000000004</v>
+      </c>
+      <c r="C113" s="5">
+        <v>0.66390000000000005</v>
+      </c>
+      <c r="D113" s="5">
+        <v>8.2500999999999998</v>
+      </c>
+      <c r="E113" s="5">
+        <v>0.74739999999999995</v>
+      </c>
+      <c r="F113" s="5">
+        <v>9.6128</v>
+      </c>
+      <c r="G113" s="5">
+        <v>0.71389999999999998</v>
+      </c>
+      <c r="H113" s="5">
+        <v>7.6289999999999996</v>
+      </c>
+      <c r="I113" s="5">
+        <v>0.71519999999999995</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>267</v>
+      </c>
+      <c r="B114" s="5">
+        <v>9.1943000000000001</v>
+      </c>
+      <c r="C114" s="5">
+        <v>0.65210000000000001</v>
+      </c>
+      <c r="D114" s="5">
+        <v>9.8124000000000002</v>
+      </c>
+      <c r="E114" s="5">
+        <v>0.75109999999999999</v>
+      </c>
+      <c r="F114" s="5">
+        <v>8.2829999999999995</v>
+      </c>
+      <c r="G114" s="5">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="H114" s="5">
+        <v>8.2120999999999995</v>
+      </c>
+      <c r="I114" s="5">
+        <v>0.72109999999999996</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E09070-BF56-4C44-983A-5B645F730FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E984D9-612D-43A9-B6CD-238CAF697528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6225" yWindow="15" windowWidth="28800" windowHeight="15345" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6795" yWindow="2955" windowWidth="28800" windowHeight="15345" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -519,7 +519,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="287">
   <si>
     <t>PSNR</t>
   </si>
@@ -1335,6 +1335,51 @@
   </si>
   <si>
     <t>V7.04.18</t>
+  </si>
+  <si>
+    <t>V7.08.5</t>
+  </si>
+  <si>
+    <t>V7.03.5</t>
+  </si>
+  <si>
+    <t>V7.03.6</t>
+  </si>
+  <si>
+    <t>V7.03.7</t>
+  </si>
+  <si>
+    <t>V7.03.8</t>
+  </si>
+  <si>
+    <t>V7.03.9</t>
+  </si>
+  <si>
+    <t>V7.03.10</t>
+  </si>
+  <si>
+    <t>V7.03.11</t>
+  </si>
+  <si>
+    <t>V7.03.12</t>
+  </si>
+  <si>
+    <t>V7.03.13</t>
+  </si>
+  <si>
+    <t>V7.03.14</t>
+  </si>
+  <si>
+    <t>V7.03.15</t>
+  </si>
+  <si>
+    <t>V7.03.16</t>
+  </si>
+  <si>
+    <t>V7.03.17</t>
+  </si>
+  <si>
+    <t>V7.03.18</t>
   </si>
 </sst>
 </file>
@@ -4309,11 +4354,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB7FCCD-6DEF-4489-B535-F792B4F2F5DA}">
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:I133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H119" sqref="H119"/>
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J105" sqref="J105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7056,192 +7101,315 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>263</v>
-      </c>
-      <c r="B110" s="5">
-        <v>7.3808999999999996</v>
-      </c>
-      <c r="C110" s="5">
-        <v>0.65229999999999999</v>
-      </c>
-      <c r="D110" s="5">
-        <v>9.6631999999999998</v>
-      </c>
-      <c r="E110" s="5">
-        <v>0.75600000000000001</v>
-      </c>
-      <c r="F110" s="5">
-        <v>9.4557000000000002</v>
-      </c>
-      <c r="G110" s="5">
-        <v>0.71309999999999996</v>
-      </c>
-      <c r="H110" s="5">
-        <v>8.0066000000000006</v>
-      </c>
-      <c r="I110" s="5">
-        <v>0.72050000000000003</v>
+        <v>278</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>264</v>
-      </c>
-      <c r="B111" s="5">
-        <v>7.9814999999999996</v>
-      </c>
-      <c r="C111" s="5">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="D111" s="5">
-        <v>8.5655999999999999</v>
-      </c>
-      <c r="E111" s="5">
-        <v>0.75060000000000004</v>
-      </c>
-      <c r="F111" s="5">
-        <v>9.9532000000000007</v>
-      </c>
-      <c r="G111" s="5">
-        <v>0.73770000000000002</v>
-      </c>
-      <c r="H111" s="5">
-        <v>7.6144999999999996</v>
-      </c>
-      <c r="I111" s="5">
-        <v>0.71730000000000005</v>
+        <v>279</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>265</v>
-      </c>
-      <c r="B112" s="5">
-        <v>9.7713000000000001</v>
-      </c>
-      <c r="C112" s="5">
-        <v>0.63939999999999997</v>
-      </c>
-      <c r="D112" s="5">
-        <v>11.5276</v>
-      </c>
-      <c r="E112" s="5">
-        <v>0.77129999999999999</v>
-      </c>
-      <c r="F112" s="5">
-        <v>9.5265000000000004</v>
-      </c>
-      <c r="G112" s="5">
-        <v>0.71609999999999996</v>
-      </c>
-      <c r="H112" s="5">
-        <v>8.4581</v>
-      </c>
-      <c r="I112" s="5">
-        <v>0.73160000000000003</v>
+        <v>280</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="B113" s="5">
-        <v>5.9819000000000004</v>
+        <v>8.7928999999999995</v>
       </c>
       <c r="C113" s="5">
-        <v>0.66390000000000005</v>
+        <v>0.73219999999999996</v>
       </c>
       <c r="D113" s="5">
-        <v>8.2500999999999998</v>
+        <v>6.7005999999999997</v>
       </c>
       <c r="E113" s="5">
-        <v>0.74739999999999995</v>
+        <v>0.69899999999999995</v>
       </c>
       <c r="F113" s="5">
-        <v>9.6128</v>
+        <v>8.3495000000000008</v>
       </c>
       <c r="G113" s="5">
-        <v>0.71389999999999998</v>
+        <v>0.78969999999999996</v>
       </c>
       <c r="H113" s="5">
-        <v>7.6289999999999996</v>
+        <v>5.5948000000000002</v>
       </c>
       <c r="I113" s="5">
-        <v>0.71519999999999995</v>
+        <v>0.68279999999999996</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="B114" s="5">
-        <v>9.1943000000000001</v>
+        <v>9.8377999999999997</v>
       </c>
       <c r="C114" s="5">
-        <v>0.65210000000000001</v>
+        <v>0.74829999999999997</v>
       </c>
       <c r="D114" s="5">
-        <v>9.8124000000000002</v>
+        <v>6.9192999999999998</v>
       </c>
       <c r="E114" s="5">
-        <v>0.75109999999999999</v>
+        <v>0.71020000000000005</v>
       </c>
       <c r="F114" s="5">
-        <v>8.2829999999999995</v>
+        <v>8.6057000000000006</v>
       </c>
       <c r="G114" s="5">
-        <v>0.71699999999999997</v>
+        <v>0.78659999999999997</v>
       </c>
       <c r="H114" s="5">
-        <v>8.2120999999999995</v>
+        <v>5.6173000000000002</v>
       </c>
       <c r="I114" s="5">
-        <v>0.72109999999999996</v>
+        <v>0.68969999999999998</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>263</v>
+      </c>
+      <c r="B124" s="5">
+        <v>7.3808999999999996</v>
+      </c>
+      <c r="C124" s="5">
+        <v>0.65229999999999999</v>
+      </c>
+      <c r="D124" s="5">
+        <v>9.6631999999999998</v>
+      </c>
+      <c r="E124" s="5">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="F124" s="5">
+        <v>9.4557000000000002</v>
+      </c>
+      <c r="G124" s="5">
+        <v>0.71309999999999996</v>
+      </c>
+      <c r="H124" s="5">
+        <v>8.0066000000000006</v>
+      </c>
+      <c r="I124" s="5">
+        <v>0.72050000000000003</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>264</v>
+      </c>
+      <c r="B125" s="5">
+        <v>7.9814999999999996</v>
+      </c>
+      <c r="C125" s="5">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="D125" s="5">
+        <v>8.5655999999999999</v>
+      </c>
+      <c r="E125" s="5">
+        <v>0.75060000000000004</v>
+      </c>
+      <c r="F125" s="5">
+        <v>9.9532000000000007</v>
+      </c>
+      <c r="G125" s="5">
+        <v>0.73770000000000002</v>
+      </c>
+      <c r="H125" s="5">
+        <v>7.6144999999999996</v>
+      </c>
+      <c r="I125" s="5">
+        <v>0.71730000000000005</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>265</v>
+      </c>
+      <c r="B126" s="5">
+        <v>9.7713000000000001</v>
+      </c>
+      <c r="C126" s="5">
+        <v>0.63939999999999997</v>
+      </c>
+      <c r="D126" s="5">
+        <v>11.5276</v>
+      </c>
+      <c r="E126" s="5">
+        <v>0.77129999999999999</v>
+      </c>
+      <c r="F126" s="5">
+        <v>9.5265000000000004</v>
+      </c>
+      <c r="G126" s="5">
+        <v>0.71609999999999996</v>
+      </c>
+      <c r="H126" s="5">
+        <v>8.4581</v>
+      </c>
+      <c r="I126" s="5">
+        <v>0.73160000000000003</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>266</v>
+      </c>
+      <c r="B127" s="5">
+        <v>5.9819000000000004</v>
+      </c>
+      <c r="C127" s="5">
+        <v>0.66390000000000005</v>
+      </c>
+      <c r="D127" s="5">
+        <v>8.2500999999999998</v>
+      </c>
+      <c r="E127" s="5">
+        <v>0.74739999999999995</v>
+      </c>
+      <c r="F127" s="5">
+        <v>9.6128</v>
+      </c>
+      <c r="G127" s="5">
+        <v>0.71389999999999998</v>
+      </c>
+      <c r="H127" s="5">
+        <v>7.6289999999999996</v>
+      </c>
+      <c r="I127" s="5">
+        <v>0.71519999999999995</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>267</v>
+      </c>
+      <c r="B128" s="5">
+        <v>9.1943000000000001</v>
+      </c>
+      <c r="C128" s="5">
+        <v>0.65210000000000001</v>
+      </c>
+      <c r="D128" s="5">
+        <v>9.8124000000000002</v>
+      </c>
+      <c r="E128" s="5">
+        <v>0.75109999999999999</v>
+      </c>
+      <c r="F128" s="5">
+        <v>8.2829999999999995</v>
+      </c>
+      <c r="G128" s="5">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="H128" s="5">
+        <v>8.2120999999999995</v>
+      </c>
+      <c r="I128" s="5">
+        <v>0.72109999999999996</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>271</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -7258,16 +7426,16 @@
   <conditionalFormatting sqref="E56:E1048576 E1:E54">
     <cfRule type="top10" dxfId="48" priority="5" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:F89 F91 F93:F96 F98:F103 F105:F1048576 H104 H97 H92 H90 F56:F75 F78 F80:F85 H79 H76:H77 H86 F1:F54">
+  <conditionalFormatting sqref="F119:F1048576 F87:F89 F91 F93:F96 F98:F103 H104:H118 H97 H92 H90 F56:F75 F78 F80:F85 H79 H76:H77 H86 F1:F54">
     <cfRule type="top10" dxfId="47" priority="4" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G87:G89 G91 G93:G96 G98:G103 G105:G1048576 I104 I97 I92 I90 G56:G75 G78 G80:G85 I79 I76:I77 I86 G1:G54">
+  <conditionalFormatting sqref="G119:G1048576 G87:G89 G91 G93:G96 G98:G103 I104:I118 I97 I92 I90 G56:G75 G78 G80:G85 I79 I76:I77 I86 G1:G54">
     <cfRule type="top10" dxfId="46" priority="3" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H87:H89 H91 H93:H96 H98:H103 H105:H1048576 H56:H75 H78 H80:H85 H1:H54">
+  <conditionalFormatting sqref="H119:H1048576 H87:H89 H91 H93:H96 H98:H103 H56:H75 H78 H80:H85 H1:H54">
     <cfRule type="top10" dxfId="45" priority="2" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I87:I89 I91 I93:I96 I98:I103 I105:I1048576 I56:I75 I78 I80:I85 I1:I54">
+  <conditionalFormatting sqref="I119:I1048576 I87:I89 I91 I93:I96 I98:I103 I56:I75 I78 I80:I85 I1:I54">
     <cfRule type="top10" dxfId="44" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E050CD36-C3EF-4886-BBE4-7C90FF44F01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EFCFBA-21AC-4928-8889-49214A299154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42630" yWindow="3480" windowWidth="28800" windowHeight="15345" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -519,7 +519,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="258">
   <si>
     <t>PSNR</t>
   </si>
@@ -4270,7 +4270,7 @@
   <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
@@ -6894,6 +6894,30 @@
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>253</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="I100" s="5" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">

--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EFCFBA-21AC-4928-8889-49214A299154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9FFE7A-B4C2-4D98-A555-75442B53C560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42630" yWindow="3480" windowWidth="28800" windowHeight="15345" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7710" yWindow="1425" windowWidth="28800" windowHeight="15345" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -519,7 +519,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="286">
   <si>
     <t>PSNR</t>
   </si>
@@ -1293,6 +1293,90 @@
   </si>
   <si>
     <t>V6.07.13</t>
+  </si>
+  <si>
+    <t>V7.05.5</t>
+  </si>
+  <si>
+    <t>V7.05.6</t>
+  </si>
+  <si>
+    <t>V7.05.7</t>
+  </si>
+  <si>
+    <t>V7.05.8</t>
+  </si>
+  <si>
+    <t>V7.05.9</t>
+  </si>
+  <si>
+    <t>V7.05.10</t>
+  </si>
+  <si>
+    <t>V7.05.11</t>
+  </si>
+  <si>
+    <t>V7.05.12</t>
+  </si>
+  <si>
+    <t>V7.05.13</t>
+  </si>
+  <si>
+    <t>V7.05.14</t>
+  </si>
+  <si>
+    <t>V7.05.15</t>
+  </si>
+  <si>
+    <t>V7.05.16</t>
+  </si>
+  <si>
+    <t>V7.05.17</t>
+  </si>
+  <si>
+    <t>V7.05.18</t>
+  </si>
+  <si>
+    <t>V7.06.5</t>
+  </si>
+  <si>
+    <t>V7.06.6</t>
+  </si>
+  <si>
+    <t>V7.06.7</t>
+  </si>
+  <si>
+    <t>V7.06.8</t>
+  </si>
+  <si>
+    <t>V7.06.9</t>
+  </si>
+  <si>
+    <t>V7.06.10</t>
+  </si>
+  <si>
+    <t>V7.06.11</t>
+  </si>
+  <si>
+    <t>V7.06.12</t>
+  </si>
+  <si>
+    <t>V7.06.13</t>
+  </si>
+  <si>
+    <t>V7.06.14</t>
+  </si>
+  <si>
+    <t>V7.06.15</t>
+  </si>
+  <si>
+    <t>V7.06.16</t>
+  </si>
+  <si>
+    <t>V7.06.17</t>
+  </si>
+  <si>
+    <t>V7.06.18</t>
   </si>
 </sst>
 </file>
@@ -4267,11 +4351,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB7FCCD-6DEF-4489-B535-F792B4F2F5DA}">
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:I132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E105" sqref="E105"/>
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7034,6 +7118,242 @@
       </c>
       <c r="I104" s="5">
         <v>0.37090000000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>277</v>
+      </c>
+      <c r="B124" s="5">
+        <v>7.6242999999999999</v>
+      </c>
+      <c r="C124" s="5">
+        <v>0.74360000000000004</v>
+      </c>
+      <c r="D124" s="5">
+        <v>5.0567000000000002</v>
+      </c>
+      <c r="E124" s="5">
+        <v>0.71640000000000004</v>
+      </c>
+      <c r="F124" s="5">
+        <v>8.3447999999999993</v>
+      </c>
+      <c r="G124" s="5">
+        <v>0.77359999999999995</v>
+      </c>
+      <c r="H124" s="5">
+        <v>7.4417</v>
+      </c>
+      <c r="I124" s="5">
+        <v>0.73180000000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>278</v>
+      </c>
+      <c r="B125" s="5">
+        <v>7.1280999999999999</v>
+      </c>
+      <c r="C125" s="5">
+        <v>0.71419999999999995</v>
+      </c>
+      <c r="D125" s="5">
+        <v>5.8597000000000001</v>
+      </c>
+      <c r="E125" s="5">
+        <v>0.70760000000000001</v>
+      </c>
+      <c r="F125" s="5">
+        <v>8.3264999999999993</v>
+      </c>
+      <c r="G125" s="5">
+        <v>0.78639999999999999</v>
+      </c>
+      <c r="H125" s="5">
+        <v>7.8193999999999999</v>
+      </c>
+      <c r="I125" s="5">
+        <v>0.7248</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>279</v>
+      </c>
+      <c r="B126" s="5">
+        <v>8.5076000000000001</v>
+      </c>
+      <c r="C126" s="5">
+        <v>0.72760000000000002</v>
+      </c>
+      <c r="D126" s="5">
+        <v>5.7675999999999998</v>
+      </c>
+      <c r="E126" s="5">
+        <v>0.70850000000000002</v>
+      </c>
+      <c r="F126" s="5">
+        <v>8.3396000000000008</v>
+      </c>
+      <c r="G126" s="5">
+        <v>0.78539999999999999</v>
+      </c>
+      <c r="H126" s="5">
+        <v>7.3005000000000004</v>
+      </c>
+      <c r="I126" s="5">
+        <v>0.71399999999999997</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>280</v>
+      </c>
+      <c r="B127" s="5">
+        <v>7.4492000000000003</v>
+      </c>
+      <c r="C127" s="5">
+        <v>0.74939999999999996</v>
+      </c>
+      <c r="D127" s="5">
+        <v>6.4941000000000004</v>
+      </c>
+      <c r="E127" s="5">
+        <v>0.69420000000000004</v>
+      </c>
+      <c r="F127" s="5">
+        <v>8.2809000000000008</v>
+      </c>
+      <c r="G127" s="5">
+        <v>0.78920000000000001</v>
+      </c>
+      <c r="H127" s="5">
+        <v>9.4238999999999997</v>
+      </c>
+      <c r="I127" s="5">
+        <v>0.74439999999999995</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9FFE7A-B4C2-4D98-A555-75442B53C560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E918C8-2ABB-4B9C-82E6-25ED39E53856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7710" yWindow="1425" windowWidth="28800" windowHeight="15345" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -519,7 +519,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="300">
   <si>
     <t>PSNR</t>
   </si>
@@ -1377,6 +1377,48 @@
   </si>
   <si>
     <t>V7.06.18</t>
+  </si>
+  <si>
+    <t>V7.08.5</t>
+  </si>
+  <si>
+    <t>V7.08.6</t>
+  </si>
+  <si>
+    <t>V7.08.7</t>
+  </si>
+  <si>
+    <t>V7.08.8</t>
+  </si>
+  <si>
+    <t>V7.08.9</t>
+  </si>
+  <si>
+    <t>V7.08.10</t>
+  </si>
+  <si>
+    <t>V7.08.11</t>
+  </si>
+  <si>
+    <t>V7.08.12</t>
+  </si>
+  <si>
+    <t>V7.08.13</t>
+  </si>
+  <si>
+    <t>V7.08.14</t>
+  </si>
+  <si>
+    <t>V7.08.15</t>
+  </si>
+  <si>
+    <t>V7.08.16</t>
+  </si>
+  <si>
+    <t>V7.08.17</t>
+  </si>
+  <si>
+    <t>V7.08.18</t>
   </si>
 </sst>
 </file>
@@ -4351,11 +4393,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB7FCCD-6DEF-4489-B535-F792B4F2F5DA}">
-  <dimension ref="A1:I132"/>
+  <dimension ref="A1:I146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B124" sqref="B124"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7149,26 +7191,146 @@
       <c r="A110" t="s">
         <v>263</v>
       </c>
+      <c r="B110" s="5">
+        <v>6.7404999999999999</v>
+      </c>
+      <c r="C110" s="5">
+        <v>0.69930000000000003</v>
+      </c>
+      <c r="D110" s="5">
+        <v>5.0427999999999997</v>
+      </c>
+      <c r="E110" s="5">
+        <v>0.71709999999999996</v>
+      </c>
+      <c r="F110" s="5">
+        <v>8.2502999999999993</v>
+      </c>
+      <c r="G110" s="5">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="H110" s="5">
+        <v>8.0488999999999997</v>
+      </c>
+      <c r="I110" s="5">
+        <v>0.69630000000000003</v>
+      </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>264</v>
       </c>
+      <c r="B111" s="5">
+        <v>6.6121999999999996</v>
+      </c>
+      <c r="C111" s="5">
+        <v>0.68969999999999998</v>
+      </c>
+      <c r="D111" s="5">
+        <v>5.0229999999999997</v>
+      </c>
+      <c r="E111" s="5">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="F111" s="5">
+        <v>8.2594999999999992</v>
+      </c>
+      <c r="G111" s="5">
+        <v>0.79459999999999997</v>
+      </c>
+      <c r="H111" s="5">
+        <v>8.4208999999999996</v>
+      </c>
+      <c r="I111" s="5">
+        <v>0.69979999999999998</v>
+      </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>265</v>
       </c>
+      <c r="B112" s="5">
+        <v>6.5452000000000004</v>
+      </c>
+      <c r="C112" s="5">
+        <v>0.69310000000000005</v>
+      </c>
+      <c r="D112" s="5">
+        <v>5.024</v>
+      </c>
+      <c r="E112" s="5">
+        <v>0.71660000000000001</v>
+      </c>
+      <c r="F112" s="5">
+        <v>8.2629000000000001</v>
+      </c>
+      <c r="G112" s="5">
+        <v>0.79459999999999997</v>
+      </c>
+      <c r="H112" s="5">
+        <v>8.5642999999999994</v>
+      </c>
+      <c r="I112" s="5">
+        <v>0.69399999999999995</v>
+      </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>266</v>
       </c>
+      <c r="B113" s="5">
+        <v>6.2382999999999997</v>
+      </c>
+      <c r="C113" s="5">
+        <v>0.68959999999999999</v>
+      </c>
+      <c r="D113" s="5">
+        <v>5.1341999999999999</v>
+      </c>
+      <c r="E113" s="5">
+        <v>0.71589999999999998</v>
+      </c>
+      <c r="F113" s="5">
+        <v>8.2456999999999994</v>
+      </c>
+      <c r="G113" s="5">
+        <v>0.7944</v>
+      </c>
+      <c r="H113" s="5">
+        <v>8.9441000000000006</v>
+      </c>
+      <c r="I113" s="5">
+        <v>0.68779999999999997</v>
+      </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>267</v>
       </c>
+      <c r="B114" s="5">
+        <v>6.3914</v>
+      </c>
+      <c r="C114" s="5">
+        <v>0.68620000000000003</v>
+      </c>
+      <c r="D114" s="5">
+        <v>5.0271999999999997</v>
+      </c>
+      <c r="E114" s="5">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="F114" s="5">
+        <v>8.2505000000000006</v>
+      </c>
+      <c r="G114" s="5">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="H114" s="5">
+        <v>8.7640999999999991</v>
+      </c>
+      <c r="I114" s="5">
+        <v>0.69830000000000003</v>
+      </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
@@ -7194,16 +7356,88 @@
       <c r="A119" t="s">
         <v>272</v>
       </c>
+      <c r="B119" s="5">
+        <v>0.24560000000000001</v>
+      </c>
+      <c r="C119" s="5">
+        <v>0.43730000000000002</v>
+      </c>
+      <c r="D119" s="5">
+        <v>5.1368999999999998</v>
+      </c>
+      <c r="E119" s="5">
+        <v>0.70840000000000003</v>
+      </c>
+      <c r="F119" s="5">
+        <v>5.3209</v>
+      </c>
+      <c r="G119" s="5">
+        <v>0.65559999999999996</v>
+      </c>
+      <c r="H119" s="5">
+        <v>21.341999999999999</v>
+      </c>
+      <c r="I119" s="5">
+        <v>0.80700000000000005</v>
+      </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>273</v>
       </c>
+      <c r="B120" s="5">
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="C120" s="5">
+        <v>0.44159999999999999</v>
+      </c>
+      <c r="D120" s="5">
+        <v>5.1872999999999996</v>
+      </c>
+      <c r="E120" s="5">
+        <v>0.7046</v>
+      </c>
+      <c r="F120" s="5">
+        <v>7.1237000000000004</v>
+      </c>
+      <c r="G120" s="5">
+        <v>0.6673</v>
+      </c>
+      <c r="H120" s="5">
+        <v>21.382100000000001</v>
+      </c>
+      <c r="I120" s="5">
+        <v>0.80720000000000003</v>
+      </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>274</v>
       </c>
+      <c r="B121" s="5">
+        <v>7.9055999999999997</v>
+      </c>
+      <c r="C121" s="5">
+        <v>0.68210000000000004</v>
+      </c>
+      <c r="D121" s="5">
+        <v>5.3552</v>
+      </c>
+      <c r="E121" s="5">
+        <v>0.70650000000000002</v>
+      </c>
+      <c r="F121" s="5">
+        <v>7.1981000000000002</v>
+      </c>
+      <c r="G121" s="5">
+        <v>0.69130000000000003</v>
+      </c>
+      <c r="H121" s="5">
+        <v>8.0478000000000005</v>
+      </c>
+      <c r="I121" s="5">
+        <v>0.70440000000000003</v>
+      </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
@@ -7214,6 +7448,30 @@
       <c r="A123" t="s">
         <v>276</v>
       </c>
+      <c r="B123" s="5">
+        <v>7.6052</v>
+      </c>
+      <c r="C123" s="5">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="D123" s="5">
+        <v>5.5294999999999996</v>
+      </c>
+      <c r="E123" s="5">
+        <v>0.71240000000000003</v>
+      </c>
+      <c r="F123" s="5">
+        <v>8.3658999999999999</v>
+      </c>
+      <c r="G123" s="5">
+        <v>0.7893</v>
+      </c>
+      <c r="H123" s="5">
+        <v>7.9513999999999996</v>
+      </c>
+      <c r="I123" s="5">
+        <v>0.7339</v>
+      </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
@@ -7335,6 +7593,30 @@
       <c r="A128" t="s">
         <v>281</v>
       </c>
+      <c r="B128" s="5">
+        <v>7.2042000000000002</v>
+      </c>
+      <c r="C128" s="5">
+        <v>0.72440000000000004</v>
+      </c>
+      <c r="D128" s="5">
+        <v>6.5205000000000002</v>
+      </c>
+      <c r="E128" s="5">
+        <v>0.68740000000000001</v>
+      </c>
+      <c r="F128" s="5">
+        <v>8.2537000000000003</v>
+      </c>
+      <c r="G128" s="5">
+        <v>0.79479999999999995</v>
+      </c>
+      <c r="H128" s="5">
+        <v>9.3017000000000003</v>
+      </c>
+      <c r="I128" s="5">
+        <v>0.73440000000000005</v>
+      </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
@@ -7356,30 +7638,100 @@
         <v>285</v>
       </c>
     </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>299</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B56:B1048576 B1:B54">
+  <conditionalFormatting sqref="B56:B121 B123:B1048576 B1:B54">
     <cfRule type="top10" dxfId="51" priority="8" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C56:C1048576 C1:C54">
+  <conditionalFormatting sqref="C56:C121 C123:C1048576 C1:C54">
     <cfRule type="top10" dxfId="50" priority="7" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56:D1048576 D1:D54">
+  <conditionalFormatting sqref="D56:D121 D123:D1048576 D1:D54">
     <cfRule type="top10" dxfId="49" priority="6" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E56:E1048576 E1:E54">
+  <conditionalFormatting sqref="E56:E121 E123:E1048576 E1:E54">
     <cfRule type="top10" dxfId="48" priority="5" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:F89 F91 F93:F96 F98:F103 F105:F1048576 H104 H97 H92 H90 F56:F75 F78 F80:F85 H79 H76:H77 H86 F1:F54">
+  <conditionalFormatting sqref="F87:F89 F91 F93:F96 F98:F103 F105:F121 F123:F1048576 H104 H97 H92 H90 F56:F75 F78 F80:F85 H79 H76:H77 H86 F1:F54">
     <cfRule type="top10" dxfId="47" priority="4" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G87:G89 G91 G93:G96 G98:G103 G105:G1048576 I104 I97 I92 I90 G56:G75 G78 G80:G85 I79 I76:I77 I86 G1:G54">
+  <conditionalFormatting sqref="G87:G89 G91 G93:G96 G98:G103 G105:G121 G123:G1048576 I104 I97 I92 I90 G56:G75 G78 G80:G85 I79 I76:I77 I86 G1:G54">
     <cfRule type="top10" dxfId="46" priority="3" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H87:H89 H91 H93:H96 H98:H103 H105:H1048576 H56:H75 H78 H80:H85 H1:H54">
+  <conditionalFormatting sqref="H87:H89 H91 H93:H96 H98:H103 H105:H121 H123:H1048576 H56:H75 H78 H80:H85 H1:H54">
     <cfRule type="top10" dxfId="45" priority="2" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I87:I89 I91 I93:I96 I98:I103 I105:I1048576 I56:I75 I78 I80:I85 I1:I54">
+  <conditionalFormatting sqref="I87:I89 I91 I93:I96 I98:I103 I105:I121 I123:I1048576 I56:I75 I78 I80:I85 I1:I54">
     <cfRule type="top10" dxfId="44" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7392,7 +7744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A67CF49-60A7-4BB0-98FE-FEFDC2499A21}">
   <dimension ref="A1:AI14"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>

--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E918C8-2ABB-4B9C-82E6-25ED39E53856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CB9903-430D-4FE4-A326-E9A0C40E8911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4396,8 +4396,8 @@
   <dimension ref="A1:I146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B115" sqref="B115"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H141" sqref="H141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7618,82 +7618,154 @@
         <v>0.73440000000000005</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B138" s="5">
+        <v>2.2119</v>
+      </c>
+      <c r="C138" s="5">
+        <v>0.45219999999999999</v>
+      </c>
+      <c r="D138" s="5">
+        <v>11.7043</v>
+      </c>
+      <c r="E138" s="5">
+        <v>0.78639999999999999</v>
+      </c>
+      <c r="F138" s="5">
+        <v>10.003399999999999</v>
+      </c>
+      <c r="G138" s="5">
+        <v>0.73909999999999998</v>
+      </c>
+      <c r="H138" s="5">
+        <v>19.075600000000001</v>
+      </c>
+      <c r="I138" s="5">
+        <v>0.84370000000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B139" s="5">
+        <v>2.0442</v>
+      </c>
+      <c r="C139" s="5">
+        <v>0.43580000000000002</v>
+      </c>
+      <c r="D139" s="5">
+        <v>9.8590999999999998</v>
+      </c>
+      <c r="E139" s="5">
+        <v>0.76329999999999998</v>
+      </c>
+      <c r="F139" s="5">
+        <v>9.4217999999999993</v>
+      </c>
+      <c r="G139" s="5">
+        <v>0.75239999999999996</v>
+      </c>
+      <c r="H139" s="5">
+        <v>20.434699999999999</v>
+      </c>
+      <c r="I139" s="5">
+        <v>0.84889999999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B140" s="5">
+        <v>1.9152</v>
+      </c>
+      <c r="C140" s="5">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="D140" s="5">
+        <v>10.8348</v>
+      </c>
+      <c r="E140" s="5">
+        <v>0.75790000000000002</v>
+      </c>
+      <c r="F140" s="5">
+        <v>7.3288000000000002</v>
+      </c>
+      <c r="G140" s="5">
+        <v>0.70240000000000002</v>
+      </c>
+      <c r="H140" s="5">
+        <v>21.334199999999999</v>
+      </c>
+      <c r="I140" s="5">
+        <v>0.85250000000000004</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>297</v>
       </c>

--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CB9903-430D-4FE4-A326-E9A0C40E8911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0EB1F4-D720-44F0-8BC0-B6A3A2605EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4396,8 +4396,8 @@
   <dimension ref="A1:I146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H141" sqref="H141"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F128" sqref="F128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7442,6 +7442,30 @@
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>275</v>
+      </c>
+      <c r="B122" s="5">
+        <v>6.7659000000000002</v>
+      </c>
+      <c r="C122" s="5">
+        <v>0.70820000000000005</v>
+      </c>
+      <c r="D122" s="5">
+        <v>5.0831999999999997</v>
+      </c>
+      <c r="E122" s="5">
+        <v>0.7137</v>
+      </c>
+      <c r="F122" s="5">
+        <v>8.7264999999999997</v>
+      </c>
+      <c r="G122" s="5">
+        <v>0.74760000000000004</v>
+      </c>
+      <c r="H122" s="5">
+        <v>8.4515999999999991</v>
+      </c>
+      <c r="I122" s="5">
+        <v>0.72860000000000003</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">

--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0EB1F4-D720-44F0-8BC0-B6A3A2605EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79FEF67-316F-4152-A68B-1DB277F87DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -519,7 +519,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="309">
   <si>
     <t>PSNR</t>
   </si>
@@ -1419,6 +1419,33 @@
   </si>
   <si>
     <t>V7.08.18</t>
+  </si>
+  <si>
+    <t>V7.12.10</t>
+  </si>
+  <si>
+    <t>V7.12.11</t>
+  </si>
+  <si>
+    <t>V7.12.12</t>
+  </si>
+  <si>
+    <t>V7.12.13</t>
+  </si>
+  <si>
+    <t>V7.12.14</t>
+  </si>
+  <si>
+    <t>V7.12.15</t>
+  </si>
+  <si>
+    <t>V7.12.16</t>
+  </si>
+  <si>
+    <t>V7.12.17</t>
+  </si>
+  <si>
+    <t>V7.12.18</t>
   </si>
 </sst>
 </file>
@@ -4393,11 +4420,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB7FCCD-6DEF-4489-B535-F792B4F2F5DA}">
-  <dimension ref="A1:I146"/>
+  <dimension ref="A1:I155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F128" sqref="F128"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B152" sqref="B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7794,14 +7821,107 @@
         <v>297</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>299</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>303</v>
+      </c>
+      <c r="B150" s="5">
+        <v>1.9372</v>
+      </c>
+      <c r="C150" s="5">
+        <v>0.4204</v>
+      </c>
+      <c r="D150" s="5">
+        <v>9.3110999999999997</v>
+      </c>
+      <c r="E150" s="5">
+        <v>0.74829999999999997</v>
+      </c>
+      <c r="F150" s="5">
+        <v>10.152200000000001</v>
+      </c>
+      <c r="G150" s="5">
+        <v>0.76229999999999998</v>
+      </c>
+      <c r="H150" s="5">
+        <v>19.87</v>
+      </c>
+      <c r="I150" s="5">
+        <v>0.85070000000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>304</v>
+      </c>
+      <c r="B151" s="5">
+        <v>1.7078</v>
+      </c>
+      <c r="C151" s="5">
+        <v>0.3997</v>
+      </c>
+      <c r="D151" s="5">
+        <v>9.3661999999999992</v>
+      </c>
+      <c r="E151" s="5">
+        <v>0.74339999999999995</v>
+      </c>
+      <c r="F151" s="5">
+        <v>9.5230200000000007</v>
+      </c>
+      <c r="G151" s="5">
+        <v>0.73019999999999996</v>
+      </c>
+      <c r="H151" s="5">
+        <v>20.1951</v>
+      </c>
+      <c r="I151" s="5">
+        <v>0.85670000000000002</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>

--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79FEF67-316F-4152-A68B-1DB277F87DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D76799-96CF-43AA-A3E4-81C329A6BA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4423,8 +4423,8 @@
   <dimension ref="A1:I155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B152" sqref="B152"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F155" sqref="F155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7908,46 +7908,142 @@
       <c r="A152" t="s">
         <v>305</v>
       </c>
+      <c r="B152" s="5">
+        <v>3.8460999999999999</v>
+      </c>
+      <c r="C152" s="5">
+        <v>0.49370000000000003</v>
+      </c>
+      <c r="D152" s="5">
+        <v>8.2193000000000005</v>
+      </c>
+      <c r="E152" s="5">
+        <v>0.745</v>
+      </c>
+      <c r="F152" s="5">
+        <v>8.7405000000000008</v>
+      </c>
+      <c r="G152" s="5">
+        <v>0.74939999999999996</v>
+      </c>
+      <c r="H152" s="5">
+        <v>12.873900000000001</v>
+      </c>
+      <c r="I152" s="5">
+        <v>0.82050000000000001</v>
+      </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>306</v>
       </c>
+      <c r="B153" s="5">
+        <v>1.5946</v>
+      </c>
+      <c r="C153" s="5">
+        <v>0.4128</v>
+      </c>
+      <c r="D153" s="5">
+        <v>11.2615</v>
+      </c>
+      <c r="E153" s="5">
+        <v>0.76119999999999999</v>
+      </c>
+      <c r="F153" s="5">
+        <v>6.7515999999999998</v>
+      </c>
+      <c r="G153" s="5">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="H153" s="5">
+        <v>22.429500000000001</v>
+      </c>
+      <c r="I153" s="5">
+        <v>0.86070000000000002</v>
+      </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>307</v>
       </c>
+      <c r="B154" s="5">
+        <v>5.1123000000000003</v>
+      </c>
+      <c r="C154" s="5">
+        <v>0.53810000000000002</v>
+      </c>
+      <c r="D154" s="5">
+        <v>8.0005000000000006</v>
+      </c>
+      <c r="E154" s="5">
+        <v>0.74729999999999996</v>
+      </c>
+      <c r="F154" s="5">
+        <v>9.5096000000000007</v>
+      </c>
+      <c r="G154" s="5">
+        <v>0.75890000000000002</v>
+      </c>
+      <c r="H154" s="5">
+        <v>9.8846000000000007</v>
+      </c>
+      <c r="I154" s="5">
+        <v>0.78669999999999995</v>
+      </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>308</v>
       </c>
+      <c r="B155" s="5">
+        <v>2.6829000000000001</v>
+      </c>
+      <c r="C155" s="5">
+        <v>0.44280000000000003</v>
+      </c>
+      <c r="D155" s="5">
+        <v>8.7957999999999998</v>
+      </c>
+      <c r="E155" s="5">
+        <v>0.74729999999999996</v>
+      </c>
+      <c r="F155" s="5">
+        <v>7.0956000000000001</v>
+      </c>
+      <c r="G155" s="5">
+        <v>0.70779999999999998</v>
+      </c>
+      <c r="H155" s="5">
+        <v>20.868200000000002</v>
+      </c>
+      <c r="I155" s="5">
+        <v>0.85940000000000005</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B56:B121 B123:B1048576 B1:B54">
+  <conditionalFormatting sqref="B56:B121 B123:B140 B142:B1048576 B1:B54">
     <cfRule type="top10" dxfId="51" priority="8" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C56:C121 C123:C1048576 C1:C54">
+  <conditionalFormatting sqref="C56:C121 C123:C140 C142:C1048576 C1:C54">
     <cfRule type="top10" dxfId="50" priority="7" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56:D121 D123:D1048576 D1:D54">
+  <conditionalFormatting sqref="D56:D121 D123:D140 D142:D1048576 D1:D54">
     <cfRule type="top10" dxfId="49" priority="6" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E56:E121 E123:E1048576 E1:E54">
+  <conditionalFormatting sqref="E56:E121 E123:E140 E142:E1048576 E1:E54">
     <cfRule type="top10" dxfId="48" priority="5" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:F89 F91 F93:F96 F98:F103 F105:F121 F123:F1048576 H104 H97 H92 H90 F56:F75 F78 F80:F85 H79 H76:H77 H86 F1:F54">
+  <conditionalFormatting sqref="F87:F89 F91 F93:F96 F98:F103 F105:F121 F123:F140 F142:F1048576 H104 H97 H92 H90 F56:F75 F78 F80:F85 H79 H76:H77 H86 F1:F54">
     <cfRule type="top10" dxfId="47" priority="4" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G87:G89 G91 G93:G96 G98:G103 G105:G121 G123:G1048576 I104 I97 I92 I90 G56:G75 G78 G80:G85 I79 I76:I77 I86 G1:G54">
+  <conditionalFormatting sqref="G87:G89 G91 G93:G96 G98:G103 G105:G121 G123:G140 G142:G1048576 I104 I97 I92 I90 G56:G75 G78 G80:G85 I79 I76:I77 I86 G1:G54">
     <cfRule type="top10" dxfId="46" priority="3" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H87:H89 H91 H93:H96 H98:H103 H105:H121 H123:H1048576 H56:H75 H78 H80:H85 H1:H54">
+  <conditionalFormatting sqref="H87:H89 H91 H93:H96 H98:H103 H105:H121 H123:H140 H142:H1048576 H56:H75 H78 H80:H85 H1:H54">
     <cfRule type="top10" dxfId="45" priority="2" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I87:I89 I91 I93:I96 I98:I103 I105:I121 I123:I1048576 I56:I75 I78 I80:I85 I1:I54">
+  <conditionalFormatting sqref="I87:I89 I91 I93:I96 I98:I103 I105:I121 I123:I140 I142:I1048576 I56:I75 I78 I80:I85 I1:I54">
     <cfRule type="top10" dxfId="44" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D76799-96CF-43AA-A3E4-81C329A6BA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6118B4A8-7018-4819-84B6-2B2AC21EC18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4423,8 +4423,8 @@
   <dimension ref="A1:I155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F155" sqref="F155"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B147" sqref="B147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7815,21 +7815,117 @@
       <c r="A143" t="s">
         <v>296</v>
       </c>
+      <c r="B143" s="5">
+        <v>3.8460999999999999</v>
+      </c>
+      <c r="C143" s="5">
+        <v>0.49370000000000003</v>
+      </c>
+      <c r="D143" s="5">
+        <v>8.2193000000000005</v>
+      </c>
+      <c r="E143" s="5">
+        <v>0.745</v>
+      </c>
+      <c r="F143" s="5">
+        <v>8.7405000000000008</v>
+      </c>
+      <c r="G143" s="5">
+        <v>0.74939999999999996</v>
+      </c>
+      <c r="H143" s="5">
+        <v>12.873900000000001</v>
+      </c>
+      <c r="I143" s="5">
+        <v>0.82050000000000001</v>
+      </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>297</v>
       </c>
+      <c r="B144" s="5">
+        <v>1.5946</v>
+      </c>
+      <c r="C144" s="5">
+        <v>0.4128</v>
+      </c>
+      <c r="D144" s="5">
+        <v>11.2615</v>
+      </c>
+      <c r="E144" s="5">
+        <v>0.76119999999999999</v>
+      </c>
+      <c r="F144" s="5">
+        <v>6.7515999999999998</v>
+      </c>
+      <c r="G144" s="5">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="H144" s="5">
+        <v>22.429500000000001</v>
+      </c>
+      <c r="I144" s="5">
+        <v>0.86070000000000002</v>
+      </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>298</v>
       </c>
+      <c r="B145" s="5">
+        <v>5.1123000000000003</v>
+      </c>
+      <c r="C145" s="5">
+        <v>0.53810000000000002</v>
+      </c>
+      <c r="D145" s="5">
+        <v>8.0005000000000006</v>
+      </c>
+      <c r="E145" s="5">
+        <v>0.74729999999999996</v>
+      </c>
+      <c r="F145" s="5">
+        <v>9.5096000000000007</v>
+      </c>
+      <c r="G145" s="5">
+        <v>0.75890000000000002</v>
+      </c>
+      <c r="H145" s="5">
+        <v>9.8846000000000007</v>
+      </c>
+      <c r="I145" s="5">
+        <v>0.78669999999999995</v>
+      </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>299</v>
       </c>
+      <c r="B146" s="5">
+        <v>2.6859000000000002</v>
+      </c>
+      <c r="C146" s="5">
+        <v>0.44280000000000003</v>
+      </c>
+      <c r="D146" s="5">
+        <v>8.7957999999999998</v>
+      </c>
+      <c r="E146" s="5">
+        <v>0.74729999999999996</v>
+      </c>
+      <c r="F146" s="5">
+        <v>7.0956000000000001</v>
+      </c>
+      <c r="G146" s="5">
+        <v>0.70779999999999998</v>
+      </c>
+      <c r="H146" s="5">
+        <v>20.868200000000002</v>
+      </c>
+      <c r="I146" s="5">
+        <v>0.85940000000000005</v>
+      </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
@@ -7909,28 +8005,28 @@
         <v>305</v>
       </c>
       <c r="B152" s="5">
-        <v>3.8460999999999999</v>
+        <v>3.9462999999999999</v>
       </c>
       <c r="C152" s="5">
-        <v>0.49370000000000003</v>
+        <v>0.48580000000000001</v>
       </c>
       <c r="D152" s="5">
-        <v>8.2193000000000005</v>
+        <v>11.039</v>
       </c>
       <c r="E152" s="5">
-        <v>0.745</v>
+        <v>0.7631</v>
       </c>
       <c r="F152" s="5">
-        <v>8.7405000000000008</v>
+        <v>10.1381</v>
       </c>
       <c r="G152" s="5">
-        <v>0.74939999999999996</v>
+        <v>0.75229999999999997</v>
       </c>
       <c r="H152" s="5">
-        <v>12.873900000000001</v>
+        <v>17.433399999999999</v>
       </c>
       <c r="I152" s="5">
-        <v>0.82050000000000001</v>
+        <v>0.84250000000000003</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -7938,25 +8034,25 @@
         <v>306</v>
       </c>
       <c r="B153" s="5">
-        <v>1.5946</v>
+        <v>1.6379999999999999</v>
       </c>
       <c r="C153" s="5">
-        <v>0.4128</v>
+        <v>0.40110000000000001</v>
       </c>
       <c r="D153" s="5">
-        <v>11.2615</v>
+        <v>9.5244</v>
       </c>
       <c r="E153" s="5">
-        <v>0.76119999999999999</v>
+        <v>0.74839999999999995</v>
       </c>
       <c r="F153" s="5">
-        <v>6.7515999999999998</v>
+        <v>8.6258999999999997</v>
       </c>
       <c r="G153" s="5">
-        <v>0.69799999999999995</v>
+        <v>0.72109999999999996</v>
       </c>
       <c r="H153" s="5">
-        <v>22.429500000000001</v>
+        <v>21.238600000000002</v>
       </c>
       <c r="I153" s="5">
         <v>0.86070000000000002</v>
@@ -7967,28 +8063,28 @@
         <v>307</v>
       </c>
       <c r="B154" s="5">
-        <v>5.1123000000000003</v>
+        <v>1.5585</v>
       </c>
       <c r="C154" s="5">
-        <v>0.53810000000000002</v>
+        <v>0.39539999999999997</v>
       </c>
       <c r="D154" s="5">
-        <v>8.0005000000000006</v>
+        <v>9.8866999999999994</v>
       </c>
       <c r="E154" s="5">
-        <v>0.74729999999999996</v>
+        <v>0.75209999999999999</v>
       </c>
       <c r="F154" s="5">
-        <v>9.5096000000000007</v>
+        <v>9.8689999999999998</v>
       </c>
       <c r="G154" s="5">
-        <v>0.75890000000000002</v>
+        <v>0.76280000000000003</v>
       </c>
       <c r="H154" s="5">
-        <v>9.8846000000000007</v>
+        <v>21.715</v>
       </c>
       <c r="I154" s="5">
-        <v>0.78669999999999995</v>
+        <v>0.8548</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -7996,28 +8092,28 @@
         <v>308</v>
       </c>
       <c r="B155" s="5">
-        <v>2.6829000000000001</v>
+        <v>1.6812</v>
       </c>
       <c r="C155" s="5">
-        <v>0.44280000000000003</v>
+        <v>0.40960000000000002</v>
       </c>
       <c r="D155" s="5">
-        <v>8.7957999999999998</v>
+        <v>8.8186999999999998</v>
       </c>
       <c r="E155" s="5">
-        <v>0.74729999999999996</v>
+        <v>0.74119999999999997</v>
       </c>
       <c r="F155" s="5">
-        <v>7.0956000000000001</v>
+        <v>7.7999000000000001</v>
       </c>
       <c r="G155" s="5">
-        <v>0.70779999999999998</v>
+        <v>0.71120000000000005</v>
       </c>
       <c r="H155" s="5">
-        <v>20.868200000000002</v>
+        <v>19.483499999999999</v>
       </c>
       <c r="I155" s="5">
-        <v>0.85940000000000005</v>
+        <v>0.85550000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6118B4A8-7018-4819-84B6-2B2AC21EC18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C4DD11-1AC7-4210-A63D-9BB159546517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -519,7 +519,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="323">
   <si>
     <t>PSNR</t>
   </si>
@@ -1446,6 +1446,48 @@
   </si>
   <si>
     <t>V7.12.18</t>
+  </si>
+  <si>
+    <t>V8.04.5</t>
+  </si>
+  <si>
+    <t>V8.04.6</t>
+  </si>
+  <si>
+    <t>V8.04.7</t>
+  </si>
+  <si>
+    <t>V8.04.8</t>
+  </si>
+  <si>
+    <t>V8.04.9</t>
+  </si>
+  <si>
+    <t>V8.04.10</t>
+  </si>
+  <si>
+    <t>V8.04.11</t>
+  </si>
+  <si>
+    <t>V8.04.12</t>
+  </si>
+  <si>
+    <t>V8.04.13</t>
+  </si>
+  <si>
+    <t>V8.04.14</t>
+  </si>
+  <si>
+    <t>V8.04.15</t>
+  </si>
+  <si>
+    <t>V8.04.16</t>
+  </si>
+  <si>
+    <t>V8.04.17</t>
+  </si>
+  <si>
+    <t>V8.04.18</t>
   </si>
 </sst>
 </file>
@@ -1543,15 +1585,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1559,7 +1599,6 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2728,38 +2767,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="F1" s="16" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="F1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="K1" s="16" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="K1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="16" t="s">
+      <c r="L1" s="13"/>
+      <c r="N1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="16"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2" t="s">
+      <c r="O1" s="13"/>
+      <c r="Q1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="2"/>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2832,13 +2868,13 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>11.878299999999999</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>0.19220000000000001</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>0.61419999999999997</v>
       </c>
       <c r="K3" t="s">
@@ -2885,13 +2921,13 @@
       <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>22.260269999999998</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>5.9899999999999997E-3</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>0.79791999999999996</v>
       </c>
       <c r="K4" t="s">
@@ -2926,13 +2962,13 @@
       <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>20.749400000000001</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>8.5100000000000002E-3</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>0.82787999999999995</v>
       </c>
       <c r="K5" t="s">
@@ -2961,16 +2997,16 @@
       <c r="D6">
         <v>0.53405000000000002</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>21.47146</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>7.2199999999999999E-3</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>0.84968999999999995</v>
       </c>
       <c r="K6" t="s">
@@ -2999,16 +3035,16 @@
       <c r="D7">
         <v>0.40762999999999999</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>25.76465</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>2.6900000000000001E-3</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>0.91974</v>
       </c>
       <c r="K7" t="s">
@@ -3037,16 +3073,16 @@
       <c r="D8">
         <v>0.73333999999999999</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>33.608440000000002</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>4.4999999999999999E-4</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>0.97160000000000002</v>
       </c>
       <c r="K8" t="s">
@@ -3060,16 +3096,16 @@
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>29.921849999999999</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>1.0399999999999999E-3</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>0.95730000000000004</v>
       </c>
       <c r="K9" t="s">
@@ -3098,22 +3134,22 @@
       <c r="D10">
         <v>0.61460000000000004</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>32.728729999999999</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>5.5000000000000003E-4</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <v>0.96704999999999997</v>
       </c>
       <c r="K10" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="2">
         <v>8.8999999999999999E-3</v>
       </c>
       <c r="N10" t="s">
@@ -3136,16 +3172,16 @@
       <c r="D11">
         <v>0.70992999999999995</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>29.98086</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>1.0200000000000001E-3</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <v>0.93915999999999999</v>
       </c>
     </row>
@@ -3162,16 +3198,16 @@
       <c r="D12">
         <v>0.70435999999999999</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>29.826049999999999</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>1.06E-3</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>0.93645</v>
       </c>
     </row>
@@ -3188,9 +3224,9 @@
       <c r="D13">
         <v>0.81723999999999997</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3208,13 +3244,13 @@
       <c r="F14" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>25.70628</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>1.329E-2</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <v>0.88024000000000002</v>
       </c>
     </row>
@@ -3231,36 +3267,36 @@
       <c r="D15">
         <v>0.752</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <v>20.87011</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="4">
         <v>2.2630000000000001E-2</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="4">
         <v>0.87870000000000004</v>
       </c>
     </row>
@@ -3268,13 +3304,13 @@
       <c r="F21" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="4">
         <v>23.779900000000001</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="4">
         <v>1.9210000000000001E-2</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="4">
         <v>0.85977999999999999</v>
       </c>
     </row>
@@ -3282,13 +3318,13 @@
       <c r="F22" t="s">
         <v>33</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="4">
         <v>24.08257</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="4">
         <v>1.6990000000000002E-2</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="4">
         <v>0.90881000000000001</v>
       </c>
     </row>
@@ -3296,13 +3332,13 @@
       <c r="F23" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="4">
         <v>24.216670000000001</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="4">
         <v>1.8710000000000001E-2</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="4">
         <v>0.90439999999999998</v>
       </c>
     </row>
@@ -3330,7 +3366,7 @@
       <c r="H26">
         <v>1.9890000000000001E-2</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="2">
         <v>0.84340000000000004</v>
       </c>
     </row>
@@ -3375,7 +3411,7 @@
       <c r="H29">
         <v>9.4199999999999996E-3</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="2">
         <v>0.8821</v>
       </c>
     </row>
@@ -3465,55 +3501,55 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="5"/>
+    <col min="2" max="3" width="9.140625" style="4"/>
     <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="11"/>
+    <col min="6" max="6" width="10.140625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="9"/>
     <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="5"/>
+    <col min="10" max="10" width="12.42578125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="4"/>
     <col min="13" max="13" width="19.42578125" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="5" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="5" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3521,28 +3557,28 @@
       <c r="A2" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>11.979200000000001</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>0.69189999999999996</v>
       </c>
       <c r="E2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="7">
         <v>12.6983</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="7">
         <v>0.71689999999999998</v>
       </c>
       <c r="M2" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="4">
         <v>8.3172999999999995</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="4">
         <v>0.76339999999999997</v>
       </c>
     </row>
@@ -3553,19 +3589,19 @@
       <c r="E3" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <v>13.6769</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="7">
         <v>0.71689999999999998</v>
       </c>
       <c r="M3" t="s">
         <v>119</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="4">
         <v>10.18</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="4">
         <v>0.76329999999999998</v>
       </c>
     </row>
@@ -3576,20 +3612,19 @@
       <c r="E4" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="7">
         <v>0.7359</v>
       </c>
-      <c r="H4" s="7"/>
       <c r="M4" t="s">
         <v>120</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="4">
         <v>8.8404000000000007</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="4">
         <v>0.70250000000000001</v>
       </c>
     </row>
@@ -3600,19 +3635,19 @@
       <c r="E5" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <v>7.6957000000000004</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="7">
         <v>0.74690000000000001</v>
       </c>
       <c r="M5" t="s">
         <v>121</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="4">
         <v>7.7416999999999998</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="4">
         <v>0.76100000000000001</v>
       </c>
     </row>
@@ -3620,37 +3655,37 @@
       <c r="A6" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>13.6076</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>0.75109999999999999</v>
       </c>
       <c r="E6" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="7">
         <v>11.0564</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="7">
         <v>0.70669999999999999</v>
       </c>
       <c r="I6" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="7">
         <v>0.6835</v>
       </c>
       <c r="M6" t="s">
         <v>116</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="4">
         <v>7.4988999999999999</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="4">
         <v>0.74399999999999999</v>
       </c>
     </row>
@@ -3661,20 +3696,20 @@
       <c r="E7" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
       <c r="I7" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
       <c r="M7" t="s">
         <v>117</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="4">
         <v>10.4199</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="4">
         <v>0.81779999999999997</v>
       </c>
     </row>
@@ -3682,29 +3717,29 @@
       <c r="A8" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>12.717000000000001</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>0.71430000000000005</v>
       </c>
       <c r="E8" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
       <c r="I8" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
       <c r="M8" t="s">
         <v>118</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="4">
         <v>8.4185999999999996</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="4">
         <v>0.79269999999999996</v>
       </c>
     </row>
@@ -3712,29 +3747,29 @@
       <c r="A9" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>13.1942</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>0.68049999999999999</v>
       </c>
       <c r="E9" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
       <c r="I9" t="s">
         <v>52</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
       <c r="M9" t="s">
         <v>115</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="4">
         <v>7.5163000000000002</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="4">
         <v>0.76790000000000003</v>
       </c>
     </row>
@@ -3742,37 +3777,37 @@
       <c r="A10" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>13.651</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>0.67310000000000003</v>
       </c>
       <c r="E10" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="9">
         <v>14.2706</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="9">
         <v>0.73760000000000003</v>
       </c>
       <c r="I10" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="7">
         <v>13.7034</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="7">
         <v>0.76429999999999998</v>
       </c>
       <c r="M10" t="s">
         <v>131</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="4">
         <v>11.668799999999999</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="4">
         <v>0.78320000000000001</v>
       </c>
     </row>
@@ -3780,10 +3815,10 @@
       <c r="A11" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>14.7011</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>0.61680000000000001</v>
       </c>
       <c r="E11" t="s">
@@ -3792,15 +3827,15 @@
       <c r="I11" t="s">
         <v>54</v>
       </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
       <c r="M11" t="s">
         <v>130</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="4">
         <v>11.763299999999999</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="4">
         <v>0.8357</v>
       </c>
     </row>
@@ -3808,10 +3843,10 @@
       <c r="A12" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>13.069900000000001</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>0.60909999999999997</v>
       </c>
       <c r="E12" t="s">
@@ -3820,15 +3855,15 @@
       <c r="I12" t="s">
         <v>55</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
       <c r="M12" t="s">
         <v>132</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="4">
         <v>9.4975000000000005</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="4">
         <v>0.7722</v>
       </c>
     </row>
@@ -3836,10 +3871,10 @@
       <c r="A13" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>13.357699999999999</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>0.57479999999999998</v>
       </c>
       <c r="E13" t="s">
@@ -3848,15 +3883,15 @@
       <c r="I13" t="s">
         <v>56</v>
       </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
       <c r="M13" t="s">
         <v>133</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="4">
         <v>10.1137</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" s="4">
         <v>0.79610000000000003</v>
       </c>
     </row>
@@ -3864,37 +3899,37 @@
       <c r="A14" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>13.8299</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>0.75249999999999995</v>
       </c>
       <c r="E14" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="9">
         <v>13.4627</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="9">
         <v>0.62860000000000005</v>
       </c>
       <c r="I14" t="s">
         <v>57</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="7">
         <v>12.4476</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="7">
         <v>0.63670000000000004</v>
       </c>
       <c r="M14" t="s">
         <v>34</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="4">
         <v>7.3543000000000003</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="4">
         <v>0.71240000000000003</v>
       </c>
     </row>
@@ -3902,37 +3937,37 @@
       <c r="A15" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>14.222899999999999</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>0.75539999999999996</v>
       </c>
       <c r="E15" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="9">
         <v>14.467700000000001</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="9">
         <v>0.64200000000000002</v>
       </c>
       <c r="I15" t="s">
         <v>58</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <v>13.860099999999999</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="4">
         <v>0.64510000000000001</v>
       </c>
       <c r="M15" t="s">
         <v>134</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="4">
         <v>8.1047999999999991</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="4">
         <v>0.71909999999999996</v>
       </c>
     </row>
@@ -3940,10 +3975,10 @@
       <c r="A16" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>12.974</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>0.71819999999999995</v>
       </c>
       <c r="E16" t="s">
@@ -3955,10 +3990,10 @@
       <c r="M16" t="s">
         <v>135</v>
       </c>
-      <c r="N16" s="5" t="s">
+      <c r="N16" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="O16" s="5" t="s">
+      <c r="O16" s="4" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3966,10 +4001,10 @@
       <c r="A17" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>12.1629</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>0.56430000000000002</v>
       </c>
       <c r="E17" t="s">
@@ -3981,10 +4016,10 @@
       <c r="M17" t="s">
         <v>136</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="N17" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="O17" s="5" t="s">
+      <c r="O17" s="4" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3992,10 +4027,10 @@
       <c r="A18" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>12.5167</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>0.73270000000000002</v>
       </c>
       <c r="E18" t="s">
@@ -4007,10 +4042,10 @@
       <c r="M18" t="s">
         <v>138</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" s="4">
         <v>9.3048000000000002</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" s="4">
         <v>0.77929999999999999</v>
       </c>
     </row>
@@ -4018,10 +4053,10 @@
       <c r="A19" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>13.246600000000001</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>0.6835</v>
       </c>
       <c r="E19" t="s">
@@ -4033,10 +4068,10 @@
       <c r="M19" t="s">
         <v>139</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N19" s="4">
         <v>8.7856000000000005</v>
       </c>
-      <c r="O19" s="5">
+      <c r="O19" s="4">
         <v>0.78190000000000004</v>
       </c>
     </row>
@@ -4044,10 +4079,10 @@
       <c r="A20" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>7.3875999999999999</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>0.60419999999999996</v>
       </c>
       <c r="E20" t="s">
@@ -4059,10 +4094,10 @@
       <c r="M20" t="s">
         <v>140</v>
       </c>
-      <c r="N20" s="5" t="s">
+      <c r="N20" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="O20" s="5" t="s">
+      <c r="O20" s="4" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4070,10 +4105,10 @@
       <c r="A21" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>4.8983999999999996</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>0.67630000000000001</v>
       </c>
       <c r="E21" t="s">
@@ -4085,10 +4120,10 @@
       <c r="M21" t="s">
         <v>141</v>
       </c>
-      <c r="N21" s="5" t="s">
+      <c r="N21" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="O21" s="5" t="s">
+      <c r="O21" s="4" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4096,19 +4131,19 @@
       <c r="A22" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>14.7462</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>0.74909999999999999</v>
       </c>
       <c r="E22" t="s">
         <v>126</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="9">
         <v>15.976000000000001</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="9">
         <v>0.83240000000000003</v>
       </c>
     </row>
@@ -4116,10 +4151,10 @@
       <c r="A23" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>12.224399999999999</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>0.72409999999999997</v>
       </c>
       <c r="E23" t="s">
@@ -4130,19 +4165,19 @@
       <c r="A24" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>14.148199999999999</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>0.73939999999999995</v>
       </c>
       <c r="E24" t="s">
         <v>128</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="9">
         <v>17.211200000000002</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="9">
         <v>0.80300000000000005</v>
       </c>
     </row>
@@ -4150,19 +4185,19 @@
       <c r="A25" t="s">
         <v>89</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>13.3933</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>0.69399999999999995</v>
       </c>
       <c r="E25" t="s">
         <v>129</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="9">
         <v>14.835699999999999</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="9">
         <v>0.80479999999999996</v>
       </c>
     </row>
@@ -4170,10 +4205,10 @@
       <c r="A26" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>14.0046</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>0.62780000000000002</v>
       </c>
     </row>
@@ -4181,10 +4216,10 @@
       <c r="A27" t="s">
         <v>91</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>14.686199999999999</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <v>0.59799999999999998</v>
       </c>
     </row>
@@ -4192,10 +4227,10 @@
       <c r="A28" t="s">
         <v>92</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>11.2578</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>0.68899999999999995</v>
       </c>
     </row>
@@ -4203,10 +4238,10 @@
       <c r="A29" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <v>12.975300000000001</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <v>0.6179</v>
       </c>
     </row>
@@ -4214,66 +4249,66 @@
       <c r="A30" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>95</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>97</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>98</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>99</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>100</v>
       </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>101</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>102</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="4">
         <v>14.9251</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4">
         <v>0.81540000000000001</v>
       </c>
     </row>
@@ -4281,10 +4316,10 @@
       <c r="A39" t="s">
         <v>103</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="4">
         <v>14.056699999999999</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="4">
         <v>0.69310000000000005</v>
       </c>
     </row>
@@ -4292,10 +4327,10 @@
       <c r="A40" t="s">
         <v>104</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="4">
         <v>14.311999999999999</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="4">
         <v>0.79039999999999999</v>
       </c>
     </row>
@@ -4303,10 +4338,10 @@
       <c r="A41" t="s">
         <v>105</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="4">
         <v>5.6669999999999998</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="4">
         <v>0.57389999999999997</v>
       </c>
     </row>
@@ -4319,10 +4354,10 @@
       <c r="A43" t="s">
         <v>107</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="4">
         <v>15.5441</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="4">
         <v>0.75260000000000005</v>
       </c>
     </row>
@@ -4330,10 +4365,10 @@
       <c r="A44" t="s">
         <v>108</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="4">
         <v>16.874300000000002</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="4">
         <v>0.78600000000000003</v>
       </c>
     </row>
@@ -4356,10 +4391,10 @@
       <c r="A48" t="s">
         <v>112</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="4">
         <v>14.6631</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="4">
         <v>0.80300000000000005</v>
       </c>
     </row>
@@ -4367,10 +4402,10 @@
       <c r="A49" t="s">
         <v>113</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="4">
         <v>14.6614</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="4">
         <v>0.81569999999999998</v>
       </c>
     </row>
@@ -4420,17 +4455,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB7FCCD-6DEF-4489-B535-F792B4F2F5DA}">
-  <dimension ref="A1:I155"/>
+  <dimension ref="A1:I169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B147" sqref="B147"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D158" sqref="D158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="9" width="11" style="5" customWidth="1"/>
+    <col min="2" max="9" width="11" style="4" customWidth="1"/>
     <col min="13" max="13" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4438,44 +4473,44 @@
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="I1" s="8"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
@@ -4483,28 +4518,28 @@
       <c r="A3" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>14.69</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>0.75209999999999999</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>16.793600000000001</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>0.81799999999999995</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>16.810199999999998</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>0.83389999999999997</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>22.0181</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>0.84430000000000005</v>
       </c>
     </row>
@@ -4512,28 +4547,28 @@
       <c r="A4" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>11.166499999999999</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>0.69379999999999997</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>15.355600000000001</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>0.80510000000000004</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>15.696899999999999</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>0.79110000000000003</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>15.081099999999999</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>0.77100000000000002</v>
       </c>
     </row>
@@ -4541,28 +4576,28 @@
       <c r="A5" t="s">
         <v>156</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>15.6784</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>0.752</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>15.081</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>0.80130000000000001</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>16.611899999999999</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>0.82279999999999998</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>17.171700000000001</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>0.79449999999999998</v>
       </c>
     </row>
@@ -4570,28 +4605,28 @@
       <c r="A6" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>15.8268</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>0.74719999999999998</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>13.621</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>0.79900000000000004</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>19.9056</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>0.83809999999999996</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>18.399699999999999</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>0.80120000000000002</v>
       </c>
     </row>
@@ -4599,28 +4634,28 @@
       <c r="A7" t="s">
         <v>158</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>14.9924</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>0.73270000000000002</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>13.769</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>0.81079999999999997</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>19.4741</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>0.85340000000000005</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>17.133700000000001</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>0.7833</v>
       </c>
     </row>
@@ -4628,28 +4663,28 @@
       <c r="A8" t="s">
         <v>159</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>13.327500000000001</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>0.7218</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>14.9343</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>0.80989999999999995</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>13.848100000000001</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>0.81899999999999995</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>14.2524</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <v>0.76449999999999996</v>
       </c>
     </row>
@@ -4657,28 +4692,28 @@
       <c r="A9" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>11.966200000000001</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>0.77180000000000004</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>14.827999999999999</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>0.79549999999999998</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>16.446000000000002</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>0.80940000000000001</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>22.953600000000002</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <v>0.92230000000000001</v>
       </c>
     </row>
@@ -4686,28 +4721,28 @@
       <c r="A10" t="s">
         <v>164</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>11.9511</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>0.73609999999999998</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>12.814399999999999</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>0.80730000000000002</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>19.706099999999999</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>0.8286</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>28.9803</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <v>0.95820000000000005</v>
       </c>
     </row>
@@ -4715,28 +4750,28 @@
       <c r="A11" t="s">
         <v>165</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>11.4352</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>0.78569999999999995</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>13.806800000000001</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>0.81469999999999998</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>18.768699999999999</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>0.84019999999999995</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>25.644300000000001</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <v>0.93149999999999999</v>
       </c>
     </row>
@@ -4744,28 +4779,28 @@
       <c r="A12" t="s">
         <v>166</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>11.0627</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>0.74560000000000004</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>14.251300000000001</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>0.78920000000000001</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>10.612</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>0.77839999999999998</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>21.146899999999999</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <v>0.89690000000000003</v>
       </c>
     </row>
@@ -4773,28 +4808,28 @@
       <c r="A13" t="s">
         <v>161</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>12.297800000000001</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>0.76170000000000004</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>17.347899999999999</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>0.82169999999999999</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>18.777899999999999</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>0.81020000000000003</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>29.309899999999999</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <v>0.96589999999999998</v>
       </c>
     </row>
@@ -4802,28 +4837,28 @@
       <c r="A14" t="s">
         <v>162</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>11.434200000000001</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>0.73540000000000005</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>15.6431</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>0.81030000000000002</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>18.504799999999999</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>0.81230000000000002</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>30.055499999999999</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <v>0.96020000000000005</v>
       </c>
     </row>
@@ -4831,28 +4866,28 @@
       <c r="A15" t="s">
         <v>167</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="9">
         <v>14.998900000000001</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="9">
         <v>0.73729999999999996</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="9">
         <v>13.646100000000001</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="9">
         <v>0.79569999999999996</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="9">
         <v>17.9329</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="9">
         <v>0.84189999999999998</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="9">
         <v>20.722300000000001</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="9">
         <v>0.81699999999999995</v>
       </c>
     </row>
@@ -4860,28 +4895,28 @@
       <c r="A16" t="s">
         <v>168</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="9">
         <v>9.1883999999999997</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="9">
         <v>0.65439999999999998</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="9">
         <v>13.919</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="9">
         <v>0.79610000000000003</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="9">
         <v>17.896899999999999</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="9">
         <v>0.84860000000000002</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="9">
         <v>18.140499999999999</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="9">
         <v>0.82150000000000001</v>
       </c>
     </row>
@@ -4889,28 +4924,28 @@
       <c r="A17" t="s">
         <v>169</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="9">
         <v>7.6097999999999999</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="9">
         <v>0.62519999999999998</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="9">
         <v>14.295199999999999</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="9">
         <v>0.81679999999999997</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="9">
         <v>18.012899999999998</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="9">
         <v>0.83309999999999995</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="9">
         <v>19.110399999999998</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="9">
         <v>0.81699999999999995</v>
       </c>
     </row>
@@ -4918,28 +4953,28 @@
       <c r="A18" t="s">
         <v>170</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="9">
         <v>7.6630000000000003</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="9">
         <v>0.62439999999999996</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="9">
         <v>14.385300000000001</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="9">
         <v>0.82469999999999999</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="9">
         <v>19.760200000000001</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="9">
         <v>0.85970000000000002</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="9">
         <v>19.948699999999999</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="9">
         <v>0.8327</v>
       </c>
     </row>
@@ -4947,28 +4982,28 @@
       <c r="A19" t="s">
         <v>171</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="9">
         <v>7.6207000000000003</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="9">
         <v>0.60470000000000002</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="9">
         <v>16.1814</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="9">
         <v>0.76419999999999999</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="9">
         <v>16.8018</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="9">
         <v>0.80689999999999995</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="9">
         <v>22.254899999999999</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="9">
         <v>0.82230000000000003</v>
       </c>
     </row>
@@ -4976,28 +5011,28 @@
       <c r="A20" t="s">
         <v>172</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="9">
         <v>7.6005000000000003</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="9">
         <v>0.57679999999999998</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="9">
         <v>12.791700000000001</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="9">
         <v>0.64539999999999997</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="9">
         <v>15.729699999999999</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="9">
         <v>0.79649999999999999</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="9">
         <v>16.655200000000001</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="9">
         <v>0.68940000000000001</v>
       </c>
     </row>
@@ -5005,28 +5040,28 @@
       <c r="A21" t="s">
         <v>173</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="9">
         <v>7.8164999999999996</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="9">
         <v>0.6069</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="9">
         <v>15.0252</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="9">
         <v>0.7984</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="9">
         <v>17.275500000000001</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="9">
         <v>0.81079999999999997</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="9">
         <v>15.864100000000001</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="9">
         <v>0.81399999999999995</v>
       </c>
     </row>
@@ -5034,28 +5069,28 @@
       <c r="A22" t="s">
         <v>174</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="9">
         <v>8.2654999999999994</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="9">
         <v>0.59360000000000002</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="9">
         <v>15.676600000000001</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="9">
         <v>0.80910000000000004</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="9">
         <v>16.512899999999998</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="9">
         <v>0.7903</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="9">
         <v>18.7441</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="9">
         <v>0.79749999999999999</v>
       </c>
     </row>
@@ -5063,28 +5098,28 @@
       <c r="A23" t="s">
         <v>183</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="9">
         <v>5.86</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="9">
         <v>0.60440000000000005</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="9">
         <v>12.8194</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="9">
         <v>0.79800000000000004</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="9">
         <v>14.534000000000001</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="9">
         <v>0.78539999999999999</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="9">
         <v>17.504999999999999</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="9">
         <v>0.81569999999999998</v>
       </c>
     </row>
@@ -5092,28 +5127,28 @@
       <c r="A24" t="s">
         <v>184</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="9">
         <v>7.0288000000000004</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="9">
         <v>0.6361</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="9">
         <v>12.803000000000001</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="9">
         <v>0.79959999999999998</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="9">
         <v>14.8584</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="9">
         <v>0.80179999999999996</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="9">
         <v>17.394500000000001</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="9">
         <v>0.83679999999999999</v>
       </c>
     </row>
@@ -5121,28 +5156,28 @@
       <c r="A25" t="s">
         <v>185</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="9">
         <v>6.2824999999999998</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="9">
         <v>0.61470000000000002</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="9">
         <v>13.659800000000001</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="9">
         <v>0.82269999999999999</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="9">
         <v>13.672800000000001</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="9">
         <v>0.77710000000000001</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="9">
         <v>17.3598</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="9">
         <v>0.81569999999999998</v>
       </c>
     </row>
@@ -5150,28 +5185,28 @@
       <c r="A26" t="s">
         <v>186</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="9">
         <v>6.4057000000000004</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="9">
         <v>0.63</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="9">
         <v>13.8142</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="9">
         <v>0.8196</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="9">
         <v>14.1731</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="9">
         <v>0.77769999999999995</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="9">
         <v>17.474599999999999</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I26" s="9">
         <v>0.81830000000000003</v>
       </c>
     </row>
@@ -5179,80 +5214,80 @@
       <c r="A27" t="s">
         <v>187</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>188</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>189</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>190</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>191</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="9">
         <v>7.0720999999999998</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="9">
         <v>0.62690000000000001</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="9">
         <v>14.2727</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="9">
         <v>0.76419999999999999</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="9">
         <v>16.8795</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="9">
         <v>0.82899999999999996</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H31" s="9">
         <v>21.4055</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I31" s="9">
         <v>0.82389999999999997</v>
       </c>
     </row>
@@ -5260,28 +5295,28 @@
       <c r="A32" t="s">
         <v>192</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="9">
         <v>7.3131000000000004</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="9">
         <v>0.58889999999999998</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="9">
         <v>13.1126</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="9">
         <v>0.71289999999999998</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="9">
         <v>16.585799999999999</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="9">
         <v>0.80010000000000003</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H32" s="9">
         <v>17.6601</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I32" s="9">
         <v>0.74490000000000001</v>
       </c>
     </row>
@@ -5289,28 +5324,28 @@
       <c r="A33" t="s">
         <v>193</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="9">
         <v>6.7933000000000003</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="9">
         <v>0.60780000000000001</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="9">
         <v>14.385400000000001</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="9">
         <v>0.83379999999999999</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="9">
         <v>17.566299999999998</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33" s="9">
         <v>0.82130000000000003</v>
       </c>
-      <c r="H33" s="11">
+      <c r="H33" s="9">
         <v>18.174600000000002</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I33" s="9">
         <v>0.85350000000000004</v>
       </c>
     </row>
@@ -5318,28 +5353,28 @@
       <c r="A34" t="s">
         <v>194</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="9">
         <v>6.5248999999999997</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="9">
         <v>0.57040000000000002</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="9">
         <v>13.501099999999999</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="9">
         <v>0.78549999999999998</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="9">
         <v>17.060099999999998</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G34" s="9">
         <v>0.82089999999999996</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H34" s="9">
         <v>18.083100000000002</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I34" s="9">
         <v>0.76529999999999998</v>
       </c>
     </row>
@@ -5347,80 +5382,80 @@
       <c r="A35" t="s">
         <v>195</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>196</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>197</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>198</v>
       </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>175</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="9">
         <v>7.6628999999999996</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="9">
         <v>0.68859999999999999</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="9">
         <v>21.343499999999999</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="9">
         <v>0.92010000000000003</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="9">
         <v>20.311699999999998</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G39" s="9">
         <v>0.87960000000000005</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H39" s="9">
         <v>25.898700000000002</v>
       </c>
-      <c r="I39" s="11">
+      <c r="I39" s="9">
         <v>0.93620000000000003</v>
       </c>
     </row>
@@ -5428,28 +5463,28 @@
       <c r="A40" t="s">
         <v>176</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="9">
         <v>7.0274999999999999</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="9">
         <v>0.66220000000000001</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="9">
         <v>20.7424</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E40" s="9">
         <v>0.91459999999999997</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="9">
         <v>18.465599999999998</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G40" s="9">
         <v>0.86519999999999997</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H40" s="9">
         <v>25.020299999999999</v>
       </c>
-      <c r="I40" s="11">
+      <c r="I40" s="9">
         <v>0.92549999999999999</v>
       </c>
     </row>
@@ -5457,28 +5492,28 @@
       <c r="A41" t="s">
         <v>177</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="9">
         <v>6.3823999999999996</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="9">
         <v>0.65149999999999997</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="9">
         <v>20.296099999999999</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41" s="9">
         <v>0.91369999999999996</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="9">
         <v>19.272500000000001</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G41" s="9">
         <v>0.87309999999999999</v>
       </c>
-      <c r="H41" s="11">
+      <c r="H41" s="9">
         <v>25.5596</v>
       </c>
-      <c r="I41" s="11">
+      <c r="I41" s="9">
         <v>0.93459999999999999</v>
       </c>
     </row>
@@ -5486,28 +5521,28 @@
       <c r="A42" t="s">
         <v>178</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="9">
         <v>5.0491000000000001</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="9">
         <v>0.62190000000000001</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="9">
         <v>19</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E42" s="9">
         <v>0.9042</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="9">
         <v>14.5</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G42" s="9">
         <v>0.81159999999999999</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H42" s="9">
         <v>23.5486</v>
       </c>
-      <c r="I42" s="11">
+      <c r="I42" s="9">
         <v>0.90839999999999999</v>
       </c>
     </row>
@@ -5515,28 +5550,28 @@
       <c r="A43" t="s">
         <v>179</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43" s="9">
         <v>8.6103000000000005</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="9">
         <v>0.65280000000000005</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="9">
         <v>21.138999999999999</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E43" s="9">
         <v>0.88619999999999999</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="9">
         <v>24.367699999999999</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G43" s="9">
         <v>0.92949999999999999</v>
       </c>
-      <c r="H43" s="11">
+      <c r="H43" s="9">
         <v>22.5031</v>
       </c>
-      <c r="I43" s="11">
+      <c r="I43" s="9">
         <v>0.86040000000000005</v>
       </c>
     </row>
@@ -5544,28 +5579,28 @@
       <c r="A44" t="s">
         <v>180</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="9">
         <v>8.1295999999999999</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="9">
         <v>0.65690000000000004</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="9">
         <v>21.4176</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E44" s="9">
         <v>0.89049999999999996</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="9">
         <v>24.453800000000001</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G44" s="9">
         <v>0.93220000000000003</v>
       </c>
-      <c r="H44" s="11">
+      <c r="H44" s="9">
         <v>24.329599999999999</v>
       </c>
-      <c r="I44" s="11">
+      <c r="I44" s="9">
         <v>0.90149999999999997</v>
       </c>
     </row>
@@ -5573,28 +5608,28 @@
       <c r="A45" t="s">
         <v>181</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="9">
         <v>8.1849000000000007</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="9">
         <v>0.66759999999999997</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="9">
         <v>21.020099999999999</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E45" s="9">
         <v>0.87749999999999995</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F45" s="9">
         <v>24.7698</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G45" s="9">
         <v>0.93279999999999996</v>
       </c>
-      <c r="H45" s="11">
+      <c r="H45" s="9">
         <v>24.911200000000001</v>
       </c>
-      <c r="I45" s="11">
+      <c r="I45" s="9">
         <v>0.89980000000000004</v>
       </c>
     </row>
@@ -5602,28 +5637,28 @@
       <c r="A46" t="s">
         <v>182</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="9">
         <v>8.1608000000000001</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="9">
         <v>0.64149999999999996</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="9">
         <v>21.1768</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E46" s="9">
         <v>0.87639999999999996</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F46" s="9">
         <v>26.054600000000001</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G46" s="9">
         <v>0.94179999999999997</v>
       </c>
-      <c r="H46" s="11">
+      <c r="H46" s="9">
         <v>21.221900000000002</v>
       </c>
-      <c r="I46" s="11">
+      <c r="I46" s="9">
         <v>0.83909999999999996</v>
       </c>
     </row>
@@ -5631,28 +5666,28 @@
       <c r="A47" t="s">
         <v>211</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B47" s="9">
         <v>14.938800000000001</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="9">
         <v>0.82299999999999995</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D47" s="9">
         <v>17.412600000000001</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E47" s="9">
         <v>0.85309999999999997</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F47" s="9">
         <v>18.835100000000001</v>
       </c>
-      <c r="G47" s="11">
+      <c r="G47" s="9">
         <v>0.83709999999999996</v>
       </c>
-      <c r="H47" s="11">
+      <c r="H47" s="9">
         <v>15.762700000000001</v>
       </c>
-      <c r="I47" s="11">
+      <c r="I47" s="9">
         <v>0.89419999999999999</v>
       </c>
     </row>
@@ -5660,28 +5695,28 @@
       <c r="A48" t="s">
         <v>212</v>
       </c>
-      <c r="B48" s="11">
+      <c r="B48" s="9">
         <v>14.001200000000001</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="9">
         <v>0.81430000000000002</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D48" s="9">
         <v>15.7879</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E48" s="9">
         <v>0.83689999999999998</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F48" s="9">
         <v>16.575099999999999</v>
       </c>
-      <c r="G48" s="11">
+      <c r="G48" s="9">
         <v>0.8246</v>
       </c>
-      <c r="H48" s="11">
+      <c r="H48" s="9">
         <v>15.5411</v>
       </c>
-      <c r="I48" s="11">
+      <c r="I48" s="9">
         <v>0.88829999999999998</v>
       </c>
     </row>
@@ -5689,28 +5724,28 @@
       <c r="A49" t="s">
         <v>213</v>
       </c>
-      <c r="B49" s="11">
+      <c r="B49" s="9">
         <v>14.606199999999999</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49" s="9">
         <v>0.82010000000000005</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D49" s="9">
         <v>16.2485</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E49" s="9">
         <v>0.84460000000000002</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F49" s="9">
         <v>18.751200000000001</v>
       </c>
-      <c r="G49" s="11">
+      <c r="G49" s="9">
         <v>0.8337</v>
       </c>
-      <c r="H49" s="11">
+      <c r="H49" s="9">
         <v>15.7812</v>
       </c>
-      <c r="I49" s="11">
+      <c r="I49" s="9">
         <v>0.89459999999999995</v>
       </c>
     </row>
@@ -5718,28 +5753,28 @@
       <c r="A50" t="s">
         <v>214</v>
       </c>
-      <c r="B50" s="11">
+      <c r="B50" s="9">
         <v>14.57</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="9">
         <v>0.82140000000000002</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D50" s="9">
         <v>17.427800000000001</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E50" s="9">
         <v>0.8528</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F50" s="9">
         <v>17.252400000000002</v>
       </c>
-      <c r="G50" s="11">
+      <c r="G50" s="9">
         <v>0.83120000000000005</v>
       </c>
-      <c r="H50" s="11">
+      <c r="H50" s="9">
         <v>15.6273</v>
       </c>
-      <c r="I50" s="11">
+      <c r="I50" s="9">
         <v>0.89339999999999997</v>
       </c>
     </row>
@@ -5747,28 +5782,28 @@
       <c r="A51" t="s">
         <v>224</v>
       </c>
-      <c r="B51" s="11">
+      <c r="B51" s="9">
         <v>5.4236000000000004</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C51" s="9">
         <v>0.68320000000000003</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D51" s="9">
         <v>12.9497</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E51" s="9">
         <v>0.74270000000000003</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F51" s="9">
         <v>12.2319</v>
       </c>
-      <c r="G51" s="11">
+      <c r="G51" s="9">
         <v>0.76329999999999998</v>
       </c>
-      <c r="H51" s="11">
+      <c r="H51" s="9">
         <v>15.8073</v>
       </c>
-      <c r="I51" s="11">
+      <c r="I51" s="9">
         <v>0.82599999999999996</v>
       </c>
     </row>
@@ -5776,28 +5811,28 @@
       <c r="A52" t="s">
         <v>225</v>
       </c>
-      <c r="B52" s="11">
+      <c r="B52" s="9">
         <v>5.9904000000000002</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C52" s="9">
         <v>0.67830000000000001</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D52" s="9">
         <v>12.7662</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E52" s="9">
         <v>0.74370000000000003</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F52" s="9">
         <v>10.7887</v>
       </c>
-      <c r="G52" s="11">
+      <c r="G52" s="9">
         <v>0.74070000000000003</v>
       </c>
-      <c r="H52" s="11">
+      <c r="H52" s="9">
         <v>15.848699999999999</v>
       </c>
-      <c r="I52" s="11">
+      <c r="I52" s="9">
         <v>0.83079999999999998</v>
       </c>
     </row>
@@ -5805,28 +5840,28 @@
       <c r="A53" t="s">
         <v>226</v>
       </c>
-      <c r="B53" s="11">
+      <c r="B53" s="9">
         <v>5.3741000000000003</v>
       </c>
-      <c r="C53" s="11">
+      <c r="C53" s="9">
         <v>0.69520000000000004</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D53" s="9">
         <v>12.5562</v>
       </c>
-      <c r="E53" s="11">
+      <c r="E53" s="9">
         <v>0.75370000000000004</v>
       </c>
-      <c r="F53" s="11">
+      <c r="F53" s="9">
         <v>12.1488</v>
       </c>
-      <c r="G53" s="11">
+      <c r="G53" s="9">
         <v>0.75090000000000001</v>
       </c>
-      <c r="H53" s="11">
+      <c r="H53" s="9">
         <v>15.173400000000001</v>
       </c>
-      <c r="I53" s="11">
+      <c r="I53" s="9">
         <v>0.82269999999999999</v>
       </c>
     </row>
@@ -5834,28 +5869,28 @@
       <c r="A54" t="s">
         <v>227</v>
       </c>
-      <c r="B54" s="11">
+      <c r="B54" s="9">
         <v>5.4899399999999998</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C54" s="9">
         <v>0.69310000000000005</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D54" s="9">
         <v>12.748799999999999</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E54" s="9">
         <v>0.75609999999999999</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F54" s="9">
         <v>12.227</v>
       </c>
-      <c r="G54" s="11">
+      <c r="G54" s="9">
         <v>0.75249999999999995</v>
       </c>
-      <c r="H54" s="11">
+      <c r="H54" s="9">
         <v>15.336</v>
       </c>
-      <c r="I54" s="11">
+      <c r="I54" s="9">
         <v>0.83150000000000002</v>
       </c>
     </row>
@@ -5863,28 +5898,28 @@
       <c r="A55" t="s">
         <v>199</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="4">
         <v>5.4698000000000002</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="4">
         <v>0.68430000000000002</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="4">
         <v>12.6221</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E55" s="4">
         <v>0.7389</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F55" s="4">
         <v>12.225099999999999</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G55" s="4">
         <v>0.77410000000000001</v>
       </c>
-      <c r="H55" s="5">
+      <c r="H55" s="4">
         <v>15.7126</v>
       </c>
-      <c r="I55" s="5">
+      <c r="I55" s="4">
         <v>0.82720000000000005</v>
       </c>
     </row>
@@ -5892,28 +5927,28 @@
       <c r="A56" t="s">
         <v>200</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="4">
         <v>5.8109999999999999</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="4">
         <v>0.68530000000000002</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="4">
         <v>13.082000000000001</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E56" s="4">
         <v>0.7409</v>
       </c>
-      <c r="F56" s="5">
+      <c r="F56" s="4">
         <v>11.701700000000001</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G56" s="4">
         <v>0.77070000000000005</v>
       </c>
-      <c r="H56" s="5">
+      <c r="H56" s="4">
         <v>15.771000000000001</v>
       </c>
-      <c r="I56" s="5">
+      <c r="I56" s="4">
         <v>0.8347</v>
       </c>
     </row>
@@ -5921,28 +5956,28 @@
       <c r="A57" t="s">
         <v>201</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="4">
         <v>5.4603000000000002</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="4">
         <v>0.6774</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="4">
         <v>12.754200000000001</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E57" s="4">
         <v>0.73270000000000002</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F57" s="4">
         <v>11.9023</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G57" s="4">
         <v>0.76300000000000001</v>
       </c>
-      <c r="H57" s="5">
+      <c r="H57" s="4">
         <v>15.6302</v>
       </c>
-      <c r="I57" s="5">
+      <c r="I57" s="4">
         <v>0.82550000000000001</v>
       </c>
     </row>
@@ -5950,28 +5985,28 @@
       <c r="A58" t="s">
         <v>202</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" s="4">
         <v>5.8044000000000002</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="4">
         <v>0.66669999999999996</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="4">
         <v>12.821300000000001</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E58" s="4">
         <v>0.72809999999999997</v>
       </c>
-      <c r="F58" s="5">
+      <c r="F58" s="4">
         <v>10.226800000000001</v>
       </c>
-      <c r="G58" s="5">
+      <c r="G58" s="4">
         <v>0.7248</v>
       </c>
-      <c r="H58" s="5">
+      <c r="H58" s="4">
         <v>15.888199999999999</v>
       </c>
-      <c r="I58" s="5">
+      <c r="I58" s="4">
         <v>0.81689999999999996</v>
       </c>
     </row>
@@ -5979,28 +6014,28 @@
       <c r="A59" t="s">
         <v>216</v>
       </c>
-      <c r="B59" s="11">
+      <c r="B59" s="9">
         <v>13.162000000000001</v>
       </c>
-      <c r="C59" s="11">
+      <c r="C59" s="9">
         <v>0.82330000000000003</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D59" s="9">
         <v>16.952300000000001</v>
       </c>
-      <c r="E59" s="11">
+      <c r="E59" s="9">
         <v>0.85799999999999998</v>
       </c>
-      <c r="F59" s="11">
+      <c r="F59" s="9">
         <v>19.564299999999999</v>
       </c>
-      <c r="G59" s="11">
+      <c r="G59" s="9">
         <v>0.84</v>
       </c>
-      <c r="H59" s="11">
+      <c r="H59" s="9">
         <v>16.9191</v>
       </c>
-      <c r="I59" s="11">
+      <c r="I59" s="9">
         <v>0.91159999999999997</v>
       </c>
     </row>
@@ -6008,28 +6043,28 @@
       <c r="A60" t="s">
         <v>217</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60" s="4">
         <v>13.2319</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="4">
         <v>0.82920000000000005</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="4">
         <v>17.53</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E60" s="4">
         <v>0.86040000000000005</v>
       </c>
-      <c r="F60" s="5">
+      <c r="F60" s="4">
         <v>19.5717</v>
       </c>
-      <c r="G60" s="5">
+      <c r="G60" s="4">
         <v>0.84299999999999997</v>
       </c>
-      <c r="H60" s="5">
+      <c r="H60" s="4">
         <v>16.535599999999999</v>
       </c>
-      <c r="I60" s="5">
+      <c r="I60" s="4">
         <v>0.91</v>
       </c>
     </row>
@@ -6037,28 +6072,28 @@
       <c r="A61" t="s">
         <v>218</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61" s="4">
         <v>12.5364</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="4">
         <v>0.80930000000000002</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="4">
         <v>16.422000000000001</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E61" s="4">
         <v>0.86219999999999997</v>
       </c>
-      <c r="F61" s="5">
+      <c r="F61" s="4">
         <v>18.135300000000001</v>
       </c>
-      <c r="G61" s="5">
+      <c r="G61" s="4">
         <v>0.83420000000000005</v>
       </c>
-      <c r="H61" s="5">
+      <c r="H61" s="4">
         <v>16.744</v>
       </c>
-      <c r="I61" s="5">
+      <c r="I61" s="4">
         <v>0.91610000000000003</v>
       </c>
     </row>
@@ -6066,28 +6101,28 @@
       <c r="A62" t="s">
         <v>219</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62" s="4">
         <v>12.6313</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62" s="4">
         <v>0.81659999999999999</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62" s="4">
         <v>16.4908</v>
       </c>
-      <c r="E62" s="5">
+      <c r="E62" s="4">
         <v>0.86470000000000002</v>
       </c>
-      <c r="F62" s="5">
+      <c r="F62" s="4">
         <v>18.843299999999999</v>
       </c>
-      <c r="G62" s="5">
+      <c r="G62" s="4">
         <v>0.83809999999999996</v>
       </c>
-      <c r="H62" s="5">
+      <c r="H62" s="4">
         <v>16.524100000000001</v>
       </c>
-      <c r="I62" s="5">
+      <c r="I62" s="4">
         <v>0.91639999999999999</v>
       </c>
     </row>
@@ -6095,28 +6130,28 @@
       <c r="A63" t="s">
         <v>220</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63" s="4">
         <v>12.949400000000001</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63" s="4">
         <v>0.82169999999999999</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63" s="4">
         <v>17.052299999999999</v>
       </c>
-      <c r="E63" s="5">
+      <c r="E63" s="4">
         <v>0.85470000000000002</v>
       </c>
-      <c r="F63" s="5">
+      <c r="F63" s="4">
         <v>18.8216</v>
       </c>
-      <c r="G63" s="5">
+      <c r="G63" s="4">
         <v>0.83340000000000003</v>
       </c>
-      <c r="H63" s="5">
+      <c r="H63" s="4">
         <v>16.686699999999998</v>
       </c>
-      <c r="I63" s="5">
+      <c r="I63" s="4">
         <v>0.90449999999999997</v>
       </c>
     </row>
@@ -6124,28 +6159,28 @@
       <c r="A64" t="s">
         <v>221</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64" s="4">
         <v>13.1866</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="4">
         <v>0.83140000000000003</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="4">
         <v>17.5136</v>
       </c>
-      <c r="E64" s="5">
+      <c r="E64" s="4">
         <v>0.86680000000000001</v>
       </c>
-      <c r="F64" s="5">
+      <c r="F64" s="4">
         <v>19.1189</v>
       </c>
-      <c r="G64" s="5">
+      <c r="G64" s="4">
         <v>0.85040000000000004</v>
       </c>
-      <c r="H64" s="5">
+      <c r="H64" s="4">
         <v>16.825700000000001</v>
       </c>
-      <c r="I64" s="5">
+      <c r="I64" s="4">
         <v>0.91590000000000005</v>
       </c>
     </row>
@@ -6153,28 +6188,28 @@
       <c r="A65" t="s">
         <v>222</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65" s="4">
         <v>12.97</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65" s="4">
         <v>0.82130000000000003</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="4">
         <v>17.0245</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E65" s="4">
         <v>0.85299999999999998</v>
       </c>
-      <c r="F65" s="5">
+      <c r="F65" s="4">
         <v>18.276599999999998</v>
       </c>
-      <c r="G65" s="5">
+      <c r="G65" s="4">
         <v>0.82979999999999998</v>
       </c>
-      <c r="H65" s="5">
+      <c r="H65" s="4">
         <v>16.7986</v>
       </c>
-      <c r="I65" s="5">
+      <c r="I65" s="4">
         <v>0.90490000000000004</v>
       </c>
     </row>
@@ -6182,28 +6217,28 @@
       <c r="A66" t="s">
         <v>223</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B66" s="4">
         <v>13.047700000000001</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="4">
         <v>0.82430000000000003</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="4">
         <v>17.1828</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E66" s="4">
         <v>0.85540000000000005</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F66" s="4">
         <v>18.3645</v>
       </c>
-      <c r="G66" s="5">
+      <c r="G66" s="4">
         <v>0.83340000000000003</v>
       </c>
-      <c r="H66" s="5">
+      <c r="H66" s="4">
         <v>16.487500000000001</v>
       </c>
-      <c r="I66" s="5">
+      <c r="I66" s="4">
         <v>0.90600000000000003</v>
       </c>
     </row>
@@ -6227,119 +6262,119 @@
         <v>210</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="14" t="s">
+    <row r="71" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="B71" s="15">
+      <c r="B71" s="12">
         <v>13.331300000000001</v>
       </c>
-      <c r="C71" s="15">
+      <c r="C71" s="12">
         <v>0.85170000000000001</v>
       </c>
-      <c r="D71" s="15">
+      <c r="D71" s="12">
         <v>19.683599999999998</v>
       </c>
-      <c r="E71" s="15">
+      <c r="E71" s="12">
         <v>0.91739999999999999</v>
       </c>
-      <c r="F71" s="15">
+      <c r="F71" s="12">
         <v>19.684899999999999</v>
       </c>
-      <c r="G71" s="15">
+      <c r="G71" s="12">
         <v>0.87339999999999995</v>
       </c>
-      <c r="H71" s="15">
+      <c r="H71" s="12">
         <v>16.4513</v>
       </c>
-      <c r="I71" s="15">
+      <c r="I71" s="12">
         <v>0.93300000000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="14" t="s">
+    <row r="72" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="B72" s="15">
+      <c r="B72" s="12">
         <v>13.693899999999999</v>
       </c>
-      <c r="C72" s="15">
+      <c r="C72" s="12">
         <v>0.85550000000000004</v>
       </c>
-      <c r="D72" s="15">
+      <c r="D72" s="12">
         <v>20.059699999999999</v>
       </c>
-      <c r="E72" s="15">
+      <c r="E72" s="12">
         <v>0.91949999999999998</v>
       </c>
-      <c r="F72" s="15">
+      <c r="F72" s="12">
         <v>20.980699999999999</v>
       </c>
-      <c r="G72" s="15">
+      <c r="G72" s="12">
         <v>0.87819999999999998</v>
       </c>
-      <c r="H72" s="15">
+      <c r="H72" s="12">
         <v>16.6617</v>
       </c>
-      <c r="I72" s="15">
+      <c r="I72" s="12">
         <v>0.93520000000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="14" t="s">
+    <row r="73" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="B73" s="15">
+      <c r="B73" s="12">
         <v>13.7294</v>
       </c>
-      <c r="C73" s="15">
+      <c r="C73" s="12">
         <v>0.85029999999999994</v>
       </c>
-      <c r="D73" s="15">
+      <c r="D73" s="12">
         <v>20.5672</v>
       </c>
-      <c r="E73" s="15">
+      <c r="E73" s="12">
         <v>0.92720000000000002</v>
       </c>
-      <c r="F73" s="15">
+      <c r="F73" s="12">
         <v>21.315799999999999</v>
       </c>
-      <c r="G73" s="15">
+      <c r="G73" s="12">
         <v>0.87329999999999997</v>
       </c>
-      <c r="H73" s="15">
+      <c r="H73" s="12">
         <v>16.593</v>
       </c>
-      <c r="I73" s="15">
+      <c r="I73" s="12">
         <v>0.93330000000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="14" t="s">
+    <row r="74" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="B74" s="15">
+      <c r="B74" s="12">
         <v>13.769</v>
       </c>
-      <c r="C74" s="15">
+      <c r="C74" s="12">
         <v>0.85870000000000002</v>
       </c>
-      <c r="D74" s="15">
+      <c r="D74" s="12">
         <v>20.156199999999998</v>
       </c>
-      <c r="E74" s="15">
+      <c r="E74" s="12">
         <v>0.92190000000000005</v>
       </c>
-      <c r="F74" s="15">
+      <c r="F74" s="12">
         <v>20.845099999999999</v>
       </c>
-      <c r="G74" s="15">
+      <c r="G74" s="12">
         <v>0.87970000000000004</v>
       </c>
-      <c r="H74" s="15">
+      <c r="H74" s="12">
         <v>16.520199999999999</v>
       </c>
-      <c r="I74" s="15">
+      <c r="I74" s="12">
         <v>0.93510000000000004</v>
       </c>
     </row>
@@ -6347,28 +6382,28 @@
       <c r="A75" t="s">
         <v>215</v>
       </c>
-      <c r="B75" s="11">
+      <c r="B75" s="9">
         <v>4.3480999999999996</v>
       </c>
-      <c r="C75" s="11">
+      <c r="C75" s="9">
         <v>0.65790000000000004</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D75" s="9">
         <v>13.3089</v>
       </c>
-      <c r="E75" s="11">
+      <c r="E75" s="9">
         <v>0.75060000000000004</v>
       </c>
-      <c r="F75" s="11">
+      <c r="F75" s="9">
         <v>10.5406</v>
       </c>
-      <c r="G75" s="11">
+      <c r="G75" s="9">
         <v>0.72589999999999999</v>
       </c>
-      <c r="H75" s="11">
+      <c r="H75" s="9">
         <v>17.546700000000001</v>
       </c>
-      <c r="I75" s="11">
+      <c r="I75" s="9">
         <v>0.79669999999999996</v>
       </c>
     </row>
@@ -6376,22 +6411,22 @@
       <c r="A76" t="s">
         <v>228</v>
       </c>
-      <c r="B76" s="5">
+      <c r="B76" s="4">
         <v>5.7104999999999997</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C76" s="4">
         <v>0.59219999999999995</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76" s="4">
         <v>13.110300000000001</v>
       </c>
-      <c r="E76" s="5">
+      <c r="E76" s="4">
         <v>0.76629999999999998</v>
       </c>
-      <c r="H76" s="5">
+      <c r="H76" s="4">
         <v>1.3095000000000001</v>
       </c>
-      <c r="I76" s="5">
+      <c r="I76" s="4">
         <v>0.4007</v>
       </c>
     </row>
@@ -6399,22 +6434,22 @@
       <c r="A77" t="s">
         <v>229</v>
       </c>
-      <c r="B77" s="5">
+      <c r="B77" s="4">
         <v>5.6372</v>
       </c>
-      <c r="C77" s="5">
+      <c r="C77" s="4">
         <v>0.58030000000000004</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D77" s="4">
         <v>14.770200000000001</v>
       </c>
-      <c r="E77" s="5">
+      <c r="E77" s="4">
         <v>0.76190000000000002</v>
       </c>
-      <c r="H77" s="5">
+      <c r="H77" s="4">
         <v>1.3313999999999999</v>
       </c>
-      <c r="I77" s="5">
+      <c r="I77" s="4">
         <v>0.4168</v>
       </c>
     </row>
@@ -6422,28 +6457,28 @@
       <c r="A78" t="s">
         <v>230</v>
       </c>
-      <c r="B78" s="5">
+      <c r="B78" s="4">
         <v>8.7902000000000005</v>
       </c>
-      <c r="C78" s="5">
+      <c r="C78" s="4">
         <v>0.70920000000000005</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78" s="4">
         <v>15.124599999999999</v>
       </c>
-      <c r="E78" s="5">
+      <c r="E78" s="4">
         <v>0.79149999999999998</v>
       </c>
-      <c r="F78" s="5" t="s">
+      <c r="F78" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G78" s="5" t="s">
+      <c r="G78" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="H78" s="5">
+      <c r="H78" s="4">
         <v>0.59409999999999996</v>
       </c>
-      <c r="I78" s="5">
+      <c r="I78" s="4">
         <v>0.3861</v>
       </c>
     </row>
@@ -6451,22 +6486,22 @@
       <c r="A79" t="s">
         <v>231</v>
       </c>
-      <c r="B79" s="5">
+      <c r="B79" s="4">
         <v>8.7850999999999999</v>
       </c>
-      <c r="C79" s="5">
+      <c r="C79" s="4">
         <v>0.70550000000000002</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D79" s="4">
         <v>13.9308</v>
       </c>
-      <c r="E79" s="5">
+      <c r="E79" s="4">
         <v>0.76200000000000001</v>
       </c>
-      <c r="H79" s="5">
+      <c r="H79" s="4">
         <v>0.64500000000000002</v>
       </c>
-      <c r="I79" s="5">
+      <c r="I79" s="4">
         <v>0.39240000000000003</v>
       </c>
     </row>
@@ -6474,22 +6509,22 @@
       <c r="A80" t="s">
         <v>232</v>
       </c>
-      <c r="B80" s="5">
+      <c r="B80" s="4">
         <v>9.3439999999999994</v>
       </c>
-      <c r="C80" s="5">
+      <c r="C80" s="4">
         <v>0.73319999999999996</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D80" s="4">
         <v>15.748799999999999</v>
       </c>
-      <c r="E80" s="5">
+      <c r="E80" s="4">
         <v>0.83250000000000002</v>
       </c>
-      <c r="H80" s="5">
+      <c r="H80" s="4">
         <v>0.52510000000000001</v>
       </c>
-      <c r="I80" s="5">
+      <c r="I80" s="4">
         <v>0.3634</v>
       </c>
     </row>
@@ -6497,28 +6532,28 @@
       <c r="A81" t="s">
         <v>233</v>
       </c>
-      <c r="B81" s="5">
+      <c r="B81" s="4">
         <v>9.4969999999999999</v>
       </c>
-      <c r="C81" s="5">
+      <c r="C81" s="4">
         <v>0.752</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D81" s="4">
         <v>14.9404</v>
       </c>
-      <c r="E81" s="5">
+      <c r="E81" s="4">
         <v>0.80669999999999997</v>
       </c>
-      <c r="F81" s="5" t="s">
+      <c r="F81" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G81" s="5" t="s">
+      <c r="G81" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="H81" s="5">
+      <c r="H81" s="4">
         <v>0.55689999999999995</v>
       </c>
-      <c r="I81" s="5">
+      <c r="I81" s="4">
         <v>0.3725</v>
       </c>
     </row>
@@ -6526,28 +6561,28 @@
       <c r="A82" t="s">
         <v>234</v>
       </c>
-      <c r="B82" s="5">
+      <c r="B82" s="4">
         <v>8.8896999999999995</v>
       </c>
-      <c r="C82" s="5">
+      <c r="C82" s="4">
         <v>0.74260000000000004</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="4">
         <v>15.688499999999999</v>
       </c>
-      <c r="E82" s="5">
+      <c r="E82" s="4">
         <v>0.81369999999999998</v>
       </c>
-      <c r="F82" s="5" t="s">
+      <c r="F82" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G82" s="5" t="s">
+      <c r="G82" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="H82" s="5">
+      <c r="H82" s="4">
         <v>0.5222</v>
       </c>
-      <c r="I82" s="5">
+      <c r="I82" s="4">
         <v>0.37390000000000001</v>
       </c>
     </row>
@@ -6555,28 +6590,28 @@
       <c r="A83" t="s">
         <v>235</v>
       </c>
-      <c r="B83" s="5">
+      <c r="B83" s="4">
         <v>8.9699000000000009</v>
       </c>
-      <c r="C83" s="5">
+      <c r="C83" s="4">
         <v>0.74099999999999999</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D83" s="4">
         <v>15.6431</v>
       </c>
-      <c r="E83" s="5">
+      <c r="E83" s="4">
         <v>0.81540000000000001</v>
       </c>
-      <c r="F83" s="5" t="s">
+      <c r="F83" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G83" s="5" t="s">
+      <c r="G83" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="H83" s="5">
+      <c r="H83" s="4">
         <v>0.56810000000000005</v>
       </c>
-      <c r="I83" s="5">
+      <c r="I83" s="4">
         <v>0.37059999999999998</v>
       </c>
     </row>
@@ -6584,28 +6619,28 @@
       <c r="A84" t="s">
         <v>236</v>
       </c>
-      <c r="B84" s="5">
+      <c r="B84" s="4">
         <v>9.1125000000000007</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C84" s="4">
         <v>0.72340000000000004</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D84" s="4">
         <v>15.781499999999999</v>
       </c>
-      <c r="E84" s="5">
+      <c r="E84" s="4">
         <v>0.81679999999999997</v>
       </c>
-      <c r="F84" s="5" t="s">
+      <c r="F84" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G84" s="5" t="s">
+      <c r="G84" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="H84" s="5">
+      <c r="H84" s="4">
         <v>0.53180000000000005</v>
       </c>
-      <c r="I84" s="5">
+      <c r="I84" s="4">
         <v>0.37319999999999998</v>
       </c>
     </row>
@@ -6613,28 +6648,28 @@
       <c r="A85" t="s">
         <v>237</v>
       </c>
-      <c r="B85" s="5">
+      <c r="B85" s="4">
         <v>9.4570000000000007</v>
       </c>
-      <c r="C85" s="5">
+      <c r="C85" s="4">
         <v>0.73509999999999998</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D85" s="4">
         <v>16.666799999999999</v>
       </c>
-      <c r="E85" s="5">
+      <c r="E85" s="4">
         <v>0.84019999999999995</v>
       </c>
-      <c r="F85" s="5" t="s">
+      <c r="F85" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G85" s="5" t="s">
+      <c r="G85" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="H85" s="5">
+      <c r="H85" s="4">
         <v>0.57299999999999995</v>
       </c>
-      <c r="I85" s="5">
+      <c r="I85" s="4">
         <v>0.36930000000000002</v>
       </c>
     </row>
@@ -6642,28 +6677,28 @@
       <c r="A86" t="s">
         <v>238</v>
       </c>
-      <c r="B86" s="5">
+      <c r="B86" s="4">
         <v>9.0225000000000009</v>
       </c>
-      <c r="C86" s="5">
+      <c r="C86" s="4">
         <v>0.74</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D86" s="4">
         <v>15.7925</v>
       </c>
-      <c r="E86" s="5">
+      <c r="E86" s="4">
         <v>0.81559999999999999</v>
       </c>
-      <c r="F86" s="5" t="s">
+      <c r="F86" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G86" s="5" t="s">
+      <c r="G86" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="H86" s="5">
+      <c r="H86" s="4">
         <v>0.53500000000000003</v>
       </c>
-      <c r="I86" s="5">
+      <c r="I86" s="4">
         <v>0.37319999999999998</v>
       </c>
     </row>
@@ -6671,28 +6706,28 @@
       <c r="A87" t="s">
         <v>240</v>
       </c>
-      <c r="B87" s="5">
+      <c r="B87" s="4">
         <v>6.5556999999999999</v>
       </c>
-      <c r="C87" s="5">
+      <c r="C87" s="4">
         <v>0.62549999999999994</v>
       </c>
-      <c r="D87" s="5">
+      <c r="D87" s="4">
         <v>13.922599999999999</v>
       </c>
-      <c r="E87" s="5">
+      <c r="E87" s="4">
         <v>0.75049999999999994</v>
       </c>
-      <c r="F87" s="5" t="s">
+      <c r="F87" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G87" s="5" t="s">
+      <c r="G87" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="H87" s="5">
+      <c r="H87" s="4">
         <v>1.2573000000000001</v>
       </c>
-      <c r="I87" s="5">
+      <c r="I87" s="4">
         <v>0.41739999999999999</v>
       </c>
     </row>
@@ -6700,28 +6735,28 @@
       <c r="A88" t="s">
         <v>241</v>
       </c>
-      <c r="B88" s="5">
+      <c r="B88" s="4">
         <v>6.6860999999999997</v>
       </c>
-      <c r="C88" s="5">
+      <c r="C88" s="4">
         <v>0.6381</v>
       </c>
-      <c r="D88" s="5">
+      <c r="D88" s="4">
         <v>13.9129</v>
       </c>
-      <c r="E88" s="5">
+      <c r="E88" s="4">
         <v>0.74529999999999996</v>
       </c>
-      <c r="F88" s="5" t="s">
+      <c r="F88" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G88" s="5" t="s">
+      <c r="G88" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="H88" s="5">
+      <c r="H88" s="4">
         <v>1.0619000000000001</v>
       </c>
-      <c r="I88" s="5">
+      <c r="I88" s="4">
         <v>0.41949999999999998</v>
       </c>
     </row>
@@ -6729,28 +6764,28 @@
       <c r="A89" t="s">
         <v>242</v>
       </c>
-      <c r="B89" s="5">
+      <c r="B89" s="4">
         <v>8.9771999999999998</v>
       </c>
-      <c r="C89" s="5">
+      <c r="C89" s="4">
         <v>0.76090000000000002</v>
       </c>
-      <c r="D89" s="5">
+      <c r="D89" s="4">
         <v>14.6983</v>
       </c>
-      <c r="E89" s="5">
+      <c r="E89" s="4">
         <v>0.79630000000000001</v>
       </c>
-      <c r="F89" s="5" t="s">
+      <c r="F89" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G89" s="5" t="s">
+      <c r="G89" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="H89" s="5">
+      <c r="H89" s="4">
         <v>0.39489999999999997</v>
       </c>
-      <c r="I89" s="5">
+      <c r="I89" s="4">
         <v>0.3947</v>
       </c>
     </row>
@@ -6758,28 +6793,28 @@
       <c r="A90" t="s">
         <v>243</v>
       </c>
-      <c r="B90" s="5">
+      <c r="B90" s="4">
         <v>9.4128000000000007</v>
       </c>
-      <c r="C90" s="5">
+      <c r="C90" s="4">
         <v>0.7792</v>
       </c>
-      <c r="D90" s="5">
+      <c r="D90" s="4">
         <v>15.6638</v>
       </c>
-      <c r="E90" s="5">
+      <c r="E90" s="4">
         <v>0.80720000000000003</v>
       </c>
-      <c r="F90" s="5" t="s">
+      <c r="F90" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G90" s="5" t="s">
+      <c r="G90" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="H90" s="5">
+      <c r="H90" s="4">
         <v>0.44879999999999998</v>
       </c>
-      <c r="I90" s="5">
+      <c r="I90" s="4">
         <v>0.38250000000000001</v>
       </c>
     </row>
@@ -6787,28 +6822,28 @@
       <c r="A91" t="s">
         <v>244</v>
       </c>
-      <c r="B91" s="5">
+      <c r="B91" s="4">
         <v>10.3941</v>
       </c>
-      <c r="C91" s="5">
+      <c r="C91" s="4">
         <v>0.75890000000000002</v>
       </c>
-      <c r="D91" s="5">
+      <c r="D91" s="4">
         <v>15.7362</v>
       </c>
-      <c r="E91" s="5">
+      <c r="E91" s="4">
         <v>0.8145</v>
       </c>
-      <c r="F91" s="5" t="s">
+      <c r="F91" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G91" s="5" t="s">
+      <c r="G91" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="H91" s="5">
+      <c r="H91" s="4">
         <v>0.40760000000000002</v>
       </c>
-      <c r="I91" s="5">
+      <c r="I91" s="4">
         <v>0.39269999999999999</v>
       </c>
     </row>
@@ -6816,28 +6851,28 @@
       <c r="A92" t="s">
         <v>245</v>
       </c>
-      <c r="B92" s="5">
+      <c r="B92" s="4">
         <v>9.3248999999999995</v>
       </c>
-      <c r="C92" s="5">
+      <c r="C92" s="4">
         <v>0.7722</v>
       </c>
-      <c r="D92" s="5">
+      <c r="D92" s="4">
         <v>15.7554</v>
       </c>
-      <c r="E92" s="5">
+      <c r="E92" s="4">
         <v>0.79830000000000001</v>
       </c>
-      <c r="F92" s="5" t="s">
+      <c r="F92" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G92" s="5" t="s">
+      <c r="G92" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="H92" s="5">
+      <c r="H92" s="4">
         <v>0.44369999999999998</v>
       </c>
-      <c r="I92" s="5">
+      <c r="I92" s="4">
         <v>0.39100000000000001</v>
       </c>
     </row>
@@ -6845,28 +6880,28 @@
       <c r="A93" t="s">
         <v>246</v>
       </c>
-      <c r="B93" s="5">
+      <c r="B93" s="4">
         <v>9.3497000000000003</v>
       </c>
-      <c r="C93" s="5">
+      <c r="C93" s="4">
         <v>0.77449999999999997</v>
       </c>
-      <c r="D93" s="5">
+      <c r="D93" s="4">
         <v>15.7643</v>
       </c>
-      <c r="E93" s="5">
+      <c r="E93" s="4">
         <v>0.81440000000000001</v>
       </c>
-      <c r="F93" s="5" t="s">
+      <c r="F93" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G93" s="5" t="s">
+      <c r="G93" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="H93" s="5">
+      <c r="H93" s="4">
         <v>0.42209999999999998</v>
       </c>
-      <c r="I93" s="5">
+      <c r="I93" s="4">
         <v>0.3901</v>
       </c>
     </row>
@@ -6874,28 +6909,28 @@
       <c r="A94" t="s">
         <v>247</v>
       </c>
-      <c r="B94" s="5">
+      <c r="B94" s="4">
         <v>10.4316</v>
       </c>
-      <c r="C94" s="5">
+      <c r="C94" s="4">
         <v>0.76580000000000004</v>
       </c>
-      <c r="D94" s="5">
+      <c r="D94" s="4">
         <v>15.775399999999999</v>
       </c>
-      <c r="E94" s="5">
+      <c r="E94" s="4">
         <v>0.81210000000000004</v>
       </c>
-      <c r="F94" s="5" t="s">
+      <c r="F94" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G94" s="5" t="s">
+      <c r="G94" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="H94" s="5">
+      <c r="H94" s="4">
         <v>0.48920000000000002</v>
       </c>
-      <c r="I94" s="5">
+      <c r="I94" s="4">
         <v>0.38540000000000002</v>
       </c>
     </row>
@@ -6903,28 +6938,28 @@
       <c r="A95" t="s">
         <v>248</v>
       </c>
-      <c r="B95" s="5">
+      <c r="B95" s="4">
         <v>9.3169000000000004</v>
       </c>
-      <c r="C95" s="5">
+      <c r="C95" s="4">
         <v>0.76759999999999995</v>
       </c>
-      <c r="D95" s="5">
+      <c r="D95" s="4">
         <v>15.9297</v>
       </c>
-      <c r="E95" s="5">
+      <c r="E95" s="4">
         <v>0.80900000000000005</v>
       </c>
-      <c r="F95" s="5" t="s">
+      <c r="F95" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G95" s="5" t="s">
+      <c r="G95" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="H95" s="5">
+      <c r="H95" s="4">
         <v>0.3967</v>
       </c>
-      <c r="I95" s="5">
+      <c r="I95" s="4">
         <v>0.38369999999999999</v>
       </c>
     </row>
@@ -6932,28 +6967,28 @@
       <c r="A96" t="s">
         <v>249</v>
       </c>
-      <c r="B96" s="5">
+      <c r="B96" s="4">
         <v>5.9273999999999996</v>
       </c>
-      <c r="C96" s="5">
+      <c r="C96" s="4">
         <v>0.62260000000000004</v>
       </c>
-      <c r="D96" s="5">
+      <c r="D96" s="4">
         <v>16.218599999999999</v>
       </c>
-      <c r="E96" s="5">
+      <c r="E96" s="4">
         <v>0.83730000000000004</v>
       </c>
-      <c r="F96" s="5" t="s">
+      <c r="F96" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G96" s="5" t="s">
+      <c r="G96" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="H96" s="5">
+      <c r="H96" s="4">
         <v>1.1882999999999999</v>
       </c>
-      <c r="I96" s="5">
+      <c r="I96" s="4">
         <v>0.38990000000000002</v>
       </c>
     </row>
@@ -6961,28 +6996,28 @@
       <c r="A97" t="s">
         <v>250</v>
       </c>
-      <c r="B97" s="5">
+      <c r="B97" s="4">
         <v>5.9204999999999997</v>
       </c>
-      <c r="C97" s="5">
+      <c r="C97" s="4">
         <v>0.62070000000000003</v>
       </c>
-      <c r="D97" s="5">
+      <c r="D97" s="4">
         <v>16.4132</v>
       </c>
-      <c r="E97" s="5">
+      <c r="E97" s="4">
         <v>0.8357</v>
       </c>
-      <c r="F97" s="5" t="s">
+      <c r="F97" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G97" s="5" t="s">
+      <c r="G97" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="H97" s="5">
+      <c r="H97" s="4">
         <v>1.1136999999999999</v>
       </c>
-      <c r="I97" s="5">
+      <c r="I97" s="4">
         <v>0.3846</v>
       </c>
     </row>
@@ -6990,28 +7025,28 @@
       <c r="A98" t="s">
         <v>251</v>
       </c>
-      <c r="B98" s="5">
+      <c r="B98" s="4">
         <v>8.3131000000000004</v>
       </c>
-      <c r="C98" s="5">
+      <c r="C98" s="4">
         <v>0.71779999999999999</v>
       </c>
-      <c r="D98" s="5">
+      <c r="D98" s="4">
         <v>16.824100000000001</v>
       </c>
-      <c r="E98" s="5">
+      <c r="E98" s="4">
         <v>0.84809999999999997</v>
       </c>
-      <c r="F98" s="5" t="s">
+      <c r="F98" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G98" s="5" t="s">
+      <c r="G98" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="H98" s="5">
+      <c r="H98" s="4">
         <v>0.621</v>
       </c>
-      <c r="I98" s="5">
+      <c r="I98" s="4">
         <v>0.373</v>
       </c>
     </row>
@@ -7019,28 +7054,28 @@
       <c r="A99" t="s">
         <v>252</v>
       </c>
-      <c r="B99" s="5">
+      <c r="B99" s="4">
         <v>8.2948699999999995</v>
       </c>
-      <c r="C99" s="5">
+      <c r="C99" s="4">
         <v>0.71430000000000005</v>
       </c>
-      <c r="D99" s="5">
+      <c r="D99" s="4">
         <v>16.1447</v>
       </c>
-      <c r="E99" s="5">
+      <c r="E99" s="4">
         <v>0.83479999999999999</v>
       </c>
-      <c r="F99" s="5" t="s">
+      <c r="F99" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G99" s="5" t="s">
+      <c r="G99" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="H99" s="5">
+      <c r="H99" s="4">
         <v>0.47510000000000002</v>
       </c>
-      <c r="I99" s="5">
+      <c r="I99" s="4">
         <v>0.3654</v>
       </c>
     </row>
@@ -7048,28 +7083,28 @@
       <c r="A100" t="s">
         <v>253</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C100" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D100" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E100" s="5" t="s">
+      <c r="E100" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="F100" s="5" t="s">
+      <c r="F100" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G100" s="5" t="s">
+      <c r="G100" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="H100" s="5" t="s">
+      <c r="H100" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="I100" s="5" t="s">
+      <c r="I100" s="4" t="s">
         <v>239</v>
       </c>
     </row>
@@ -7077,28 +7112,28 @@
       <c r="A101" t="s">
         <v>254</v>
       </c>
-      <c r="B101" s="5">
+      <c r="B101" s="4">
         <v>9.3842999999999996</v>
       </c>
-      <c r="C101" s="5">
+      <c r="C101" s="4">
         <v>0.74550000000000005</v>
       </c>
-      <c r="D101" s="5">
+      <c r="D101" s="4">
         <v>16.964400000000001</v>
       </c>
-      <c r="E101" s="5">
+      <c r="E101" s="4">
         <v>0.84230000000000005</v>
       </c>
-      <c r="F101" s="5" t="s">
+      <c r="F101" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G101" s="5" t="s">
+      <c r="G101" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="H101" s="5">
+      <c r="H101" s="4">
         <v>0.40139999999999998</v>
       </c>
-      <c r="I101" s="5">
+      <c r="I101" s="4">
         <v>0.36030000000000001</v>
       </c>
     </row>
@@ -7106,28 +7141,28 @@
       <c r="A102" t="s">
         <v>255</v>
       </c>
-      <c r="B102" s="5">
+      <c r="B102" s="4">
         <v>8.9859000000000009</v>
       </c>
-      <c r="C102" s="5">
+      <c r="C102" s="4">
         <v>0.74060000000000004</v>
       </c>
-      <c r="D102" s="5">
+      <c r="D102" s="4">
         <v>16.714099999999998</v>
       </c>
-      <c r="E102" s="5">
+      <c r="E102" s="4">
         <v>0.83799999999999997</v>
       </c>
-      <c r="F102" s="5" t="s">
+      <c r="F102" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G102" s="5" t="s">
+      <c r="G102" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="H102" s="5">
+      <c r="H102" s="4">
         <v>0.42730000000000001</v>
       </c>
-      <c r="I102" s="5">
+      <c r="I102" s="4">
         <v>0.36409999999999998</v>
       </c>
     </row>
@@ -7135,28 +7170,28 @@
       <c r="A103" t="s">
         <v>256</v>
       </c>
-      <c r="B103" s="5">
+      <c r="B103" s="4">
         <v>8.9672999999999998</v>
       </c>
-      <c r="C103" s="5">
+      <c r="C103" s="4">
         <v>0.76060000000000005</v>
       </c>
-      <c r="D103" s="5">
+      <c r="D103" s="4">
         <v>16.284600000000001</v>
       </c>
-      <c r="E103" s="5">
+      <c r="E103" s="4">
         <v>0.82909999999999995</v>
       </c>
-      <c r="F103" s="5" t="s">
+      <c r="F103" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G103" s="5" t="s">
+      <c r="G103" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="H103" s="5">
+      <c r="H103" s="4">
         <v>0.28539999999999999</v>
       </c>
-      <c r="I103" s="5">
+      <c r="I103" s="4">
         <v>0.3604</v>
       </c>
     </row>
@@ -7164,28 +7199,28 @@
       <c r="A104" t="s">
         <v>257</v>
       </c>
-      <c r="B104" s="5">
+      <c r="B104" s="4">
         <v>9.3919999999999995</v>
       </c>
-      <c r="C104" s="5">
+      <c r="C104" s="4">
         <v>0.76900000000000002</v>
       </c>
-      <c r="D104" s="5">
+      <c r="D104" s="4">
         <v>16.539300000000001</v>
       </c>
-      <c r="E104" s="5">
+      <c r="E104" s="4">
         <v>0.82920000000000005</v>
       </c>
-      <c r="F104" s="5" t="s">
+      <c r="F104" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G104" s="5" t="s">
+      <c r="G104" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="H104" s="5">
+      <c r="H104" s="4">
         <v>0.37859999999999999</v>
       </c>
-      <c r="I104" s="5">
+      <c r="I104" s="4">
         <v>0.37090000000000001</v>
       </c>
     </row>
@@ -7218,28 +7253,28 @@
       <c r="A110" t="s">
         <v>263</v>
       </c>
-      <c r="B110" s="5">
+      <c r="B110" s="4">
         <v>6.7404999999999999</v>
       </c>
-      <c r="C110" s="5">
+      <c r="C110" s="4">
         <v>0.69930000000000003</v>
       </c>
-      <c r="D110" s="5">
+      <c r="D110" s="4">
         <v>5.0427999999999997</v>
       </c>
-      <c r="E110" s="5">
+      <c r="E110" s="4">
         <v>0.71709999999999996</v>
       </c>
-      <c r="F110" s="5">
+      <c r="F110" s="4">
         <v>8.2502999999999993</v>
       </c>
-      <c r="G110" s="5">
+      <c r="G110" s="4">
         <v>0.79500000000000004</v>
       </c>
-      <c r="H110" s="5">
+      <c r="H110" s="4">
         <v>8.0488999999999997</v>
       </c>
-      <c r="I110" s="5">
+      <c r="I110" s="4">
         <v>0.69630000000000003</v>
       </c>
     </row>
@@ -7247,28 +7282,28 @@
       <c r="A111" t="s">
         <v>264</v>
       </c>
-      <c r="B111" s="5">
+      <c r="B111" s="4">
         <v>6.6121999999999996</v>
       </c>
-      <c r="C111" s="5">
+      <c r="C111" s="4">
         <v>0.68969999999999998</v>
       </c>
-      <c r="D111" s="5">
+      <c r="D111" s="4">
         <v>5.0229999999999997</v>
       </c>
-      <c r="E111" s="5">
+      <c r="E111" s="4">
         <v>0.71699999999999997</v>
       </c>
-      <c r="F111" s="5">
+      <c r="F111" s="4">
         <v>8.2594999999999992</v>
       </c>
-      <c r="G111" s="5">
+      <c r="G111" s="4">
         <v>0.79459999999999997</v>
       </c>
-      <c r="H111" s="5">
+      <c r="H111" s="4">
         <v>8.4208999999999996</v>
       </c>
-      <c r="I111" s="5">
+      <c r="I111" s="4">
         <v>0.69979999999999998</v>
       </c>
     </row>
@@ -7276,28 +7311,28 @@
       <c r="A112" t="s">
         <v>265</v>
       </c>
-      <c r="B112" s="5">
+      <c r="B112" s="4">
         <v>6.5452000000000004</v>
       </c>
-      <c r="C112" s="5">
+      <c r="C112" s="4">
         <v>0.69310000000000005</v>
       </c>
-      <c r="D112" s="5">
+      <c r="D112" s="4">
         <v>5.024</v>
       </c>
-      <c r="E112" s="5">
+      <c r="E112" s="4">
         <v>0.71660000000000001</v>
       </c>
-      <c r="F112" s="5">
+      <c r="F112" s="4">
         <v>8.2629000000000001</v>
       </c>
-      <c r="G112" s="5">
+      <c r="G112" s="4">
         <v>0.79459999999999997</v>
       </c>
-      <c r="H112" s="5">
+      <c r="H112" s="4">
         <v>8.5642999999999994</v>
       </c>
-      <c r="I112" s="5">
+      <c r="I112" s="4">
         <v>0.69399999999999995</v>
       </c>
     </row>
@@ -7305,28 +7340,28 @@
       <c r="A113" t="s">
         <v>266</v>
       </c>
-      <c r="B113" s="5">
+      <c r="B113" s="4">
         <v>6.2382999999999997</v>
       </c>
-      <c r="C113" s="5">
+      <c r="C113" s="4">
         <v>0.68959999999999999</v>
       </c>
-      <c r="D113" s="5">
+      <c r="D113" s="4">
         <v>5.1341999999999999</v>
       </c>
-      <c r="E113" s="5">
+      <c r="E113" s="4">
         <v>0.71589999999999998</v>
       </c>
-      <c r="F113" s="5">
+      <c r="F113" s="4">
         <v>8.2456999999999994</v>
       </c>
-      <c r="G113" s="5">
+      <c r="G113" s="4">
         <v>0.7944</v>
       </c>
-      <c r="H113" s="5">
+      <c r="H113" s="4">
         <v>8.9441000000000006</v>
       </c>
-      <c r="I113" s="5">
+      <c r="I113" s="4">
         <v>0.68779999999999997</v>
       </c>
     </row>
@@ -7334,28 +7369,28 @@
       <c r="A114" t="s">
         <v>267</v>
       </c>
-      <c r="B114" s="5">
+      <c r="B114" s="4">
         <v>6.3914</v>
       </c>
-      <c r="C114" s="5">
+      <c r="C114" s="4">
         <v>0.68620000000000003</v>
       </c>
-      <c r="D114" s="5">
+      <c r="D114" s="4">
         <v>5.0271999999999997</v>
       </c>
-      <c r="E114" s="5">
+      <c r="E114" s="4">
         <v>0.71699999999999997</v>
       </c>
-      <c r="F114" s="5">
+      <c r="F114" s="4">
         <v>8.2505000000000006</v>
       </c>
-      <c r="G114" s="5">
+      <c r="G114" s="4">
         <v>0.79500000000000004</v>
       </c>
-      <c r="H114" s="5">
+      <c r="H114" s="4">
         <v>8.7640999999999991</v>
       </c>
-      <c r="I114" s="5">
+      <c r="I114" s="4">
         <v>0.69830000000000003</v>
       </c>
     </row>
@@ -7383,28 +7418,28 @@
       <c r="A119" t="s">
         <v>272</v>
       </c>
-      <c r="B119" s="5">
+      <c r="B119" s="4">
         <v>0.24560000000000001</v>
       </c>
-      <c r="C119" s="5">
+      <c r="C119" s="4">
         <v>0.43730000000000002</v>
       </c>
-      <c r="D119" s="5">
+      <c r="D119" s="4">
         <v>5.1368999999999998</v>
       </c>
-      <c r="E119" s="5">
+      <c r="E119" s="4">
         <v>0.70840000000000003</v>
       </c>
-      <c r="F119" s="5">
+      <c r="F119" s="4">
         <v>5.3209</v>
       </c>
-      <c r="G119" s="5">
+      <c r="G119" s="4">
         <v>0.65559999999999996</v>
       </c>
-      <c r="H119" s="5">
+      <c r="H119" s="4">
         <v>21.341999999999999</v>
       </c>
-      <c r="I119" s="5">
+      <c r="I119" s="4">
         <v>0.80700000000000005</v>
       </c>
     </row>
@@ -7412,28 +7447,28 @@
       <c r="A120" t="s">
         <v>273</v>
       </c>
-      <c r="B120" s="5">
+      <c r="B120" s="4">
         <v>3.5700000000000003E-2</v>
       </c>
-      <c r="C120" s="5">
+      <c r="C120" s="4">
         <v>0.44159999999999999</v>
       </c>
-      <c r="D120" s="5">
+      <c r="D120" s="4">
         <v>5.1872999999999996</v>
       </c>
-      <c r="E120" s="5">
+      <c r="E120" s="4">
         <v>0.7046</v>
       </c>
-      <c r="F120" s="5">
+      <c r="F120" s="4">
         <v>7.1237000000000004</v>
       </c>
-      <c r="G120" s="5">
+      <c r="G120" s="4">
         <v>0.6673</v>
       </c>
-      <c r="H120" s="5">
+      <c r="H120" s="4">
         <v>21.382100000000001</v>
       </c>
-      <c r="I120" s="5">
+      <c r="I120" s="4">
         <v>0.80720000000000003</v>
       </c>
     </row>
@@ -7441,28 +7476,28 @@
       <c r="A121" t="s">
         <v>274</v>
       </c>
-      <c r="B121" s="5">
+      <c r="B121" s="4">
         <v>7.9055999999999997</v>
       </c>
-      <c r="C121" s="5">
+      <c r="C121" s="4">
         <v>0.68210000000000004</v>
       </c>
-      <c r="D121" s="5">
+      <c r="D121" s="4">
         <v>5.3552</v>
       </c>
-      <c r="E121" s="5">
+      <c r="E121" s="4">
         <v>0.70650000000000002</v>
       </c>
-      <c r="F121" s="5">
+      <c r="F121" s="4">
         <v>7.1981000000000002</v>
       </c>
-      <c r="G121" s="5">
+      <c r="G121" s="4">
         <v>0.69130000000000003</v>
       </c>
-      <c r="H121" s="5">
+      <c r="H121" s="4">
         <v>8.0478000000000005</v>
       </c>
-      <c r="I121" s="5">
+      <c r="I121" s="4">
         <v>0.70440000000000003</v>
       </c>
     </row>
@@ -7470,28 +7505,28 @@
       <c r="A122" t="s">
         <v>275</v>
       </c>
-      <c r="B122" s="5">
+      <c r="B122" s="4">
         <v>6.7659000000000002</v>
       </c>
-      <c r="C122" s="5">
+      <c r="C122" s="4">
         <v>0.70820000000000005</v>
       </c>
-      <c r="D122" s="5">
+      <c r="D122" s="4">
         <v>5.0831999999999997</v>
       </c>
-      <c r="E122" s="5">
+      <c r="E122" s="4">
         <v>0.7137</v>
       </c>
-      <c r="F122" s="5">
+      <c r="F122" s="4">
         <v>8.7264999999999997</v>
       </c>
-      <c r="G122" s="5">
+      <c r="G122" s="4">
         <v>0.74760000000000004</v>
       </c>
-      <c r="H122" s="5">
+      <c r="H122" s="4">
         <v>8.4515999999999991</v>
       </c>
-      <c r="I122" s="5">
+      <c r="I122" s="4">
         <v>0.72860000000000003</v>
       </c>
     </row>
@@ -7499,28 +7534,28 @@
       <c r="A123" t="s">
         <v>276</v>
       </c>
-      <c r="B123" s="5">
+      <c r="B123" s="4">
         <v>7.6052</v>
       </c>
-      <c r="C123" s="5">
+      <c r="C123" s="4">
         <v>0.73899999999999999</v>
       </c>
-      <c r="D123" s="5">
+      <c r="D123" s="4">
         <v>5.5294999999999996</v>
       </c>
-      <c r="E123" s="5">
+      <c r="E123" s="4">
         <v>0.71240000000000003</v>
       </c>
-      <c r="F123" s="5">
+      <c r="F123" s="4">
         <v>8.3658999999999999</v>
       </c>
-      <c r="G123" s="5">
+      <c r="G123" s="4">
         <v>0.7893</v>
       </c>
-      <c r="H123" s="5">
+      <c r="H123" s="4">
         <v>7.9513999999999996</v>
       </c>
-      <c r="I123" s="5">
+      <c r="I123" s="4">
         <v>0.7339</v>
       </c>
     </row>
@@ -7528,28 +7563,28 @@
       <c r="A124" t="s">
         <v>277</v>
       </c>
-      <c r="B124" s="5">
+      <c r="B124" s="4">
         <v>7.6242999999999999</v>
       </c>
-      <c r="C124" s="5">
+      <c r="C124" s="4">
         <v>0.74360000000000004</v>
       </c>
-      <c r="D124" s="5">
+      <c r="D124" s="4">
         <v>5.0567000000000002</v>
       </c>
-      <c r="E124" s="5">
+      <c r="E124" s="4">
         <v>0.71640000000000004</v>
       </c>
-      <c r="F124" s="5">
+      <c r="F124" s="4">
         <v>8.3447999999999993</v>
       </c>
-      <c r="G124" s="5">
+      <c r="G124" s="4">
         <v>0.77359999999999995</v>
       </c>
-      <c r="H124" s="5">
+      <c r="H124" s="4">
         <v>7.4417</v>
       </c>
-      <c r="I124" s="5">
+      <c r="I124" s="4">
         <v>0.73180000000000001</v>
       </c>
     </row>
@@ -7557,28 +7592,28 @@
       <c r="A125" t="s">
         <v>278</v>
       </c>
-      <c r="B125" s="5">
+      <c r="B125" s="4">
         <v>7.1280999999999999</v>
       </c>
-      <c r="C125" s="5">
+      <c r="C125" s="4">
         <v>0.71419999999999995</v>
       </c>
-      <c r="D125" s="5">
+      <c r="D125" s="4">
         <v>5.8597000000000001</v>
       </c>
-      <c r="E125" s="5">
+      <c r="E125" s="4">
         <v>0.70760000000000001</v>
       </c>
-      <c r="F125" s="5">
+      <c r="F125" s="4">
         <v>8.3264999999999993</v>
       </c>
-      <c r="G125" s="5">
+      <c r="G125" s="4">
         <v>0.78639999999999999</v>
       </c>
-      <c r="H125" s="5">
+      <c r="H125" s="4">
         <v>7.8193999999999999</v>
       </c>
-      <c r="I125" s="5">
+      <c r="I125" s="4">
         <v>0.7248</v>
       </c>
     </row>
@@ -7586,28 +7621,28 @@
       <c r="A126" t="s">
         <v>279</v>
       </c>
-      <c r="B126" s="5">
+      <c r="B126" s="4">
         <v>8.5076000000000001</v>
       </c>
-      <c r="C126" s="5">
+      <c r="C126" s="4">
         <v>0.72760000000000002</v>
       </c>
-      <c r="D126" s="5">
+      <c r="D126" s="4">
         <v>5.7675999999999998</v>
       </c>
-      <c r="E126" s="5">
+      <c r="E126" s="4">
         <v>0.70850000000000002</v>
       </c>
-      <c r="F126" s="5">
+      <c r="F126" s="4">
         <v>8.3396000000000008</v>
       </c>
-      <c r="G126" s="5">
+      <c r="G126" s="4">
         <v>0.78539999999999999</v>
       </c>
-      <c r="H126" s="5">
+      <c r="H126" s="4">
         <v>7.3005000000000004</v>
       </c>
-      <c r="I126" s="5">
+      <c r="I126" s="4">
         <v>0.71399999999999997</v>
       </c>
     </row>
@@ -7615,28 +7650,28 @@
       <c r="A127" t="s">
         <v>280</v>
       </c>
-      <c r="B127" s="5">
+      <c r="B127" s="4">
         <v>7.4492000000000003</v>
       </c>
-      <c r="C127" s="5">
+      <c r="C127" s="4">
         <v>0.74939999999999996</v>
       </c>
-      <c r="D127" s="5">
+      <c r="D127" s="4">
         <v>6.4941000000000004</v>
       </c>
-      <c r="E127" s="5">
+      <c r="E127" s="4">
         <v>0.69420000000000004</v>
       </c>
-      <c r="F127" s="5">
+      <c r="F127" s="4">
         <v>8.2809000000000008</v>
       </c>
-      <c r="G127" s="5">
+      <c r="G127" s="4">
         <v>0.78920000000000001</v>
       </c>
-      <c r="H127" s="5">
+      <c r="H127" s="4">
         <v>9.4238999999999997</v>
       </c>
-      <c r="I127" s="5">
+      <c r="I127" s="4">
         <v>0.74439999999999995</v>
       </c>
     </row>
@@ -7644,28 +7679,28 @@
       <c r="A128" t="s">
         <v>281</v>
       </c>
-      <c r="B128" s="5">
+      <c r="B128" s="4">
         <v>7.2042000000000002</v>
       </c>
-      <c r="C128" s="5">
+      <c r="C128" s="4">
         <v>0.72440000000000004</v>
       </c>
-      <c r="D128" s="5">
+      <c r="D128" s="4">
         <v>6.5205000000000002</v>
       </c>
-      <c r="E128" s="5">
+      <c r="E128" s="4">
         <v>0.68740000000000001</v>
       </c>
-      <c r="F128" s="5">
+      <c r="F128" s="4">
         <v>8.2537000000000003</v>
       </c>
-      <c r="G128" s="5">
+      <c r="G128" s="4">
         <v>0.79479999999999995</v>
       </c>
-      <c r="H128" s="5">
+      <c r="H128" s="4">
         <v>9.3017000000000003</v>
       </c>
-      <c r="I128" s="5">
+      <c r="I128" s="4">
         <v>0.73440000000000005</v>
       </c>
     </row>
@@ -7718,28 +7753,28 @@
       <c r="A138" t="s">
         <v>291</v>
       </c>
-      <c r="B138" s="5">
+      <c r="B138" s="4">
         <v>2.2119</v>
       </c>
-      <c r="C138" s="5">
+      <c r="C138" s="4">
         <v>0.45219999999999999</v>
       </c>
-      <c r="D138" s="5">
+      <c r="D138" s="4">
         <v>11.7043</v>
       </c>
-      <c r="E138" s="5">
+      <c r="E138" s="4">
         <v>0.78639999999999999</v>
       </c>
-      <c r="F138" s="5">
+      <c r="F138" s="4">
         <v>10.003399999999999</v>
       </c>
-      <c r="G138" s="5">
+      <c r="G138" s="4">
         <v>0.73909999999999998</v>
       </c>
-      <c r="H138" s="5">
+      <c r="H138" s="4">
         <v>19.075600000000001</v>
       </c>
-      <c r="I138" s="5">
+      <c r="I138" s="4">
         <v>0.84370000000000001</v>
       </c>
     </row>
@@ -7747,28 +7782,28 @@
       <c r="A139" t="s">
         <v>292</v>
       </c>
-      <c r="B139" s="5">
+      <c r="B139" s="4">
         <v>2.0442</v>
       </c>
-      <c r="C139" s="5">
+      <c r="C139" s="4">
         <v>0.43580000000000002</v>
       </c>
-      <c r="D139" s="5">
+      <c r="D139" s="4">
         <v>9.8590999999999998</v>
       </c>
-      <c r="E139" s="5">
+      <c r="E139" s="4">
         <v>0.76329999999999998</v>
       </c>
-      <c r="F139" s="5">
+      <c r="F139" s="4">
         <v>9.4217999999999993</v>
       </c>
-      <c r="G139" s="5">
+      <c r="G139" s="4">
         <v>0.75239999999999996</v>
       </c>
-      <c r="H139" s="5">
+      <c r="H139" s="4">
         <v>20.434699999999999</v>
       </c>
-      <c r="I139" s="5">
+      <c r="I139" s="4">
         <v>0.84889999999999999</v>
       </c>
     </row>
@@ -7776,28 +7811,28 @@
       <c r="A140" t="s">
         <v>293</v>
       </c>
-      <c r="B140" s="5">
+      <c r="B140" s="4">
         <v>1.9152</v>
       </c>
-      <c r="C140" s="5">
+      <c r="C140" s="4">
         <v>0.44900000000000001</v>
       </c>
-      <c r="D140" s="5">
+      <c r="D140" s="4">
         <v>10.8348</v>
       </c>
-      <c r="E140" s="5">
+      <c r="E140" s="4">
         <v>0.75790000000000002</v>
       </c>
-      <c r="F140" s="5">
+      <c r="F140" s="4">
         <v>7.3288000000000002</v>
       </c>
-      <c r="G140" s="5">
+      <c r="G140" s="4">
         <v>0.70240000000000002</v>
       </c>
-      <c r="H140" s="5">
+      <c r="H140" s="4">
         <v>21.334199999999999</v>
       </c>
-      <c r="I140" s="5">
+      <c r="I140" s="4">
         <v>0.85250000000000004</v>
       </c>
     </row>
@@ -7815,28 +7850,28 @@
       <c r="A143" t="s">
         <v>296</v>
       </c>
-      <c r="B143" s="5">
+      <c r="B143" s="4">
         <v>3.8460999999999999</v>
       </c>
-      <c r="C143" s="5">
+      <c r="C143" s="4">
         <v>0.49370000000000003</v>
       </c>
-      <c r="D143" s="5">
+      <c r="D143" s="4">
         <v>8.2193000000000005</v>
       </c>
-      <c r="E143" s="5">
+      <c r="E143" s="4">
         <v>0.745</v>
       </c>
-      <c r="F143" s="5">
+      <c r="F143" s="4">
         <v>8.7405000000000008</v>
       </c>
-      <c r="G143" s="5">
+      <c r="G143" s="4">
         <v>0.74939999999999996</v>
       </c>
-      <c r="H143" s="5">
+      <c r="H143" s="4">
         <v>12.873900000000001</v>
       </c>
-      <c r="I143" s="5">
+      <c r="I143" s="4">
         <v>0.82050000000000001</v>
       </c>
     </row>
@@ -7844,28 +7879,28 @@
       <c r="A144" t="s">
         <v>297</v>
       </c>
-      <c r="B144" s="5">
+      <c r="B144" s="4">
         <v>1.5946</v>
       </c>
-      <c r="C144" s="5">
+      <c r="C144" s="4">
         <v>0.4128</v>
       </c>
-      <c r="D144" s="5">
+      <c r="D144" s="4">
         <v>11.2615</v>
       </c>
-      <c r="E144" s="5">
+      <c r="E144" s="4">
         <v>0.76119999999999999</v>
       </c>
-      <c r="F144" s="5">
+      <c r="F144" s="4">
         <v>6.7515999999999998</v>
       </c>
-      <c r="G144" s="5">
+      <c r="G144" s="4">
         <v>0.69799999999999995</v>
       </c>
-      <c r="H144" s="5">
+      <c r="H144" s="4">
         <v>22.429500000000001</v>
       </c>
-      <c r="I144" s="5">
+      <c r="I144" s="4">
         <v>0.86070000000000002</v>
       </c>
     </row>
@@ -7873,28 +7908,28 @@
       <c r="A145" t="s">
         <v>298</v>
       </c>
-      <c r="B145" s="5">
+      <c r="B145" s="4">
         <v>5.1123000000000003</v>
       </c>
-      <c r="C145" s="5">
+      <c r="C145" s="4">
         <v>0.53810000000000002</v>
       </c>
-      <c r="D145" s="5">
+      <c r="D145" s="4">
         <v>8.0005000000000006</v>
       </c>
-      <c r="E145" s="5">
+      <c r="E145" s="4">
         <v>0.74729999999999996</v>
       </c>
-      <c r="F145" s="5">
+      <c r="F145" s="4">
         <v>9.5096000000000007</v>
       </c>
-      <c r="G145" s="5">
+      <c r="G145" s="4">
         <v>0.75890000000000002</v>
       </c>
-      <c r="H145" s="5">
+      <c r="H145" s="4">
         <v>9.8846000000000007</v>
       </c>
-      <c r="I145" s="5">
+      <c r="I145" s="4">
         <v>0.78669999999999995</v>
       </c>
     </row>
@@ -7902,28 +7937,28 @@
       <c r="A146" t="s">
         <v>299</v>
       </c>
-      <c r="B146" s="5">
+      <c r="B146" s="4">
         <v>2.6859000000000002</v>
       </c>
-      <c r="C146" s="5">
+      <c r="C146" s="4">
         <v>0.44280000000000003</v>
       </c>
-      <c r="D146" s="5">
+      <c r="D146" s="4">
         <v>8.7957999999999998</v>
       </c>
-      <c r="E146" s="5">
+      <c r="E146" s="4">
         <v>0.74729999999999996</v>
       </c>
-      <c r="F146" s="5">
+      <c r="F146" s="4">
         <v>7.0956000000000001</v>
       </c>
-      <c r="G146" s="5">
+      <c r="G146" s="4">
         <v>0.70779999999999998</v>
       </c>
-      <c r="H146" s="5">
+      <c r="H146" s="4">
         <v>20.868200000000002</v>
       </c>
-      <c r="I146" s="5">
+      <c r="I146" s="4">
         <v>0.85940000000000005</v>
       </c>
     </row>
@@ -7946,28 +7981,28 @@
       <c r="A150" t="s">
         <v>303</v>
       </c>
-      <c r="B150" s="5">
+      <c r="B150" s="4">
         <v>1.9372</v>
       </c>
-      <c r="C150" s="5">
+      <c r="C150" s="4">
         <v>0.4204</v>
       </c>
-      <c r="D150" s="5">
+      <c r="D150" s="4">
         <v>9.3110999999999997</v>
       </c>
-      <c r="E150" s="5">
+      <c r="E150" s="4">
         <v>0.74829999999999997</v>
       </c>
-      <c r="F150" s="5">
+      <c r="F150" s="4">
         <v>10.152200000000001</v>
       </c>
-      <c r="G150" s="5">
+      <c r="G150" s="4">
         <v>0.76229999999999998</v>
       </c>
-      <c r="H150" s="5">
+      <c r="H150" s="4">
         <v>19.87</v>
       </c>
-      <c r="I150" s="5">
+      <c r="I150" s="4">
         <v>0.85070000000000001</v>
       </c>
     </row>
@@ -7975,28 +8010,28 @@
       <c r="A151" t="s">
         <v>304</v>
       </c>
-      <c r="B151" s="5">
+      <c r="B151" s="4">
         <v>1.7078</v>
       </c>
-      <c r="C151" s="5">
+      <c r="C151" s="4">
         <v>0.3997</v>
       </c>
-      <c r="D151" s="5">
+      <c r="D151" s="4">
         <v>9.3661999999999992</v>
       </c>
-      <c r="E151" s="5">
+      <c r="E151" s="4">
         <v>0.74339999999999995</v>
       </c>
-      <c r="F151" s="5">
+      <c r="F151" s="4">
         <v>9.5230200000000007</v>
       </c>
-      <c r="G151" s="5">
+      <c r="G151" s="4">
         <v>0.73019999999999996</v>
       </c>
-      <c r="H151" s="5">
+      <c r="H151" s="4">
         <v>20.1951</v>
       </c>
-      <c r="I151" s="5">
+      <c r="I151" s="4">
         <v>0.85670000000000002</v>
       </c>
     </row>
@@ -8004,28 +8039,28 @@
       <c r="A152" t="s">
         <v>305</v>
       </c>
-      <c r="B152" s="5">
+      <c r="B152" s="4">
         <v>3.9462999999999999</v>
       </c>
-      <c r="C152" s="5">
+      <c r="C152" s="4">
         <v>0.48580000000000001</v>
       </c>
-      <c r="D152" s="5">
+      <c r="D152" s="4">
         <v>11.039</v>
       </c>
-      <c r="E152" s="5">
+      <c r="E152" s="4">
         <v>0.7631</v>
       </c>
-      <c r="F152" s="5">
+      <c r="F152" s="4">
         <v>10.1381</v>
       </c>
-      <c r="G152" s="5">
+      <c r="G152" s="4">
         <v>0.75229999999999997</v>
       </c>
-      <c r="H152" s="5">
+      <c r="H152" s="4">
         <v>17.433399999999999</v>
       </c>
-      <c r="I152" s="5">
+      <c r="I152" s="4">
         <v>0.84250000000000003</v>
       </c>
     </row>
@@ -8033,28 +8068,28 @@
       <c r="A153" t="s">
         <v>306</v>
       </c>
-      <c r="B153" s="5">
+      <c r="B153" s="4">
         <v>1.6379999999999999</v>
       </c>
-      <c r="C153" s="5">
+      <c r="C153" s="4">
         <v>0.40110000000000001</v>
       </c>
-      <c r="D153" s="5">
+      <c r="D153" s="4">
         <v>9.5244</v>
       </c>
-      <c r="E153" s="5">
+      <c r="E153" s="4">
         <v>0.74839999999999995</v>
       </c>
-      <c r="F153" s="5">
+      <c r="F153" s="4">
         <v>8.6258999999999997</v>
       </c>
-      <c r="G153" s="5">
+      <c r="G153" s="4">
         <v>0.72109999999999996</v>
       </c>
-      <c r="H153" s="5">
+      <c r="H153" s="4">
         <v>21.238600000000002</v>
       </c>
-      <c r="I153" s="5">
+      <c r="I153" s="4">
         <v>0.86070000000000002</v>
       </c>
     </row>
@@ -8062,28 +8097,28 @@
       <c r="A154" t="s">
         <v>307</v>
       </c>
-      <c r="B154" s="5">
+      <c r="B154" s="4">
         <v>1.5585</v>
       </c>
-      <c r="C154" s="5">
+      <c r="C154" s="4">
         <v>0.39539999999999997</v>
       </c>
-      <c r="D154" s="5">
+      <c r="D154" s="4">
         <v>9.8866999999999994</v>
       </c>
-      <c r="E154" s="5">
+      <c r="E154" s="4">
         <v>0.75209999999999999</v>
       </c>
-      <c r="F154" s="5">
+      <c r="F154" s="4">
         <v>9.8689999999999998</v>
       </c>
-      <c r="G154" s="5">
+      <c r="G154" s="4">
         <v>0.76280000000000003</v>
       </c>
-      <c r="H154" s="5">
+      <c r="H154" s="4">
         <v>21.715</v>
       </c>
-      <c r="I154" s="5">
+      <c r="I154" s="4">
         <v>0.8548</v>
       </c>
     </row>
@@ -8091,29 +8126,147 @@
       <c r="A155" t="s">
         <v>308</v>
       </c>
-      <c r="B155" s="5">
+      <c r="B155" s="4">
         <v>1.6812</v>
       </c>
-      <c r="C155" s="5">
+      <c r="C155" s="4">
         <v>0.40960000000000002</v>
       </c>
-      <c r="D155" s="5">
+      <c r="D155" s="4">
         <v>8.8186999999999998</v>
       </c>
-      <c r="E155" s="5">
+      <c r="E155" s="4">
         <v>0.74119999999999997</v>
       </c>
-      <c r="F155" s="5">
+      <c r="F155" s="4">
         <v>7.7999000000000001</v>
       </c>
-      <c r="G155" s="5">
+      <c r="G155" s="4">
         <v>0.71120000000000005</v>
       </c>
-      <c r="H155" s="5">
+      <c r="H155" s="4">
         <v>19.483499999999999</v>
       </c>
-      <c r="I155" s="5">
+      <c r="I155" s="4">
         <v>0.85550000000000004</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>309</v>
+      </c>
+      <c r="B156" s="4">
+        <v>10.895099999999999</v>
+      </c>
+      <c r="C156" s="4">
+        <v>0.7671</v>
+      </c>
+      <c r="D156" s="4">
+        <v>8.3892000000000007</v>
+      </c>
+      <c r="E156" s="4">
+        <v>0.73560000000000003</v>
+      </c>
+      <c r="F156" s="4">
+        <v>8.9345999999999997</v>
+      </c>
+      <c r="G156" s="4">
+        <v>0.72909999999999997</v>
+      </c>
+      <c r="H156" s="4">
+        <v>8.9336000000000002</v>
+      </c>
+      <c r="I156" s="4">
+        <v>0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>310</v>
+      </c>
+      <c r="B157" s="4">
+        <v>11.097</v>
+      </c>
+      <c r="C157" s="4">
+        <v>0.78390000000000004</v>
+      </c>
+      <c r="D157" s="4">
+        <v>9.2818000000000005</v>
+      </c>
+      <c r="E157" s="4">
+        <v>0.74360000000000004</v>
+      </c>
+      <c r="F157" s="4">
+        <v>7.3507999999999996</v>
+      </c>
+      <c r="G157" s="4">
+        <v>0.67659999999999998</v>
+      </c>
+      <c r="H157" s="4">
+        <v>10.258100000000001</v>
+      </c>
+      <c r="I157" s="4">
+        <v>0.72789999999999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -8237,88 +8390,88 @@
       <c r="AI2" s="1"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="S3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="T3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="V3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="W3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="10" t="s">
+      <c r="X3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="Y3" s="10" t="s">
+      <c r="Y3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="AA3" s="8" t="s">
+      <c r="AA3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AB3" s="8" t="s">
+      <c r="AB3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="AC3" s="10" t="s">
+      <c r="AC3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="AD3" s="10" t="s">
+      <c r="AD3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="AF3" s="8" t="s">
+      <c r="AF3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AG3" s="8" t="s">
+      <c r="AG3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="AH3" s="10" t="s">
+      <c r="AH3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="AI3" s="10" t="s">
+      <c r="AI3" s="8" t="s">
         <v>1</v>
       </c>
     </row>
@@ -8326,88 +8479,88 @@
       <c r="A4" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>7.4066000000000001</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>0.63539999999999996</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>10.474399999999999</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>0.65310000000000001</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>10.6031</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>0.66990000000000005</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>10.6135</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>0.62450000000000006</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <v>7.4286000000000003</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <v>0.67910000000000004</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="4">
         <v>8.6626999999999992</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="4">
         <v>0.63470000000000004</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="4">
         <v>9.0976999999999997</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="4">
         <v>0.66410000000000002</v>
       </c>
-      <c r="S4" s="5">
+      <c r="S4" s="4">
         <v>8.5055999999999994</v>
       </c>
-      <c r="T4" s="5">
+      <c r="T4" s="4">
         <v>0.65149999999999997</v>
       </c>
-      <c r="V4" s="5">
+      <c r="V4" s="4">
         <v>10.119899999999999</v>
       </c>
-      <c r="W4" s="5">
+      <c r="W4" s="4">
         <v>0.69669999999999999</v>
       </c>
-      <c r="X4" s="5">
+      <c r="X4" s="4">
         <v>13.149800000000001</v>
       </c>
-      <c r="Y4" s="5">
+      <c r="Y4" s="4">
         <v>0.61729999999999996</v>
       </c>
-      <c r="AA4" s="5">
+      <c r="AA4" s="4">
         <v>9.9131999999999998</v>
       </c>
-      <c r="AB4" s="5">
+      <c r="AB4" s="4">
         <v>0.68410000000000004</v>
       </c>
-      <c r="AC4" s="5">
+      <c r="AC4" s="4">
         <v>9.2276000000000007</v>
       </c>
-      <c r="AD4" s="5">
+      <c r="AD4" s="4">
         <v>0.65649999999999997</v>
       </c>
-      <c r="AF4" s="5">
+      <c r="AF4" s="4">
         <v>8.9060000000000006</v>
       </c>
-      <c r="AG4" s="5">
+      <c r="AG4" s="4">
         <v>0.67149999999999999</v>
       </c>
-      <c r="AH4" s="5">
+      <c r="AH4" s="4">
         <v>9.8470999999999993</v>
       </c>
-      <c r="AI4" s="5">
+      <c r="AI4" s="4">
         <v>0.63959999999999995</v>
       </c>
     </row>
@@ -8415,88 +8568,88 @@
       <c r="A5" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>10.702500000000001</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>0.65590000000000004</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>8.8918999999999997</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>0.72040000000000004</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>14.615399999999999</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>0.6603</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>11.255599999999999</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>0.74550000000000005</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <v>17.767099999999999</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <v>0.68689999999999996</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="4">
         <v>14.950100000000001</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="4">
         <v>0.83709999999999996</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="4">
         <v>14.001799999999999</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="4">
         <v>0.66930000000000001</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="4">
         <v>14.4094</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="4">
         <v>0.76580000000000004</v>
       </c>
-      <c r="V5" s="5">
+      <c r="V5" s="4">
         <v>15.747199999999999</v>
       </c>
-      <c r="W5" s="5">
+      <c r="W5" s="4">
         <v>0.66830000000000001</v>
       </c>
-      <c r="X5" s="5">
+      <c r="X5" s="4">
         <v>15.0436</v>
       </c>
-      <c r="Y5" s="5">
+      <c r="Y5" s="4">
         <v>0.81230000000000002</v>
       </c>
-      <c r="AA5" s="5">
+      <c r="AA5" s="4">
         <v>14.087</v>
       </c>
-      <c r="AB5" s="5">
+      <c r="AB5" s="4">
         <v>0.70569999999999999</v>
       </c>
-      <c r="AC5" s="5">
+      <c r="AC5" s="4">
         <v>12.7296</v>
       </c>
-      <c r="AD5" s="5">
+      <c r="AD5" s="4">
         <v>0.72929999999999995</v>
       </c>
-      <c r="AF5" s="5">
+      <c r="AF5" s="4">
         <v>13.9473</v>
       </c>
-      <c r="AG5" s="5">
+      <c r="AG5" s="4">
         <v>0.6744</v>
       </c>
-      <c r="AH5" s="5">
+      <c r="AH5" s="4">
         <v>12.305300000000001</v>
       </c>
-      <c r="AI5" s="5">
+      <c r="AI5" s="4">
         <v>0.76839999999999997</v>
       </c>
     </row>
@@ -8504,88 +8657,88 @@
       <c r="A6" t="s">
         <v>146</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>12.343999999999999</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>0.67900000000000005</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>11.3879</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>0.73309999999999997</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>14.785299999999999</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>0.67159999999999997</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>12.533300000000001</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>0.75609999999999999</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <v>15.989699999999999</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <v>0.69730000000000003</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="4">
         <v>16.459900000000001</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="4">
         <v>0.72019999999999995</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="4">
         <v>15.406700000000001</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="4">
         <v>0.67490000000000006</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="4">
         <v>15.6153</v>
       </c>
-      <c r="T6" s="5">
+      <c r="T6" s="4">
         <v>0.79500000000000004</v>
       </c>
-      <c r="V6" s="5">
+      <c r="V6" s="4">
         <v>15.4777</v>
       </c>
-      <c r="W6" s="5">
+      <c r="W6" s="4">
         <v>0.69140000000000001</v>
       </c>
-      <c r="X6" s="5">
+      <c r="X6" s="4">
         <v>18.6999</v>
       </c>
-      <c r="Y6" s="5">
+      <c r="Y6" s="4">
         <v>0.77480000000000004</v>
       </c>
-      <c r="AA6" s="5">
+      <c r="AA6" s="4">
         <v>14.6221</v>
       </c>
-      <c r="AB6" s="5">
+      <c r="AB6" s="4">
         <v>0.71030000000000004</v>
       </c>
-      <c r="AC6" s="5">
+      <c r="AC6" s="4">
         <v>12.7278</v>
       </c>
-      <c r="AD6" s="5">
+      <c r="AD6" s="4">
         <v>0.74719999999999998</v>
       </c>
-      <c r="AF6" s="5">
+      <c r="AF6" s="4">
         <v>14.5943</v>
       </c>
-      <c r="AG6" s="5">
+      <c r="AG6" s="4">
         <v>0.68740000000000001</v>
       </c>
-      <c r="AH6" s="5">
+      <c r="AH6" s="4">
         <v>13.883800000000001</v>
       </c>
-      <c r="AI6" s="5">
+      <c r="AI6" s="4">
         <v>0.75439999999999996</v>
       </c>
     </row>
@@ -8593,88 +8746,88 @@
       <c r="A7" t="s">
         <v>147</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>19.4085</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>0.87019999999999997</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>13.601800000000001</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>0.82769999999999999</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>18.085000000000001</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>0.84350000000000003</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>14.511100000000001</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>0.79469999999999996</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="4">
         <v>21.516200000000001</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="4">
         <v>0.8821</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="4">
         <v>16.944500000000001</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="4">
         <v>0.8921</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="4">
         <v>18.621300000000002</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7" s="4">
         <v>0.85970000000000002</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="4">
         <v>17.202200000000001</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7" s="4">
         <v>0.80700000000000005</v>
       </c>
-      <c r="V7" s="5">
+      <c r="V7" s="4">
         <v>25.419799999999999</v>
       </c>
-      <c r="W7" s="5">
+      <c r="W7" s="4">
         <v>0.89480000000000004</v>
       </c>
-      <c r="X7" s="5">
+      <c r="X7" s="4">
         <v>22.729099999999999</v>
       </c>
-      <c r="Y7" s="5">
+      <c r="Y7" s="4">
         <v>0.87219999999999998</v>
       </c>
-      <c r="AA7" s="5">
+      <c r="AA7" s="4">
         <v>18.791</v>
       </c>
-      <c r="AB7" s="5">
+      <c r="AB7" s="4">
         <v>0.86499999999999999</v>
       </c>
-      <c r="AC7" s="5">
+      <c r="AC7" s="4">
         <v>14.2422</v>
       </c>
-      <c r="AD7" s="5">
+      <c r="AD7" s="4">
         <v>0.81110000000000004</v>
       </c>
-      <c r="AF7" s="5">
+      <c r="AF7" s="4">
         <v>19.7285</v>
       </c>
-      <c r="AG7" s="5">
+      <c r="AG7" s="4">
         <v>0.86919999999999997</v>
       </c>
-      <c r="AH7" s="5">
+      <c r="AH7" s="4">
         <v>15.706099999999999</v>
       </c>
-      <c r="AI7" s="5">
+      <c r="AI7" s="4">
         <v>0.83409999999999995</v>
       </c>
     </row>
@@ -8682,14 +8835,14 @@
       <c r="A8" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
@@ -8718,46 +8871,46 @@
       <c r="A10" t="s">
         <v>144</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="M10" s="8" t="s">
+      <c r="M10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="Q10" s="8" t="s">
+      <c r="Q10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="R10" s="8" t="s">
+      <c r="R10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="V10" s="8" t="s">
+      <c r="V10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="W10" s="8" t="s">
+      <c r="W10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="AA10" s="8" t="s">
+      <c r="AA10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AB10" s="8" t="s">
+      <c r="AB10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="AF10" s="8" t="s">
+      <c r="AF10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AG10" s="8" t="s">
+      <c r="AG10" s="6" t="s">
         <v>1</v>
       </c>
     </row>
@@ -9007,89 +9160,89 @@
       <c r="AI2" s="1"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="8" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="S3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="T3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="V3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="W3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="10" t="s">
+      <c r="X3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="Y3" s="10" t="s">
+      <c r="Y3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="AA3" s="8" t="s">
+      <c r="AA3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AB3" s="8" t="s">
+      <c r="AB3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="AC3" s="10" t="s">
+      <c r="AC3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="AD3" s="10" t="s">
+      <c r="AD3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="AF3" s="8" t="s">
+      <c r="AF3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AG3" s="8" t="s">
+      <c r="AG3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="AH3" s="10" t="s">
+      <c r="AH3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="AI3" s="10" t="s">
+      <c r="AI3" s="8" t="s">
         <v>1</v>
       </c>
     </row>
@@ -9097,204 +9250,204 @@
       <c r="A4" t="s">
         <v>156</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>6.4029999999999996</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>0.61050000000000004</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4">
         <v>4.8019999999999996</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>0.5867</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="L4" s="5">
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="L4" s="4">
         <v>7.0015000000000001</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <v>0.62019999999999997</v>
       </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="Q4" s="5">
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="Q4" s="4">
         <v>6.6082000000000001</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="4">
         <v>0.62580000000000002</v>
       </c>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="V4" s="5">
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="V4" s="4">
         <v>5.7142999999999997</v>
       </c>
-      <c r="W4" s="5">
+      <c r="W4" s="4">
         <v>0.58720000000000006</v>
       </c>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
       <c r="AA4">
         <v>5.3742999999999999</v>
       </c>
       <c r="AB4">
         <v>0.59399999999999997</v>
       </c>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AF4" s="5">
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AF4" s="4">
         <v>5.9706000000000001</v>
       </c>
-      <c r="AG4" s="5">
+      <c r="AG4" s="4">
         <v>0.60229999999999995</v>
       </c>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>163</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>6.6196000000000002</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>0.66990000000000005</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AG5" s="5"/>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>164</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>6.4764999999999997</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>0.66669999999999996</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>165</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>7.0194999999999999</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>0.66820000000000002</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
-      <c r="AG7" s="5"/>
-      <c r="AH7" s="5"/>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>166</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>6.4603999999999999</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>0.66339999999999999</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>161</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9">
         <v>6.5223000000000004</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>0.64939999999999998</v>
       </c>
       <c r="H9" s="1"/>
@@ -9308,24 +9461,24 @@
       <c r="A10" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="4">
         <v>6.4854000000000003</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="4">
         <v>0.65529999999999999</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="8"/>
-      <c r="AG10" s="8"/>
-      <c r="AH10" s="8"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AG10" s="6"/>
+      <c r="AH10" s="6"/>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>

--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C4DD11-1AC7-4210-A63D-9BB159546517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DE74C9-5180-4578-BC55-F7F336A9DF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -519,7 +519,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="324">
   <si>
     <t>PSNR</t>
   </si>
@@ -1488,6 +1488,9 @@
   </si>
   <si>
     <t>V8.04.18</t>
+  </si>
+  <si>
+    <t>0..7225</t>
   </si>
 </sst>
 </file>
@@ -4458,8 +4461,8 @@
   <dimension ref="A1:I169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D158" sqref="D158"/>
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G168" sqref="G168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8213,58 +8216,298 @@
       <c r="A158" t="s">
         <v>311</v>
       </c>
+      <c r="B158" s="4">
+        <v>8.3999000000000006</v>
+      </c>
+      <c r="C158" s="4">
+        <v>0.7137</v>
+      </c>
+      <c r="D158" s="4">
+        <v>11.4209</v>
+      </c>
+      <c r="E158" s="4">
+        <v>0.69779999999999998</v>
+      </c>
+      <c r="F158" s="4">
+        <v>9.7962000000000007</v>
+      </c>
+      <c r="G158" s="4">
+        <v>0.71120000000000005</v>
+      </c>
+      <c r="H158" s="4">
+        <v>12.8063</v>
+      </c>
+      <c r="I158" s="4">
+        <v>0.69350000000000001</v>
+      </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>312</v>
       </c>
+      <c r="B159" s="4">
+        <v>8.1859000000000002</v>
+      </c>
+      <c r="C159" s="4">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="D159" s="4">
+        <v>10.8262</v>
+      </c>
+      <c r="E159" s="4">
+        <v>0.70309999999999995</v>
+      </c>
+      <c r="F159" s="4">
+        <v>9.8689</v>
+      </c>
+      <c r="G159" s="4">
+        <v>0.72789999999999999</v>
+      </c>
+      <c r="H159" s="4">
+        <v>11.590199999999999</v>
+      </c>
+      <c r="I159" s="4">
+        <v>0.67449999999999999</v>
+      </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B160" s="4">
+        <v>8.3894000000000002</v>
+      </c>
+      <c r="C160" s="4">
+        <v>0.70120000000000005</v>
+      </c>
+      <c r="D160" s="4">
+        <v>9.9245999999999999</v>
+      </c>
+      <c r="E160" s="4">
+        <v>0.72360000000000002</v>
+      </c>
+      <c r="F160" s="4">
+        <v>10.757400000000001</v>
+      </c>
+      <c r="G160" s="4">
+        <v>0.76329999999999998</v>
+      </c>
+      <c r="H160" s="4">
+        <v>10.378299999999999</v>
+      </c>
+      <c r="I160" s="4">
+        <v>0.67769999999999997</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B161" s="4">
+        <v>8.6731999999999996</v>
+      </c>
+      <c r="C161" s="4">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="D161" s="4">
+        <v>10.3765</v>
+      </c>
+      <c r="E161" s="4">
+        <v>0.72189999999999999</v>
+      </c>
+      <c r="F161" s="4">
+        <v>9.9380000000000006</v>
+      </c>
+      <c r="G161" s="4">
+        <v>0.77890000000000004</v>
+      </c>
+      <c r="H161" s="4">
+        <v>9.4748000000000001</v>
+      </c>
+      <c r="I161" s="4">
+        <v>0.66069999999999995</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B162" s="4">
+        <v>8.6710999999999991</v>
+      </c>
+      <c r="C162" s="4">
+        <v>0.70779999999999998</v>
+      </c>
+      <c r="D162" s="4">
+        <v>9.0906000000000002</v>
+      </c>
+      <c r="E162" s="4">
+        <v>0.72460000000000002</v>
+      </c>
+      <c r="F162" s="4">
+        <v>10.180899999999999</v>
+      </c>
+      <c r="G162" s="4">
+        <v>0.77470000000000006</v>
+      </c>
+      <c r="H162" s="4">
+        <v>9.3996999999999993</v>
+      </c>
+      <c r="I162" s="4">
+        <v>0.66649999999999998</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B163" s="4">
+        <v>8.6785999999999994</v>
+      </c>
+      <c r="C163" s="4">
+        <v>0.70679999999999998</v>
+      </c>
+      <c r="D163" s="4">
+        <v>10.5007</v>
+      </c>
+      <c r="E163" s="4">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="F163" s="4">
+        <v>9.7082999999999995</v>
+      </c>
+      <c r="G163" s="4">
+        <v>0.78439999999999999</v>
+      </c>
+      <c r="H163" s="4">
+        <v>10.723699999999999</v>
+      </c>
+      <c r="I163" s="4">
+        <v>0.68320000000000003</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B164" s="4">
+        <v>9.3788999999999998</v>
+      </c>
+      <c r="C164" s="4">
+        <v>0.7198</v>
+      </c>
+      <c r="D164" s="4">
+        <v>9.1791999999999998</v>
+      </c>
+      <c r="E164" s="4">
+        <v>0.72209999999999996</v>
+      </c>
+      <c r="F164" s="4">
+        <v>10.900499999999999</v>
+      </c>
+      <c r="G164" s="4">
+        <v>0.77129999999999999</v>
+      </c>
+      <c r="H164" s="4">
+        <v>10.3504</v>
+      </c>
+      <c r="I164" s="4">
+        <v>0.63726000000000005</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B165" s="4">
+        <v>8.4857999999999993</v>
+      </c>
+      <c r="C165" s="4">
+        <v>0.69610000000000005</v>
+      </c>
+      <c r="D165" s="4">
+        <v>10.9933</v>
+      </c>
+      <c r="E165" s="4">
+        <v>0.73129999999999995</v>
+      </c>
+      <c r="F165" s="4">
+        <v>10.4939</v>
+      </c>
+      <c r="G165" s="4">
+        <v>0.77059999999999995</v>
+      </c>
+      <c r="H165" s="4">
+        <v>9.5648</v>
+      </c>
+      <c r="I165" s="4">
+        <v>0.65990000000000004</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B166" s="4">
+        <v>8.6137999999999995</v>
+      </c>
+      <c r="C166" s="4">
+        <v>0.67879999999999996</v>
+      </c>
+      <c r="D166" s="4">
+        <v>9.8419000000000008</v>
+      </c>
+      <c r="E166" s="4">
+        <v>0.72150000000000003</v>
+      </c>
+      <c r="F166" s="4">
+        <v>10.495100000000001</v>
+      </c>
+      <c r="G166" s="4">
+        <v>0.77639999999999998</v>
+      </c>
+      <c r="H166" s="4">
+        <v>9.0309000000000008</v>
+      </c>
+      <c r="I166" s="4">
+        <v>0.63900000000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B167" s="4">
+        <v>9.4756999999999998</v>
+      </c>
+      <c r="C167" s="4">
+        <v>0.70750000000000002</v>
+      </c>
+      <c r="D167" s="4">
+        <v>10.106400000000001</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="F167" s="4">
+        <v>9.9713999999999992</v>
+      </c>
+      <c r="G167" s="4">
+        <v>0.77990000000000004</v>
+      </c>
+      <c r="H167" s="4">
+        <v>10.682600000000001</v>
+      </c>
+      <c r="I167" s="4">
+        <v>0.67300000000000004</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>322</v>
       </c>

--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DE74C9-5180-4578-BC55-F7F336A9DF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D42965A-081C-484F-92A6-B57C018D5767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -519,7 +519,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="323">
   <si>
     <t>PSNR</t>
   </si>
@@ -1488,9 +1488,6 @@
   </si>
   <si>
     <t>V8.04.18</t>
-  </si>
-  <si>
-    <t>0..7225</t>
   </si>
 </sst>
 </file>
@@ -4461,8 +4458,8 @@
   <dimension ref="A1:I169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G168" sqref="G168"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B156" sqref="B156:I157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8486,8 +8483,8 @@
       <c r="D167" s="4">
         <v>10.106400000000001</v>
       </c>
-      <c r="E167" s="4" t="s">
-        <v>323</v>
+      <c r="E167" s="4">
+        <v>0.72250000000000003</v>
       </c>
       <c r="F167" s="4">
         <v>9.9713999999999992</v>
@@ -8506,10 +8503,58 @@
       <c r="A168" t="s">
         <v>321</v>
       </c>
+      <c r="B168" s="4">
+        <v>8.0382999999999996</v>
+      </c>
+      <c r="C168" s="4">
+        <v>0.69289999999999996</v>
+      </c>
+      <c r="D168" s="4">
+        <v>9.5934000000000008</v>
+      </c>
+      <c r="E168" s="4">
+        <v>0.7228</v>
+      </c>
+      <c r="F168" s="4">
+        <v>10.332800000000001</v>
+      </c>
+      <c r="G168" s="4">
+        <v>0.7752</v>
+      </c>
+      <c r="H168" s="4">
+        <v>9.0412999999999997</v>
+      </c>
+      <c r="I168" s="4">
+        <v>0.65280000000000005</v>
+      </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>322</v>
+      </c>
+      <c r="B169" s="4">
+        <v>8.8557000000000006</v>
+      </c>
+      <c r="C169" s="4">
+        <v>0.69989999999999997</v>
+      </c>
+      <c r="D169" s="4">
+        <v>10.9498</v>
+      </c>
+      <c r="E169" s="4">
+        <v>0.72989999999999999</v>
+      </c>
+      <c r="F169" s="4">
+        <v>10.257300000000001</v>
+      </c>
+      <c r="G169" s="4">
+        <v>0.77749999999999997</v>
+      </c>
+      <c r="H169" s="4">
+        <v>9.7690000000000001</v>
+      </c>
+      <c r="I169" s="4">
+        <v>0.66249999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D42965A-081C-484F-92A6-B57C018D5767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4CC917-6743-42CF-B1A4-6450BB3464CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2175" yWindow="1245" windowWidth="28800" windowHeight="15345" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -519,7 +519,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="352">
   <si>
     <t>PSNR</t>
   </si>
@@ -1488,6 +1488,93 @@
   </si>
   <si>
     <t>V8.04.18</t>
+  </si>
+  <si>
+    <t>REVISE hyperparameters</t>
+  </si>
+  <si>
+    <t>V9.00.05</t>
+  </si>
+  <si>
+    <t>V9.00.06</t>
+  </si>
+  <si>
+    <t>V9.00.07</t>
+  </si>
+  <si>
+    <t>V9.00.08</t>
+  </si>
+  <si>
+    <t>V9.00.09</t>
+  </si>
+  <si>
+    <t>V9.00.10</t>
+  </si>
+  <si>
+    <t>V9.00.11</t>
+  </si>
+  <si>
+    <t>V9.00.12</t>
+  </si>
+  <si>
+    <t>V9.00.13</t>
+  </si>
+  <si>
+    <t>V9.00.14</t>
+  </si>
+  <si>
+    <t>V9.00.15</t>
+  </si>
+  <si>
+    <t>V9.00.16</t>
+  </si>
+  <si>
+    <t>V9.00.17</t>
+  </si>
+  <si>
+    <t>V9.00.18</t>
+  </si>
+  <si>
+    <t>V9.01.5</t>
+  </si>
+  <si>
+    <t>V9.01.6</t>
+  </si>
+  <si>
+    <t>V9.01.7</t>
+  </si>
+  <si>
+    <t>V9.01.8</t>
+  </si>
+  <si>
+    <t>V9.01.9</t>
+  </si>
+  <si>
+    <t>V9.01.10</t>
+  </si>
+  <si>
+    <t>V9.01.11</t>
+  </si>
+  <si>
+    <t>V9.01.12</t>
+  </si>
+  <si>
+    <t>V9.01.13</t>
+  </si>
+  <si>
+    <t>V9.01.14</t>
+  </si>
+  <si>
+    <t>V9.01.15</t>
+  </si>
+  <si>
+    <t>V9.01.16</t>
+  </si>
+  <si>
+    <t>V9.01.17</t>
+  </si>
+  <si>
+    <t>V9.01.18</t>
   </si>
 </sst>
 </file>
@@ -4455,11 +4542,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB7FCCD-6DEF-4489-B535-F792B4F2F5DA}">
-  <dimension ref="A1:I169"/>
+  <dimension ref="A1:J197"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B156" sqref="B156:I157"/>
+      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F183" sqref="F183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7904,7 +7991,7 @@
         <v>0.86070000000000002</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>298</v>
       </c>
@@ -7933,7 +8020,7 @@
         <v>0.78669999999999995</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>299</v>
       </c>
@@ -7962,22 +8049,22 @@
         <v>0.85940000000000005</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>303</v>
       </c>
@@ -8006,7 +8093,7 @@
         <v>0.85070000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>304</v>
       </c>
@@ -8035,7 +8122,7 @@
         <v>0.85670000000000002</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>305</v>
       </c>
@@ -8064,7 +8151,7 @@
         <v>0.84250000000000003</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>306</v>
       </c>
@@ -8093,7 +8180,7 @@
         <v>0.86070000000000002</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>307</v>
       </c>
@@ -8122,7 +8209,7 @@
         <v>0.8548</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>308</v>
       </c>
@@ -8151,7 +8238,7 @@
         <v>0.85550000000000004</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>309</v>
       </c>
@@ -8180,7 +8267,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>310</v>
       </c>
@@ -8209,7 +8296,7 @@
         <v>0.72789999999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>311</v>
       </c>
@@ -8237,8 +8324,11 @@
       <c r="I158" s="4">
         <v>0.69350000000000001</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J158" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>312</v>
       </c>
@@ -8266,8 +8356,11 @@
       <c r="I159" s="4">
         <v>0.67449999999999999</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J159" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>313</v>
       </c>
@@ -8295,8 +8388,11 @@
       <c r="I160" s="4">
         <v>0.67769999999999997</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J160" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>314</v>
       </c>
@@ -8324,8 +8420,11 @@
       <c r="I161" s="4">
         <v>0.66069999999999995</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J161" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>315</v>
       </c>
@@ -8354,7 +8453,7 @@
         <v>0.66649999999999998</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>316</v>
       </c>
@@ -8383,7 +8482,7 @@
         <v>0.68320000000000003</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>317</v>
       </c>
@@ -8412,7 +8511,7 @@
         <v>0.63726000000000005</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>318</v>
       </c>
@@ -8441,7 +8540,7 @@
         <v>0.65990000000000004</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>319</v>
       </c>
@@ -8470,7 +8569,7 @@
         <v>0.63900000000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>320</v>
       </c>
@@ -8499,7 +8598,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>321</v>
       </c>
@@ -8528,7 +8627,7 @@
         <v>0.65280000000000005</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>322</v>
       </c>
@@ -8555,6 +8654,242 @@
       </c>
       <c r="I169" s="4">
         <v>0.66249999999999998</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>324</v>
+      </c>
+      <c r="B170" s="4">
+        <v>4.484</v>
+      </c>
+      <c r="C170" s="4">
+        <v>0.5474</v>
+      </c>
+      <c r="D170" s="4">
+        <v>6.5403000000000002</v>
+      </c>
+      <c r="E170" s="4">
+        <v>0.69010000000000005</v>
+      </c>
+      <c r="F170" s="4">
+        <v>9.4009999999999998</v>
+      </c>
+      <c r="G170" s="4">
+        <v>0.73629999999999995</v>
+      </c>
+      <c r="H170" s="4">
+        <v>12.702</v>
+      </c>
+      <c r="I170" s="4">
+        <v>0.79690000000000005</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>325</v>
+      </c>
+      <c r="B171" s="4">
+        <v>4.5608000000000004</v>
+      </c>
+      <c r="C171" s="4">
+        <v>0.54510000000000003</v>
+      </c>
+      <c r="D171" s="4">
+        <v>6.3360000000000003</v>
+      </c>
+      <c r="E171" s="4">
+        <v>0.68710000000000004</v>
+      </c>
+      <c r="F171" s="4">
+        <v>9.3574000000000002</v>
+      </c>
+      <c r="G171" s="4">
+        <v>0.73980000000000001</v>
+      </c>
+      <c r="H171" s="4">
+        <v>13.037000000000001</v>
+      </c>
+      <c r="I171" s="4">
+        <v>0.81140000000000001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>334</v>
+      </c>
+      <c r="B180" s="4">
+        <v>4.8554000000000004</v>
+      </c>
+      <c r="C180" s="4">
+        <v>0.5464</v>
+      </c>
+      <c r="D180" s="4">
+        <v>6.4715999999999996</v>
+      </c>
+      <c r="E180" s="4">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="F180" s="4">
+        <v>8.7712000000000003</v>
+      </c>
+      <c r="G180" s="4">
+        <v>0.74050000000000005</v>
+      </c>
+      <c r="H180" s="4">
+        <v>13.092700000000001</v>
+      </c>
+      <c r="I180" s="4">
+        <v>0.81910000000000005</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>335</v>
+      </c>
+      <c r="B181" s="4">
+        <v>4.6875999999999998</v>
+      </c>
+      <c r="C181" s="4">
+        <v>0.53849999999999998</v>
+      </c>
+      <c r="D181" s="4">
+        <v>6.1853999999999996</v>
+      </c>
+      <c r="E181" s="4">
+        <v>0.68440000000000001</v>
+      </c>
+      <c r="F181" s="4">
+        <v>8.6862999999999992</v>
+      </c>
+      <c r="G181" s="4">
+        <v>0.73280000000000001</v>
+      </c>
+      <c r="H181" s="4">
+        <v>13.4095</v>
+      </c>
+      <c r="I181" s="4">
+        <v>0.82294</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>351</v>
       </c>
     </row>
   </sheetData>

--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4CC917-6743-42CF-B1A4-6450BB3464CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52015538-B45C-426B-99AF-858601490629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2175" yWindow="1245" windowWidth="28800" windowHeight="15345" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4545,8 +4545,8 @@
   <dimension ref="A1:J197"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F183" sqref="F183"/>
+      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F196" sqref="F196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8826,6 +8826,30 @@
       <c r="A184" t="s">
         <v>338</v>
       </c>
+      <c r="B184" s="4">
+        <v>22.3446</v>
+      </c>
+      <c r="C184" s="4">
+        <v>0.9153</v>
+      </c>
+      <c r="D184" s="4">
+        <v>17.810500000000001</v>
+      </c>
+      <c r="E184" s="4">
+        <v>0.8528</v>
+      </c>
+      <c r="F184" s="4">
+        <v>27.637899999999998</v>
+      </c>
+      <c r="G184" s="4">
+        <v>0.92469999999999997</v>
+      </c>
+      <c r="H184" s="4">
+        <v>19.747800000000002</v>
+      </c>
+      <c r="I184" s="4">
+        <v>0.87490000000000001</v>
+      </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
@@ -8867,55 +8891,103 @@
         <v>346</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B194" s="4">
+        <v>22.592099999999999</v>
+      </c>
+      <c r="C194" s="4">
+        <v>0.91839999999999999</v>
+      </c>
+      <c r="D194" s="4">
+        <v>17.022200000000002</v>
+      </c>
+      <c r="E194" s="4">
+        <v>0.80979999999999996</v>
+      </c>
+      <c r="F194" s="4">
+        <v>26.894400000000001</v>
+      </c>
+      <c r="G194" s="4">
+        <v>0.91830000000000001</v>
+      </c>
+      <c r="H194" s="4">
+        <v>19.55</v>
+      </c>
+      <c r="I194" s="4">
+        <v>0.84699999999999998</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B195" s="4">
+        <v>22.595500000000001</v>
+      </c>
+      <c r="C195" s="4">
+        <v>0.90990000000000004</v>
+      </c>
+      <c r="D195" s="4">
+        <v>15.051500000000001</v>
+      </c>
+      <c r="E195" s="4">
+        <v>0.79449999999999998</v>
+      </c>
+      <c r="F195" s="4">
+        <v>25.199200000000001</v>
+      </c>
+      <c r="G195" s="4">
+        <v>0.89549999999999996</v>
+      </c>
+      <c r="H195" s="4">
+        <v>19.368600000000001</v>
+      </c>
+      <c r="I195" s="4">
+        <v>0.82789999999999997</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>351</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B56:B121 B123:B140 B142:B1048576 B1:B54">
+  <conditionalFormatting sqref="B56:B121 B123:B140 B142:B184 B197:B1048576 B186:B195 B1:B54">
     <cfRule type="top10" dxfId="51" priority="8" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C56:C121 C123:C140 C142:C1048576 C1:C54">
+  <conditionalFormatting sqref="C56:C121 C123:C140 C142:C184 C197:C1048576 C186:C195 C1:C54">
     <cfRule type="top10" dxfId="50" priority="7" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56:D121 D123:D140 D142:D1048576 D1:D54">
+  <conditionalFormatting sqref="D56:D121 D123:D140 D142:D184 D197:D1048576 D186:D195 D1:D54">
     <cfRule type="top10" dxfId="49" priority="6" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E56:E121 E123:E140 E142:E1048576 E1:E54">
+  <conditionalFormatting sqref="E56:E121 E123:E140 E142:E184 E197:E1048576 E186:E195 E1:E54">
     <cfRule type="top10" dxfId="48" priority="5" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:F89 F91 F93:F96 F98:F103 F105:F121 F123:F140 F142:F1048576 H104 H97 H92 H90 F56:F75 F78 F80:F85 H79 H76:H77 H86 F1:F54">
+  <conditionalFormatting sqref="F87:F89 F91 F93:F96 F98:F103 F105:F121 F123:F140 F142:F184 F197:F1048576 F186:F195 H104 H97 H92 H90 F56:F75 F78 F80:F85 H79 H76:H77 H86 F1:F54">
     <cfRule type="top10" dxfId="47" priority="4" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G87:G89 G91 G93:G96 G98:G103 G105:G121 G123:G140 G142:G1048576 I104 I97 I92 I90 G56:G75 G78 G80:G85 I79 I76:I77 I86 G1:G54">
+  <conditionalFormatting sqref="G87:G89 G91 G93:G96 G98:G103 G105:G121 G123:G140 G142:G184 G197:G1048576 G186:G195 I104 I97 I92 I90 G56:G75 G78 G80:G85 I79 I76:I77 I86 G1:G54">
     <cfRule type="top10" dxfId="46" priority="3" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H87:H89 H91 H93:H96 H98:H103 H105:H121 H123:H140 H142:H1048576 H56:H75 H78 H80:H85 H1:H54">
+  <conditionalFormatting sqref="H87:H89 H91 H93:H96 H98:H103 H105:H121 H123:H140 H142:H184 H197:H1048576 H186:H195 H56:H75 H78 H80:H85 H1:H54">
     <cfRule type="top10" dxfId="45" priority="2" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I87:I89 I91 I93:I96 I98:I103 I105:I121 I123:I140 I142:I1048576 I56:I75 I78 I80:I85 I1:I54">
+  <conditionalFormatting sqref="I87:I89 I91 I93:I96 I98:I103 I105:I121 I123:I140 I142:I184 I197:I1048576 I186:I195 I56:I75 I78 I80:I85 I1:I54">
     <cfRule type="top10" dxfId="44" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52015538-B45C-426B-99AF-858601490629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6373A5-5315-481F-B28D-B3657BB381DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2175" yWindow="1245" windowWidth="28800" windowHeight="15345" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -519,7 +519,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="366">
   <si>
     <t>PSNR</t>
   </si>
@@ -1575,6 +1575,48 @@
   </si>
   <si>
     <t>V9.01.18</t>
+  </si>
+  <si>
+    <t>V9.07.5</t>
+  </si>
+  <si>
+    <t>V9.07.6</t>
+  </si>
+  <si>
+    <t>V9.07.7</t>
+  </si>
+  <si>
+    <t>V9.07.8</t>
+  </si>
+  <si>
+    <t>V9.07.9</t>
+  </si>
+  <si>
+    <t>V9.07.10</t>
+  </si>
+  <si>
+    <t>V9.07.11</t>
+  </si>
+  <si>
+    <t>V9.07.12</t>
+  </si>
+  <si>
+    <t>V9.07.13</t>
+  </si>
+  <si>
+    <t>V9.07.14</t>
+  </si>
+  <si>
+    <t>V9.07.15</t>
+  </si>
+  <si>
+    <t>V9.07.16</t>
+  </si>
+  <si>
+    <t>V9.07.17</t>
+  </si>
+  <si>
+    <t>V9.07.18</t>
   </si>
 </sst>
 </file>
@@ -4542,11 +4584,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB7FCCD-6DEF-4489-B535-F792B4F2F5DA}">
-  <dimension ref="A1:J197"/>
+  <dimension ref="A1:J211"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F196" sqref="F196"/>
+      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I188" sqref="I188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8860,41 +8902,233 @@
       <c r="A186" t="s">
         <v>340</v>
       </c>
+      <c r="B186" s="4">
+        <v>15.470800000000001</v>
+      </c>
+      <c r="C186" s="4">
+        <v>0.82089999999999996</v>
+      </c>
+      <c r="D186" s="4">
+        <v>8.3193000000000001</v>
+      </c>
+      <c r="E186" s="4">
+        <v>0.72419999999999995</v>
+      </c>
+      <c r="F186" s="4">
+        <v>15.119</v>
+      </c>
+      <c r="G186" s="4">
+        <v>0.80179999999999996</v>
+      </c>
+      <c r="H186" s="4">
+        <v>21.343900000000001</v>
+      </c>
+      <c r="I186" s="4">
+        <v>0.79920000000000002</v>
+      </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>341</v>
       </c>
+      <c r="B187" s="4">
+        <v>13.161899999999999</v>
+      </c>
+      <c r="C187" s="4">
+        <v>0.80349999999999999</v>
+      </c>
+      <c r="D187" s="4">
+        <v>8.5847999999999995</v>
+      </c>
+      <c r="E187" s="4">
+        <v>0.72450000000000003</v>
+      </c>
+      <c r="F187" s="4">
+        <v>16.0564</v>
+      </c>
+      <c r="G187" s="4">
+        <v>0.81540000000000001</v>
+      </c>
+      <c r="H187" s="4">
+        <v>21.759399999999999</v>
+      </c>
+      <c r="I187" s="4">
+        <v>0.79649999999999999</v>
+      </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>342</v>
       </c>
+      <c r="B188" s="4">
+        <v>13.1266</v>
+      </c>
+      <c r="C188" s="4">
+        <v>0.80030000000000001</v>
+      </c>
+      <c r="D188" s="4">
+        <v>8.7202000000000002</v>
+      </c>
+      <c r="E188" s="4">
+        <v>0.72889999999999999</v>
+      </c>
+      <c r="F188" s="4">
+        <v>16.145600000000002</v>
+      </c>
+      <c r="G188" s="4">
+        <v>0.82020000000000004</v>
+      </c>
+      <c r="H188" s="4">
+        <v>17.914100000000001</v>
+      </c>
+      <c r="I188" s="4">
+        <v>0.78890000000000005</v>
+      </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>343</v>
       </c>
+      <c r="B189" s="4">
+        <v>13.143599999999999</v>
+      </c>
+      <c r="C189" s="4">
+        <v>0.80149999999999999</v>
+      </c>
+      <c r="D189" s="4">
+        <v>8.1607000000000003</v>
+      </c>
+      <c r="E189" s="4">
+        <v>0.73060000000000003</v>
+      </c>
+      <c r="F189" s="4">
+        <v>16.287199999999999</v>
+      </c>
+      <c r="G189" s="4">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="H189" s="4">
+        <v>17.088899999999999</v>
+      </c>
+      <c r="I189" s="4">
+        <v>0.78680000000000005</v>
+      </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>344</v>
       </c>
+      <c r="B190" s="4">
+        <v>13.1805</v>
+      </c>
+      <c r="C190" s="4">
+        <v>0.80079999999999996</v>
+      </c>
+      <c r="D190" s="4">
+        <v>8.3765000000000001</v>
+      </c>
+      <c r="E190" s="4">
+        <v>0.72829999999999995</v>
+      </c>
+      <c r="F190" s="4">
+        <v>15.666700000000001</v>
+      </c>
+      <c r="G190" s="4">
+        <v>0.81669999999999998</v>
+      </c>
+      <c r="H190" s="4">
+        <v>17.705300000000001</v>
+      </c>
+      <c r="I190" s="4">
+        <v>0.79169999999999996</v>
+      </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>345</v>
       </c>
+      <c r="B191" s="4">
+        <v>13.072100000000001</v>
+      </c>
+      <c r="C191" s="4">
+        <v>0.79920000000000002</v>
+      </c>
+      <c r="D191" s="4">
+        <v>8.1210000000000004</v>
+      </c>
+      <c r="E191" s="4">
+        <v>0.73280000000000001</v>
+      </c>
+      <c r="F191" s="4">
+        <v>16.355599999999999</v>
+      </c>
+      <c r="G191" s="4">
+        <v>0.83030000000000004</v>
+      </c>
+      <c r="H191" s="4">
+        <v>16.6251</v>
+      </c>
+      <c r="I191" s="4">
+        <v>0.78169999999999995</v>
+      </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>346</v>
       </c>
+      <c r="B192" s="4">
+        <v>13.245100000000001</v>
+      </c>
+      <c r="C192" s="4">
+        <v>0.80079999999999996</v>
+      </c>
+      <c r="D192" s="4">
+        <v>8.2849000000000004</v>
+      </c>
+      <c r="E192" s="4">
+        <v>0.73029999999999995</v>
+      </c>
+      <c r="F192" s="4">
+        <v>14.848800000000001</v>
+      </c>
+      <c r="G192" s="4">
+        <v>0.79659999999999997</v>
+      </c>
+      <c r="H192" s="4">
+        <v>18.8231</v>
+      </c>
+      <c r="I192" s="4">
+        <v>0.79349999999999998</v>
+      </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>347</v>
       </c>
+      <c r="B193" s="4">
+        <v>13.4854</v>
+      </c>
+      <c r="C193" s="4">
+        <v>0.80069999999999997</v>
+      </c>
+      <c r="D193" s="4">
+        <v>8.7506000000000004</v>
+      </c>
+      <c r="E193" s="4">
+        <v>0.73060000000000003</v>
+      </c>
+      <c r="F193" s="4">
+        <v>16.5245</v>
+      </c>
+      <c r="G193" s="4">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="H193" s="4">
+        <v>18.223199999999999</v>
+      </c>
+      <c r="I193" s="4">
+        <v>0.77980000000000005</v>
+      </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
@@ -8964,31 +9198,101 @@
         <v>351</v>
       </c>
     </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>365</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B56:B121 B123:B140 B142:B184 B197:B1048576 B186:B195 B1:B54">
-    <cfRule type="top10" dxfId="51" priority="8" rank="1"/>
+  <conditionalFormatting sqref="B56:B121 B123:B140 B142:B184 B197:B1048576 B187:B195 B1:B54">
+    <cfRule type="top10" dxfId="51" priority="43" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C56:C121 C123:C140 C142:C184 C197:C1048576 C186:C195 C1:C54">
-    <cfRule type="top10" dxfId="50" priority="7" rank="1"/>
+  <conditionalFormatting sqref="C56:C121 C123:C140 C142:C184 C197:C1048576 C187:C195 C1:C54">
+    <cfRule type="top10" dxfId="50" priority="50" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56:D121 D123:D140 D142:D184 D197:D1048576 D186:D195 D1:D54">
-    <cfRule type="top10" dxfId="49" priority="6" rank="1"/>
+  <conditionalFormatting sqref="D56:D121 D123:D140 D142:D184 D197:D1048576 D187:D195 D1:D54">
+    <cfRule type="top10" dxfId="49" priority="57" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E56:E121 E123:E140 E142:E184 E197:E1048576 E186:E195 E1:E54">
-    <cfRule type="top10" dxfId="48" priority="5" rank="1"/>
+  <conditionalFormatting sqref="E56:E121 E123:E140 E142:E184 E197:E1048576 E187:E195 E1:E54">
+    <cfRule type="top10" dxfId="48" priority="64" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:F89 F91 F93:F96 F98:F103 F105:F121 F123:F140 F142:F184 F197:F1048576 F186:F195 H104 H97 H92 H90 F56:F75 F78 F80:F85 H79 H76:H77 H86 F1:F54">
-    <cfRule type="top10" dxfId="47" priority="4" rank="1"/>
+  <conditionalFormatting sqref="F87:F89 F91 F93:F96 F98:F103 F105:F121 F123:F140 F142:F184 F197:F1048576 F187:F195 H104 H97 H92 H90 F56:F75 F78 F80:F85 H79 H76:H77 H86 F1:F54">
+    <cfRule type="top10" dxfId="47" priority="71" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G87:G89 G91 G93:G96 G98:G103 G105:G121 G123:G140 G142:G184 G197:G1048576 G186:G195 I104 I97 I92 I90 G56:G75 G78 G80:G85 I79 I76:I77 I86 G1:G54">
-    <cfRule type="top10" dxfId="46" priority="3" rank="1"/>
+  <conditionalFormatting sqref="G87:G89 G91 G93:G96 G98:G103 G105:G121 G123:G140 G142:G184 G197:G1048576 G187:G195 I104 I97 I92 I90 G56:G75 G78 G80:G85 I79 I76:I77 I86 G1:G54">
+    <cfRule type="top10" dxfId="46" priority="92" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H87:H89 H91 H93:H96 H98:H103 H105:H121 H123:H140 H142:H184 H197:H1048576 H186:H195 H56:H75 H78 H80:H85 H1:H54">
-    <cfRule type="top10" dxfId="45" priority="2" rank="1"/>
+  <conditionalFormatting sqref="H87:H89 H91 H93:H96 H98:H103 H105:H121 H123:H140 H142:H184 H197:H1048576 H187:H195 H56:H75 H78 H80:H85 H1:H54">
+    <cfRule type="top10" dxfId="45" priority="113" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I87:I89 I91 I93:I96 I98:I103 I105:I121 I123:I140 I142:I184 I197:I1048576 I186:I195 I56:I75 I78 I80:I85 I1:I54">
-    <cfRule type="top10" dxfId="44" priority="1" rank="1"/>
+  <conditionalFormatting sqref="I87:I89 I91 I93:I96 I98:I103 I105:I121 I123:I140 I142:I184 I197:I1048576 I187:I195 I56:I75 I78 I80:I85 I1:I54">
+    <cfRule type="top10" dxfId="44" priority="127" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6373A5-5315-481F-B28D-B3657BB381DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89D9EB3-1303-4D63-835D-5B58FE6E7B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2175" yWindow="1245" windowWidth="28800" windowHeight="15345" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4587,8 +4587,8 @@
   <dimension ref="A1:J211"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I188" sqref="I188"/>
+      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J207" sqref="J207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9251,6 +9251,30 @@
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>362</v>
+      </c>
+      <c r="B208" s="4">
+        <v>15.957000000000001</v>
+      </c>
+      <c r="C208" s="4">
+        <v>0.8881</v>
+      </c>
+      <c r="D208" s="4">
+        <v>11.6084</v>
+      </c>
+      <c r="E208" s="4">
+        <v>0.7833</v>
+      </c>
+      <c r="F208" s="4">
+        <v>24.287600000000001</v>
+      </c>
+      <c r="G208" s="4">
+        <v>0.84730000000000005</v>
+      </c>
+      <c r="H208" s="4">
+        <v>19.732600000000001</v>
+      </c>
+      <c r="I208" s="4">
+        <v>0.89259999999999995</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">

--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89D9EB3-1303-4D63-835D-5B58FE6E7B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F775A5F0-3F43-4580-A4E3-B944F971B703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2175" yWindow="1245" windowWidth="28800" windowHeight="15345" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -519,7 +519,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="367">
   <si>
     <t>PSNR</t>
   </si>
@@ -1617,6 +1617,9 @@
   </si>
   <si>
     <t>V9.07.18</t>
+  </si>
+  <si>
+    <t>WHDR (IIW)</t>
   </si>
 </sst>
 </file>
@@ -4588,17 +4591,18 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J207" sqref="J207"/>
+      <selection pane="bottomLeft" activeCell="J208" sqref="J208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="9" width="11" style="4" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
     <col min="13" max="13" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4616,8 +4620,11 @@
         <v>125</v>
       </c>
       <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -4643,7 +4650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>142</v>
       </c>
@@ -4672,7 +4679,7 @@
         <v>0.84430000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>143</v>
       </c>
@@ -4701,7 +4708,7 @@
         <v>0.77100000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>156</v>
       </c>
@@ -4730,7 +4737,7 @@
         <v>0.79449999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>157</v>
       </c>
@@ -4759,7 +4766,7 @@
         <v>0.80120000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>158</v>
       </c>
@@ -4788,7 +4795,7 @@
         <v>0.7833</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>159</v>
       </c>
@@ -4817,7 +4824,7 @@
         <v>0.76449999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>163</v>
       </c>
@@ -4846,7 +4853,7 @@
         <v>0.92230000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>164</v>
       </c>
@@ -4875,7 +4882,7 @@
         <v>0.95820000000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>165</v>
       </c>
@@ -4904,7 +4911,7 @@
         <v>0.93149999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>166</v>
       </c>
@@ -4933,7 +4940,7 @@
         <v>0.89690000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>161</v>
       </c>
@@ -4962,7 +4969,7 @@
         <v>0.96589999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>162</v>
       </c>
@@ -4991,7 +4998,7 @@
         <v>0.96020000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>167</v>
       </c>
@@ -5020,7 +5027,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>168</v>
       </c>
@@ -9101,7 +9108,7 @@
         <v>0.79349999999999998</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>347</v>
       </c>
@@ -9130,7 +9137,7 @@
         <v>0.77980000000000005</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>348</v>
       </c>
@@ -9159,7 +9166,7 @@
         <v>0.84699999999999998</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>349</v>
       </c>
@@ -9188,67 +9195,67 @@
         <v>0.82789999999999997</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>362</v>
       </c>
@@ -9275,6 +9282,9 @@
       </c>
       <c r="I208" s="4">
         <v>0.89259999999999995</v>
+      </c>
+      <c r="J208">
+        <v>0.44379999999999997</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">

--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F775A5F0-3F43-4580-A4E3-B944F971B703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0B48FF-DDFE-49D0-B82B-048AACCCE5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2175" yWindow="1245" windowWidth="28800" windowHeight="15345" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -519,7 +519,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="368">
   <si>
     <t>PSNR</t>
   </si>
@@ -1620,6 +1620,9 @@
   </si>
   <si>
     <t>WHDR (IIW)</t>
+  </si>
+  <si>
+    <t>WHDR to beat</t>
   </si>
 </sst>
 </file>
@@ -4587,11 +4590,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB7FCCD-6DEF-4489-B535-F792B4F2F5DA}">
-  <dimension ref="A1:J211"/>
+  <dimension ref="A1:K211"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J208" sqref="J208"/>
+      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F209" sqref="F209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4602,7 +4605,7 @@
     <col min="13" max="13" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4623,8 +4626,11 @@
       <c r="J1" s="1" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -4650,7 +4656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>142</v>
       </c>
@@ -4679,7 +4685,7 @@
         <v>0.84430000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>143</v>
       </c>
@@ -4708,7 +4714,7 @@
         <v>0.77100000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>156</v>
       </c>
@@ -4737,7 +4743,7 @@
         <v>0.79449999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>157</v>
       </c>
@@ -4766,7 +4772,7 @@
         <v>0.80120000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>158</v>
       </c>
@@ -4795,7 +4801,7 @@
         <v>0.7833</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>159</v>
       </c>
@@ -4824,7 +4830,7 @@
         <v>0.76449999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>163</v>
       </c>
@@ -4853,7 +4859,7 @@
         <v>0.92230000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>164</v>
       </c>
@@ -4882,7 +4888,7 @@
         <v>0.95820000000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>165</v>
       </c>
@@ -4911,7 +4917,7 @@
         <v>0.93149999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>166</v>
       </c>
@@ -4940,7 +4946,7 @@
         <v>0.89690000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>161</v>
       </c>
@@ -4969,7 +4975,7 @@
         <v>0.96589999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>162</v>
       </c>
@@ -4998,7 +5004,7 @@
         <v>0.96020000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>167</v>
       </c>
@@ -5027,7 +5033,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>168</v>
       </c>
@@ -9108,7 +9114,7 @@
         <v>0.79349999999999998</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>347</v>
       </c>
@@ -9137,7 +9143,7 @@
         <v>0.77980000000000005</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>348</v>
       </c>
@@ -9166,7 +9172,7 @@
         <v>0.84699999999999998</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>349</v>
       </c>
@@ -9195,67 +9201,67 @@
         <v>0.82789999999999997</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>362</v>
       </c>
@@ -9285,6 +9291,9 @@
       </c>
       <c r="J208">
         <v>0.44379999999999997</v>
+      </c>
+      <c r="K208">
+        <v>0.21</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">

--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0B48FF-DDFE-49D0-B82B-048AACCCE5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E02BDC-9748-40CA-AA5E-7EDA69884C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2175" yWindow="1245" windowWidth="28800" windowHeight="15345" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -519,7 +519,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="382">
   <si>
     <t>PSNR</t>
   </si>
@@ -1623,6 +1623,48 @@
   </si>
   <si>
     <t>WHDR to beat</t>
+  </si>
+  <si>
+    <t>V10.07.5</t>
+  </si>
+  <si>
+    <t>V10.07.6</t>
+  </si>
+  <si>
+    <t>V10.07.7</t>
+  </si>
+  <si>
+    <t>V10.07.8</t>
+  </si>
+  <si>
+    <t>V10.07.9</t>
+  </si>
+  <si>
+    <t>V10.07.10</t>
+  </si>
+  <si>
+    <t>V10.07.11</t>
+  </si>
+  <si>
+    <t>V10.07.12</t>
+  </si>
+  <si>
+    <t>V10.07.13</t>
+  </si>
+  <si>
+    <t>V10.07.14</t>
+  </si>
+  <si>
+    <t>V10.07.15</t>
+  </si>
+  <si>
+    <t>V10.07.16</t>
+  </si>
+  <si>
+    <t>V10.07.17</t>
+  </si>
+  <si>
+    <t>V10.07.18</t>
   </si>
 </sst>
 </file>
@@ -4590,11 +4632,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB7FCCD-6DEF-4489-B535-F792B4F2F5DA}">
-  <dimension ref="A1:K211"/>
+  <dimension ref="A1:K225"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F209" sqref="F209"/>
+      <pane ySplit="1" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H214" sqref="H214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9292,23 +9334,96 @@
       <c r="J208">
         <v>0.44379999999999997</v>
       </c>
-      <c r="K208">
+      <c r="K208" s="1">
         <v>0.21</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>365</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>378</v>
+      </c>
+      <c r="J222">
+        <v>0.43580000000000002</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>381</v>
       </c>
     </row>
   </sheetData>

--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E02BDC-9748-40CA-AA5E-7EDA69884C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F588635-A832-40EE-A0D1-C0C77DE6D30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2175" yWindow="1245" windowWidth="28800" windowHeight="15345" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4635,8 +4635,8 @@
   <dimension ref="A1:K225"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H214" sqref="H214"/>
+      <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H223" sqref="H223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9406,6 +9406,30 @@
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>378</v>
+      </c>
+      <c r="B222" s="4">
+        <v>15.171900000000001</v>
+      </c>
+      <c r="C222" s="4">
+        <v>0.80520000000000003</v>
+      </c>
+      <c r="D222" s="4">
+        <v>16.747399999999999</v>
+      </c>
+      <c r="E222" s="4">
+        <v>0.8639</v>
+      </c>
+      <c r="F222" s="4">
+        <v>22.553899999999999</v>
+      </c>
+      <c r="G222" s="4">
+        <v>0.81640000000000001</v>
+      </c>
+      <c r="H222" s="4">
+        <v>24.244499999999999</v>
+      </c>
+      <c r="I222" s="4">
+        <v>0.8871</v>
       </c>
       <c r="J222">
         <v>0.43580000000000002</v>

--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F588635-A832-40EE-A0D1-C0C77DE6D30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54721B22-630B-4573-AF05-0E45AE3BA741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="1245" windowWidth="28800" windowHeight="15345" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2520" yWindow="1680" windowWidth="28800" windowHeight="15345" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Maps 2 RGB'!$B$1:$I$74</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -519,7 +520,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="396">
   <si>
     <t>PSNR</t>
   </si>
@@ -1665,6 +1666,48 @@
   </si>
   <si>
     <t>V10.07.18</t>
+  </si>
+  <si>
+    <t>V11.07.15</t>
+  </si>
+  <si>
+    <t>V11.07.5</t>
+  </si>
+  <si>
+    <t>V11.07.6</t>
+  </si>
+  <si>
+    <t>V11.07.7</t>
+  </si>
+  <si>
+    <t>V11.07.8</t>
+  </si>
+  <si>
+    <t>V11.07.9</t>
+  </si>
+  <si>
+    <t>V11.07.10</t>
+  </si>
+  <si>
+    <t>V11.07.11</t>
+  </si>
+  <si>
+    <t>V11.07.12</t>
+  </si>
+  <si>
+    <t>V11.07.13</t>
+  </si>
+  <si>
+    <t>V11.07.14</t>
+  </si>
+  <si>
+    <t>V11.07.16</t>
+  </si>
+  <si>
+    <t>V11.07.17</t>
+  </si>
+  <si>
+    <t>V11.07.18</t>
   </si>
 </sst>
 </file>
@@ -4632,11 +4675,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB7FCCD-6DEF-4489-B535-F792B4F2F5DA}">
-  <dimension ref="A1:K225"/>
+  <dimension ref="A1:K239"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H223" sqref="H223"/>
+      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J226" sqref="J226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9445,9 +9488,157 @@
         <v>380</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>381</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>383</v>
+      </c>
+      <c r="B226" s="4">
+        <v>16.901399999999999</v>
+      </c>
+      <c r="C226" s="4">
+        <v>0.84289999999999998</v>
+      </c>
+      <c r="D226" s="4">
+        <v>18.3841</v>
+      </c>
+      <c r="E226" s="4">
+        <v>0.86850000000000005</v>
+      </c>
+      <c r="F226" s="4">
+        <v>19.847200000000001</v>
+      </c>
+      <c r="G226" s="4">
+        <v>0.76870000000000005</v>
+      </c>
+      <c r="H226" s="4">
+        <v>22.9116</v>
+      </c>
+      <c r="I226" s="4">
+        <v>0.90049999999999997</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>382</v>
+      </c>
+      <c r="B236" s="4">
+        <v>16.488700000000001</v>
+      </c>
+      <c r="C236" s="4">
+        <v>0.8397</v>
+      </c>
+      <c r="D236" s="4">
+        <v>18.514500000000002</v>
+      </c>
+      <c r="E236" s="4">
+        <v>0.86719999999999997</v>
+      </c>
+      <c r="F236" s="4">
+        <v>22.343800000000002</v>
+      </c>
+      <c r="G236" s="4">
+        <v>0.78979999999999995</v>
+      </c>
+      <c r="H236" s="4">
+        <v>25.673100000000002</v>
+      </c>
+      <c r="I236" s="4">
+        <v>0.91439999999999999</v>
+      </c>
+      <c r="J236">
+        <v>0.41149999999999998</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>393</v>
+      </c>
+      <c r="B237" s="4">
+        <v>15.151400000000001</v>
+      </c>
+      <c r="C237" s="4">
+        <v>0.81230000000000002</v>
+      </c>
+      <c r="D237" s="4">
+        <v>17.089500000000001</v>
+      </c>
+      <c r="E237" s="4">
+        <v>0.86019999999999996</v>
+      </c>
+      <c r="F237" s="4">
+        <v>20.121600000000001</v>
+      </c>
+      <c r="G237" s="4">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="H237" s="4">
+        <v>23.152899999999999</v>
+      </c>
+      <c r="I237" s="4">
+        <v>0.88560000000000005</v>
+      </c>
+      <c r="J237">
+        <v>0.41830000000000001</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>395</v>
       </c>
     </row>
   </sheetData>

--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54721B22-630B-4573-AF05-0E45AE3BA741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2DCFBD-1834-42B3-B683-7AB1DE794C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2520" yWindow="1680" windowWidth="28800" windowHeight="15345" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4678,8 +4678,8 @@
   <dimension ref="A1:K239"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J226" sqref="J226"/>
+      <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J240" sqref="J240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9521,6 +9521,9 @@
       <c r="I226" s="4">
         <v>0.90049999999999997</v>
       </c>
+      <c r="J226">
+        <v>0.42399999999999999</v>
+      </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
@@ -9596,7 +9599,7 @@
         <v>0.91439999999999999</v>
       </c>
       <c r="J236">
-        <v>0.41149999999999998</v>
+        <v>0.39290000000000003</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
@@ -9626,9 +9629,6 @@
       </c>
       <c r="I237" s="4">
         <v>0.88560000000000005</v>
-      </c>
-      <c r="J237">
-        <v>0.41830000000000001</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">

--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2DCFBD-1834-42B3-B683-7AB1DE794C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9998C1D3-C7B0-46D3-9F3D-A024180F60E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2520" yWindow="1680" windowWidth="28800" windowHeight="15345" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Maps 2 RGB'!$B$1:$I$74</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -520,7 +519,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="381">
   <si>
     <t>PSNR</t>
   </si>
@@ -1572,52 +1571,7 @@
     <t>V9.01.16</t>
   </si>
   <si>
-    <t>V9.01.17</t>
-  </si>
-  <si>
-    <t>V9.01.18</t>
-  </si>
-  <si>
-    <t>V9.07.5</t>
-  </si>
-  <si>
-    <t>V9.07.6</t>
-  </si>
-  <si>
-    <t>V9.07.7</t>
-  </si>
-  <si>
-    <t>V9.07.8</t>
-  </si>
-  <si>
-    <t>V9.07.9</t>
-  </si>
-  <si>
-    <t>V9.07.10</t>
-  </si>
-  <si>
-    <t>V9.07.11</t>
-  </si>
-  <si>
-    <t>V9.07.12</t>
-  </si>
-  <si>
-    <t>V9.07.13</t>
-  </si>
-  <si>
-    <t>V9.07.14</t>
-  </si>
-  <si>
     <t>V9.07.15</t>
-  </si>
-  <si>
-    <t>V9.07.16</t>
-  </si>
-  <si>
-    <t>V9.07.17</t>
-  </si>
-  <si>
-    <t>V9.07.18</t>
   </si>
   <si>
     <t>WHDR (IIW)</t>
@@ -4675,11 +4629,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB7FCCD-6DEF-4489-B535-F792B4F2F5DA}">
-  <dimension ref="A1:K239"/>
+  <dimension ref="A1:K224"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J240" sqref="J240"/>
+      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H198" sqref="H198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4709,10 +4663,10 @@
       </c>
       <c r="I1" s="6"/>
       <c r="J1" s="1" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -9290,160 +9244,241 @@
       <c r="A196" t="s">
         <v>350</v>
       </c>
+      <c r="B196" s="4">
+        <v>15.957000000000001</v>
+      </c>
+      <c r="C196" s="4">
+        <v>0.8881</v>
+      </c>
+      <c r="D196" s="4">
+        <v>11.6084</v>
+      </c>
+      <c r="E196" s="4">
+        <v>0.7833</v>
+      </c>
+      <c r="F196" s="4">
+        <v>24.287600000000001</v>
+      </c>
+      <c r="G196" s="4">
+        <v>0.84730000000000005</v>
+      </c>
+      <c r="H196" s="4">
+        <v>19.732600000000001</v>
+      </c>
+      <c r="I196" s="4">
+        <v>0.89259999999999995</v>
+      </c>
+      <c r="J196">
+        <v>0.44379999999999997</v>
+      </c>
+      <c r="K196" s="1">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>361</v>
+        <v>363</v>
+      </c>
+      <c r="B207" s="4">
+        <v>15.171900000000001</v>
+      </c>
+      <c r="C207" s="4">
+        <v>0.80520000000000003</v>
+      </c>
+      <c r="D207" s="4">
+        <v>16.747399999999999</v>
+      </c>
+      <c r="E207" s="4">
+        <v>0.8639</v>
+      </c>
+      <c r="F207" s="4">
+        <v>22.553899999999999</v>
+      </c>
+      <c r="G207" s="4">
+        <v>0.81640000000000001</v>
+      </c>
+      <c r="H207" s="4">
+        <v>24.244499999999999</v>
+      </c>
+      <c r="I207" s="4">
+        <v>0.8871</v>
+      </c>
+      <c r="J207">
+        <v>0.43580000000000002</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>362</v>
-      </c>
-      <c r="B208" s="4">
-        <v>15.957000000000001</v>
-      </c>
-      <c r="C208" s="4">
-        <v>0.8881</v>
-      </c>
-      <c r="D208" s="4">
-        <v>11.6084</v>
-      </c>
-      <c r="E208" s="4">
-        <v>0.7833</v>
-      </c>
-      <c r="F208" s="4">
-        <v>24.287600000000001</v>
-      </c>
-      <c r="G208" s="4">
-        <v>0.84730000000000005</v>
-      </c>
-      <c r="H208" s="4">
-        <v>19.732600000000001</v>
-      </c>
-      <c r="I208" s="4">
-        <v>0.89259999999999995</v>
-      </c>
-      <c r="J208">
-        <v>0.44379999999999997</v>
-      </c>
-      <c r="K208" s="1">
-        <v>0.21</v>
+        <v>364</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>365</v>
+        <v>368</v>
+      </c>
+      <c r="B211" s="4">
+        <v>16.901399999999999</v>
+      </c>
+      <c r="C211" s="4">
+        <v>0.84289999999999998</v>
+      </c>
+      <c r="D211" s="4">
+        <v>18.3841</v>
+      </c>
+      <c r="E211" s="4">
+        <v>0.86850000000000005</v>
+      </c>
+      <c r="F211" s="4">
+        <v>19.847200000000001</v>
+      </c>
+      <c r="G211" s="4">
+        <v>0.76870000000000005</v>
+      </c>
+      <c r="H211" s="4">
+        <v>22.9116</v>
+      </c>
+      <c r="I211" s="4">
+        <v>0.90049999999999997</v>
+      </c>
+      <c r="J211">
+        <v>0.42399999999999999</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>377</v>
+        <v>367</v>
+      </c>
+      <c r="B221" s="4">
+        <v>16.488700000000001</v>
+      </c>
+      <c r="C221" s="4">
+        <v>0.8397</v>
+      </c>
+      <c r="D221" s="4">
+        <v>18.514500000000002</v>
+      </c>
+      <c r="E221" s="4">
+        <v>0.86719999999999997</v>
+      </c>
+      <c r="F221" s="4">
+        <v>22.343800000000002</v>
+      </c>
+      <c r="G221" s="4">
+        <v>0.78979999999999995</v>
+      </c>
+      <c r="H221" s="4">
+        <v>25.673100000000002</v>
+      </c>
+      <c r="I221" s="4">
+        <v>0.91439999999999999</v>
+      </c>
+      <c r="J221">
+        <v>0.39290000000000003</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
@@ -9451,31 +9486,28 @@
         <v>378</v>
       </c>
       <c r="B222" s="4">
-        <v>15.171900000000001</v>
+        <v>15.151400000000001</v>
       </c>
       <c r="C222" s="4">
-        <v>0.80520000000000003</v>
+        <v>0.81230000000000002</v>
       </c>
       <c r="D222" s="4">
-        <v>16.747399999999999</v>
+        <v>17.089500000000001</v>
       </c>
       <c r="E222" s="4">
-        <v>0.8639</v>
+        <v>0.86019999999999996</v>
       </c>
       <c r="F222" s="4">
-        <v>22.553899999999999</v>
+        <v>20.121600000000001</v>
       </c>
       <c r="G222" s="4">
-        <v>0.81640000000000001</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="H222" s="4">
-        <v>24.244499999999999</v>
+        <v>23.152899999999999</v>
       </c>
       <c r="I222" s="4">
-        <v>0.8871</v>
-      </c>
-      <c r="J222">
-        <v>0.43580000000000002</v>
+        <v>0.88560000000000005</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
@@ -9488,184 +9520,31 @@
         <v>380</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>383</v>
-      </c>
-      <c r="B226" s="4">
-        <v>16.901399999999999</v>
-      </c>
-      <c r="C226" s="4">
-        <v>0.84289999999999998</v>
-      </c>
-      <c r="D226" s="4">
-        <v>18.3841</v>
-      </c>
-      <c r="E226" s="4">
-        <v>0.86850000000000005</v>
-      </c>
-      <c r="F226" s="4">
-        <v>19.847200000000001</v>
-      </c>
-      <c r="G226" s="4">
-        <v>0.76870000000000005</v>
-      </c>
-      <c r="H226" s="4">
-        <v>22.9116</v>
-      </c>
-      <c r="I226" s="4">
-        <v>0.90049999999999997</v>
-      </c>
-      <c r="J226">
-        <v>0.42399999999999999</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>382</v>
-      </c>
-      <c r="B236" s="4">
-        <v>16.488700000000001</v>
-      </c>
-      <c r="C236" s="4">
-        <v>0.8397</v>
-      </c>
-      <c r="D236" s="4">
-        <v>18.514500000000002</v>
-      </c>
-      <c r="E236" s="4">
-        <v>0.86719999999999997</v>
-      </c>
-      <c r="F236" s="4">
-        <v>22.343800000000002</v>
-      </c>
-      <c r="G236" s="4">
-        <v>0.78979999999999995</v>
-      </c>
-      <c r="H236" s="4">
-        <v>25.673100000000002</v>
-      </c>
-      <c r="I236" s="4">
-        <v>0.91439999999999999</v>
-      </c>
-      <c r="J236">
-        <v>0.39290000000000003</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>393</v>
-      </c>
-      <c r="B237" s="4">
-        <v>15.151400000000001</v>
-      </c>
-      <c r="C237" s="4">
-        <v>0.81230000000000002</v>
-      </c>
-      <c r="D237" s="4">
-        <v>17.089500000000001</v>
-      </c>
-      <c r="E237" s="4">
-        <v>0.86019999999999996</v>
-      </c>
-      <c r="F237" s="4">
-        <v>20.121600000000001</v>
-      </c>
-      <c r="G237" s="4">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="H237" s="4">
-        <v>23.152899999999999</v>
-      </c>
-      <c r="I237" s="4">
-        <v>0.88560000000000005</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>395</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B56:B121 B123:B140 B142:B184 B197:B1048576 B187:B195 B1:B54">
-    <cfRule type="top10" dxfId="51" priority="43" rank="1"/>
+  <conditionalFormatting sqref="B56:B121 B123:B140 B142:B184 B187:B1048576 B1:B54">
+    <cfRule type="top10" dxfId="51" priority="128" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C56:C121 C123:C140 C142:C184 C197:C1048576 C187:C195 C1:C54">
-    <cfRule type="top10" dxfId="50" priority="50" rank="1"/>
+  <conditionalFormatting sqref="C56:C121 C123:C140 C142:C184 C187:C1048576 C1:C54">
+    <cfRule type="top10" dxfId="50" priority="135" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56:D121 D123:D140 D142:D184 D197:D1048576 D187:D195 D1:D54">
-    <cfRule type="top10" dxfId="49" priority="57" rank="1"/>
+  <conditionalFormatting sqref="D56:D121 D123:D140 D142:D184 D187:D1048576 D1:D54">
+    <cfRule type="top10" dxfId="49" priority="142" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E56:E121 E123:E140 E142:E184 E197:E1048576 E187:E195 E1:E54">
-    <cfRule type="top10" dxfId="48" priority="64" rank="1"/>
+  <conditionalFormatting sqref="E56:E121 E123:E140 E142:E184 E187:E1048576 E1:E54">
+    <cfRule type="top10" dxfId="48" priority="149" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:F89 F91 F93:F96 F98:F103 F105:F121 F123:F140 F142:F184 F197:F1048576 F187:F195 H104 H97 H92 H90 F56:F75 F78 F80:F85 H79 H76:H77 H86 F1:F54">
-    <cfRule type="top10" dxfId="47" priority="71" rank="1"/>
+  <conditionalFormatting sqref="F87:F89 F91 F93:F96 F98:F103 F105:F121 F123:F140 F142:F184 F187:F1048576 H104 H97 H92 H90 F56:F75 F78 F80:F85 H79 H76:H77 H86 F1:F54">
+    <cfRule type="top10" dxfId="47" priority="156" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G87:G89 G91 G93:G96 G98:G103 G105:G121 G123:G140 G142:G184 G197:G1048576 G187:G195 I104 I97 I92 I90 G56:G75 G78 G80:G85 I79 I76:I77 I86 G1:G54">
-    <cfRule type="top10" dxfId="46" priority="92" rank="1"/>
+  <conditionalFormatting sqref="G87:G89 G91 G93:G96 G98:G103 G105:G121 G123:G140 G142:G184 G187:G1048576 I104 I97 I92 I90 G56:G75 G78 G80:G85 I79 I76:I77 I86 G1:G54">
+    <cfRule type="top10" dxfId="46" priority="177" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H87:H89 H91 H93:H96 H98:H103 H105:H121 H123:H140 H142:H184 H197:H1048576 H187:H195 H56:H75 H78 H80:H85 H1:H54">
-    <cfRule type="top10" dxfId="45" priority="113" rank="1"/>
+  <conditionalFormatting sqref="H87:H89 H91 H93:H96 H98:H103 H105:H121 H123:H140 H142:H184 H187:H1048576 H56:H75 H78 H80:H85 H1:H54">
+    <cfRule type="top10" dxfId="45" priority="198" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I87:I89 I91 I93:I96 I98:I103 I105:I121 I123:I140 I142:I184 I197:I1048576 I187:I195 I56:I75 I78 I80:I85 I1:I54">
-    <cfRule type="top10" dxfId="44" priority="127" rank="1"/>
+  <conditionalFormatting sqref="I87:I89 I91 I93:I96 I98:I103 I105:I121 I123:I140 I142:I184 I187:I1048576 I56:I75 I78 I80:I85 I1:I54">
+    <cfRule type="top10" dxfId="44" priority="212" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9998C1D3-C7B0-46D3-9F3D-A024180F60E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FB9318-2F6B-4F08-A27C-33B876ED902C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2520" yWindow="1680" windowWidth="28800" windowHeight="15345" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,6 +117,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Neil Patrick  A. Del Gallego</author>
+    <author>tc={D9534F6B-1CEA-4563-A775-927F0332E1B1}</author>
   </authors>
   <commentList>
     <comment ref="D1" authorId="0" shapeId="0" xr:uid="{58E97D53-181A-45A8-9A4E-7F9FA955595A}">
@@ -142,6 +143,14 @@
 Check image-specific reconstruction, not RGB.
 </t>
         </r>
+      </text>
+    </comment>
+    <comment ref="J206" authorId="1" shapeId="0" xr:uid="{D9534F6B-1CEA-4563-A775-927F0332E1B1}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Moving forward, only tested in 100 IIW images</t>
       </text>
     </comment>
   </commentList>
@@ -519,7 +528,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="367">
   <si>
     <t>PSNR</t>
   </si>
@@ -1580,36 +1589,6 @@
     <t>WHDR to beat</t>
   </si>
   <si>
-    <t>V10.07.5</t>
-  </si>
-  <si>
-    <t>V10.07.6</t>
-  </si>
-  <si>
-    <t>V10.07.7</t>
-  </si>
-  <si>
-    <t>V10.07.8</t>
-  </si>
-  <si>
-    <t>V10.07.9</t>
-  </si>
-  <si>
-    <t>V10.07.10</t>
-  </si>
-  <si>
-    <t>V10.07.11</t>
-  </si>
-  <si>
-    <t>V10.07.12</t>
-  </si>
-  <si>
-    <t>V10.07.13</t>
-  </si>
-  <si>
-    <t>V10.07.14</t>
-  </si>
-  <si>
     <t>V10.07.15</t>
   </si>
   <si>
@@ -1628,33 +1607,6 @@
     <t>V11.07.5</t>
   </si>
   <si>
-    <t>V11.07.6</t>
-  </si>
-  <si>
-    <t>V11.07.7</t>
-  </si>
-  <si>
-    <t>V11.07.8</t>
-  </si>
-  <si>
-    <t>V11.07.9</t>
-  </si>
-  <si>
-    <t>V11.07.10</t>
-  </si>
-  <si>
-    <t>V11.07.11</t>
-  </si>
-  <si>
-    <t>V11.07.12</t>
-  </si>
-  <si>
-    <t>V11.07.13</t>
-  </si>
-  <si>
-    <t>V11.07.14</t>
-  </si>
-  <si>
     <t>V11.07.16</t>
   </si>
   <si>
@@ -1662,6 +1614,21 @@
   </si>
   <si>
     <t>V11.07.18</t>
+  </si>
+  <si>
+    <t>V12.07.15</t>
+  </si>
+  <si>
+    <t>V13.07.5</t>
+  </si>
+  <si>
+    <t>V13.07.15</t>
+  </si>
+  <si>
+    <t>V13.10.5</t>
+  </si>
+  <si>
+    <t>V13.10.15</t>
   </si>
 </sst>
 </file>
@@ -1672,7 +1639,7 @@
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1719,6 +1686,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2919,6 +2892,14 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="J206" dT="2022-08-07T09:31:11.96" personId="{59384D5B-2A0D-4F76-A279-2B1ACCEC3898}" id="{D9534F6B-1CEA-4563-A775-927F0332E1B1}">
+    <text>Moving forward, only tested in 100 IIW images</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V29"/>
@@ -4629,11 +4610,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB7FCCD-6DEF-4489-B535-F792B4F2F5DA}">
-  <dimension ref="A1:K224"/>
+  <dimension ref="A1:K210"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H198" sqref="H198"/>
+      <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A210" sqref="A210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9279,6 +9260,33 @@
       <c r="A197" t="s">
         <v>353</v>
       </c>
+      <c r="B197" s="4">
+        <v>15.171900000000001</v>
+      </c>
+      <c r="C197" s="4">
+        <v>0.80520000000000003</v>
+      </c>
+      <c r="D197" s="4">
+        <v>16.747399999999999</v>
+      </c>
+      <c r="E197" s="4">
+        <v>0.8639</v>
+      </c>
+      <c r="F197" s="4">
+        <v>22.553899999999999</v>
+      </c>
+      <c r="G197" s="4">
+        <v>0.81640000000000001</v>
+      </c>
+      <c r="H197" s="4">
+        <v>24.244499999999999</v>
+      </c>
+      <c r="I197" s="4">
+        <v>0.8871</v>
+      </c>
+      <c r="J197">
+        <v>0.43580000000000002</v>
+      </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
@@ -9297,18 +9305,96 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>357</v>
+        <v>358</v>
+      </c>
+      <c r="B201" s="4">
+        <v>16.901399999999999</v>
+      </c>
+      <c r="C201" s="4">
+        <v>0.84289999999999998</v>
+      </c>
+      <c r="D201" s="4">
+        <v>18.3841</v>
+      </c>
+      <c r="E201" s="4">
+        <v>0.86850000000000005</v>
+      </c>
+      <c r="F201" s="4">
+        <v>19.847200000000001</v>
+      </c>
+      <c r="G201" s="4">
+        <v>0.76870000000000005</v>
+      </c>
+      <c r="H201" s="4">
+        <v>22.9116</v>
+      </c>
+      <c r="I201" s="4">
+        <v>0.90049999999999997</v>
+      </c>
+      <c r="J201">
+        <v>0.42399999999999999</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>358</v>
+        <v>357</v>
+      </c>
+      <c r="B202" s="4">
+        <v>16.488700000000001</v>
+      </c>
+      <c r="C202" s="4">
+        <v>0.8397</v>
+      </c>
+      <c r="D202" s="4">
+        <v>18.514500000000002</v>
+      </c>
+      <c r="E202" s="4">
+        <v>0.86719999999999997</v>
+      </c>
+      <c r="F202" s="4">
+        <v>22.343800000000002</v>
+      </c>
+      <c r="G202" s="4">
+        <v>0.78979999999999995</v>
+      </c>
+      <c r="H202" s="4">
+        <v>25.673100000000002</v>
+      </c>
+      <c r="I202" s="4">
+        <v>0.91439999999999999</v>
+      </c>
+      <c r="J202">
+        <v>0.39290000000000003</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>359</v>
       </c>
+      <c r="B203" s="4">
+        <v>15.151400000000001</v>
+      </c>
+      <c r="C203" s="4">
+        <v>0.81230000000000002</v>
+      </c>
+      <c r="D203" s="4">
+        <v>17.089500000000001</v>
+      </c>
+      <c r="E203" s="4">
+        <v>0.86019999999999996</v>
+      </c>
+      <c r="F203" s="4">
+        <v>20.121600000000001</v>
+      </c>
+      <c r="G203" s="4">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="H203" s="4">
+        <v>23.152899999999999</v>
+      </c>
+      <c r="I203" s="4">
+        <v>0.88560000000000005</v>
+      </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
@@ -9324,200 +9410,52 @@
       <c r="A206" t="s">
         <v>362</v>
       </c>
+      <c r="B206" s="4">
+        <v>17.989899999999999</v>
+      </c>
+      <c r="C206" s="4">
+        <v>0.87749999999999995</v>
+      </c>
+      <c r="D206" s="4">
+        <v>25.653500000000001</v>
+      </c>
+      <c r="E206" s="4">
+        <v>0.95479999999999998</v>
+      </c>
+      <c r="F206" s="4">
+        <v>37.318399999999997</v>
+      </c>
+      <c r="G206" s="4">
+        <v>0.9587</v>
+      </c>
+      <c r="H206" s="4">
+        <v>26.741599999999998</v>
+      </c>
+      <c r="I206" s="4">
+        <v>0.94030000000000002</v>
+      </c>
+      <c r="J206">
+        <v>0.49730000000000002</v>
+      </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>363</v>
       </c>
-      <c r="B207" s="4">
-        <v>15.171900000000001</v>
-      </c>
-      <c r="C207" s="4">
-        <v>0.80520000000000003</v>
-      </c>
-      <c r="D207" s="4">
-        <v>16.747399999999999</v>
-      </c>
-      <c r="E207" s="4">
-        <v>0.8639</v>
-      </c>
-      <c r="F207" s="4">
-        <v>22.553899999999999</v>
-      </c>
-      <c r="G207" s="4">
-        <v>0.81640000000000001</v>
-      </c>
-      <c r="H207" s="4">
-        <v>24.244499999999999</v>
-      </c>
-      <c r="I207" s="4">
-        <v>0.8871</v>
-      </c>
-      <c r="J207">
-        <v>0.43580000000000002</v>
-      </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>366</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>368</v>
-      </c>
-      <c r="B211" s="4">
-        <v>16.901399999999999</v>
-      </c>
-      <c r="C211" s="4">
-        <v>0.84289999999999998</v>
-      </c>
-      <c r="D211" s="4">
-        <v>18.3841</v>
-      </c>
-      <c r="E211" s="4">
-        <v>0.86850000000000005</v>
-      </c>
-      <c r="F211" s="4">
-        <v>19.847200000000001</v>
-      </c>
-      <c r="G211" s="4">
-        <v>0.76870000000000005</v>
-      </c>
-      <c r="H211" s="4">
-        <v>22.9116</v>
-      </c>
-      <c r="I211" s="4">
-        <v>0.90049999999999997</v>
-      </c>
-      <c r="J211">
-        <v>0.42399999999999999</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>367</v>
-      </c>
-      <c r="B221" s="4">
-        <v>16.488700000000001</v>
-      </c>
-      <c r="C221" s="4">
-        <v>0.8397</v>
-      </c>
-      <c r="D221" s="4">
-        <v>18.514500000000002</v>
-      </c>
-      <c r="E221" s="4">
-        <v>0.86719999999999997</v>
-      </c>
-      <c r="F221" s="4">
-        <v>22.343800000000002</v>
-      </c>
-      <c r="G221" s="4">
-        <v>0.78979999999999995</v>
-      </c>
-      <c r="H221" s="4">
-        <v>25.673100000000002</v>
-      </c>
-      <c r="I221" s="4">
-        <v>0.91439999999999999</v>
-      </c>
-      <c r="J221">
-        <v>0.39290000000000003</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>378</v>
-      </c>
-      <c r="B222" s="4">
-        <v>15.151400000000001</v>
-      </c>
-      <c r="C222" s="4">
-        <v>0.81230000000000002</v>
-      </c>
-      <c r="D222" s="4">
-        <v>17.089500000000001</v>
-      </c>
-      <c r="E222" s="4">
-        <v>0.86019999999999996</v>
-      </c>
-      <c r="F222" s="4">
-        <v>20.121600000000001</v>
-      </c>
-      <c r="G222" s="4">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="H222" s="4">
-        <v>23.152899999999999</v>
-      </c>
-      <c r="I222" s="4">
-        <v>0.88560000000000005</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>380</v>
       </c>
     </row>
   </sheetData>

--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FB9318-2F6B-4F08-A27C-33B876ED902C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B656B7F3-C106-41F2-9BD2-8C9672322CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2520" yWindow="1680" windowWidth="28800" windowHeight="15345" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1639,7 +1639,7 @@
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1686,12 +1686,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -4614,7 +4608,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A210" sqref="A210"/>
+      <selection pane="bottomLeft" activeCell="I209" sqref="I209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9446,6 +9440,33 @@
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>364</v>
+      </c>
+      <c r="B208" s="4">
+        <v>14.621600000000001</v>
+      </c>
+      <c r="C208" s="4">
+        <v>0.81389999999999996</v>
+      </c>
+      <c r="D208" s="4">
+        <v>18.463699999999999</v>
+      </c>
+      <c r="E208" s="4">
+        <v>0.87919999999999998</v>
+      </c>
+      <c r="F208" s="4">
+        <v>26.3644</v>
+      </c>
+      <c r="G208" s="4">
+        <v>0.81169999999999998</v>
+      </c>
+      <c r="H208" s="4">
+        <v>25.162199999999999</v>
+      </c>
+      <c r="I208" s="4">
+        <v>0.93269999999999997</v>
+      </c>
+      <c r="J208">
+        <v>0.47589999999999999</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">

--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B656B7F3-C106-41F2-9BD2-8C9672322CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7853216E-7F87-4970-A25F-27F182BC8DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2520" yWindow="1680" windowWidth="28800" windowHeight="15345" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -528,7 +528,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="368">
   <si>
     <t>PSNR</t>
   </si>
@@ -1629,6 +1629,9 @@
   </si>
   <si>
     <t>V13.10.15</t>
+  </si>
+  <si>
+    <t>GTA</t>
   </si>
 </sst>
 </file>
@@ -1749,7 +1752,747 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="84">
+  <dxfs count="158">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -3574,64 +4317,64 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="L3:L15">
-    <cfRule type="top10" dxfId="83" priority="24" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="157" priority="24" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O13">
-    <cfRule type="top10" dxfId="82" priority="23" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="156" priority="23" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I19 I21:I1048576">
-    <cfRule type="top10" dxfId="81" priority="22" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="155" priority="22" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H19 H21:H1048576">
-    <cfRule type="top10" dxfId="80" priority="21" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="154" priority="21" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G19 G21:G1048576">
-    <cfRule type="top10" dxfId="79" priority="20" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="153" priority="20" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="top10" dxfId="78" priority="19" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="152" priority="19" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="top10" dxfId="77" priority="18" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="151" priority="18" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="top10" dxfId="76" priority="17" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="150" priority="17" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:G31">
-    <cfRule type="top10" dxfId="75" priority="12" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="149" priority="12" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:H32">
-    <cfRule type="top10" dxfId="74" priority="11" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="148" priority="11" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:I32">
-    <cfRule type="top10" dxfId="73" priority="10" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="147" priority="10" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1">
-    <cfRule type="top10" dxfId="72" priority="9" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="146" priority="9" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1">
-    <cfRule type="top10" dxfId="71" priority="8" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="145" priority="8" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1">
-    <cfRule type="top10" dxfId="70" priority="7" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="144" priority="7" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2">
-    <cfRule type="top10" dxfId="69" priority="6" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="143" priority="6" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2">
-    <cfRule type="top10" dxfId="68" priority="5" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="142" priority="5" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2">
-    <cfRule type="top10" dxfId="67" priority="4" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="141" priority="4" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="top10" dxfId="66" priority="3" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="140" priority="3" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1048576">
-    <cfRule type="top10" dxfId="65" priority="2" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="139" priority="2" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1048576">
-    <cfRule type="top10" dxfId="64" priority="1" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="138" priority="1" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4561,40 +5304,40 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F1:F6 F10:F100">
-    <cfRule type="top10" dxfId="63" priority="15" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="137" priority="15" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G6 G10:G100">
-    <cfRule type="top10" dxfId="62" priority="14" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="136" priority="14" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="top10" dxfId="61" priority="13" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="135" priority="13" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="top10" dxfId="60" priority="12" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="134" priority="12" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:B1048576 B1:B45">
-    <cfRule type="top10" dxfId="59" priority="8" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="133" priority="8" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C1048576 C1:C45">
-    <cfRule type="top10" dxfId="58" priority="7" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="132" priority="7" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1">
-    <cfRule type="top10" dxfId="57" priority="6" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="131" priority="6" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1">
-    <cfRule type="top10" dxfId="56" priority="5" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="130" priority="5" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17:N1048576 N1:N15">
-    <cfRule type="top10" dxfId="55" priority="4" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="129" priority="4" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O17:O1048576 O1:O15">
-    <cfRule type="top10" dxfId="54" priority="3" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="128" priority="3" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F9">
-    <cfRule type="top10" dxfId="53" priority="2" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="127" priority="2" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G9">
-    <cfRule type="top10" dxfId="52" priority="1" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="126" priority="1" percent="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4604,11 +5347,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB7FCCD-6DEF-4489-B535-F792B4F2F5DA}">
-  <dimension ref="A1:K210"/>
+  <dimension ref="A1:M210"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I209" sqref="I209"/>
+      <pane ySplit="2" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F210" sqref="F210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4616,10 +5359,11 @@
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="9" width="11" style="4" customWidth="1"/>
     <col min="10" max="10" width="10.85546875" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4643,8 +5387,11 @@
       <c r="K1" s="1" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -4669,8 +5416,14 @@
       <c r="I2" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>142</v>
       </c>
@@ -4699,7 +5452,7 @@
         <v>0.84430000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>143</v>
       </c>
@@ -4728,7 +5481,7 @@
         <v>0.77100000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>156</v>
       </c>
@@ -4757,7 +5510,7 @@
         <v>0.79449999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>157</v>
       </c>
@@ -4786,7 +5539,7 @@
         <v>0.80120000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>158</v>
       </c>
@@ -4815,7 +5568,7 @@
         <v>0.7833</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>159</v>
       </c>
@@ -4844,7 +5597,7 @@
         <v>0.76449999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>163</v>
       </c>
@@ -4873,7 +5626,7 @@
         <v>0.92230000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>164</v>
       </c>
@@ -4902,7 +5655,7 @@
         <v>0.95820000000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>165</v>
       </c>
@@ -4931,7 +5684,7 @@
         <v>0.93149999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>166</v>
       </c>
@@ -4960,7 +5713,7 @@
         <v>0.89690000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>161</v>
       </c>
@@ -4989,7 +5742,7 @@
         <v>0.96589999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>162</v>
       </c>
@@ -5018,7 +5771,7 @@
         <v>0.96020000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>167</v>
       </c>
@@ -5047,7 +5800,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>168</v>
       </c>
@@ -9128,7 +9881,7 @@
         <v>0.79349999999999998</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>347</v>
       </c>
@@ -9157,7 +9910,7 @@
         <v>0.77980000000000005</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>348</v>
       </c>
@@ -9186,7 +9939,7 @@
         <v>0.84699999999999998</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>349</v>
       </c>
@@ -9215,7 +9968,7 @@
         <v>0.82789999999999997</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>350</v>
       </c>
@@ -9250,7 +10003,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>353</v>
       </c>
@@ -9282,22 +10035,22 @@
         <v>0.43580000000000002</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>358</v>
       </c>
@@ -9329,7 +10082,7 @@
         <v>0.42399999999999999</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>357</v>
       </c>
@@ -9361,7 +10114,7 @@
         <v>0.39290000000000003</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>359</v>
       </c>
@@ -9390,17 +10143,17 @@
         <v>0.88560000000000005</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>362</v>
       </c>
@@ -9432,12 +10185,42 @@
         <v>0.49730000000000002</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B207" s="4">
+        <v>15.537599999999999</v>
+      </c>
+      <c r="C207" s="4">
+        <v>0.84619999999999995</v>
+      </c>
+      <c r="D207" s="4">
+        <v>18.468</v>
+      </c>
+      <c r="E207" s="4">
+        <v>0.85980000000000001</v>
+      </c>
+      <c r="F207" s="4">
+        <v>26.277200000000001</v>
+      </c>
+      <c r="G207" s="4">
+        <v>0.80769999999999997</v>
+      </c>
+      <c r="H207" s="4">
+        <v>25.037800000000001</v>
+      </c>
+      <c r="I207" s="4">
+        <v>0.93189999999999995</v>
+      </c>
+      <c r="L207">
+        <v>15.628299999999999</v>
+      </c>
+      <c r="M207">
+        <v>0.71409999999999996</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>364</v>
       </c>
@@ -9468,42 +10251,120 @@
       <c r="J208">
         <v>0.47589999999999999</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L208">
+        <v>15.2889</v>
+      </c>
+      <c r="M208">
+        <v>0.69910000000000005</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B209" s="4">
+        <v>16.067900000000002</v>
+      </c>
+      <c r="C209" s="4">
+        <v>0.80979999999999996</v>
+      </c>
+      <c r="D209" s="4">
+        <v>18.695399999999999</v>
+      </c>
+      <c r="E209" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="F209" s="4">
+        <v>37.2271</v>
+      </c>
+      <c r="G209" s="4">
+        <v>0.95889999999999997</v>
+      </c>
+      <c r="H209" s="4">
+        <v>23.219899999999999</v>
+      </c>
+      <c r="I209" s="4">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="L209">
+        <v>12.6412</v>
+      </c>
+      <c r="M209">
+        <v>0.69769999999999999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>366</v>
       </c>
+      <c r="B210" s="4">
+        <v>16.587900000000001</v>
+      </c>
+      <c r="C210" s="4">
+        <v>0.77629999999999999</v>
+      </c>
+      <c r="D210" s="4">
+        <v>18.4636</v>
+      </c>
+      <c r="E210" s="4">
+        <v>0.82879999999999998</v>
+      </c>
+      <c r="F210" s="4">
+        <v>37.438000000000002</v>
+      </c>
+      <c r="G210" s="4">
+        <v>0.95669999999999999</v>
+      </c>
+      <c r="H210" s="4">
+        <v>23.247599999999998</v>
+      </c>
+      <c r="I210" s="4">
+        <v>0.80259999999999998</v>
+      </c>
+      <c r="J210">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="L210">
+        <v>13.6571</v>
+      </c>
+      <c r="M210">
+        <v>0.70740000000000003</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B56:B121 B123:B140 B142:B184 B187:B1048576 B1:B54">
-    <cfRule type="top10" dxfId="51" priority="128" rank="1"/>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="top10" dxfId="20" priority="11" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C56:C121 C123:C140 C142:C184 C187:C1048576 C1:C54">
-    <cfRule type="top10" dxfId="50" priority="135" rank="1"/>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="top10" dxfId="19" priority="10" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56:D121 D123:D140 D142:D184 D187:D1048576 D1:D54">
-    <cfRule type="top10" dxfId="49" priority="142" rank="1"/>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="top10" dxfId="18" priority="9" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E56:E121 E123:E140 E142:E184 E187:E1048576 E1:E54">
-    <cfRule type="top10" dxfId="48" priority="149" rank="1"/>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="top10" dxfId="17" priority="8" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:F89 F91 F93:F96 F98:F103 F105:F121 F123:F140 F142:F184 F187:F1048576 H104 H97 H92 H90 F56:F75 F78 F80:F85 H79 H76:H77 H86 F1:F54">
-    <cfRule type="top10" dxfId="47" priority="156" rank="1"/>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="top10" dxfId="16" priority="7" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G87:G89 G91 G93:G96 G98:G103 G105:G121 G123:G140 G142:G184 G187:G1048576 I104 I97 I92 I90 G56:G75 G78 G80:G85 I79 I76:I77 I86 G1:G54">
-    <cfRule type="top10" dxfId="46" priority="177" rank="1"/>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="top10" dxfId="15" priority="6" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H87:H89 H91 H93:H96 H98:H103 H105:H121 H123:H140 H142:H184 H187:H1048576 H56:H75 H78 H80:H85 H1:H54">
-    <cfRule type="top10" dxfId="45" priority="198" rank="1"/>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="top10" dxfId="14" priority="5" percent="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I87:I89 I91 I93:I96 I98:I103 I105:I121 I123:I140 I142:I184 I187:I1048576 I56:I75 I78 I80:I85 I1:I54">
-    <cfRule type="top10" dxfId="44" priority="212" rank="1"/>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="top10" dxfId="13" priority="4" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="top10" dxfId="12" priority="3" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1048576">
+    <cfRule type="top10" dxfId="11" priority="2" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1048576">
+    <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10146,130 +11007,130 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3">
-    <cfRule type="top10" dxfId="43" priority="42" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="125" priority="42" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="top10" dxfId="42" priority="41" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="124" priority="41" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="top10" dxfId="41" priority="40" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="123" priority="40" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="top10" dxfId="40" priority="39" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="122" priority="39" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="top10" dxfId="39" priority="38" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="121" priority="38" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="top10" dxfId="38" priority="37" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="120" priority="37" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="top10" dxfId="37" priority="36" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="119" priority="36" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="top10" dxfId="36" priority="35" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="118" priority="35" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3">
-    <cfRule type="top10" dxfId="35" priority="34" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="117" priority="34" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3">
-    <cfRule type="top10" dxfId="34" priority="33" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="116" priority="33" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3">
-    <cfRule type="top10" dxfId="33" priority="32" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="115" priority="32" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3">
-    <cfRule type="top10" dxfId="32" priority="31" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="114" priority="31" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3">
-    <cfRule type="top10" dxfId="31" priority="30" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="113" priority="30" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3">
-    <cfRule type="top10" dxfId="30" priority="29" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="112" priority="29" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3">
-    <cfRule type="top10" dxfId="29" priority="28" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="111" priority="28" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3">
-    <cfRule type="top10" dxfId="28" priority="27" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="110" priority="27" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3">
-    <cfRule type="top10" dxfId="27" priority="26" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="109" priority="26" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y3">
-    <cfRule type="top10" dxfId="26" priority="25" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="108" priority="25" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3">
-    <cfRule type="top10" dxfId="25" priority="24" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="107" priority="24" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3">
-    <cfRule type="top10" dxfId="24" priority="23" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="106" priority="23" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC3">
-    <cfRule type="top10" dxfId="23" priority="22" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="105" priority="22" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD3">
-    <cfRule type="top10" dxfId="22" priority="21" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="104" priority="21" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3">
-    <cfRule type="top10" dxfId="21" priority="20" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="103" priority="20" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB3">
-    <cfRule type="top10" dxfId="20" priority="19" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="102" priority="19" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH3">
-    <cfRule type="top10" dxfId="19" priority="18" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="101" priority="18" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI3">
-    <cfRule type="top10" dxfId="18" priority="17" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="100" priority="17" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF3">
-    <cfRule type="top10" dxfId="17" priority="16" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="99" priority="16" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG3">
-    <cfRule type="top10" dxfId="16" priority="15" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="98" priority="15" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="top10" dxfId="15" priority="14" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="97" priority="14" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="top10" dxfId="14" priority="13" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="96" priority="13" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="top10" dxfId="13" priority="12" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="95" priority="12" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="top10" dxfId="12" priority="11" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="94" priority="11" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="top10" dxfId="11" priority="10" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="93" priority="10" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="top10" dxfId="10" priority="9" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="92" priority="9" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q10">
-    <cfRule type="top10" dxfId="9" priority="8" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="91" priority="8" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10">
-    <cfRule type="top10" dxfId="8" priority="7" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="90" priority="7" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V10">
-    <cfRule type="top10" dxfId="7" priority="6" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="89" priority="6" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W10">
-    <cfRule type="top10" dxfId="6" priority="5" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="88" priority="5" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA10">
-    <cfRule type="top10" dxfId="5" priority="4" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="87" priority="4" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB10">
-    <cfRule type="top10" dxfId="4" priority="3" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="86" priority="3" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF10">
-    <cfRule type="top10" dxfId="3" priority="2" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="85" priority="2" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG10">
-    <cfRule type="top10" dxfId="2" priority="1" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="84" priority="1" percent="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10696,10 +11557,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="top10" dxfId="1" priority="2" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="83" priority="2" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="top10" dxfId="0" priority="1" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="82" priority="1" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7853216E-7F87-4970-A25F-27F182BC8DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF95DBF-5EF5-4AED-935A-34313E9E56D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="1680" windowWidth="28800" windowHeight="15345" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -528,7 +528,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="374">
   <si>
     <t>PSNR</t>
   </si>
@@ -1632,6 +1632,24 @@
   </si>
   <si>
     <t>GTA</t>
+  </si>
+  <si>
+    <t>V13.07.6</t>
+  </si>
+  <si>
+    <t>V13.07.7</t>
+  </si>
+  <si>
+    <t>V13.10.6</t>
+  </si>
+  <si>
+    <t>V13.10.7</t>
+  </si>
+  <si>
+    <t>V13.07.8</t>
+  </si>
+  <si>
+    <t>V13.10.8</t>
   </si>
 </sst>
 </file>
@@ -1752,717 +1770,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="158">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="87">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -4317,64 +3625,64 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="L3:L15">
-    <cfRule type="top10" dxfId="157" priority="24" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="86" priority="24" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O13">
-    <cfRule type="top10" dxfId="156" priority="23" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="85" priority="23" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I19 I21:I1048576">
-    <cfRule type="top10" dxfId="155" priority="22" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="84" priority="22" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H19 H21:H1048576">
-    <cfRule type="top10" dxfId="154" priority="21" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="83" priority="21" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G19 G21:G1048576">
-    <cfRule type="top10" dxfId="153" priority="20" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="82" priority="20" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="top10" dxfId="152" priority="19" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="81" priority="19" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="top10" dxfId="151" priority="18" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="80" priority="18" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="top10" dxfId="150" priority="17" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="79" priority="17" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:G31">
-    <cfRule type="top10" dxfId="149" priority="12" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="78" priority="12" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:H32">
-    <cfRule type="top10" dxfId="148" priority="11" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="77" priority="11" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:I32">
-    <cfRule type="top10" dxfId="147" priority="10" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="76" priority="10" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1">
-    <cfRule type="top10" dxfId="146" priority="9" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="75" priority="9" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1">
-    <cfRule type="top10" dxfId="145" priority="8" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="74" priority="8" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1">
-    <cfRule type="top10" dxfId="144" priority="7" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="73" priority="7" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2">
-    <cfRule type="top10" dxfId="143" priority="6" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="72" priority="6" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2">
-    <cfRule type="top10" dxfId="142" priority="5" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="71" priority="5" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2">
-    <cfRule type="top10" dxfId="141" priority="4" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="70" priority="4" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="top10" dxfId="140" priority="3" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="69" priority="3" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1048576">
-    <cfRule type="top10" dxfId="139" priority="2" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="68" priority="2" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1048576">
-    <cfRule type="top10" dxfId="138" priority="1" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="67" priority="1" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5304,40 +4612,40 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F1:F6 F10:F100">
-    <cfRule type="top10" dxfId="137" priority="15" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="66" priority="15" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G6 G10:G100">
-    <cfRule type="top10" dxfId="136" priority="14" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="65" priority="14" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="top10" dxfId="135" priority="13" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="64" priority="13" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="top10" dxfId="134" priority="12" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="63" priority="12" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:B1048576 B1:B45">
-    <cfRule type="top10" dxfId="133" priority="8" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="62" priority="8" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C1048576 C1:C45">
-    <cfRule type="top10" dxfId="132" priority="7" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="61" priority="7" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1">
-    <cfRule type="top10" dxfId="131" priority="6" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="60" priority="6" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1">
-    <cfRule type="top10" dxfId="130" priority="5" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="59" priority="5" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17:N1048576 N1:N15">
-    <cfRule type="top10" dxfId="129" priority="4" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="58" priority="4" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O17:O1048576 O1:O15">
-    <cfRule type="top10" dxfId="128" priority="3" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="57" priority="3" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F9">
-    <cfRule type="top10" dxfId="127" priority="2" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="56" priority="2" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G9">
-    <cfRule type="top10" dxfId="126" priority="1" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="55" priority="1" percent="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5347,11 +4655,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB7FCCD-6DEF-4489-B535-F792B4F2F5DA}">
-  <dimension ref="A1:M210"/>
+  <dimension ref="A1:M216"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F210" sqref="F210"/>
+      <pane ySplit="2" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L208" sqref="L208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10222,149 +9530,377 @@
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B208" s="4">
-        <v>14.621600000000001</v>
+        <v>16.404499999999999</v>
       </c>
       <c r="C208" s="4">
-        <v>0.81389999999999996</v>
+        <v>0.85589999999999999</v>
       </c>
       <c r="D208" s="4">
-        <v>18.463699999999999</v>
+        <v>18.146699999999999</v>
       </c>
       <c r="E208" s="4">
-        <v>0.87919999999999998</v>
+        <v>0.86339999999999995</v>
       </c>
       <c r="F208" s="4">
-        <v>26.3644</v>
+        <v>27.933399999999999</v>
       </c>
       <c r="G208" s="4">
-        <v>0.81169999999999998</v>
+        <v>0.84189999999999998</v>
       </c>
       <c r="H208" s="4">
-        <v>25.162199999999999</v>
+        <v>24.154900000000001</v>
       </c>
       <c r="I208" s="4">
-        <v>0.93269999999999997</v>
+        <v>0.91979999999999995</v>
       </c>
       <c r="J208">
-        <v>0.47589999999999999</v>
+        <v>0.47860000000000003</v>
       </c>
       <c r="L208">
-        <v>15.2889</v>
+        <v>15.253</v>
       </c>
       <c r="M208">
-        <v>0.69910000000000005</v>
+        <v>0.71509999999999996</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B209" s="4">
-        <v>16.067900000000002</v>
+        <v>15.1744</v>
       </c>
       <c r="C209" s="4">
-        <v>0.80979999999999996</v>
+        <v>0.84740000000000004</v>
       </c>
       <c r="D209" s="4">
-        <v>18.695399999999999</v>
+        <v>17.535699999999999</v>
       </c>
       <c r="E209" s="4">
-        <v>0.83</v>
+        <v>0.84760000000000002</v>
       </c>
       <c r="F209" s="4">
-        <v>37.2271</v>
+        <v>26.299499999999998</v>
       </c>
       <c r="G209" s="4">
-        <v>0.95889999999999997</v>
+        <v>0.79530000000000001</v>
       </c>
       <c r="H209" s="4">
-        <v>23.219899999999999</v>
+        <v>26.485099999999999</v>
       </c>
       <c r="I209" s="4">
-        <v>0.81699999999999995</v>
+        <v>0.92769999999999997</v>
+      </c>
+      <c r="J209">
+        <v>0.41589999999999999</v>
       </c>
       <c r="L209">
-        <v>12.6412</v>
+        <v>14.936400000000001</v>
       </c>
       <c r="M209">
-        <v>0.69769999999999999</v>
+        <v>0.71130000000000004</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
+        <v>372</v>
+      </c>
+      <c r="B210" s="4">
+        <v>15.6777</v>
+      </c>
+      <c r="C210" s="4">
+        <v>0.84419999999999995</v>
+      </c>
+      <c r="D210" s="4">
+        <v>18.573699999999999</v>
+      </c>
+      <c r="E210" s="4">
+        <v>0.88370000000000004</v>
+      </c>
+      <c r="F210" s="4">
+        <v>26.404800000000002</v>
+      </c>
+      <c r="G210" s="4">
+        <v>0.81135999999999997</v>
+      </c>
+      <c r="H210" s="4">
+        <v>26.15963</v>
+      </c>
+      <c r="I210" s="4">
+        <v>0.94179999999999997</v>
+      </c>
+      <c r="J210">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="L210">
+        <v>15.820499999999999</v>
+      </c>
+      <c r="M210">
+        <v>0.71930000000000005</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>364</v>
+      </c>
+      <c r="B211" s="4">
+        <v>14.621600000000001</v>
+      </c>
+      <c r="C211" s="4">
+        <v>0.81389999999999996</v>
+      </c>
+      <c r="D211" s="4">
+        <v>18.463699999999999</v>
+      </c>
+      <c r="E211" s="4">
+        <v>0.87919999999999998</v>
+      </c>
+      <c r="F211" s="4">
+        <v>26.3644</v>
+      </c>
+      <c r="G211" s="4">
+        <v>0.81169999999999998</v>
+      </c>
+      <c r="H211" s="4">
+        <v>25.162199999999999</v>
+      </c>
+      <c r="I211" s="4">
+        <v>0.93269999999999997</v>
+      </c>
+      <c r="J211">
+        <v>0.47589999999999999</v>
+      </c>
+      <c r="L211">
+        <v>15.2889</v>
+      </c>
+      <c r="M211">
+        <v>0.69910000000000005</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>365</v>
+      </c>
+      <c r="B212" s="4">
+        <v>16.067900000000002</v>
+      </c>
+      <c r="C212" s="4">
+        <v>0.80979999999999996</v>
+      </c>
+      <c r="D212" s="4">
+        <v>18.695399999999999</v>
+      </c>
+      <c r="E212" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="F212" s="4">
+        <v>37.2271</v>
+      </c>
+      <c r="G212" s="4">
+        <v>0.95889999999999997</v>
+      </c>
+      <c r="H212" s="4">
+        <v>23.219899999999999</v>
+      </c>
+      <c r="I212" s="4">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="L212">
+        <v>12.6412</v>
+      </c>
+      <c r="M212">
+        <v>0.69769999999999999</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>370</v>
+      </c>
+      <c r="B213" s="4">
+        <v>17.202000000000002</v>
+      </c>
+      <c r="C213" s="4">
+        <v>0.81110000000000004</v>
+      </c>
+      <c r="D213" s="4">
+        <v>18.8538</v>
+      </c>
+      <c r="E213" s="4">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="F213" s="4">
+        <v>35.471200000000003</v>
+      </c>
+      <c r="G213" s="4">
+        <v>0.93259999999999998</v>
+      </c>
+      <c r="H213" s="4">
+        <v>23.576000000000001</v>
+      </c>
+      <c r="I213" s="4">
+        <v>0.82620000000000005</v>
+      </c>
+      <c r="J213">
+        <v>0.48280000000000001</v>
+      </c>
+      <c r="L213">
+        <v>12.6548</v>
+      </c>
+      <c r="M213">
+        <v>0.69950000000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>371</v>
+      </c>
+      <c r="B214" s="4">
+        <v>9.6015999999999995</v>
+      </c>
+      <c r="C214" s="4">
+        <v>0.72670000000000001</v>
+      </c>
+      <c r="D214" s="4">
+        <v>15.2173</v>
+      </c>
+      <c r="E214" s="4">
+        <v>0.78310000000000002</v>
+      </c>
+      <c r="F214" s="4">
+        <v>30.9236</v>
+      </c>
+      <c r="G214" s="4">
+        <v>0.90229999999999999</v>
+      </c>
+      <c r="H214" s="4">
+        <v>23.079499999999999</v>
+      </c>
+      <c r="I214" s="4">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="J214" s="4">
+        <v>0.39829999999999999</v>
+      </c>
+      <c r="L214" s="4">
+        <v>14.5869</v>
+      </c>
+      <c r="M214" s="4">
+        <v>0.72309999999999997</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>373</v>
+      </c>
+      <c r="B215" s="4">
+        <v>9.6027000000000005</v>
+      </c>
+      <c r="C215" s="4">
+        <v>0.72330000000000005</v>
+      </c>
+      <c r="D215" s="4">
+        <v>15.460800000000001</v>
+      </c>
+      <c r="E215" s="4">
+        <v>0.78310000000000002</v>
+      </c>
+      <c r="F215" s="4">
+        <v>30.564</v>
+      </c>
+      <c r="G215" s="4">
+        <v>0.8871</v>
+      </c>
+      <c r="H215" s="4">
+        <v>22.527200000000001</v>
+      </c>
+      <c r="I215" s="4">
+        <v>0.78939999999999999</v>
+      </c>
+      <c r="J215" s="4">
+        <v>0.39050000000000001</v>
+      </c>
+      <c r="L215" s="4">
+        <v>14.730399999999999</v>
+      </c>
+      <c r="M215" s="4">
+        <v>0.72309999999999997</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
         <v>366</v>
       </c>
-      <c r="B210" s="4">
+      <c r="B216" s="4">
         <v>16.587900000000001</v>
       </c>
-      <c r="C210" s="4">
+      <c r="C216" s="4">
         <v>0.77629999999999999</v>
       </c>
-      <c r="D210" s="4">
+      <c r="D216" s="4">
         <v>18.4636</v>
       </c>
-      <c r="E210" s="4">
+      <c r="E216" s="4">
         <v>0.82879999999999998</v>
       </c>
-      <c r="F210" s="4">
+      <c r="F216" s="4">
         <v>37.438000000000002</v>
       </c>
-      <c r="G210" s="4">
+      <c r="G216" s="4">
         <v>0.95669999999999999</v>
       </c>
-      <c r="H210" s="4">
+      <c r="H216" s="4">
         <v>23.247599999999998</v>
       </c>
-      <c r="I210" s="4">
+      <c r="I216" s="4">
         <v>0.80259999999999998</v>
       </c>
-      <c r="J210">
+      <c r="J216">
         <v>0.46100000000000002</v>
       </c>
-      <c r="L210">
+      <c r="L216">
         <v>13.6571</v>
       </c>
-      <c r="M210">
+      <c r="M216">
         <v>0.70740000000000003</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="top10" dxfId="20" priority="11" rank="1"/>
+  <conditionalFormatting sqref="B216:B1048576 B1:B208 B210:B213">
+    <cfRule type="top10" dxfId="54" priority="11" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="top10" dxfId="19" priority="10" rank="1"/>
+  <conditionalFormatting sqref="C216:C1048576 C1:C208 C210:C213">
+    <cfRule type="top10" dxfId="53" priority="10" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="top10" dxfId="18" priority="9" rank="1"/>
+  <conditionalFormatting sqref="D216:D1048576 D1:D208 D210:D213">
+    <cfRule type="top10" dxfId="52" priority="9" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="top10" dxfId="17" priority="8" rank="1"/>
+  <conditionalFormatting sqref="E216:E1048576 E1:E208 E210:E213">
+    <cfRule type="top10" dxfId="51" priority="8" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="top10" dxfId="16" priority="7" rank="1"/>
+  <conditionalFormatting sqref="F216:F1048576 F1:F208 F210:F213">
+    <cfRule type="top10" dxfId="50" priority="7" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="top10" dxfId="15" priority="6" rank="1"/>
+  <conditionalFormatting sqref="G216:G1048576 G1:G208 G210:G213">
+    <cfRule type="top10" dxfId="49" priority="6" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="top10" dxfId="14" priority="5" percent="1" rank="1"/>
+  <conditionalFormatting sqref="H216:H1048576 H1:H208 H210:H213">
+    <cfRule type="top10" dxfId="48" priority="5" percent="1" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="top10" dxfId="13" priority="4" rank="1"/>
+  <conditionalFormatting sqref="I216:I1048576 I1:I208 I210:I213">
+    <cfRule type="top10" dxfId="47" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="top10" dxfId="12" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="46" priority="3" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="top10" dxfId="11" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="45" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="44" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11007,130 +10543,130 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3">
-    <cfRule type="top10" dxfId="125" priority="42" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="43" priority="42" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="top10" dxfId="124" priority="41" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="42" priority="41" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="top10" dxfId="123" priority="40" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="41" priority="40" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="top10" dxfId="122" priority="39" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="40" priority="39" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="top10" dxfId="121" priority="38" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="39" priority="38" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="top10" dxfId="120" priority="37" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="38" priority="37" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="top10" dxfId="119" priority="36" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="37" priority="36" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="top10" dxfId="118" priority="35" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="36" priority="35" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3">
-    <cfRule type="top10" dxfId="117" priority="34" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="35" priority="34" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3">
-    <cfRule type="top10" dxfId="116" priority="33" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="34" priority="33" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3">
-    <cfRule type="top10" dxfId="115" priority="32" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="33" priority="32" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3">
-    <cfRule type="top10" dxfId="114" priority="31" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="32" priority="31" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3">
-    <cfRule type="top10" dxfId="113" priority="30" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="31" priority="30" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3">
-    <cfRule type="top10" dxfId="112" priority="29" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="30" priority="29" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3">
-    <cfRule type="top10" dxfId="111" priority="28" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="29" priority="28" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3">
-    <cfRule type="top10" dxfId="110" priority="27" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="28" priority="27" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3">
-    <cfRule type="top10" dxfId="109" priority="26" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="27" priority="26" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y3">
-    <cfRule type="top10" dxfId="108" priority="25" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="26" priority="25" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3">
-    <cfRule type="top10" dxfId="107" priority="24" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="25" priority="24" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3">
-    <cfRule type="top10" dxfId="106" priority="23" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="24" priority="23" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC3">
-    <cfRule type="top10" dxfId="105" priority="22" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="23" priority="22" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD3">
-    <cfRule type="top10" dxfId="104" priority="21" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="22" priority="21" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3">
-    <cfRule type="top10" dxfId="103" priority="20" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="21" priority="20" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB3">
-    <cfRule type="top10" dxfId="102" priority="19" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="20" priority="19" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH3">
-    <cfRule type="top10" dxfId="101" priority="18" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="19" priority="18" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI3">
-    <cfRule type="top10" dxfId="100" priority="17" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="18" priority="17" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF3">
-    <cfRule type="top10" dxfId="99" priority="16" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="17" priority="16" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG3">
-    <cfRule type="top10" dxfId="98" priority="15" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="16" priority="15" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="top10" dxfId="97" priority="14" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="15" priority="14" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="top10" dxfId="96" priority="13" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="14" priority="13" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="top10" dxfId="95" priority="12" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="13" priority="12" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="top10" dxfId="94" priority="11" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="12" priority="11" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="top10" dxfId="93" priority="10" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="11" priority="10" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="top10" dxfId="92" priority="9" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="10" priority="9" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q10">
-    <cfRule type="top10" dxfId="91" priority="8" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="9" priority="8" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10">
-    <cfRule type="top10" dxfId="90" priority="7" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="8" priority="7" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V10">
-    <cfRule type="top10" dxfId="89" priority="6" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="7" priority="6" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W10">
-    <cfRule type="top10" dxfId="88" priority="5" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="6" priority="5" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA10">
-    <cfRule type="top10" dxfId="87" priority="4" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="5" priority="4" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB10">
-    <cfRule type="top10" dxfId="86" priority="3" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="4" priority="3" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF10">
-    <cfRule type="top10" dxfId="85" priority="2" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="3" priority="2" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG10">
-    <cfRule type="top10" dxfId="84" priority="1" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="2" priority="1" percent="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11557,10 +11093,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="top10" dxfId="83" priority="2" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="1" priority="2" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="top10" dxfId="82" priority="1" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="0" priority="1" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4A1AAB-0967-4B30-B9EB-9560CF570948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DD0CEE-E3D3-4FDF-85F3-FFB8C9237C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="1605" windowWidth="28800" windowHeight="15345" tabRatio="427" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4170" yWindow="765" windowWidth="28800" windowHeight="15345" tabRatio="427" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Maps 2 RGB" sheetId="9" r:id="rId1"/>
@@ -1205,7 +1205,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -1285,12 +1285,12 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7425,7 +7425,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7500,19 +7500,19 @@
         <v>0.71889999999999998</v>
       </c>
       <c r="G3">
-        <v>5.7319000000000004</v>
+        <v>5.6939000000000002</v>
       </c>
       <c r="H3">
-        <v>0.77359999999999995</v>
+        <v>0.77170000000000005</v>
       </c>
       <c r="I3">
-        <v>13.4895</v>
+        <v>14.2743</v>
       </c>
       <c r="J3">
-        <v>0.81769999999999998</v>
+        <v>0.81330000000000002</v>
       </c>
       <c r="K3">
-        <v>0.42830000000000001</v>
+        <v>0.42780000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -7528,6 +7528,27 @@
       </c>
       <c r="D4" t="s">
         <v>240</v>
+      </c>
+      <c r="E4">
+        <v>15.962199999999999</v>
+      </c>
+      <c r="F4">
+        <v>0.71889999999999998</v>
+      </c>
+      <c r="G4">
+        <v>5.6939000000000002</v>
+      </c>
+      <c r="H4">
+        <v>0.77170000000000005</v>
+      </c>
+      <c r="I4">
+        <v>11.0687</v>
+      </c>
+      <c r="J4">
+        <v>0.81089999999999995</v>
+      </c>
+      <c r="K4">
+        <v>0.42780000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">

--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DD0CEE-E3D3-4FDF-85F3-FFB8C9237C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7626C8-6A26-4AC6-BB33-021682DB6BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="765" windowWidth="28800" windowHeight="15345" tabRatio="427" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="427" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Maps 2 RGB" sheetId="9" r:id="rId1"/>
@@ -454,7 +454,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="250">
   <si>
     <t>PSNR</t>
   </si>
@@ -1198,6 +1198,12 @@
   </si>
   <si>
     <t>IIW (ALL)</t>
+  </si>
+  <si>
+    <t>V14.07.9</t>
+  </si>
+  <si>
+    <t>V14.10.9</t>
   </si>
 </sst>
 </file>
@@ -2145,11 +2151,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB7FCCD-6DEF-4489-B535-F792B4F2F5DA}">
-  <dimension ref="A1:M218"/>
+  <dimension ref="A1:M221"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D206" sqref="D206"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A201" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A218" sqref="A218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7359,23 +7365,33 @@
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>239</v>
-      </c>
-      <c r="F217" s="2">
-        <v>31.194900000000001</v>
-      </c>
-      <c r="G217" s="2">
-        <v>0.90559999999999996</v>
+        <v>248</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>239</v>
+      </c>
+      <c r="F220" s="2">
+        <v>31.194900000000001</v>
+      </c>
+      <c r="G220" s="2">
+        <v>0.90559999999999996</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
         <v>240</v>
       </c>
-      <c r="F218" s="2">
+      <c r="F221" s="2">
         <v>38.544699999999999</v>
       </c>
-      <c r="G218" s="2">
+      <c r="G221" s="2">
         <v>0.96230000000000004</v>
       </c>
     </row>
@@ -7424,7 +7440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F4EC08-3BAF-4D48-9FB2-34CAEE05C3BA}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>

--- a/Model Performances.xlsx
+++ b/Model Performances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GithubProjects\NeuralNets-Experiment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF95DBF-5EF5-4AED-935A-34313E9E56D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5220BE-1CD7-41E5-9E79-F8FFE1928B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="427" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -528,7 +528,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="378">
   <si>
     <t>PSNR</t>
   </si>
@@ -1650,6 +1650,18 @@
   </si>
   <si>
     <t>V13.10.8</t>
+  </si>
+  <si>
+    <t>V14.07.9</t>
+  </si>
+  <si>
+    <t>V14.10.9</t>
+  </si>
+  <si>
+    <t>V14.07.15</t>
+  </si>
+  <si>
+    <t>V14.10.15</t>
   </si>
 </sst>
 </file>
@@ -4655,11 +4667,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB7FCCD-6DEF-4489-B535-F792B4F2F5DA}">
-  <dimension ref="A1:M216"/>
+  <dimension ref="A1:M220"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L208" sqref="L208"/>
+      <selection pane="bottomLeft" activeCell="I219" sqref="I219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9865,6 +9877,128 @@
       </c>
       <c r="M216">
         <v>0.70740000000000003</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>374</v>
+      </c>
+      <c r="B217" s="4">
+        <v>12.708</v>
+      </c>
+      <c r="C217" s="4">
+        <v>0.72089999999999999</v>
+      </c>
+      <c r="D217" s="4">
+        <v>13.9734</v>
+      </c>
+      <c r="E217" s="4">
+        <v>0.82220000000000004</v>
+      </c>
+      <c r="F217" s="4">
+        <v>26.241599999999998</v>
+      </c>
+      <c r="G217" s="4">
+        <v>0.80610000000000004</v>
+      </c>
+      <c r="H217" s="4">
+        <v>20.676400000000001</v>
+      </c>
+      <c r="I217" s="4">
+        <v>0.87839999999999996</v>
+      </c>
+      <c r="J217">
+        <v>0.42570000000000002</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>376</v>
+      </c>
+      <c r="B218" s="4">
+        <v>13.0236</v>
+      </c>
+      <c r="C218" s="4">
+        <v>0.78029999999999999</v>
+      </c>
+      <c r="D218" s="4">
+        <v>13.539899999999999</v>
+      </c>
+      <c r="E218" s="4">
+        <v>0.83320000000000005</v>
+      </c>
+      <c r="F218" s="4">
+        <v>26.825099999999999</v>
+      </c>
+      <c r="G218" s="4">
+        <v>0.84209999999999996</v>
+      </c>
+      <c r="H218" s="4">
+        <v>19.2956</v>
+      </c>
+      <c r="I218" s="4">
+        <v>0.88280000000000003</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>375</v>
+      </c>
+      <c r="B219" s="4">
+        <v>10.3192</v>
+      </c>
+      <c r="C219" s="4">
+        <v>0.66820000000000002</v>
+      </c>
+      <c r="D219" s="4">
+        <v>14.062799999999999</v>
+      </c>
+      <c r="E219" s="4">
+        <v>0.80689999999999995</v>
+      </c>
+      <c r="F219" s="4">
+        <v>24.4923</v>
+      </c>
+      <c r="G219" s="4">
+        <v>0.76359999999999995</v>
+      </c>
+      <c r="H219" s="4">
+        <v>20.847000000000001</v>
+      </c>
+      <c r="I219" s="4">
+        <v>0.72529999999999994</v>
+      </c>
+      <c r="J219">
+        <v>0.42059999999999997</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>377</v>
+      </c>
+      <c r="B220" s="4">
+        <v>10.216900000000001</v>
+      </c>
+      <c r="C220" s="4">
+        <v>0.57950000000000002</v>
+      </c>
+      <c r="D220" s="4">
+        <v>7.5914999999999999</v>
+      </c>
+      <c r="E220" s="4">
+        <v>0.60240000000000005</v>
+      </c>
+      <c r="F220" s="4">
+        <v>29.769500000000001</v>
+      </c>
+      <c r="G220" s="4">
+        <v>0.85260000000000002</v>
+      </c>
+      <c r="H220" s="4">
+        <v>12.559799999999999</v>
+      </c>
+      <c r="I220" s="4">
+        <v>0.59870000000000001</v>
       </c>
     </row>
   </sheetData>
